--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['5', '49', '52', '57', '78']</t>
   </si>
   <si>
     <t>['20', '85']</t>
@@ -1074,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK125"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1321,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1509,7 +1512,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1891,7 +1894,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2172,7 +2175,7 @@
         <v>2.14</v>
       </c>
       <c r="AT6">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2273,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2464,7 +2467,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2655,7 +2658,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2846,7 +2849,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2933,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT10">
         <v>1.17</v>
@@ -3037,7 +3040,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3610,7 +3613,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3801,7 +3804,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4655,7 +4658,7 @@
         <v>1.17</v>
       </c>
       <c r="AT19">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4756,7 +4759,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4947,7 +4950,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5329,7 +5332,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5520,7 +5523,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5711,7 +5714,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5801,7 +5804,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU25">
         <v>1.26</v>
@@ -6093,7 +6096,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6475,7 +6478,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6666,7 +6669,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6857,7 +6860,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6944,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT31">
         <v>0.4</v>
@@ -7239,7 +7242,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7812,7 +7815,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8475,7 +8478,7 @@
         <v>1.67</v>
       </c>
       <c r="AT39">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU39">
         <v>1.64</v>
@@ -8576,7 +8579,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8767,7 +8770,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9149,7 +9152,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9340,7 +9343,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9531,7 +9534,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -9812,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="AT46">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU46">
         <v>2.4</v>
@@ -10295,7 +10298,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10677,7 +10680,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11059,7 +11062,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11441,7 +11444,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11632,7 +11635,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12014,7 +12017,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12104,7 +12107,7 @@
         <v>2.2</v>
       </c>
       <c r="AT58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU58">
         <v>1.53</v>
@@ -12396,7 +12399,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12587,7 +12590,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12674,7 +12677,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT61">
         <v>2.17</v>
@@ -12969,7 +12972,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13160,7 +13163,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13351,7 +13354,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13542,7 +13545,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13733,7 +13736,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14014,7 +14017,7 @@
         <v>1.33</v>
       </c>
       <c r="AT68">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -14115,7 +14118,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14306,7 +14309,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14688,7 +14691,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -14879,7 +14882,7 @@
         <v>104</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -15070,7 +15073,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15452,7 +15455,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15924,7 +15927,7 @@
         <v>1.14</v>
       </c>
       <c r="AT78">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16598,7 +16601,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16980,7 +16983,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17362,7 +17365,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17553,7 +17556,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18317,7 +18320,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18598,7 +18601,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU92">
         <v>1.04</v>
@@ -18890,7 +18893,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19081,7 +19084,7 @@
         <v>85</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19359,7 +19362,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT96">
         <v>1.5</v>
@@ -19553,7 +19556,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU97">
         <v>1.84</v>
@@ -19935,7 +19938,7 @@
         <v>1.83</v>
       </c>
       <c r="AT99">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU99">
         <v>1.97</v>
@@ -20036,7 +20039,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20317,7 +20320,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU101">
         <v>2.4</v>
@@ -20800,7 +20803,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21078,7 +21081,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT105">
         <v>1.57</v>
@@ -22137,7 +22140,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22328,7 +22331,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22519,7 +22522,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22901,7 +22904,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23092,7 +23095,7 @@
         <v>102</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23665,7 +23668,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23856,7 +23859,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24047,7 +24050,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24811,7 +24814,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -24953,6 +24956,388 @@
       </c>
       <c r="BK125">
         <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2782178</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s">
+        <v>82</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>5</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>5</v>
+      </c>
+      <c r="O126" t="s">
+        <v>176</v>
+      </c>
+      <c r="P126" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q126">
+        <v>9</v>
+      </c>
+      <c r="R126">
+        <v>4</v>
+      </c>
+      <c r="S126">
+        <v>13</v>
+      </c>
+      <c r="T126">
+        <v>1.57</v>
+      </c>
+      <c r="U126">
+        <v>2.88</v>
+      </c>
+      <c r="V126">
+        <v>10</v>
+      </c>
+      <c r="W126">
+        <v>1.25</v>
+      </c>
+      <c r="X126">
+        <v>3.75</v>
+      </c>
+      <c r="Y126">
+        <v>2.1</v>
+      </c>
+      <c r="Z126">
+        <v>1.67</v>
+      </c>
+      <c r="AA126">
+        <v>5</v>
+      </c>
+      <c r="AB126">
+        <v>1.17</v>
+      </c>
+      <c r="AC126">
+        <v>1.2</v>
+      </c>
+      <c r="AD126">
+        <v>7.5</v>
+      </c>
+      <c r="AE126">
+        <v>16</v>
+      </c>
+      <c r="AF126">
+        <v>1.01</v>
+      </c>
+      <c r="AG126">
+        <v>22</v>
+      </c>
+      <c r="AH126">
+        <v>1.14</v>
+      </c>
+      <c r="AI126">
+        <v>6</v>
+      </c>
+      <c r="AJ126">
+        <v>1.45</v>
+      </c>
+      <c r="AK126">
+        <v>2.7</v>
+      </c>
+      <c r="AL126">
+        <v>2.05</v>
+      </c>
+      <c r="AM126">
+        <v>1.7</v>
+      </c>
+      <c r="AN126">
+        <v>1.03</v>
+      </c>
+      <c r="AO126">
+        <v>1.11</v>
+      </c>
+      <c r="AP126">
+        <v>4.4</v>
+      </c>
+      <c r="AQ126">
+        <v>3</v>
+      </c>
+      <c r="AR126">
+        <v>0.33</v>
+      </c>
+      <c r="AS126">
+        <v>3</v>
+      </c>
+      <c r="AT126">
+        <v>0.29</v>
+      </c>
+      <c r="AU126">
+        <v>2.4</v>
+      </c>
+      <c r="AV126">
+        <v>0.95</v>
+      </c>
+      <c r="AW126">
+        <v>3.35</v>
+      </c>
+      <c r="AX126">
+        <v>1.01</v>
+      </c>
+      <c r="AY126">
+        <v>22</v>
+      </c>
+      <c r="AZ126">
+        <v>18.5</v>
+      </c>
+      <c r="BA126">
+        <v>1.1</v>
+      </c>
+      <c r="BB126">
+        <v>1.23</v>
+      </c>
+      <c r="BC126">
+        <v>1.45</v>
+      </c>
+      <c r="BD126">
+        <v>1.79</v>
+      </c>
+      <c r="BE126">
+        <v>2.26</v>
+      </c>
+      <c r="BF126">
+        <v>9</v>
+      </c>
+      <c r="BG126">
+        <v>3</v>
+      </c>
+      <c r="BH126">
+        <v>15</v>
+      </c>
+      <c r="BI126">
+        <v>3</v>
+      </c>
+      <c r="BJ126">
+        <v>24</v>
+      </c>
+      <c r="BK126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2782185</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44864.55208333334</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H127" t="s">
+        <v>74</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>115</v>
+      </c>
+      <c r="P127" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q127">
+        <v>5</v>
+      </c>
+      <c r="R127">
+        <v>10</v>
+      </c>
+      <c r="S127">
+        <v>15</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>2.3</v>
+      </c>
+      <c r="V127">
+        <v>5</v>
+      </c>
+      <c r="W127">
+        <v>1.33</v>
+      </c>
+      <c r="X127">
+        <v>3.25</v>
+      </c>
+      <c r="Y127">
+        <v>2.63</v>
+      </c>
+      <c r="Z127">
+        <v>1.44</v>
+      </c>
+      <c r="AA127">
+        <v>7</v>
+      </c>
+      <c r="AB127">
+        <v>1.1</v>
+      </c>
+      <c r="AC127">
+        <v>1.71</v>
+      </c>
+      <c r="AD127">
+        <v>4.11</v>
+      </c>
+      <c r="AE127">
+        <v>5.06</v>
+      </c>
+      <c r="AF127">
+        <v>1.04</v>
+      </c>
+      <c r="AG127">
+        <v>14</v>
+      </c>
+      <c r="AH127">
+        <v>1.24</v>
+      </c>
+      <c r="AI127">
+        <v>4.25</v>
+      </c>
+      <c r="AJ127">
+        <v>1.85</v>
+      </c>
+      <c r="AK127">
+        <v>2.07</v>
+      </c>
+      <c r="AL127">
+        <v>1.75</v>
+      </c>
+      <c r="AM127">
+        <v>2</v>
+      </c>
+      <c r="AN127">
+        <v>1.19</v>
+      </c>
+      <c r="AO127">
+        <v>1.24</v>
+      </c>
+      <c r="AP127">
+        <v>2.1</v>
+      </c>
+      <c r="AQ127">
+        <v>2</v>
+      </c>
+      <c r="AR127">
+        <v>0.67</v>
+      </c>
+      <c r="AS127">
+        <v>2.17</v>
+      </c>
+      <c r="AT127">
+        <v>0.57</v>
+      </c>
+      <c r="AU127">
+        <v>1.96</v>
+      </c>
+      <c r="AV127">
+        <v>1.62</v>
+      </c>
+      <c r="AW127">
+        <v>3.58</v>
+      </c>
+      <c r="AX127">
+        <v>1.41</v>
+      </c>
+      <c r="AY127">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ127">
+        <v>3.78</v>
+      </c>
+      <c r="BA127">
+        <v>1.2</v>
+      </c>
+      <c r="BB127">
+        <v>1.41</v>
+      </c>
+      <c r="BC127">
+        <v>1.75</v>
+      </c>
+      <c r="BD127">
+        <v>2.2</v>
+      </c>
+      <c r="BE127">
+        <v>2.93</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>5</v>
+      </c>
+      <c r="BH127">
+        <v>13</v>
+      </c>
+      <c r="BI127">
+        <v>9</v>
+      </c>
+      <c r="BJ127">
+        <v>17</v>
+      </c>
+      <c r="BK127">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK147"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT2" t="n">
         <v>2.38</v>
@@ -1106,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.57</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>1.25</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0.88</v>
@@ -2527,7 +2527,7 @@
         <v>2.17</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT12" t="n">
         <v>0.75</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT14" t="n">
         <v>0.57</v>
@@ -3745,7 +3745,7 @@
         <v>1.57</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT18" t="n">
         <v>1.63</v>
@@ -4354,7 +4354,7 @@
         <v>1.38</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.83</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>0.75</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0.29</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT26" t="n">
         <v>0.63</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU29" t="n">
         <v>0.72</v>
@@ -6790,7 +6790,7 @@
         <v>2.17</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU31" t="n">
         <v>2.01</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT32" t="n">
         <v>1.63</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT36" t="n">
         <v>0.75</v>
@@ -8211,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU38" t="n">
         <v>2.29</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU40" t="n">
         <v>0.87</v>
@@ -8820,7 +8820,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT42" t="n">
         <v>0.88</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT44" t="n">
         <v>1.25</v>
@@ -10038,7 +10038,7 @@
         <v>1.38</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU47" t="n">
         <v>0.85</v>
@@ -10444,7 +10444,7 @@
         <v>1.25</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -10647,7 +10647,7 @@
         <v>2.13</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU50" t="n">
         <v>2.69</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>1.63</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT52" t="n">
         <v>1.14</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>0.83</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT54" t="n">
         <v>0.57</v>
@@ -12068,7 +12068,7 @@
         <v>2.25</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -12271,7 +12271,7 @@
         <v>1.83</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT59" t="n">
         <v>1.83</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT62" t="n">
         <v>0.75</v>
@@ -13286,7 +13286,7 @@
         <v>1.38</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU63" t="n">
         <v>1.66</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT67" t="n">
         <v>2.38</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14504,7 +14504,7 @@
         <v>3</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT70" t="n">
         <v>1.25</v>
@@ -14910,7 +14910,7 @@
         <v>2.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU71" t="n">
         <v>2.7</v>
@@ -15113,7 +15113,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU72" t="n">
         <v>1.57</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT73" t="n">
         <v>0.75</v>
@@ -15722,7 +15722,7 @@
         <v>1.25</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>0.29</v>
@@ -16940,7 +16940,7 @@
         <v>1.83</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU81" t="n">
         <v>1.51</v>
@@ -17346,7 +17346,7 @@
         <v>1.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -17546,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT84" t="n">
         <v>0.57</v>
@@ -17752,7 +17752,7 @@
         <v>1.25</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -17955,7 +17955,7 @@
         <v>3</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU86" t="n">
         <v>2.59</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT87" t="n">
         <v>1.63</v>
@@ -18561,10 +18561,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
         <v>0.86</v>
@@ -19576,7 +19576,7 @@
         <v>1.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT94" t="n">
         <v>1.25</v>
@@ -19985,7 +19985,7 @@
         <v>2.17</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.84</v>
@@ -20794,10 +20794,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>2.13</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU101" t="n">
         <v>2.4</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT104" t="n">
         <v>1.25</v>
@@ -21812,7 +21812,7 @@
         <v>2.17</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT107" t="n">
         <v>0.57</v>
@@ -22421,7 +22421,7 @@
         <v>1.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22621,7 +22621,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>0.86</v>
@@ -22827,7 +22827,7 @@
         <v>2.63</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU110" t="n">
         <v>2.41</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT113" t="n">
         <v>0.88</v>
@@ -23639,7 +23639,7 @@
         <v>1.57</v>
       </c>
       <c r="AT114" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU114" t="n">
         <v>1.59</v>
@@ -23839,7 +23839,7 @@
         <v>2.4</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT115" t="n">
         <v>2.38</v>
@@ -24045,7 +24045,7 @@
         <v>2.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24448,7 +24448,7 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT118" t="n">
         <v>1.83</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT120" t="n">
         <v>0.75</v>
@@ -25057,10 +25057,10 @@
         <v>0.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25466,7 +25466,7 @@
         <v>1.38</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU123" t="n">
         <v>1.1</v>
@@ -26278,7 +26278,7 @@
         <v>2.17</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU128" t="n">
         <v>1.32</v>
@@ -26887,7 +26887,7 @@
         <v>2.63</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU130" t="n">
         <v>2.22</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
         <v>1.13</v>
@@ -27899,10 +27899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28102,7 +28102,7 @@
         <v>1.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT136" t="n">
         <v>1.63</v>
@@ -28308,7 +28308,7 @@
         <v>2.25</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -30390,6 +30390,1427 @@
       </c>
       <c r="BK147" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2782208</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44921.39583333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>4</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['15', '54']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['65', '71']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>6</v>
+      </c>
+      <c r="R148" t="n">
+        <v>5</v>
+      </c>
+      <c r="S148" t="n">
+        <v>11</v>
+      </c>
+      <c r="T148" t="n">
+        <v>4</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2782213</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['3', '7', '32']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>5</v>
+      </c>
+      <c r="S149" t="n">
+        <v>10</v>
+      </c>
+      <c r="T149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2782215</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>3</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['14', '35', '56']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>4</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2</v>
+      </c>
+      <c r="S150" t="n">
+        <v>6</v>
+      </c>
+      <c r="T150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2782211</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['22', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>2</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2</v>
+      </c>
+      <c r="S151" t="n">
+        <v>4</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2782210</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['31', '71', '80']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R152" t="n">
+        <v>7</v>
+      </c>
+      <c r="S152" t="n">
+        <v>8</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V152" t="n">
+        <v>4</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2782207</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44921.60416666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3</v>
+      </c>
+      <c r="N153" t="n">
+        <v>4</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['5', '37', '81']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>6</v>
+      </c>
+      <c r="S153" t="n">
+        <v>6</v>
+      </c>
+      <c r="T153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2782206</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44921.70833333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['53', '58', '69']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>7</v>
+      </c>
+      <c r="R154" t="n">
+        <v>5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>12</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V154" t="n">
+        <v>6</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT5" t="n">
         <v>0.63</v>
@@ -1715,7 +1715,7 @@
         <v>2.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT10" t="n">
         <v>1.63</v>
@@ -2730,7 +2730,7 @@
         <v>1.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.63</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.5</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU25" t="n">
         <v>1.26</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT28" t="n">
         <v>1.25</v>
@@ -6587,7 +6587,7 @@
         <v>2.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>2.93</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT31" t="n">
         <v>1.14</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>1.13</v>
@@ -7602,7 +7602,7 @@
         <v>2.13</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU35" t="n">
         <v>2.56</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT45" t="n">
         <v>0.75</v>
@@ -9835,7 +9835,7 @@
         <v>2.63</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU46" t="n">
         <v>2.4</v>
@@ -11865,7 +11865,7 @@
         <v>1.38</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU56" t="n">
         <v>1.78</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5</v>
@@ -12474,7 +12474,7 @@
         <v>1.63</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT61" t="n">
         <v>2.38</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.11</v>
@@ -13692,7 +13692,7 @@
         <v>2.25</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU65" t="n">
         <v>2.35</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT77" t="n">
         <v>0.63</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16937,7 +16937,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
         <v>0.63</v>
@@ -18970,7 +18970,7 @@
         <v>1.5</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU91" t="n">
         <v>1.34</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU92" t="n">
         <v>1.04</v>
@@ -19779,7 +19779,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT95" t="n">
         <v>2.38</v>
@@ -19982,7 +19982,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT96" t="n">
         <v>1.88</v>
@@ -20391,7 +20391,7 @@
         <v>2.13</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU98" t="n">
         <v>2.65</v>
@@ -20594,7 +20594,7 @@
         <v>1.57</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU99" t="n">
         <v>1.97</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -23027,7 +23027,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>1.63</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT114" t="n">
         <v>1.25</v>
@@ -24248,7 +24248,7 @@
         <v>1.25</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU118" t="n">
         <v>1.4</v>
@@ -26075,7 +26075,7 @@
         <v>3</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU126" t="n">
         <v>2.4</v>
@@ -26275,7 +26275,7 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT127" t="n">
         <v>0.5</v>
@@ -26681,10 +26681,10 @@
         <v>0.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU129" t="n">
         <v>1.61</v>
@@ -27493,7 +27493,7 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
         <v>2.38</v>
@@ -31811,6 +31811,615 @@
       </c>
       <c r="BK154" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2782209</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44922.60416666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>17</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['16', '24']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R155" t="n">
+        <v>8</v>
+      </c>
+      <c r="S155" t="n">
+        <v>14</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V155" t="n">
+        <v>8</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2782214</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44922.70833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>17</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['19', '22', '87']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>9</v>
+      </c>
+      <c r="R156" t="n">
+        <v>9</v>
+      </c>
+      <c r="S156" t="n">
+        <v>18</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V156" t="n">
+        <v>8</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2782212</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44923.70833333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>17</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>3</v>
+      </c>
+      <c r="N157" t="n">
+        <v>4</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['45+1', '51', '64']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>3</v>
+      </c>
+      <c r="R157" t="n">
+        <v>5</v>
+      </c>
+      <c r="S157" t="n">
+        <v>8</v>
+      </c>
+      <c r="T157" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X157" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT21" t="n">
         <v>0.86</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU24" t="n">
         <v>1.23</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT29" t="n">
         <v>1.63</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>2.05</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT35" t="n">
         <v>0.63</v>
@@ -9023,7 +9023,7 @@
         <v>1.63</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT50" t="n">
         <v>1.88</v>
@@ -12677,7 +12677,7 @@
         <v>1.57</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.67</v>
@@ -13895,7 +13895,7 @@
         <v>2.25</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.91</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT71" t="n">
         <v>1.63</v>
@@ -15519,7 +15519,7 @@
         <v>1.38</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU74" t="n">
         <v>0.84</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT75" t="n">
         <v>0.63</v>
@@ -16737,7 +16737,7 @@
         <v>2.25</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU80" t="n">
         <v>2.41</v>
@@ -17143,7 +17143,7 @@
         <v>1.38</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>0.8100000000000001</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT85" t="n">
         <v>1.25</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT98" t="n">
         <v>2</v>
@@ -20997,7 +20997,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT101" t="n">
         <v>0.5</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU112" t="n">
         <v>1.12</v>
@@ -23436,7 +23436,7 @@
         <v>1.63</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU113" t="n">
         <v>1.42</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT117" t="n">
         <v>0.63</v>
@@ -25869,7 +25869,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT125" t="n">
         <v>0.57</v>
@@ -27090,7 +27090,7 @@
         <v>1.38</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU131" t="n">
         <v>1.43</v>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -27696,7 +27696,7 @@
         <v>0.6</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT134" t="n">
         <v>0.86</v>
@@ -28511,7 +28511,7 @@
         <v>2.63</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU138" t="n">
         <v>2.18</v>
@@ -28914,7 +28914,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT140" t="n">
         <v>0.75</v>
@@ -29523,10 +29523,10 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.46</v>
@@ -32420,6 +32420,412 @@
       </c>
       <c r="BK157" t="n">
         <v>27</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2782224</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['18', '43']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>8</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>9</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2782219</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44925.70833333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['38', '45']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>4</v>
+      </c>
+      <c r="R159" t="n">
+        <v>5</v>
+      </c>
+      <c r="S159" t="n">
+        <v>9</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT13" t="n">
         <v>1.25</v>
@@ -4151,7 +4151,7 @@
         <v>1.63</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0.75</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU32" t="n">
         <v>1.65</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT40" t="n">
         <v>1.88</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU51" t="n">
         <v>1.28</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT53" t="n">
         <v>0.75</v>
@@ -13486,7 +13486,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT64" t="n">
         <v>2</v>
@@ -15925,7 +15925,7 @@
         <v>2.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU76" t="n">
         <v>2.34</v>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU87" t="n">
         <v>1.57</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT92" t="n">
         <v>0.25</v>
@@ -23030,7 +23030,7 @@
         <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -23230,7 +23230,7 @@
         <v>0</v>
       </c>
       <c r="AS112" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -26478,7 +26478,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT128" t="n">
         <v>1.63</v>
@@ -28105,7 +28105,7 @@
         <v>1.63</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU136" t="n">
         <v>1.53</v>
@@ -29929,7 +29929,7 @@
         <v>2.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT145" t="n">
         <v>2.38</v>
@@ -30338,7 +30338,7 @@
         <v>1.5</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU147" t="n">
         <v>1.77</v>
@@ -32826,6 +32826,209 @@
       </c>
       <c r="BK159" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2782225</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44926.39583333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
         <v>1.14</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT6" t="n">
         <v>0.25</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.63</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT16" t="n">
         <v>1.88</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT17" t="n">
         <v>0.63</v>
@@ -4760,7 +4760,7 @@
         <v>2.22</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>0.63</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU23" t="n">
         <v>1.42</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT24" t="n">
         <v>1.11</v>
@@ -5775,7 +5775,7 @@
         <v>1.63</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU26" t="n">
         <v>1.35</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU27" t="n">
         <v>0.8</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT30" t="n">
         <v>2</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU33" t="n">
         <v>2.53</v>
@@ -7805,7 +7805,7 @@
         <v>1.63</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU36" t="n">
         <v>1.74</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU37" t="n">
         <v>1.78</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>1.63</v>
@@ -9632,7 +9632,7 @@
         <v>1.38</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU45" t="n">
         <v>1.59</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT46" t="n">
         <v>0.25</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT47" t="n">
         <v>0.63</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU48" t="n">
         <v>2.47</v>
@@ -11256,7 +11256,7 @@
         <v>0.89</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU53" t="n">
         <v>1.1</v>
@@ -11459,7 +11459,7 @@
         <v>1.63</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU54" t="n">
         <v>1.94</v>
@@ -11659,10 +11659,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU55" t="n">
         <v>2.26</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>2.29</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU61" t="n">
         <v>1.72</v>
@@ -13083,7 +13083,7 @@
         <v>1.63</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU62" t="n">
         <v>1.22</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT65" t="n">
         <v>0.63</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>1.63</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU67" t="n">
         <v>1.9</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT72" t="n">
         <v>1.88</v>
@@ -15316,7 +15316,7 @@
         <v>0.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU73" t="n">
         <v>1.71</v>
@@ -15516,7 +15516,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT74" t="n">
         <v>1.11</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT76" t="n">
         <v>1.78</v>
@@ -16128,7 +16128,7 @@
         <v>1.38</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16531,10 +16531,10 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU79" t="n">
         <v>2.39</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT80" t="n">
         <v>1.11</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT83" t="n">
         <v>1.5</v>
@@ -17549,7 +17549,7 @@
         <v>1.63</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -18361,7 +18361,7 @@
         <v>1.38</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU88" t="n">
         <v>1.53</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU90" t="n">
         <v>1.44</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT91" t="n">
         <v>0.63</v>
@@ -19373,10 +19373,10 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU93" t="n">
         <v>1.92</v>
@@ -19782,7 +19782,7 @@
         <v>1.38</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU95" t="n">
         <v>1.49</v>
@@ -20591,7 +20591,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT99" t="n">
         <v>0.25</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU102" t="n">
         <v>2.32</v>
@@ -21403,10 +21403,10 @@
         <v>0.6</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU103" t="n">
         <v>0.9399999999999999</v>
@@ -22012,10 +22012,10 @@
         <v>0.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU106" t="n">
         <v>1.51</v>
@@ -22218,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU107" t="n">
         <v>1.52</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU109" t="n">
         <v>1.5</v>
@@ -22824,7 +22824,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT110" t="n">
         <v>1.63</v>
@@ -23842,7 +23842,7 @@
         <v>0.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU115" t="n">
         <v>1.75</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT116" t="n">
         <v>1.88</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT119" t="n">
         <v>1.25</v>
@@ -24857,7 +24857,7 @@
         <v>1.63</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU120" t="n">
         <v>1.59</v>
@@ -25260,10 +25260,10 @@
         <v>0.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU122" t="n">
         <v>2.23</v>
@@ -25463,7 +25463,7 @@
         <v>1.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT123" t="n">
         <v>1.5</v>
@@ -25666,10 +25666,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -25872,7 +25872,7 @@
         <v>2.22</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU125" t="n">
         <v>2.38</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT130" t="n">
         <v>1.25</v>
@@ -27496,7 +27496,7 @@
         <v>2</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU133" t="n">
         <v>1.56</v>
@@ -27699,7 +27699,7 @@
         <v>1.11</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU134" t="n">
         <v>1.57</v>
@@ -28305,7 +28305,7 @@
         <v>0.4</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT137" t="n">
         <v>1.14</v>
@@ -28508,7 +28508,7 @@
         <v>0.57</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT138" t="n">
         <v>1.11</v>
@@ -28711,10 +28711,10 @@
         <v>0.86</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU139" t="n">
         <v>1.09</v>
@@ -28917,7 +28917,7 @@
         <v>2.22</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU140" t="n">
         <v>2.44</v>
@@ -29120,7 +29120,7 @@
         <v>1.38</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU141" t="n">
         <v>1.53</v>
@@ -29320,10 +29320,10 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU142" t="n">
         <v>1.99</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT144" t="n">
         <v>1.25</v>
@@ -29932,7 +29932,7 @@
         <v>0.89</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU145" t="n">
         <v>1.33</v>
@@ -30132,10 +30132,10 @@
         <v>0.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU146" t="n">
         <v>2.04</v>
@@ -30335,7 +30335,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT147" t="n">
         <v>1.78</v>
@@ -32890,13 +32890,13 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R160" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S160" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T160" t="n">
         <v>4.5</v>
@@ -33013,22 +33013,1240 @@
         <v>2.85</v>
       </c>
       <c r="BF160" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG160" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH160" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI160" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ160" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK160" t="n">
-        <v>-1</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2782216</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44926.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['19', '36']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2</v>
+      </c>
+      <c r="R161" t="n">
+        <v>7</v>
+      </c>
+      <c r="S161" t="n">
+        <v>9</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2782218</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44926.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>3</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['32', '88']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>8</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2782220</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44926.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>7</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1</v>
+      </c>
+      <c r="S163" t="n">
+        <v>8</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V163" t="n">
+        <v>12</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X163" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2782221</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44926.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>18</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>9</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>12</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V164" t="n">
+        <v>6</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2782217</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44926.60416666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>18</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>4</v>
+      </c>
+      <c r="N165" t="n">
+        <v>6</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['65', '77']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['2', '39', '47', '71']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>7</v>
+      </c>
+      <c r="R165" t="n">
+        <v>4</v>
+      </c>
+      <c r="S165" t="n">
+        <v>11</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2782223</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44927.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>18</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['50', '73']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>5</v>
+      </c>
+      <c r="R166" t="n">
+        <v>3</v>
+      </c>
+      <c r="S166" t="n">
+        <v>8</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V166" t="n">
+        <v>5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT19" t="n">
         <v>0.5</v>
@@ -6181,7 +6181,7 @@
         <v>1.38</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU28" t="n">
         <v>1.51</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -9429,7 +9429,7 @@
         <v>0.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU44" t="n">
         <v>1.87</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT56" t="n">
         <v>0.63</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT63" t="n">
         <v>1.25</v>
@@ -14707,7 +14707,7 @@
         <v>1.63</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU70" t="n">
         <v>1.74</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT88" t="n">
         <v>0.89</v>
@@ -19579,7 +19579,7 @@
         <v>1.63</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -21609,7 +21609,7 @@
         <v>1.63</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU104" t="n">
         <v>1.5</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT108" t="n">
         <v>1.14</v>
@@ -24654,7 +24654,7 @@
         <v>1.38</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU119" t="n">
         <v>2.02</v>
@@ -27087,7 +27087,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT131" t="n">
         <v>1.11</v>
@@ -29117,7 +29117,7 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT141" t="n">
         <v>1.13</v>
@@ -29729,7 +29729,7 @@
         <v>2.11</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU144" t="n">
         <v>2.23</v>
@@ -34247,6 +34247,209 @@
       </c>
       <c r="BK166" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2782222</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44927.5625</v>
+      </c>
+      <c r="F167" t="n">
+        <v>18</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>1</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2</v>
+      </c>
+      <c r="S167" t="n">
+        <v>3</v>
+      </c>
+      <c r="T167" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT18" t="n">
         <v>1.78</v>
@@ -6790,7 +6790,7 @@
         <v>2.29</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>2.01</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT36" t="n">
         <v>0.78</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT54" t="n">
         <v>0.63</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT67" t="n">
         <v>2.44</v>
@@ -17955,7 +17955,7 @@
         <v>3</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>2.59</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT89" t="n">
         <v>1.63</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT104" t="n">
         <v>1.22</v>
@@ -22421,7 +22421,7 @@
         <v>1.33</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -25057,7 +25057,7 @@
         <v>0.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT121" t="n">
         <v>0.63</v>
@@ -28308,7 +28308,7 @@
         <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -30538,7 +30538,7 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT148" t="n">
         <v>1.5</v>
@@ -31556,7 +31556,7 @@
         <v>1.63</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -34450,6 +34450,209 @@
       </c>
       <c r="BK167" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2782228</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44928.60416666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>2</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>4</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['19', '42', '84']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>4</v>
+      </c>
+      <c r="R168" t="n">
+        <v>9</v>
+      </c>
+      <c r="S168" t="n">
+        <v>13</v>
+      </c>
+      <c r="T168" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT8" t="n">
         <v>1.22</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT9" t="n">
         <v>1.11</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.89</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>1.38</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.44</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT23" t="n">
         <v>0.67</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT25" t="n">
         <v>0.25</v>
@@ -6384,7 +6384,7 @@
         <v>1.11</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU29" t="n">
         <v>0.72</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>2.22</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU35" t="n">
         <v>2.56</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU38" t="n">
         <v>2.29</v>
@@ -8617,7 +8617,7 @@
         <v>0.89</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU40" t="n">
         <v>0.87</v>
@@ -9226,7 +9226,7 @@
         <v>1.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT48" t="n">
         <v>0.89</v>
@@ -10647,7 +10647,7 @@
         <v>2.22</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU50" t="n">
         <v>2.69</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT51" t="n">
         <v>1.78</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11865,7 +11865,7 @@
         <v>1.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU56" t="n">
         <v>1.78</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT61" t="n">
         <v>2.44</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU63" t="n">
         <v>1.66</v>
@@ -13692,7 +13692,7 @@
         <v>2.11</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU65" t="n">
         <v>2.35</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT68" t="n">
         <v>0.5</v>
@@ -14501,7 +14501,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -14910,7 +14910,7 @@
         <v>2.22</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU71" t="n">
         <v>2.7</v>
@@ -15113,7 +15113,7 @@
         <v>1.67</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU72" t="n">
         <v>1.57</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT78" t="n">
         <v>0.25</v>
@@ -17752,7 +17752,7 @@
         <v>1.11</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -17952,7 +17952,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT87" t="n">
         <v>1.78</v>
@@ -18564,7 +18564,7 @@
         <v>1.78</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT90" t="n">
         <v>1.13</v>
@@ -18970,7 +18970,7 @@
         <v>1.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU91" t="n">
         <v>1.34</v>
@@ -19982,10 +19982,10 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT107" t="n">
         <v>0.63</v>
@@ -22621,7 +22621,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT109" t="n">
         <v>1.13</v>
@@ -22827,7 +22827,7 @@
         <v>2.44</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU110" t="n">
         <v>2.41</v>
@@ -23639,7 +23639,7 @@
         <v>1.38</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU114" t="n">
         <v>1.59</v>
@@ -24045,7 +24045,7 @@
         <v>2</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24248,7 +24248,7 @@
         <v>1.11</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24448,7 +24448,7 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT118" t="n">
         <v>2</v>
@@ -26072,7 +26072,7 @@
         <v>0.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT126" t="n">
         <v>0.25</v>
@@ -26275,7 +26275,7 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT127" t="n">
         <v>0.5</v>
@@ -26481,7 +26481,7 @@
         <v>0.89</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU128" t="n">
         <v>1.32</v>
@@ -26684,7 +26684,7 @@
         <v>1.38</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU129" t="n">
         <v>1.61</v>
@@ -26887,7 +26887,7 @@
         <v>2.44</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU130" t="n">
         <v>2.22</v>
@@ -27290,7 +27290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27902,7 +27902,7 @@
         <v>0.75</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -30741,10 +30741,10 @@
         <v>1.71</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU149" t="n">
         <v>1.38</v>
@@ -30947,7 +30947,7 @@
         <v>0.75</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU150" t="n">
         <v>1.7</v>
@@ -31147,7 +31147,7 @@
         <v>0.29</v>
       </c>
       <c r="AS151" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT151" t="n">
         <v>0.63</v>
@@ -31353,7 +31353,7 @@
         <v>1.63</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU152" t="n">
         <v>1.62</v>
@@ -31756,7 +31756,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT154" t="n">
         <v>0.5</v>
@@ -31962,7 +31962,7 @@
         <v>2</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,7 +32162,7 @@
         <v>0.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT156" t="n">
         <v>0.25</v>
@@ -34653,6 +34653,818 @@
       </c>
       <c r="BK168" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2782231</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44929.69791666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>4</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['14', '51', '54', '57']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>5</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2</v>
+      </c>
+      <c r="S169" t="n">
+        <v>7</v>
+      </c>
+      <c r="T169" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2782233</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44929.69791666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>6</v>
+      </c>
+      <c r="R170" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" t="n">
+        <v>9</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2782226</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44929.69791666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>5</v>
+      </c>
+      <c r="R171" t="n">
+        <v>5</v>
+      </c>
+      <c r="S171" t="n">
+        <v>10</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V171" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2782234</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44929.70833333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>19</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>3</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['23', '49', '86']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>6</v>
+      </c>
+      <c r="R172" t="n">
+        <v>5</v>
+      </c>
+      <c r="S172" t="n">
+        <v>11</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V172" t="n">
+        <v>8</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT2" t="n">
         <v>2.44</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT12" t="n">
         <v>0.78</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT14" t="n">
         <v>0.63</v>
@@ -4354,7 +4354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5572,7 +5572,7 @@
         <v>0.89</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU25" t="n">
         <v>1.26</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT26" t="n">
         <v>0.89</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>1.22</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT32" t="n">
         <v>1.78</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -8820,7 +8820,7 @@
         <v>1.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT42" t="n">
         <v>1.11</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT44" t="n">
         <v>1.22</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT45" t="n">
         <v>0.78</v>
@@ -9835,7 +9835,7 @@
         <v>2.44</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU46" t="n">
         <v>2.4</v>
@@ -10038,7 +10038,7 @@
         <v>1.22</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU47" t="n">
         <v>0.85</v>
@@ -10444,7 +10444,7 @@
         <v>1.11</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT59" t="n">
         <v>2</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT62" t="n">
         <v>0.67</v>
@@ -14301,7 +14301,7 @@
         <v>0.89</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14504,7 +14504,7 @@
         <v>2.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT70" t="n">
         <v>1.22</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT73" t="n">
         <v>0.78</v>
@@ -15722,7 +15722,7 @@
         <v>1.11</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
         <v>0.89</v>
@@ -16331,7 +16331,7 @@
         <v>0.89</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16940,7 +16940,7 @@
         <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU81" t="n">
         <v>1.51</v>
@@ -17346,7 +17346,7 @@
         <v>1.38</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -17546,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT84" t="n">
         <v>0.63</v>
@@ -19173,7 +19173,7 @@
         <v>0.89</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU92" t="n">
         <v>1.04</v>
@@ -19576,7 +19576,7 @@
         <v>1.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT94" t="n">
         <v>1.22</v>
@@ -19779,7 +19779,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT95" t="n">
         <v>2.44</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU97" t="n">
         <v>1.84</v>
@@ -20594,7 +20594,7 @@
         <v>1.38</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU99" t="n">
         <v>1.97</v>
@@ -20794,10 +20794,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>2.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU101" t="n">
         <v>2.4</v>
@@ -21812,7 +21812,7 @@
         <v>2.38</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT113" t="n">
         <v>1.11</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT114" t="n">
         <v>1.44</v>
@@ -23839,7 +23839,7 @@
         <v>2.4</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT115" t="n">
         <v>2.44</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT120" t="n">
         <v>0.67</v>
@@ -25060,7 +25060,7 @@
         <v>1.78</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25466,7 +25466,7 @@
         <v>1.22</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU123" t="n">
         <v>1.1</v>
@@ -26075,7 +26075,7 @@
         <v>2.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU126" t="n">
         <v>2.4</v>
@@ -26278,7 +26278,7 @@
         <v>2.38</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -26681,7 +26681,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT129" t="n">
         <v>0.5600000000000001</v>
@@ -27899,7 +27899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT135" t="n">
         <v>1.78</v>
@@ -28102,7 +28102,7 @@
         <v>1.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT136" t="n">
         <v>1.78</v>
@@ -30541,7 +30541,7 @@
         <v>1.78</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -30944,7 +30944,7 @@
         <v>1.43</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT150" t="n">
         <v>1.78</v>
@@ -31150,7 +31150,7 @@
         <v>0.89</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.51</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT152" t="n">
         <v>1.44</v>
@@ -31553,7 +31553,7 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -31759,7 +31759,7 @@
         <v>2.75</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU154" t="n">
         <v>2.46</v>
@@ -32165,7 +32165,7 @@
         <v>2.38</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU156" t="n">
         <v>1.92</v>
@@ -32365,7 +32365,7 @@
         <v>1.83</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT157" t="n">
         <v>2</v>
@@ -35465,6 +35465,818 @@
       </c>
       <c r="BK172" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2782235</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44930.6875</v>
+      </c>
+      <c r="F173" t="n">
+        <v>19</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>6</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2</v>
+      </c>
+      <c r="S173" t="n">
+        <v>8</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V173" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2782232</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44930.69791666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>19</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>4</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['27', '70']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['45', '46']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>8</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1</v>
+      </c>
+      <c r="S174" t="n">
+        <v>9</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2782227</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44930.70833333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>19</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>7</v>
+      </c>
+      <c r="R175" t="n">
+        <v>8</v>
+      </c>
+      <c r="S175" t="n">
+        <v>15</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2782230</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44930.70833333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>19</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>4</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['48', '53', '68', '72']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>10</v>
+      </c>
+      <c r="R176" t="n">
+        <v>4</v>
+      </c>
+      <c r="S176" t="n">
+        <v>14</v>
+      </c>
+      <c r="T176" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.11</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
         <v>1.67</v>
@@ -6587,7 +6587,7 @@
         <v>2.11</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU30" t="n">
         <v>2.93</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5600000000000001</v>
@@ -12474,7 +12474,7 @@
         <v>1.56</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -13489,7 +13489,7 @@
         <v>0.89</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU64" t="n">
         <v>1.11</v>
@@ -16937,7 +16937,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT81" t="n">
         <v>0.67</v>
@@ -20391,7 +20391,7 @@
         <v>2.22</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU98" t="n">
         <v>2.65</v>
@@ -23027,7 +23027,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT111" t="n">
         <v>1.78</v>
@@ -24451,7 +24451,7 @@
         <v>0.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU118" t="n">
         <v>1.4</v>
@@ -27493,7 +27493,7 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT133" t="n">
         <v>2.44</v>
@@ -31959,7 +31959,7 @@
         <v>0.71</v>
       </c>
       <c r="AS155" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT155" t="n">
         <v>0.5600000000000001</v>
@@ -32368,7 +32368,7 @@
         <v>1.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -36277,6 +36277,209 @@
       </c>
       <c r="BK176" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2782229</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44931.70833333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>19</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>3</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>5</v>
+      </c>
+      <c r="T177" t="n">
+        <v>5</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>0.89</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT24" t="n">
         <v>1.11</v>
@@ -6181,7 +6181,7 @@
         <v>1.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.51</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT43" t="n">
         <v>1.78</v>
@@ -9429,7 +9429,7 @@
         <v>0.67</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.87</v>
@@ -14910,7 +14910,7 @@
         <v>1.44</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.74</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT72" t="n">
         <v>1.78</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5600000000000001</v>
@@ -19985,7 +19985,7 @@
         <v>1.56</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.26</v>
@@ -21406,7 +21406,7 @@
         <v>1.78</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.5</v>
@@ -22012,7 +22012,7 @@
         <v>0.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT106" t="n">
         <v>0.89</v>
@@ -25060,7 +25060,7 @@
         <v>1.38</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU121" t="n">
         <v>2.02</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT124" t="n">
         <v>0.78</v>
@@ -29729,7 +29729,7 @@
         <v>2.11</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU144" t="n">
         <v>2.23</v>
@@ -30335,7 +30335,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT147" t="n">
         <v>1.78</v>
@@ -33380,7 +33380,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT162" t="n">
         <v>0.67</v>
@@ -34398,7 +34398,7 @@
         <v>1.33</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.46</v>
@@ -36480,6 +36480,209 @@
       </c>
       <c r="BK177" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2782097</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44938.70833333334</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['25', '73']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>7</v>
+      </c>
+      <c r="S178" t="n">
+        <v>12</v>
+      </c>
+      <c r="T178" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT8" t="n">
         <v>1.1</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT10" t="n">
         <v>1.78</v>
@@ -2730,7 +2730,7 @@
         <v>1.11</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT12" t="n">
         <v>0.78</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT13" t="n">
         <v>1.44</v>
@@ -3339,7 +3339,7 @@
         <v>0.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.75</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
         <v>1.78</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>0.89</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU23" t="n">
         <v>1.42</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5600000000000001</v>
@@ -6587,7 +6587,7 @@
         <v>2.11</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU30" t="n">
         <v>2.93</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU31" t="n">
         <v>2.01</v>
@@ -7399,7 +7399,7 @@
         <v>1.75</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU34" t="n">
         <v>2.05</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37" t="n">
         <v>1.78</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT40" t="n">
         <v>1.78</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.67</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT52" t="n">
         <v>0.89</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -11253,10 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU53" t="n">
         <v>1.1</v>
@@ -11459,7 +11459,7 @@
         <v>1.78</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU54" t="n">
         <v>1.94</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5600000000000001</v>
@@ -12271,7 +12271,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU60" t="n">
         <v>1.67</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT61" t="n">
         <v>2.44</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU62" t="n">
         <v>1.22</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
         <v>1.44</v>
@@ -13486,10 +13486,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU64" t="n">
         <v>1.11</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU66" t="n">
         <v>1.91</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -16534,7 +16534,7 @@
         <v>1.22</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU79" t="n">
         <v>0.8100000000000001</v>
@@ -16737,7 +16737,7 @@
         <v>2.44</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU80" t="n">
         <v>2.39</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT83" t="n">
         <v>1.67</v>
@@ -17549,7 +17549,7 @@
         <v>1.44</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -17955,7 +17955,7 @@
         <v>2.75</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU86" t="n">
         <v>2.59</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT87" t="n">
         <v>1.78</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
         <v>0.89</v>
@@ -18967,7 +18967,7 @@
         <v>0.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT91" t="n">
         <v>0.5600000000000001</v>
@@ -19579,7 +19579,7 @@
         <v>0.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.84</v>
@@ -19779,7 +19779,7 @@
         <v>1.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT95" t="n">
         <v>1.78</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT96" t="n">
         <v>1.1</v>
@@ -20391,7 +20391,7 @@
         <v>2.22</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU98" t="n">
         <v>2.65</v>
@@ -20591,7 +20591,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT99" t="n">
         <v>0.5600000000000001</v>
@@ -21203,7 +21203,7 @@
         <v>2.22</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU102" t="n">
         <v>2.4</v>
@@ -21609,7 +21609,7 @@
         <v>1.22</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU104" t="n">
         <v>0.9399999999999999</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT105" t="n">
         <v>1.67</v>
@@ -22218,7 +22218,7 @@
         <v>0.89</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU107" t="n">
         <v>1.52</v>
@@ -22418,10 +22418,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22824,7 +22824,7 @@
         <v>0.75</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT110" t="n">
         <v>1.13</v>
@@ -23636,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU114" t="n">
         <v>1.12</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT115" t="n">
         <v>1.11</v>
@@ -24451,7 +24451,7 @@
         <v>0.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU118" t="n">
         <v>1.4</v>
@@ -25057,7 +25057,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT121" t="n">
         <v>1.1</v>
@@ -25466,7 +25466,7 @@
         <v>1.44</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU123" t="n">
         <v>1.59</v>
@@ -25872,7 +25872,7 @@
         <v>2.22</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU125" t="n">
         <v>2.38</v>
@@ -26275,10 +26275,10 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -26478,7 +26478,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT128" t="n">
         <v>1.11</v>
@@ -26681,7 +26681,7 @@
         <v>1.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT129" t="n">
         <v>1.78</v>
@@ -27290,10 +27290,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT132" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT134" t="n">
         <v>1.78</v>
@@ -28308,7 +28308,7 @@
         <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -28714,7 +28714,7 @@
         <v>2.22</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU139" t="n">
         <v>2.44</v>
@@ -29120,7 +29120,7 @@
         <v>1.11</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU141" t="n">
         <v>1.46</v>
@@ -29323,7 +29323,7 @@
         <v>2</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU142" t="n">
         <v>1.99</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT143" t="n">
         <v>1.13</v>
@@ -29929,7 +29929,7 @@
         <v>2.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT145" t="n">
         <v>2.44</v>
@@ -30132,7 +30132,7 @@
         <v>0.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT146" t="n">
         <v>0.89</v>
@@ -31350,7 +31350,7 @@
         <v>0.29</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT152" t="n">
         <v>0.67</v>
@@ -31553,10 +31553,10 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -31759,7 +31759,7 @@
         <v>2.75</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU154" t="n">
         <v>2.46</v>
@@ -32162,7 +32162,7 @@
         <v>0.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT156" t="n">
         <v>0.5600000000000001</v>
@@ -32368,7 +32368,7 @@
         <v>1.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -32774,7 +32774,7 @@
         <v>2.22</v>
       </c>
       <c r="AT159" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU159" t="n">
         <v>2.38</v>
@@ -32974,7 +32974,7 @@
         <v>1.63</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT160" t="n">
         <v>1.78</v>
@@ -33383,7 +33383,7 @@
         <v>1.8</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU162" t="n">
         <v>1.79</v>
@@ -33789,7 +33789,7 @@
         <v>2.11</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU164" t="n">
         <v>2.11</v>
@@ -33989,7 +33989,7 @@
         <v>2.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT165" t="n">
         <v>2.44</v>
@@ -34395,7 +34395,7 @@
         <v>1.25</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT167" t="n">
         <v>1.1</v>
@@ -34601,7 +34601,7 @@
         <v>1.78</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34801,7 +34801,7 @@
         <v>1.63</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT169" t="n">
         <v>1.78</v>
@@ -35410,7 +35410,7 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT172" t="n">
         <v>0.5600000000000001</v>
@@ -35819,7 +35819,7 @@
         <v>1.33</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36019,7 +36019,7 @@
         <v>0.63</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT175" t="n">
         <v>0.67</v>
@@ -36428,7 +36428,7 @@
         <v>1.75</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -36683,6 +36683,1224 @@
       </c>
       <c r="BK178" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2782236</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44939.70833333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['3', '64']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="n">
+        <v>11</v>
+      </c>
+      <c r="S179" t="n">
+        <v>11</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V179" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2782240</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44940.39583333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['78', '82']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T180" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V180" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2782238</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44940.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>20</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>3</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['46', '53', '81']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2782239</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44940.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>20</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>3</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['46', '78']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V182" t="n">
+        <v>4</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2782242</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44940.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>20</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['56', '84']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2782244</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44940.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>20</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3948,7 +3948,7 @@
         <v>2.44</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT18" t="n">
         <v>1.78</v>
@@ -7602,7 +7602,7 @@
         <v>2.22</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>2.56</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT36" t="n">
         <v>0.78</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT54" t="n">
         <v>0.5600000000000001</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.78</v>
@@ -13692,7 +13692,7 @@
         <v>2.11</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU65" t="n">
         <v>2.35</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT67" t="n">
         <v>2.44</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT89" t="n">
         <v>1.78</v>
@@ -19173,7 +19173,7 @@
         <v>1.8</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.34</v>
@@ -21403,7 +21403,7 @@
         <v>1.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT103" t="n">
         <v>1.1</v>
@@ -24248,7 +24248,7 @@
         <v>1.11</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24854,7 +24854,7 @@
         <v>0.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT120" t="n">
         <v>0.67</v>
@@ -26887,7 +26887,7 @@
         <v>1.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU130" t="n">
         <v>1.61</v>
@@ -30538,7 +30538,7 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT148" t="n">
         <v>1.67</v>
@@ -31962,7 +31962,7 @@
         <v>1.75</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -34598,7 +34598,7 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT168" t="n">
         <v>0.89</v>
@@ -35413,7 +35413,7 @@
         <v>2.44</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU172" t="n">
         <v>1.96</v>
@@ -36950,13 +36950,13 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R180" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S180" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T180" t="n">
         <v>4.5</v>
@@ -37073,22 +37073,22 @@
         <v>3.1</v>
       </c>
       <c r="BF180" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG180" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH180" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI180" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ180" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK180" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181">
@@ -37153,13 +37153,13 @@
         </is>
       </c>
       <c r="Q181" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R181" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S181" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T181" t="n">
         <v>3.75</v>
@@ -37276,22 +37276,22 @@
         <v>2.85</v>
       </c>
       <c r="BF181" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG181" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH181" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI181" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ181" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK181" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -37356,13 +37356,13 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R182" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S182" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T182" t="n">
         <v>2.88</v>
@@ -37479,22 +37479,22 @@
         <v>2.95</v>
       </c>
       <c r="BF182" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG182" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH182" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI182" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ182" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK182" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183">
@@ -37559,13 +37559,13 @@
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R183" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S183" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T183" t="n">
         <v>3.4</v>
@@ -37682,22 +37682,22 @@
         <v>2.9</v>
       </c>
       <c r="BF183" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG183" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH183" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI183" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ183" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK183" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184">
@@ -37762,13 +37762,13 @@
         </is>
       </c>
       <c r="Q184" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R184" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S184" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T184" t="n">
         <v>3.4</v>
@@ -37885,22 +37885,225 @@
         <v>3.1</v>
       </c>
       <c r="BF184" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG184" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH184" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI184" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BJ184" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK184" t="n">
-        <v>-1</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2782237</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44940.60416666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>20</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['39', '75']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>5</v>
+      </c>
+      <c r="R185" t="n">
+        <v>3</v>
+      </c>
+      <c r="S185" t="n">
+        <v>8</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V185" t="n">
+        <v>5</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.44</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5600000000000001</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT7" t="n">
         <v>0.9</v>
@@ -3136,7 +3136,7 @@
         <v>1.1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT20" t="n">
         <v>1.67</v>
@@ -4760,7 +4760,7 @@
         <v>2.22</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT22" t="n">
         <v>0.67</v>
@@ -5978,7 +5978,7 @@
         <v>1.22</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU27" t="n">
         <v>0.8</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT30" t="n">
         <v>1.89</v>
@@ -7196,7 +7196,7 @@
         <v>2.44</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>2.53</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT34" t="n">
         <v>0.9</v>
@@ -8211,7 +8211,7 @@
         <v>2.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU38" t="n">
         <v>2.29</v>
@@ -11659,10 +11659,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>2.26</v>
@@ -12065,10 +12065,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5</v>
@@ -12880,7 +12880,7 @@
         <v>2.44</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.72</v>
@@ -13286,7 +13286,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU63" t="n">
         <v>1.66</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT65" t="n">
         <v>0.5</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT66" t="n">
         <v>0.9</v>
@@ -14098,7 +14098,7 @@
         <v>1.9</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.9</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT81" t="n">
         <v>1.11</v>
@@ -17140,7 +17140,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT82" t="n">
         <v>0.67</v>
@@ -17752,7 +17752,7 @@
         <v>1.11</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -18767,7 +18767,7 @@
         <v>0.89</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.44</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT93" t="n">
         <v>0.78</v>
@@ -20188,7 +20188,7 @@
         <v>1.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.49</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT101" t="n">
         <v>0.78</v>
@@ -22827,7 +22827,7 @@
         <v>0.8</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.5</v>
@@ -23027,7 +23027,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT111" t="n">
         <v>1.78</v>
@@ -23233,7 +23233,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU112" t="n">
         <v>1.59</v>
@@ -23436,7 +23436,7 @@
         <v>0.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.75</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT116" t="n">
         <v>1.78</v>
@@ -25260,7 +25260,7 @@
         <v>0.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT122" t="n">
         <v>0.89</v>
@@ -27090,7 +27090,7 @@
         <v>2.44</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU131" t="n">
         <v>2.22</v>
@@ -27493,10 +27493,10 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU133" t="n">
         <v>1.56</v>
@@ -28105,7 +28105,7 @@
         <v>1.11</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.57</v>
@@ -28305,7 +28305,7 @@
         <v>0.4</v>
       </c>
       <c r="AS137" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT137" t="n">
         <v>0.89</v>
@@ -29320,7 +29320,7 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT142" t="n">
         <v>0.5600000000000001</v>
@@ -29526,7 +29526,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.53</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT144" t="n">
         <v>1.1</v>
@@ -29932,7 +29932,7 @@
         <v>1.1</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU145" t="n">
         <v>1.33</v>
@@ -31150,7 +31150,7 @@
         <v>1.44</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU151" t="n">
         <v>1.62</v>
@@ -31959,7 +31959,7 @@
         <v>0.71</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT155" t="n">
         <v>0.5</v>
@@ -33180,7 +33180,7 @@
         <v>1.22</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU161" t="n">
         <v>1.18</v>
@@ -33786,7 +33786,7 @@
         <v>0.57</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT164" t="n">
         <v>0.5600000000000001</v>
@@ -33992,7 +33992,7 @@
         <v>1.56</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU165" t="n">
         <v>1.92</v>
@@ -34192,7 +34192,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT166" t="n">
         <v>0.89</v>
@@ -35210,7 +35210,7 @@
         <v>0.89</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU171" t="n">
         <v>1.35</v>
@@ -36425,7 +36425,7 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT177" t="n">
         <v>1.89</v>
@@ -38104,6 +38104,615 @@
       </c>
       <c r="BK185" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2782433</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>20</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>11</v>
+      </c>
+      <c r="R186" t="n">
+        <v>7</v>
+      </c>
+      <c r="S186" t="n">
+        <v>18</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V186" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2782241</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44941.45833333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>10</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>15</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V187" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2782243</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44941.5625</v>
+      </c>
+      <c r="F188" t="n">
+        <v>20</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2</v>
+      </c>
+      <c r="K188" t="n">
+        <v>2</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>2</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['14', '36']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>4</v>
+      </c>
+      <c r="R188" t="n">
+        <v>3</v>
+      </c>
+      <c r="S188" t="n">
+        <v>7</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT2" t="n">
         <v>2.5</v>
@@ -4151,7 +4151,7 @@
         <v>1.9</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT26" t="n">
         <v>0.89</v>
@@ -6993,7 +6993,7 @@
         <v>0.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU32" t="n">
         <v>1.65</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT42" t="n">
         <v>1.11</v>
@@ -10850,7 +10850,7 @@
         <v>0.89</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU51" t="n">
         <v>1.28</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT71" t="n">
         <v>1.1</v>
@@ -15925,7 +15925,7 @@
         <v>2.44</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU76" t="n">
         <v>2.34</v>
@@ -17546,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5600000000000001</v>
@@ -18158,7 +18158,7 @@
         <v>0.8</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU87" t="n">
         <v>1.57</v>
@@ -20794,7 +20794,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT100" t="n">
         <v>0.67</v>
@@ -23030,7 +23030,7 @@
         <v>1.89</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT123" t="n">
         <v>0.9</v>
@@ -27699,7 +27699,7 @@
         <v>1.7</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -30338,7 +30338,7 @@
         <v>1.8</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU147" t="n">
         <v>1.77</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT151" t="n">
         <v>1.3</v>
@@ -32977,7 +32977,7 @@
         <v>1.1</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -36222,7 +36222,7 @@
         <v>1.5</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT176" t="n">
         <v>1.67</v>
@@ -38713,6 +38713,209 @@
       </c>
       <c r="BK188" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2782105</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44944.70833333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" t="n">
+        <v>3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>6</v>
+      </c>
+      <c r="T189" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5</v>
@@ -4557,7 +4557,7 @@
         <v>1.89</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT46" t="n">
         <v>0.5600000000000001</v>
@@ -10444,7 +10444,7 @@
         <v>1.11</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -14504,7 +14504,7 @@
         <v>2.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT76" t="n">
         <v>1.7</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT80" t="n">
         <v>0.9</v>
@@ -17346,7 +17346,7 @@
         <v>1.56</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -21812,7 +21812,7 @@
         <v>2.44</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22621,7 +22621,7 @@
         <v>1.4</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT109" t="n">
         <v>1.78</v>
@@ -24654,7 +24654,7 @@
         <v>1.22</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU119" t="n">
         <v>1.1</v>
@@ -27087,7 +27087,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT131" t="n">
         <v>1.3</v>
@@ -28508,7 +28508,7 @@
         <v>0.57</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT138" t="n">
         <v>1.11</v>
@@ -30541,7 +30541,7 @@
         <v>1.9</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT163" t="n">
         <v>0.78</v>
@@ -36225,7 +36225,7 @@
         <v>1.4</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU176" t="n">
         <v>1.46</v>
@@ -38916,6 +38916,209 @@
       </c>
       <c r="BK189" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2782102</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44945.70833333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2</v>
+      </c>
+      <c r="L190" t="n">
+        <v>4</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>6</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['51', '53', '63', '90']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['44', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>8</v>
+      </c>
+      <c r="R190" t="n">
+        <v>3</v>
+      </c>
+      <c r="S190" t="n">
+        <v>11</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V190" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT2" t="n">
         <v>2.5</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.8</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.44</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT11" t="n">
         <v>1.89</v>
@@ -2933,7 +2933,7 @@
         <v>1.7</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5600000000000001</v>
@@ -3745,7 +3745,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>1.8</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT23" t="n">
         <v>0.9</v>
@@ -5369,7 +5369,7 @@
         <v>1.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.23</v>
@@ -5572,7 +5572,7 @@
         <v>0.8</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU25" t="n">
         <v>1.26</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.35</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT27" t="n">
         <v>2.5</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU28" t="n">
         <v>1.51</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU29" t="n">
         <v>0.72</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT32" t="n">
         <v>1.7</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT35" t="n">
         <v>0.5</v>
@@ -7805,7 +7805,7 @@
         <v>1.9</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU36" t="n">
         <v>1.74</v>
@@ -8617,7 +8617,7 @@
         <v>1.1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU40" t="n">
         <v>0.87</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -9226,7 +9226,7 @@
         <v>1.8</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU44" t="n">
         <v>1.87</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU45" t="n">
         <v>1.59</v>
@@ -9832,10 +9832,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU46" t="n">
         <v>2.4</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU47" t="n">
         <v>0.85</v>
@@ -10241,7 +10241,7 @@
         <v>2.75</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU48" t="n">
         <v>2.47</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU50" t="n">
         <v>2.69</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT51" t="n">
         <v>1.7</v>
@@ -14704,10 +14704,10 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU70" t="n">
         <v>2.7</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU71" t="n">
         <v>1.74</v>
@@ -15113,7 +15113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU72" t="n">
         <v>1.57</v>
@@ -15313,10 +15313,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU73" t="n">
         <v>1.71</v>
@@ -15516,10 +15516,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU74" t="n">
         <v>0.84</v>
@@ -15719,10 +15719,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT76" t="n">
         <v>1.7</v>
@@ -16125,10 +16125,10 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.9</v>
@@ -16737,7 +16737,7 @@
         <v>1.89</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU80" t="n">
         <v>1.51</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT81" t="n">
         <v>0.9</v>
@@ -17143,7 +17143,7 @@
         <v>2.2</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU82" t="n">
         <v>2.41</v>
@@ -17546,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5600000000000001</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT85" t="n">
         <v>1.3</v>
@@ -18361,7 +18361,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.53</v>
@@ -18564,7 +18564,7 @@
         <v>1.9</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU92" t="n">
         <v>1.04</v>
@@ -19376,7 +19376,7 @@
         <v>1.8</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU93" t="n">
         <v>1.92</v>
@@ -19576,7 +19576,7 @@
         <v>2.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT94" t="n">
         <v>2.5</v>
@@ -19782,7 +19782,7 @@
         <v>2.44</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU95" t="n">
         <v>1.6</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT96" t="n">
         <v>0.5</v>
@@ -20188,7 +20188,7 @@
         <v>1.7</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU97" t="n">
         <v>1.26</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT98" t="n">
         <v>1.89</v>
@@ -20594,7 +20594,7 @@
         <v>1.56</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU99" t="n">
         <v>1.97</v>
@@ -20794,10 +20794,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>2.2</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU101" t="n">
         <v>2.32</v>
@@ -21200,7 +21200,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT102" t="n">
         <v>0.5</v>
@@ -21406,7 +21406,7 @@
         <v>1.9</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU103" t="n">
         <v>1.5</v>
@@ -21606,7 +21606,7 @@
         <v>0.6</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT104" t="n">
         <v>0.9</v>
@@ -22015,7 +22015,7 @@
         <v>1.8</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.51</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5600000000000001</v>
@@ -22824,10 +22824,10 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU110" t="n">
         <v>2.41</v>
@@ -23436,7 +23436,7 @@
         <v>1.7</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.42</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT114" t="n">
         <v>1.3</v>
@@ -23839,7 +23839,7 @@
         <v>2.4</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT115" t="n">
         <v>2.5</v>
@@ -24045,7 +24045,7 @@
         <v>1.8</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24448,7 +24448,7 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT118" t="n">
         <v>1.89</v>
@@ -24651,7 +24651,7 @@
         <v>1.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT119" t="n">
         <v>1.5</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT120" t="n">
         <v>0.9</v>
@@ -25060,7 +25060,7 @@
         <v>1.9</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25263,7 +25263,7 @@
         <v>2.2</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU122" t="n">
         <v>2.23</v>
@@ -25466,7 +25466,7 @@
         <v>1.56</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU123" t="n">
         <v>2.02</v>
@@ -25669,7 +25669,7 @@
         <v>1.8</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -25869,7 +25869,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT125" t="n">
         <v>0.5600000000000001</v>
@@ -26075,7 +26075,7 @@
         <v>2.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU126" t="n">
         <v>2.4</v>
@@ -26478,7 +26478,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT128" t="n">
         <v>0.5</v>
@@ -26681,7 +26681,7 @@
         <v>1.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT129" t="n">
         <v>1.3</v>
@@ -26887,7 +26887,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.43</v>
@@ -27090,7 +27090,7 @@
         <v>1.1</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU131" t="n">
         <v>1.32</v>
@@ -27899,10 +27899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28102,7 +28102,7 @@
         <v>0.6</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT136" t="n">
         <v>1</v>
@@ -28508,10 +28508,10 @@
         <v>0.57</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU138" t="n">
         <v>2.18</v>
@@ -29117,7 +29117,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT141" t="n">
         <v>0.9</v>
@@ -29320,10 +29320,10 @@
         <v>0.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU142" t="n">
         <v>1.09</v>
@@ -29523,7 +29523,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT143" t="n">
         <v>0.9</v>
@@ -29729,7 +29729,7 @@
         <v>2.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU144" t="n">
         <v>2.23</v>
@@ -30135,7 +30135,7 @@
         <v>1.56</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU146" t="n">
         <v>2.04</v>
@@ -30744,7 +30744,7 @@
         <v>0.8</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU149" t="n">
         <v>1.51</v>
@@ -30944,10 +30944,10 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU150" t="n">
         <v>1.38</v>
@@ -31147,10 +31147,10 @@
         <v>1.43</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU151" t="n">
         <v>1.7</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT152" t="n">
         <v>1.3</v>
@@ -32165,7 +32165,7 @@
         <v>2.44</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU156" t="n">
         <v>1.92</v>
@@ -32365,7 +32365,7 @@
         <v>1.83</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT157" t="n">
         <v>1.89</v>
@@ -32568,10 +32568,10 @@
         <v>0.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU158" t="n">
         <v>1.55</v>
@@ -32771,7 +32771,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT159" t="n">
         <v>0.9</v>
@@ -33380,10 +33380,10 @@
         <v>0.75</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU162" t="n">
         <v>2.29</v>
@@ -33583,7 +33583,7 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT163" t="n">
         <v>1</v>
@@ -34195,7 +34195,7 @@
         <v>1.8</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.98</v>
@@ -34398,7 +34398,7 @@
         <v>1.5</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU167" t="n">
         <v>1.46</v>
@@ -34804,7 +34804,7 @@
         <v>0.8</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU169" t="n">
         <v>1.52</v>
@@ -35007,7 +35007,7 @@
         <v>2.75</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU170" t="n">
         <v>2.4</v>
@@ -35207,7 +35207,7 @@
         <v>1.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT171" t="n">
         <v>1.3</v>
@@ -35613,10 +35613,10 @@
         <v>0.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU173" t="n">
         <v>1.68</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT174" t="n">
         <v>0.5</v>
@@ -36019,7 +36019,7 @@
         <v>1.5</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT175" t="n">
         <v>1.5</v>
@@ -36225,7 +36225,7 @@
         <v>1.7</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU176" t="n">
         <v>1.47</v>
@@ -36631,7 +36631,7 @@
         <v>1.8</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU178" t="n">
         <v>1.71</v>
@@ -38861,7 +38861,7 @@
         <v>1.78</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT189" t="n">
         <v>1.7</v>
@@ -39064,7 +39064,7 @@
         <v>1.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT190" t="n">
         <v>1.5</v>
@@ -39119,6 +39119,1630 @@
       </c>
       <c r="BK190" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2782251</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44947.39583333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>21</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>5</v>
+      </c>
+      <c r="R191" t="n">
+        <v>5</v>
+      </c>
+      <c r="S191" t="n">
+        <v>10</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V191" t="n">
+        <v>4</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2782253</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>21</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>2</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>4</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2782250</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>21</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>2</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['38', '63']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['27', '88']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>5</v>
+      </c>
+      <c r="R193" t="n">
+        <v>6</v>
+      </c>
+      <c r="S193" t="n">
+        <v>11</v>
+      </c>
+      <c r="T193" t="n">
+        <v>4</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2782254</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>21</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>2</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['34', '41']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>4</v>
+      </c>
+      <c r="R194" t="n">
+        <v>9</v>
+      </c>
+      <c r="S194" t="n">
+        <v>13</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V194" t="n">
+        <v>5</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2782245</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>21</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>4</v>
+      </c>
+      <c r="R195" t="n">
+        <v>6</v>
+      </c>
+      <c r="S195" t="n">
+        <v>10</v>
+      </c>
+      <c r="T195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2782247</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44947.60416666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>21</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>3</v>
+      </c>
+      <c r="R196" t="n">
+        <v>15</v>
+      </c>
+      <c r="S196" t="n">
+        <v>18</v>
+      </c>
+      <c r="T196" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2782252</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44948.45833333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>21</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>3</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>3</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['40', '50', '54']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>5</v>
+      </c>
+      <c r="R197" t="n">
+        <v>7</v>
+      </c>
+      <c r="S197" t="n">
+        <v>12</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V197" t="n">
+        <v>11</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2782249</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44948.45833333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>21</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2</v>
+      </c>
+      <c r="R198" t="n">
+        <v>3</v>
+      </c>
+      <c r="S198" t="n">
+        <v>5</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X198" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT15" t="n">
         <v>0.9</v>
@@ -4151,7 +4151,7 @@
         <v>1.9</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU32" t="n">
         <v>1.65</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT38" t="n">
         <v>1.3</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT48" t="n">
         <v>1.1</v>
@@ -10850,7 +10850,7 @@
         <v>0.9</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU51" t="n">
         <v>1.28</v>
@@ -14501,7 +14501,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -15925,7 +15925,7 @@
         <v>2.55</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU76" t="n">
         <v>2.34</v>
@@ -17952,7 +17952,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT86" t="n">
         <v>0.89</v>
@@ -18158,7 +18158,7 @@
         <v>0.8</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU87" t="n">
         <v>1.57</v>
@@ -23030,7 +23030,7 @@
         <v>1.89</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -26072,7 +26072,7 @@
         <v>0.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT126" t="n">
         <v>0.6</v>
@@ -27699,7 +27699,7 @@
         <v>1.7</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -30338,7 +30338,7 @@
         <v>1.8</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU147" t="n">
         <v>1.77</v>
@@ -31756,7 +31756,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT154" t="n">
         <v>0.5</v>
@@ -32977,7 +32977,7 @@
         <v>1.1</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -35004,7 +35004,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT170" t="n">
         <v>1.7</v>
@@ -38864,7 +38864,7 @@
         <v>1.36</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU189" t="n">
         <v>1.54</v>
@@ -40742,6 +40742,209 @@
         <v>11</v>
       </c>
       <c r="BK198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2782246</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44948.5625</v>
+      </c>
+      <c r="F199" t="n">
+        <v>21</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2</v>
+      </c>
+      <c r="N199" t="n">
+        <v>5</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['24', '53', '90']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['17', '59']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>12</v>
+      </c>
+      <c r="R199" t="n">
+        <v>4</v>
+      </c>
+      <c r="S199" t="n">
+        <v>16</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V199" t="n">
+        <v>4</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK199" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT3" t="n">
         <v>0.89</v>
@@ -4557,7 +4557,7 @@
         <v>1.89</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT24" t="n">
         <v>1.1</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT43" t="n">
         <v>1.7</v>
@@ -10444,7 +10444,7 @@
         <v>1.3</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -14504,7 +14504,7 @@
         <v>2.78</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT72" t="n">
         <v>1.7</v>
@@ -17346,7 +17346,7 @@
         <v>1.56</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT91" t="n">
         <v>0.5</v>
@@ -21812,7 +21812,7 @@
         <v>2.44</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22012,7 +22012,7 @@
         <v>0.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT106" t="n">
         <v>1.1</v>
@@ -24654,7 +24654,7 @@
         <v>1.2</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU119" t="n">
         <v>1.1</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT124" t="n">
         <v>0.7</v>
@@ -30335,7 +30335,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT147" t="n">
         <v>1.55</v>
@@ -30541,7 +30541,7 @@
         <v>1.9</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -33786,7 +33786,7 @@
         <v>0.75</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT164" t="n">
         <v>0.9</v>
@@ -36022,7 +36022,7 @@
         <v>1.36</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU175" t="n">
         <v>1.46</v>
@@ -36628,7 +36628,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT178" t="n">
         <v>1.09</v>
@@ -39067,7 +39067,7 @@
         <v>2.55</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU190" t="n">
         <v>2.24</v>
@@ -40946,6 +40946,209 @@
       </c>
       <c r="BK199" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2782248</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44949.71875</v>
+      </c>
+      <c r="F200" t="n">
+        <v>21</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3</v>
+      </c>
+      <c r="R200" t="n">
+        <v>8</v>
+      </c>
+      <c r="S200" t="n">
+        <v>11</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.36</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.64</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT6" t="n">
         <v>0.6</v>
@@ -1918,7 +1918,7 @@
         <v>1.8</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>1.09</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT10" t="n">
         <v>1.7</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT12" t="n">
         <v>0.7</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.78</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT16" t="n">
         <v>1.7</v>
@@ -3948,7 +3948,7 @@
         <v>2.55</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>1.55</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT20" t="n">
         <v>1.64</v>
@@ -4760,7 +4760,7 @@
         <v>2.1</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>0.9</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU23" t="n">
         <v>1.42</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0.6</v>
@@ -5978,7 +5978,7 @@
         <v>1.2</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU27" t="n">
         <v>0.8</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT30" t="n">
         <v>1.89</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU31" t="n">
         <v>2.01</v>
@@ -7196,7 +7196,7 @@
         <v>2.55</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU33" t="n">
         <v>2.53</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU34" t="n">
         <v>2.05</v>
@@ -7602,7 +7602,7 @@
         <v>2.1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU35" t="n">
         <v>2.56</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>0.7</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5600000000000001</v>
@@ -8211,7 +8211,7 @@
         <v>2.78</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU38" t="n">
         <v>2.29</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT40" t="n">
         <v>1.7</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT52" t="n">
         <v>0.8</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>0.89</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -11253,10 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU53" t="n">
         <v>1.1</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>0.5600000000000001</v>
@@ -11659,10 +11659,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU55" t="n">
         <v>2.26</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU56" t="n">
         <v>1.78</v>
@@ -12068,7 +12068,7 @@
         <v>1.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT59" t="n">
         <v>1.89</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU60" t="n">
         <v>1.67</v>
@@ -12877,10 +12877,10 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU61" t="n">
         <v>1.72</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU62" t="n">
         <v>1.22</v>
@@ -13286,7 +13286,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU63" t="n">
         <v>1.66</v>
@@ -13486,7 +13486,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT64" t="n">
         <v>1.89</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU65" t="n">
         <v>2.35</v>
@@ -13895,7 +13895,7 @@
         <v>1.8</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU66" t="n">
         <v>1.91</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU67" t="n">
         <v>1.9</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -16534,7 +16534,7 @@
         <v>1.2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU79" t="n">
         <v>0.8100000000000001</v>
@@ -16734,7 +16734,7 @@
         <v>0.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT80" t="n">
         <v>0.6</v>
@@ -16940,7 +16940,7 @@
         <v>2.55</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU81" t="n">
         <v>2.39</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT82" t="n">
         <v>1.1</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT83" t="n">
         <v>1.64</v>
@@ -17752,7 +17752,7 @@
         <v>1.3</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -17955,7 +17955,7 @@
         <v>2.78</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU86" t="n">
         <v>2.59</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT87" t="n">
         <v>1.55</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
         <v>1.7</v>
@@ -18767,7 +18767,7 @@
         <v>0.9</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU90" t="n">
         <v>1.44</v>
@@ -18970,7 +18970,7 @@
         <v>1.64</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU91" t="n">
         <v>1.34</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT92" t="n">
         <v>0.6</v>
@@ -19579,7 +19579,7 @@
         <v>1.3</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU94" t="n">
         <v>1.49</v>
@@ -19779,7 +19779,7 @@
         <v>1.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT95" t="n">
         <v>1.7</v>
@@ -19985,7 +19985,7 @@
         <v>0.6</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU96" t="n">
         <v>1.84</v>
@@ -20185,7 +20185,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT97" t="n">
         <v>1.09</v>
@@ -20591,7 +20591,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT99" t="n">
         <v>0.6</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT101" t="n">
         <v>0.7</v>
@@ -21203,7 +21203,7 @@
         <v>2.1</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU102" t="n">
         <v>2.4</v>
@@ -21403,7 +21403,7 @@
         <v>1.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>1.09</v>
@@ -21609,7 +21609,7 @@
         <v>1.2</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU104" t="n">
         <v>0.9399999999999999</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.64</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22621,10 +22621,10 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU109" t="n">
         <v>1.5</v>
@@ -23027,7 +23027,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT111" t="n">
         <v>1.55</v>
@@ -23230,10 +23230,10 @@
         <v>0</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU112" t="n">
         <v>1.12</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT113" t="n">
         <v>1.1</v>
@@ -23639,7 +23639,7 @@
         <v>1.3</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU114" t="n">
         <v>1.59</v>
@@ -23842,7 +23842,7 @@
         <v>0.6</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU115" t="n">
         <v>1.75</v>
@@ -24248,7 +24248,7 @@
         <v>1.3</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24857,7 +24857,7 @@
         <v>1.36</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU120" t="n">
         <v>1.59</v>
@@ -25057,7 +25057,7 @@
         <v>0.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
         <v>0.6</v>
@@ -25260,7 +25260,7 @@
         <v>0.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT122" t="n">
         <v>1.1</v>
@@ -25463,7 +25463,7 @@
         <v>1.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT123" t="n">
         <v>1.09</v>
@@ -26275,10 +26275,10 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -26481,7 +26481,7 @@
         <v>1.3</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU128" t="n">
         <v>1.61</v>
@@ -26684,7 +26684,7 @@
         <v>2.55</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU129" t="n">
         <v>2.22</v>
@@ -27087,7 +27087,7 @@
         <v>1.17</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT131" t="n">
         <v>1.7</v>
@@ -27290,10 +27290,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -27493,10 +27493,10 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU133" t="n">
         <v>1.56</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT134" t="n">
         <v>1.55</v>
@@ -28105,7 +28105,7 @@
         <v>1.3</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU136" t="n">
         <v>1.57</v>
@@ -28308,7 +28308,7 @@
         <v>1.8</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -28917,7 +28917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU140" t="n">
         <v>1.53</v>
@@ -29120,7 +29120,7 @@
         <v>2.1</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU141" t="n">
         <v>2.44</v>
@@ -29526,7 +29526,7 @@
         <v>1.3</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU143" t="n">
         <v>1.46</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT144" t="n">
         <v>1.09</v>
@@ -29929,10 +29929,10 @@
         <v>2.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU145" t="n">
         <v>1.33</v>
@@ -30132,7 +30132,7 @@
         <v>0.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT146" t="n">
         <v>1.1</v>
@@ -30538,7 +30538,7 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT148" t="n">
         <v>1.64</v>
@@ -30741,7 +30741,7 @@
         <v>0.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
         <v>0.6</v>
@@ -31353,7 +31353,7 @@
         <v>1.36</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU152" t="n">
         <v>1.62</v>
@@ -31553,10 +31553,10 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -31759,7 +31759,7 @@
         <v>2.78</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU154" t="n">
         <v>2.46</v>
@@ -31959,10 +31959,10 @@
         <v>0.71</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,7 +32162,7 @@
         <v>0.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT156" t="n">
         <v>0.6</v>
@@ -32774,7 +32774,7 @@
         <v>2.1</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU159" t="n">
         <v>2.38</v>
@@ -32974,7 +32974,7 @@
         <v>1.63</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT160" t="n">
         <v>1.55</v>
@@ -33177,7 +33177,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT161" t="n">
         <v>0.5600000000000001</v>
@@ -33586,7 +33586,7 @@
         <v>1.2</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU163" t="n">
         <v>1.18</v>
@@ -33789,7 +33789,7 @@
         <v>1.64</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU164" t="n">
         <v>1.79</v>
@@ -33989,10 +33989,10 @@
         <v>2.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU165" t="n">
         <v>1.92</v>
@@ -34598,10 +34598,10 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34801,7 +34801,7 @@
         <v>1.63</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT169" t="n">
         <v>1.7</v>
@@ -35210,7 +35210,7 @@
         <v>0.9</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU171" t="n">
         <v>1.35</v>
@@ -35410,10 +35410,10 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU172" t="n">
         <v>1.96</v>
@@ -35819,7 +35819,7 @@
         <v>1.3</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36222,7 +36222,7 @@
         <v>0.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT176" t="n">
         <v>0.6</v>
@@ -36425,7 +36425,7 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT177" t="n">
         <v>1.89</v>
@@ -36831,7 +36831,7 @@
         <v>0.63</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT179" t="n">
         <v>0.5600000000000001</v>
@@ -37034,7 +37034,7 @@
         <v>2.13</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT180" t="n">
         <v>1.89</v>
@@ -37240,7 +37240,7 @@
         <v>1.5</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU181" t="n">
         <v>1.47</v>
@@ -37440,10 +37440,10 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU182" t="n">
         <v>1.86</v>
@@ -37643,10 +37643,10 @@
         <v>0.67</v>
       </c>
       <c r="AS183" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU183" t="n">
         <v>1.5</v>
@@ -37846,10 +37846,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU184" t="n">
         <v>1.31</v>
@@ -38049,10 +38049,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU185" t="n">
         <v>1.45</v>
@@ -38252,10 +38252,10 @@
         <v>1.13</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT186" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU186" t="n">
         <v>1.44</v>
@@ -38455,10 +38455,10 @@
         <v>1.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU187" t="n">
         <v>2.08</v>
@@ -38661,7 +38661,7 @@
         <v>1.8</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU188" t="n">
         <v>1.88</v>
@@ -41149,6 +41149,1630 @@
       </c>
       <c r="BK200" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2782258</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44960.70833333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>22</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>6</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2</v>
+      </c>
+      <c r="S201" t="n">
+        <v>8</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V201" t="n">
+        <v>6</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X201" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2782259</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44961.39583333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>22</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>7</v>
+      </c>
+      <c r="R202" t="n">
+        <v>5</v>
+      </c>
+      <c r="S202" t="n">
+        <v>12</v>
+      </c>
+      <c r="T202" t="n">
+        <v>7</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X202" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2782260</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>22</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['7', '62']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>5</v>
+      </c>
+      <c r="S203" t="n">
+        <v>10</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X203" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2782264</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>22</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>3</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['5', '12', '71']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2</v>
+      </c>
+      <c r="R204" t="n">
+        <v>7</v>
+      </c>
+      <c r="S204" t="n">
+        <v>9</v>
+      </c>
+      <c r="T204" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2782256</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>22</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2</v>
+      </c>
+      <c r="L205" t="n">
+        <v>3</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['41', '44', '80']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>4</v>
+      </c>
+      <c r="R205" t="n">
+        <v>4</v>
+      </c>
+      <c r="S205" t="n">
+        <v>8</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2782255</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F206" t="n">
+        <v>22</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>3</v>
+      </c>
+      <c r="K206" t="n">
+        <v>5</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2</v>
+      </c>
+      <c r="M206" t="n">
+        <v>4</v>
+      </c>
+      <c r="N206" t="n">
+        <v>6</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['9', '32']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['12', '41', '45+2', '79']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>11</v>
+      </c>
+      <c r="R206" t="n">
+        <v>3</v>
+      </c>
+      <c r="S206" t="n">
+        <v>14</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V206" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2782257</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>7</v>
+      </c>
+      <c r="R207" t="n">
+        <v>3</v>
+      </c>
+      <c r="S207" t="n">
+        <v>10</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2782261</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44961.60416666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>22</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V208" t="n">
+        <v>6</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT7" t="n">
         <v>0.82</v>
@@ -2730,7 +2730,7 @@
         <v>1.3</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT19" t="n">
         <v>0.55</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT22" t="n">
         <v>0.6</v>
@@ -6587,7 +6587,7 @@
         <v>2.09</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU30" t="n">
         <v>2.93</v>
@@ -8008,7 +8008,7 @@
         <v>1.7</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>1.78</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT41" t="n">
         <v>1.64</v>
@@ -11459,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.94</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT56" t="n">
         <v>0.45</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT57" t="n">
         <v>1.27</v>
@@ -12474,7 +12474,7 @@
         <v>1.55</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT63" t="n">
         <v>1.27</v>
@@ -13489,7 +13489,7 @@
         <v>1.27</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU64" t="n">
         <v>1.11</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT66" t="n">
         <v>1.09</v>
@@ -17549,7 +17549,7 @@
         <v>1.36</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT88" t="n">
         <v>1.1</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT93" t="n">
         <v>0.7</v>
@@ -20391,7 +20391,7 @@
         <v>2.1</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU98" t="n">
         <v>2.65</v>
@@ -22218,7 +22218,7 @@
         <v>0.9</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.52</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT108" t="n">
         <v>0.8</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT116" t="n">
         <v>1.7</v>
@@ -24451,7 +24451,7 @@
         <v>0.9</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU118" t="n">
         <v>1.4</v>
@@ -25872,7 +25872,7 @@
         <v>2.1</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU125" t="n">
         <v>2.38</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT130" t="n">
         <v>1.1</v>
@@ -28305,7 +28305,7 @@
         <v>0.4</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT137" t="n">
         <v>0.8</v>
@@ -28711,10 +28711,10 @@
         <v>0.67</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU139" t="n">
         <v>1.99</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT140" t="n">
         <v>0.9</v>
@@ -32368,7 +32368,7 @@
         <v>1.3</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -33180,7 +33180,7 @@
         <v>2.09</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -34192,7 +34192,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT166" t="n">
         <v>1.1</v>
@@ -34395,7 +34395,7 @@
         <v>1.25</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT167" t="n">
         <v>1.09</v>
@@ -36428,7 +36428,7 @@
         <v>1.8</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -36834,7 +36834,7 @@
         <v>1.55</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU179" t="n">
         <v>1.49</v>
@@ -37037,7 +37037,7 @@
         <v>2.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU180" t="n">
         <v>1.98</v>
@@ -37237,7 +37237,7 @@
         <v>1</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT181" t="n">
         <v>1.09</v>
@@ -38658,7 +38658,7 @@
         <v>2.44</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT188" t="n">
         <v>2.27</v>
@@ -42634,13 +42634,13 @@
         </is>
       </c>
       <c r="Q208" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R208" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S208" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T208" t="n">
         <v>2.2</v>
@@ -42757,22 +42757,428 @@
         <v>3.08</v>
       </c>
       <c r="BF208" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG208" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH208" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI208" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ208" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK208" t="n">
-        <v>-1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2782262</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>22</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2</v>
+      </c>
+      <c r="S209" t="n">
+        <v>2</v>
+      </c>
+      <c r="T209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2782263</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>44962.5625</v>
+      </c>
+      <c r="F210" t="n">
+        <v>22</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>4</v>
+      </c>
+      <c r="R210" t="n">
+        <v>6</v>
+      </c>
+      <c r="S210" t="n">
+        <v>10</v>
+      </c>
+      <c r="T210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,18 @@
     <t>['62', '70']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['17', '88']</t>
+  </si>
+  <si>
+    <t>['23', '25', '45+4', '81']</t>
+  </si>
+  <si>
+    <t>['4', '39', '45+1']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -974,6 +986,12 @@
   </si>
   <si>
     <t>['1', '48']</t>
+  </si>
+  <si>
+    <t>['72', '87']</t>
+  </si>
+  <si>
+    <t>['80', '85']</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1597,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1666,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
         <v>2.27</v>
@@ -1770,7 +1788,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1857,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
         <v>0.8</v>
@@ -2048,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2152,7 +2170,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2239,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT5">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2433,7 +2451,7 @@
         <v>2.09</v>
       </c>
       <c r="AT6">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2534,7 +2552,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2725,7 +2743,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2815,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2916,7 +2934,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3003,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT9">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3107,7 +3125,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3197,7 +3215,7 @@
         <v>2.36</v>
       </c>
       <c r="AT10">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3298,7 +3316,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3385,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT11">
         <v>1.7</v>
@@ -3680,7 +3698,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3767,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT13">
         <v>1.09</v>
@@ -3961,7 +3979,7 @@
         <v>1.7</v>
       </c>
       <c r="AT14">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4149,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT15">
         <v>0.45</v>
@@ -4253,7 +4271,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4340,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT16">
         <v>0.55</v>
@@ -4725,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="AT18">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5017,7 +5035,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5107,7 +5125,7 @@
         <v>1.8</v>
       </c>
       <c r="AT20">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5208,7 +5226,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5489,7 +5507,7 @@
         <v>1.91</v>
       </c>
       <c r="AT22">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU22">
         <v>1.65</v>
@@ -5677,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>1.35</v>
@@ -5781,7 +5799,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5871,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU24">
         <v>1.26</v>
@@ -5972,7 +5990,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6059,10 +6077,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU25">
         <v>1.23</v>
@@ -6163,7 +6181,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6250,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT26">
         <v>0.82</v>
@@ -6354,7 +6372,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6441,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT27">
         <v>2.27</v>
@@ -6632,10 +6650,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT28">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU28">
         <v>1.51</v>
@@ -6736,7 +6754,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6823,10 +6841,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT29">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU29">
         <v>0.72</v>
@@ -6927,7 +6945,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7118,7 +7136,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7396,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT32">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU32">
         <v>1.65</v>
@@ -7500,7 +7518,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7587,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT33">
         <v>0.9</v>
@@ -8542,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT38">
         <v>1.27</v>
@@ -8837,7 +8855,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8927,7 +8945,7 @@
         <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU40">
         <v>0.87</v>
@@ -9028,7 +9046,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9118,7 +9136,7 @@
         <v>1.64</v>
       </c>
       <c r="AT41">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9306,10 +9324,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT42">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU42">
         <v>1.84</v>
@@ -9497,10 +9515,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
+        <v>1.75</v>
+      </c>
+      <c r="AT43">
         <v>1.64</v>
-      </c>
-      <c r="AT43">
-        <v>1.7</v>
       </c>
       <c r="AU43">
         <v>1.73</v>
@@ -9601,7 +9619,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9688,10 +9706,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT44">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU44">
         <v>1.87</v>
@@ -9792,7 +9810,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -9879,7 +9897,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT45">
         <v>0.7</v>
@@ -10070,10 +10088,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT46">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU46">
         <v>0.85</v>
@@ -10261,10 +10279,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT47">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>2.47</v>
@@ -10452,10 +10470,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT48">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU48">
         <v>2.4</v>
@@ -10556,7 +10574,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10643,10 +10661,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT49">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>1.07</v>
@@ -10837,7 +10855,7 @@
         <v>2.1</v>
       </c>
       <c r="AT50">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU50">
         <v>2.69</v>
@@ -10938,7 +10956,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11025,10 +11043,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT51">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU51">
         <v>1.28</v>
@@ -11320,7 +11338,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11702,7 +11720,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q55">
         <v>10</v>
@@ -11893,7 +11911,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12275,7 +12293,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12657,7 +12675,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -13230,7 +13248,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13421,7 +13439,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13612,7 +13630,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13803,7 +13821,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13994,7 +14012,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14376,7 +14394,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14463,10 +14481,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT69">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14654,10 +14672,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT70">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU70">
         <v>0.84</v>
@@ -14758,7 +14776,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14845,7 +14863,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT71">
         <v>0.7</v>
@@ -14949,7 +14967,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15039,7 +15057,7 @@
         <v>2.1</v>
       </c>
       <c r="AT72">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU72">
         <v>2.7</v>
@@ -15140,7 +15158,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -15227,10 +15245,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
+        <v>1.75</v>
+      </c>
+      <c r="AT73">
         <v>1.64</v>
-      </c>
-      <c r="AT73">
-        <v>1.7</v>
       </c>
       <c r="AU73">
         <v>1.57</v>
@@ -15331,7 +15349,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15418,10 +15436,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT74">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU74">
         <v>1.74</v>
@@ -15609,10 +15627,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT75">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU75">
         <v>1.23</v>
@@ -15713,7 +15731,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15800,10 +15818,10 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT76">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU76">
         <v>2.34</v>
@@ -15991,10 +16009,10 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT77">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU77">
         <v>1.73</v>
@@ -16182,10 +16200,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT78">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16376,7 +16394,7 @@
         <v>1.8</v>
       </c>
       <c r="AT79">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU79">
         <v>1.51</v>
@@ -16567,7 +16585,7 @@
         <v>2.09</v>
       </c>
       <c r="AT80">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU80">
         <v>2.41</v>
@@ -16755,7 +16773,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT81">
         <v>0.82</v>
@@ -16859,7 +16877,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16946,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT82">
         <v>1.09</v>
@@ -17140,7 +17158,7 @@
         <v>1.7</v>
       </c>
       <c r="AT83">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU83">
         <v>2.02</v>
@@ -17241,7 +17259,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17328,7 +17346,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT84">
         <v>0.55</v>
@@ -17519,7 +17537,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT85">
         <v>1.27</v>
@@ -17623,7 +17641,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17710,7 +17728,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT86">
         <v>0.8</v>
@@ -17814,7 +17832,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17904,7 +17922,7 @@
         <v>1</v>
       </c>
       <c r="AT87">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU87">
         <v>1.57</v>
@@ -18095,7 +18113,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.53</v>
@@ -18286,7 +18304,7 @@
         <v>2</v>
       </c>
       <c r="AT89">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU89">
         <v>1.63</v>
@@ -18474,7 +18492,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT90">
         <v>0.9</v>
@@ -18578,7 +18596,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18665,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT91">
         <v>0.45</v>
@@ -18859,7 +18877,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU92">
         <v>1.04</v>
@@ -19238,7 +19256,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT94">
         <v>0.55</v>
@@ -19432,7 +19450,7 @@
         <v>2.36</v>
       </c>
       <c r="AT95">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU95">
         <v>1.6</v>
@@ -19533,7 +19551,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19620,7 +19638,7 @@
         <v>2.25</v>
       </c>
       <c r="AS96">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT96">
         <v>2.27</v>
@@ -19724,7 +19742,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19814,7 +19832,7 @@
         <v>1.55</v>
       </c>
       <c r="AT97">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU97">
         <v>1.26</v>
@@ -20196,7 +20214,7 @@
         <v>1.7</v>
       </c>
       <c r="AT99">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU99">
         <v>1.97</v>
@@ -20297,7 +20315,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20384,10 +20402,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20578,7 +20596,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU101">
         <v>1.5</v>
@@ -21061,7 +21079,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21148,7 +21166,7 @@
         <v>0.6</v>
       </c>
       <c r="AS104">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT104">
         <v>0.82</v>
@@ -21342,7 +21360,7 @@
         <v>2.36</v>
       </c>
       <c r="AT105">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU105">
         <v>1.69</v>
@@ -21530,10 +21548,10 @@
         <v>0.4</v>
       </c>
       <c r="AS106">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT106">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU106">
         <v>1.51</v>
@@ -21721,7 +21739,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT107">
         <v>0.55</v>
@@ -22103,10 +22121,10 @@
         <v>1.4</v>
       </c>
       <c r="AS109">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT109">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU109">
         <v>2.41</v>
@@ -22398,7 +22416,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22488,7 +22506,7 @@
         <v>1.8</v>
       </c>
       <c r="AT111">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU111">
         <v>1.69</v>
@@ -22589,7 +22607,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22870,7 +22888,7 @@
         <v>1.55</v>
       </c>
       <c r="AT113">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU113">
         <v>1.42</v>
@@ -22971,7 +22989,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23058,7 +23076,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT114">
         <v>1.27</v>
@@ -23162,7 +23180,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23249,7 +23267,7 @@
         <v>2.4</v>
       </c>
       <c r="AS115">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT115">
         <v>2.27</v>
@@ -23353,7 +23371,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23443,7 +23461,7 @@
         <v>1.91</v>
       </c>
       <c r="AT116">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU116">
         <v>2.02</v>
@@ -23631,7 +23649,7 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT117">
         <v>0.45</v>
@@ -23822,7 +23840,7 @@
         <v>1.6</v>
       </c>
       <c r="AS118">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT118">
         <v>1.7</v>
@@ -23926,7 +23944,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24013,10 +24031,10 @@
         <v>1.33</v>
       </c>
       <c r="AS119">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT119">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU119">
         <v>1.1</v>
@@ -24117,7 +24135,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24207,7 +24225,7 @@
         <v>2</v>
       </c>
       <c r="AT120">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24395,7 +24413,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT121">
         <v>0.82</v>
@@ -24589,7 +24607,7 @@
         <v>2.09</v>
       </c>
       <c r="AT122">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU122">
         <v>2.23</v>
@@ -24780,7 +24798,7 @@
         <v>1.7</v>
       </c>
       <c r="AT123">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU123">
         <v>2.02</v>
@@ -24968,7 +24986,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT124">
         <v>0.7</v>
@@ -25072,7 +25090,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25350,10 +25368,10 @@
         <v>0.33</v>
       </c>
       <c r="AS126">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT126">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU126">
         <v>2.4</v>
@@ -25645,7 +25663,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25735,7 +25753,7 @@
         <v>1.64</v>
       </c>
       <c r="AT128">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU128">
         <v>1.43</v>
@@ -25836,7 +25854,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25926,7 +25944,7 @@
         <v>1.27</v>
       </c>
       <c r="AT129">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU129">
         <v>1.32</v>
@@ -26114,7 +26132,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT130">
         <v>1.27</v>
@@ -26218,7 +26236,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>13</v>
@@ -26305,7 +26323,7 @@
         <v>0.83</v>
       </c>
       <c r="AS131">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT131">
         <v>0.45</v>
@@ -26409,7 +26427,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26791,7 +26809,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>8</v>
@@ -26878,10 +26896,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT134">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU134">
         <v>1.67</v>
@@ -26982,7 +27000,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27072,7 +27090,7 @@
         <v>1.55</v>
       </c>
       <c r="AT135">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU135">
         <v>1.53</v>
@@ -27173,7 +27191,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27260,7 +27278,7 @@
         <v>0.6</v>
       </c>
       <c r="AS136">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT136">
         <v>0.9</v>
@@ -27364,7 +27382,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27555,7 +27573,7 @@
         <v>124</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27642,10 +27660,10 @@
         <v>0.57</v>
       </c>
       <c r="AS138">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT138">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU138">
         <v>2.18</v>
@@ -27746,7 +27764,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27833,7 +27851,7 @@
         <v>0.86</v>
       </c>
       <c r="AS139">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT139">
         <v>1.09</v>
@@ -27937,7 +27955,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28319,7 +28337,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28597,7 +28615,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT143">
         <v>0.7</v>
@@ -28791,7 +28809,7 @@
         <v>2.09</v>
       </c>
       <c r="AT144">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU144">
         <v>2.23</v>
@@ -28892,7 +28910,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29083,7 +29101,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29173,7 +29191,7 @@
         <v>1.7</v>
       </c>
       <c r="AT146">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU146">
         <v>2.04</v>
@@ -29274,7 +29292,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29361,10 +29379,10 @@
         <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT147">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU147">
         <v>1.77</v>
@@ -29465,7 +29483,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29555,7 +29573,7 @@
         <v>2</v>
       </c>
       <c r="AT148">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU148">
         <v>1.45</v>
@@ -29656,7 +29674,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -29743,7 +29761,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT149">
         <v>1.27</v>
@@ -29847,7 +29865,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29934,10 +29952,10 @@
         <v>1.43</v>
       </c>
       <c r="AS150">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT150">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU150">
         <v>1.7</v>
@@ -30038,7 +30056,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30125,10 +30143,10 @@
         <v>1.71</v>
       </c>
       <c r="AS151">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT151">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU151">
         <v>1.38</v>
@@ -30229,7 +30247,7 @@
         <v>139</v>
       </c>
       <c r="P152" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30319,7 +30337,7 @@
         <v>1</v>
       </c>
       <c r="AT152">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU152">
         <v>1.51</v>
@@ -30420,7 +30438,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -30611,7 +30629,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>7</v>
@@ -30698,7 +30716,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT154">
         <v>0.55</v>
@@ -31083,7 +31101,7 @@
         <v>2.36</v>
       </c>
       <c r="AT156">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU156">
         <v>1.92</v>
@@ -31184,7 +31202,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31271,7 +31289,7 @@
         <v>1.83</v>
       </c>
       <c r="AS157">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT157">
         <v>1.7</v>
@@ -31375,7 +31393,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31462,10 +31480,10 @@
         <v>0.88</v>
       </c>
       <c r="AS158">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT158">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU158">
         <v>1.55</v>
@@ -31566,7 +31584,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31847,7 +31865,7 @@
         <v>1.27</v>
       </c>
       <c r="AT160">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU160">
         <v>1.32</v>
@@ -32035,7 +32053,7 @@
         <v>0.75</v>
       </c>
       <c r="AS161">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT161">
         <v>0.7</v>
@@ -32226,7 +32244,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT162">
         <v>0.82</v>
@@ -32521,7 +32539,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32608,7 +32626,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT164">
         <v>0.9</v>
@@ -32712,7 +32730,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32903,7 +32921,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -32993,7 +33011,7 @@
         <v>1.91</v>
       </c>
       <c r="AT166">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1.98</v>
@@ -33094,7 +33112,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33184,7 +33202,7 @@
         <v>1.64</v>
       </c>
       <c r="AT167">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU167">
         <v>1.46</v>
@@ -33476,7 +33494,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33563,7 +33581,7 @@
         <v>1.25</v>
       </c>
       <c r="AS169">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT169">
         <v>1.27</v>
@@ -33754,10 +33772,10 @@
         <v>1.88</v>
       </c>
       <c r="AS170">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT170">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU170">
         <v>2.4</v>
@@ -33858,7 +33876,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33948,7 +33966,7 @@
         <v>1</v>
       </c>
       <c r="AT171">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU171">
         <v>1.52</v>
@@ -34240,7 +34258,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34327,10 +34345,10 @@
         <v>0.25</v>
       </c>
       <c r="AS173">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT173">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU173">
         <v>1.68</v>
@@ -34431,7 +34449,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34518,7 +34536,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT174">
         <v>0.55</v>
@@ -34622,7 +34640,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34712,7 +34730,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU175">
         <v>1.47</v>
@@ -34813,7 +34831,7 @@
         <v>85</v>
       </c>
       <c r="P176" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -34900,10 +34918,10 @@
         <v>1.5</v>
       </c>
       <c r="AS176">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT176">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU176">
         <v>1.46</v>
@@ -35195,7 +35213,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35282,10 +35300,10 @@
         <v>1.22</v>
       </c>
       <c r="AS178">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT178">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU178">
         <v>1.71</v>
@@ -35386,7 +35404,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q179">
         <v>0</v>
@@ -35959,7 +35977,7 @@
         <v>207</v>
       </c>
       <c r="P182" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -37105,7 +37123,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37296,7 +37314,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37383,10 +37401,10 @@
         <v>1.78</v>
       </c>
       <c r="AS189">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT189">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU189">
         <v>1.54</v>
@@ -37487,7 +37505,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37574,10 +37592,10 @@
         <v>1.67</v>
       </c>
       <c r="AS190">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT190">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU190">
         <v>2.24</v>
@@ -37768,7 +37786,7 @@
         <v>2.1</v>
       </c>
       <c r="AT191">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU191">
         <v>2.37</v>
@@ -37869,7 +37887,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -37956,10 +37974,10 @@
         <v>1.78</v>
       </c>
       <c r="AS192">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT192">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU192">
         <v>1.4</v>
@@ -38147,7 +38165,7 @@
         <v>0.78</v>
       </c>
       <c r="AS193">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT193">
         <v>0.7</v>
@@ -38251,7 +38269,7 @@
         <v>85</v>
       </c>
       <c r="P194" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38338,10 +38356,10 @@
         <v>0.89</v>
       </c>
       <c r="AS194">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT194">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU194">
         <v>1.6</v>
@@ -38442,7 +38460,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38529,10 +38547,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS195">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT195">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU195">
         <v>1.16</v>
@@ -38720,10 +38738,10 @@
         <v>1.78</v>
       </c>
       <c r="AS196">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT196">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU196">
         <v>1.53</v>
@@ -38911,10 +38929,10 @@
         <v>1.11</v>
       </c>
       <c r="AS197">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT197">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU197">
         <v>1.59</v>
@@ -39102,10 +39120,10 @@
         <v>0.67</v>
       </c>
       <c r="AS198">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT198">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU198">
         <v>2.22</v>
@@ -39206,7 +39224,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -39293,10 +39311,10 @@
         <v>1.7</v>
       </c>
       <c r="AS199">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT199">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU199">
         <v>2.35</v>
@@ -39484,10 +39502,10 @@
         <v>1.5</v>
       </c>
       <c r="AS200">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT200">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU200">
         <v>1.66</v>
@@ -40161,7 +40179,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q204">
         <v>11</v>
@@ -40925,7 +40943,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41498,7 +41516,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41640,6 +41658,1725 @@
       </c>
       <c r="BK211">
         <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2782434</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44968.39583333334</v>
+      </c>
+      <c r="F212">
+        <v>23</v>
+      </c>
+      <c r="G212" t="s">
+        <v>74</v>
+      </c>
+      <c r="H212" t="s">
+        <v>83</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>215</v>
+      </c>
+      <c r="P212" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q212">
+        <v>5</v>
+      </c>
+      <c r="R212">
+        <v>6</v>
+      </c>
+      <c r="S212">
+        <v>11</v>
+      </c>
+      <c r="T212">
+        <v>4</v>
+      </c>
+      <c r="U212">
+        <v>2.05</v>
+      </c>
+      <c r="V212">
+        <v>3</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>2.63</v>
+      </c>
+      <c r="Y212">
+        <v>3.25</v>
+      </c>
+      <c r="Z212">
+        <v>1.33</v>
+      </c>
+      <c r="AA212">
+        <v>10</v>
+      </c>
+      <c r="AB212">
+        <v>1.06</v>
+      </c>
+      <c r="AC212">
+        <v>3.05</v>
+      </c>
+      <c r="AD212">
+        <v>3.15</v>
+      </c>
+      <c r="AE212">
+        <v>2.16</v>
+      </c>
+      <c r="AF212">
+        <v>1.08</v>
+      </c>
+      <c r="AG212">
+        <v>9</v>
+      </c>
+      <c r="AH212">
+        <v>1.4</v>
+      </c>
+      <c r="AI212">
+        <v>3.05</v>
+      </c>
+      <c r="AJ212">
+        <v>2.25</v>
+      </c>
+      <c r="AK212">
+        <v>1.62</v>
+      </c>
+      <c r="AL212">
+        <v>1.91</v>
+      </c>
+      <c r="AM212">
+        <v>1.91</v>
+      </c>
+      <c r="AN212">
+        <v>1.65</v>
+      </c>
+      <c r="AO212">
+        <v>1.32</v>
+      </c>
+      <c r="AP212">
+        <v>1.31</v>
+      </c>
+      <c r="AQ212">
+        <v>1.3</v>
+      </c>
+      <c r="AR212">
+        <v>1.09</v>
+      </c>
+      <c r="AS212">
+        <v>1.27</v>
+      </c>
+      <c r="AT212">
+        <v>1.08</v>
+      </c>
+      <c r="AU212">
+        <v>1.6</v>
+      </c>
+      <c r="AV212">
+        <v>1.61</v>
+      </c>
+      <c r="AW212">
+        <v>3.21</v>
+      </c>
+      <c r="AX212">
+        <v>2.36</v>
+      </c>
+      <c r="AY212">
+        <v>7.9</v>
+      </c>
+      <c r="AZ212">
+        <v>1.86</v>
+      </c>
+      <c r="BA212">
+        <v>1.32</v>
+      </c>
+      <c r="BB212">
+        <v>1.6</v>
+      </c>
+      <c r="BC212">
+        <v>1.99</v>
+      </c>
+      <c r="BD212">
+        <v>2.57</v>
+      </c>
+      <c r="BE212">
+        <v>3.48</v>
+      </c>
+      <c r="BF212">
+        <v>3</v>
+      </c>
+      <c r="BG212">
+        <v>5</v>
+      </c>
+      <c r="BH212">
+        <v>8</v>
+      </c>
+      <c r="BI212">
+        <v>8</v>
+      </c>
+      <c r="BJ212">
+        <v>11</v>
+      </c>
+      <c r="BK212">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2782273</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F213">
+        <v>23</v>
+      </c>
+      <c r="G213" t="s">
+        <v>79</v>
+      </c>
+      <c r="H213" t="s">
+        <v>80</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213" t="s">
+        <v>194</v>
+      </c>
+      <c r="P213" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q213">
+        <v>5</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>7</v>
+      </c>
+      <c r="T213">
+        <v>3.6</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>3.25</v>
+      </c>
+      <c r="W213">
+        <v>1.5</v>
+      </c>
+      <c r="X213">
+        <v>2.5</v>
+      </c>
+      <c r="Y213">
+        <v>3.4</v>
+      </c>
+      <c r="Z213">
+        <v>1.3</v>
+      </c>
+      <c r="AA213">
+        <v>10</v>
+      </c>
+      <c r="AB213">
+        <v>1.06</v>
+      </c>
+      <c r="AC213">
+        <v>2.63</v>
+      </c>
+      <c r="AD213">
+        <v>3.01</v>
+      </c>
+      <c r="AE213">
+        <v>2.55</v>
+      </c>
+      <c r="AF213">
+        <v>1.09</v>
+      </c>
+      <c r="AG213">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH213">
+        <v>1.43</v>
+      </c>
+      <c r="AI213">
+        <v>2.94</v>
+      </c>
+      <c r="AJ213">
+        <v>2.3</v>
+      </c>
+      <c r="AK213">
+        <v>1.6</v>
+      </c>
+      <c r="AL213">
+        <v>1.95</v>
+      </c>
+      <c r="AM213">
+        <v>1.8</v>
+      </c>
+      <c r="AN213">
+        <v>1.46</v>
+      </c>
+      <c r="AO213">
+        <v>1.35</v>
+      </c>
+      <c r="AP213">
+        <v>1.43</v>
+      </c>
+      <c r="AQ213">
+        <v>0.6</v>
+      </c>
+      <c r="AR213">
+        <v>0.6</v>
+      </c>
+      <c r="AS213">
+        <v>0.55</v>
+      </c>
+      <c r="AT213">
+        <v>0.82</v>
+      </c>
+      <c r="AU213">
+        <v>1.59</v>
+      </c>
+      <c r="AV213">
+        <v>1.51</v>
+      </c>
+      <c r="AW213">
+        <v>3.1</v>
+      </c>
+      <c r="AX213">
+        <v>2.03</v>
+      </c>
+      <c r="AY213">
+        <v>7.6</v>
+      </c>
+      <c r="AZ213">
+        <v>2.16</v>
+      </c>
+      <c r="BA213">
+        <v>1.28</v>
+      </c>
+      <c r="BB213">
+        <v>1.55</v>
+      </c>
+      <c r="BC213">
+        <v>1.97</v>
+      </c>
+      <c r="BD213">
+        <v>2.56</v>
+      </c>
+      <c r="BE213">
+        <v>3.48</v>
+      </c>
+      <c r="BF213">
+        <v>3</v>
+      </c>
+      <c r="BG213">
+        <v>3</v>
+      </c>
+      <c r="BH213">
+        <v>14</v>
+      </c>
+      <c r="BI213">
+        <v>7</v>
+      </c>
+      <c r="BJ213">
+        <v>17</v>
+      </c>
+      <c r="BK213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2782266</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F214">
+        <v>23</v>
+      </c>
+      <c r="G214" t="s">
+        <v>76</v>
+      </c>
+      <c r="H214" t="s">
+        <v>81</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>112</v>
+      </c>
+      <c r="P214" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q214">
+        <v>7</v>
+      </c>
+      <c r="R214">
+        <v>4</v>
+      </c>
+      <c r="S214">
+        <v>11</v>
+      </c>
+      <c r="T214">
+        <v>1.91</v>
+      </c>
+      <c r="U214">
+        <v>2.5</v>
+      </c>
+      <c r="V214">
+        <v>7</v>
+      </c>
+      <c r="W214">
+        <v>1.33</v>
+      </c>
+      <c r="X214">
+        <v>3.25</v>
+      </c>
+      <c r="Y214">
+        <v>2.5</v>
+      </c>
+      <c r="Z214">
+        <v>1.5</v>
+      </c>
+      <c r="AA214">
+        <v>6.5</v>
+      </c>
+      <c r="AB214">
+        <v>1.11</v>
+      </c>
+      <c r="AC214">
+        <v>1.31</v>
+      </c>
+      <c r="AD214">
+        <v>4.8</v>
+      </c>
+      <c r="AE214">
+        <v>7.6</v>
+      </c>
+      <c r="AF214">
+        <v>1.03</v>
+      </c>
+      <c r="AG214">
+        <v>14</v>
+      </c>
+      <c r="AH214">
+        <v>1.24</v>
+      </c>
+      <c r="AI214">
+        <v>4.3</v>
+      </c>
+      <c r="AJ214">
+        <v>1.7</v>
+      </c>
+      <c r="AK214">
+        <v>2.1</v>
+      </c>
+      <c r="AL214">
+        <v>1.95</v>
+      </c>
+      <c r="AM214">
+        <v>1.8</v>
+      </c>
+      <c r="AN214">
+        <v>1.08</v>
+      </c>
+      <c r="AO214">
+        <v>1.18</v>
+      </c>
+      <c r="AP214">
+        <v>2.95</v>
+      </c>
+      <c r="AQ214">
+        <v>2.78</v>
+      </c>
+      <c r="AR214">
+        <v>1.1</v>
+      </c>
+      <c r="AS214">
+        <v>2.6</v>
+      </c>
+      <c r="AT214">
+        <v>1.09</v>
+      </c>
+      <c r="AU214">
+        <v>2.38</v>
+      </c>
+      <c r="AV214">
+        <v>1.27</v>
+      </c>
+      <c r="AW214">
+        <v>3.65</v>
+      </c>
+      <c r="AX214">
+        <v>1.25</v>
+      </c>
+      <c r="AY214">
+        <v>11.25</v>
+      </c>
+      <c r="AZ214">
+        <v>5.05</v>
+      </c>
+      <c r="BA214">
+        <v>1.19</v>
+      </c>
+      <c r="BB214">
+        <v>1.4</v>
+      </c>
+      <c r="BC214">
+        <v>1.7</v>
+      </c>
+      <c r="BD214">
+        <v>2.11</v>
+      </c>
+      <c r="BE214">
+        <v>2.71</v>
+      </c>
+      <c r="BF214">
+        <v>7</v>
+      </c>
+      <c r="BG214">
+        <v>3</v>
+      </c>
+      <c r="BH214">
+        <v>16</v>
+      </c>
+      <c r="BI214">
+        <v>7</v>
+      </c>
+      <c r="BJ214">
+        <v>23</v>
+      </c>
+      <c r="BK214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2782267</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F215">
+        <v>23</v>
+      </c>
+      <c r="G215" t="s">
+        <v>65</v>
+      </c>
+      <c r="H215" t="s">
+        <v>77</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>225</v>
+      </c>
+      <c r="P215" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q215">
+        <v>1</v>
+      </c>
+      <c r="R215">
+        <v>6</v>
+      </c>
+      <c r="S215">
+        <v>7</v>
+      </c>
+      <c r="T215">
+        <v>4.33</v>
+      </c>
+      <c r="U215">
+        <v>2.1</v>
+      </c>
+      <c r="V215">
+        <v>2.75</v>
+      </c>
+      <c r="W215">
+        <v>1.44</v>
+      </c>
+      <c r="X215">
+        <v>2.63</v>
+      </c>
+      <c r="Y215">
+        <v>3</v>
+      </c>
+      <c r="Z215">
+        <v>1.36</v>
+      </c>
+      <c r="AA215">
+        <v>9</v>
+      </c>
+      <c r="AB215">
+        <v>1.07</v>
+      </c>
+      <c r="AC215">
+        <v>3.35</v>
+      </c>
+      <c r="AD215">
+        <v>3.15</v>
+      </c>
+      <c r="AE215">
+        <v>2.04</v>
+      </c>
+      <c r="AF215">
+        <v>1.07</v>
+      </c>
+      <c r="AG215">
+        <v>10</v>
+      </c>
+      <c r="AH215">
+        <v>1.35</v>
+      </c>
+      <c r="AI215">
+        <v>3.35</v>
+      </c>
+      <c r="AJ215">
+        <v>2</v>
+      </c>
+      <c r="AK215">
+        <v>1.78</v>
+      </c>
+      <c r="AL215">
+        <v>1.8</v>
+      </c>
+      <c r="AM215">
+        <v>1.95</v>
+      </c>
+      <c r="AN215">
+        <v>1.72</v>
+      </c>
+      <c r="AO215">
+        <v>1.31</v>
+      </c>
+      <c r="AP215">
+        <v>1.28</v>
+      </c>
+      <c r="AQ215">
+        <v>1.36</v>
+      </c>
+      <c r="AR215">
+        <v>1.7</v>
+      </c>
+      <c r="AS215">
+        <v>1.33</v>
+      </c>
+      <c r="AT215">
+        <v>1.64</v>
+      </c>
+      <c r="AU215">
+        <v>1.47</v>
+      </c>
+      <c r="AV215">
+        <v>1.64</v>
+      </c>
+      <c r="AW215">
+        <v>3.11</v>
+      </c>
+      <c r="AX215">
+        <v>2.63</v>
+      </c>
+      <c r="AY215">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ215">
+        <v>1.71</v>
+      </c>
+      <c r="BA215">
+        <v>1.29</v>
+      </c>
+      <c r="BB215">
+        <v>1.57</v>
+      </c>
+      <c r="BC215">
+        <v>1.98</v>
+      </c>
+      <c r="BD215">
+        <v>2.59</v>
+      </c>
+      <c r="BE215">
+        <v>3.48</v>
+      </c>
+      <c r="BF215">
+        <v>2</v>
+      </c>
+      <c r="BG215">
+        <v>9</v>
+      </c>
+      <c r="BH215">
+        <v>6</v>
+      </c>
+      <c r="BI215">
+        <v>10</v>
+      </c>
+      <c r="BJ215">
+        <v>8</v>
+      </c>
+      <c r="BK215">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2782268</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F216">
+        <v>23</v>
+      </c>
+      <c r="G216" t="s">
+        <v>66</v>
+      </c>
+      <c r="H216" t="s">
+        <v>82</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>226</v>
+      </c>
+      <c r="P216" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q216">
+        <v>5</v>
+      </c>
+      <c r="R216">
+        <v>4</v>
+      </c>
+      <c r="S216">
+        <v>9</v>
+      </c>
+      <c r="T216">
+        <v>2.5</v>
+      </c>
+      <c r="U216">
+        <v>2.2</v>
+      </c>
+      <c r="V216">
+        <v>4.5</v>
+      </c>
+      <c r="W216">
+        <v>1.4</v>
+      </c>
+      <c r="X216">
+        <v>2.75</v>
+      </c>
+      <c r="Y216">
+        <v>3</v>
+      </c>
+      <c r="Z216">
+        <v>1.36</v>
+      </c>
+      <c r="AA216">
+        <v>8</v>
+      </c>
+      <c r="AB216">
+        <v>1.08</v>
+      </c>
+      <c r="AC216">
+        <v>1.98</v>
+      </c>
+      <c r="AD216">
+        <v>3.25</v>
+      </c>
+      <c r="AE216">
+        <v>3.4</v>
+      </c>
+      <c r="AF216">
+        <v>1.06</v>
+      </c>
+      <c r="AG216">
+        <v>10</v>
+      </c>
+      <c r="AH216">
+        <v>1.34</v>
+      </c>
+      <c r="AI216">
+        <v>3.4</v>
+      </c>
+      <c r="AJ216">
+        <v>1.95</v>
+      </c>
+      <c r="AK216">
+        <v>1.85</v>
+      </c>
+      <c r="AL216">
+        <v>1.8</v>
+      </c>
+      <c r="AM216">
+        <v>1.95</v>
+      </c>
+      <c r="AN216">
+        <v>1.25</v>
+      </c>
+      <c r="AO216">
+        <v>1.29</v>
+      </c>
+      <c r="AP216">
+        <v>1.83</v>
+      </c>
+      <c r="AQ216">
+        <v>1.64</v>
+      </c>
+      <c r="AR216">
+        <v>0.6</v>
+      </c>
+      <c r="AS216">
+        <v>1.75</v>
+      </c>
+      <c r="AT216">
+        <v>0.55</v>
+      </c>
+      <c r="AU216">
+        <v>1.63</v>
+      </c>
+      <c r="AV216">
+        <v>1.1</v>
+      </c>
+      <c r="AW216">
+        <v>2.73</v>
+      </c>
+      <c r="AX216">
+        <v>1.52</v>
+      </c>
+      <c r="AY216">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ216">
+        <v>3.18</v>
+      </c>
+      <c r="BA216">
+        <v>1.24</v>
+      </c>
+      <c r="BB216">
+        <v>1.47</v>
+      </c>
+      <c r="BC216">
+        <v>1.83</v>
+      </c>
+      <c r="BD216">
+        <v>2.32</v>
+      </c>
+      <c r="BE216">
+        <v>3.04</v>
+      </c>
+      <c r="BF216">
+        <v>4</v>
+      </c>
+      <c r="BG216">
+        <v>2</v>
+      </c>
+      <c r="BH216">
+        <v>14</v>
+      </c>
+      <c r="BI216">
+        <v>9</v>
+      </c>
+      <c r="BJ216">
+        <v>18</v>
+      </c>
+      <c r="BK216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2782270</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F217">
+        <v>23</v>
+      </c>
+      <c r="G217" t="s">
+        <v>72</v>
+      </c>
+      <c r="H217" t="s">
+        <v>70</v>
+      </c>
+      <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>4</v>
+      </c>
+      <c r="L217">
+        <v>4</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>5</v>
+      </c>
+      <c r="O217" t="s">
+        <v>227</v>
+      </c>
+      <c r="P217" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q217">
+        <v>1</v>
+      </c>
+      <c r="R217">
+        <v>5</v>
+      </c>
+      <c r="S217">
+        <v>6</v>
+      </c>
+      <c r="T217">
+        <v>3.75</v>
+      </c>
+      <c r="U217">
+        <v>2.25</v>
+      </c>
+      <c r="V217">
+        <v>2.63</v>
+      </c>
+      <c r="W217">
+        <v>1.36</v>
+      </c>
+      <c r="X217">
+        <v>3</v>
+      </c>
+      <c r="Y217">
+        <v>2.63</v>
+      </c>
+      <c r="Z217">
+        <v>1.44</v>
+      </c>
+      <c r="AA217">
+        <v>7</v>
+      </c>
+      <c r="AB217">
+        <v>1.1</v>
+      </c>
+      <c r="AC217">
+        <v>3</v>
+      </c>
+      <c r="AD217">
+        <v>3.62</v>
+      </c>
+      <c r="AE217">
+        <v>2.02</v>
+      </c>
+      <c r="AF217">
+        <v>1.05</v>
+      </c>
+      <c r="AG217">
+        <v>13</v>
+      </c>
+      <c r="AH217">
+        <v>1.27</v>
+      </c>
+      <c r="AI217">
+        <v>4</v>
+      </c>
+      <c r="AJ217">
+        <v>1.73</v>
+      </c>
+      <c r="AK217">
+        <v>2.1</v>
+      </c>
+      <c r="AL217">
+        <v>1.67</v>
+      </c>
+      <c r="AM217">
+        <v>2.1</v>
+      </c>
+      <c r="AN217">
+        <v>1.72</v>
+      </c>
+      <c r="AO217">
+        <v>1.29</v>
+      </c>
+      <c r="AP217">
+        <v>1.3</v>
+      </c>
+      <c r="AQ217">
+        <v>0.9</v>
+      </c>
+      <c r="AR217">
+        <v>1.64</v>
+      </c>
+      <c r="AS217">
+        <v>1.09</v>
+      </c>
+      <c r="AT217">
+        <v>1.5</v>
+      </c>
+      <c r="AU217">
+        <v>1.35</v>
+      </c>
+      <c r="AV217">
+        <v>1.51</v>
+      </c>
+      <c r="AW217">
+        <v>2.86</v>
+      </c>
+      <c r="AX217">
+        <v>2.54</v>
+      </c>
+      <c r="AY217">
+        <v>8</v>
+      </c>
+      <c r="AZ217">
+        <v>1.76</v>
+      </c>
+      <c r="BA217">
+        <v>1.24</v>
+      </c>
+      <c r="BB217">
+        <v>1.48</v>
+      </c>
+      <c r="BC217">
+        <v>1.83</v>
+      </c>
+      <c r="BD217">
+        <v>2.32</v>
+      </c>
+      <c r="BE217">
+        <v>3.08</v>
+      </c>
+      <c r="BF217">
+        <v>8</v>
+      </c>
+      <c r="BG217">
+        <v>5</v>
+      </c>
+      <c r="BH217">
+        <v>10</v>
+      </c>
+      <c r="BI217">
+        <v>7</v>
+      </c>
+      <c r="BJ217">
+        <v>18</v>
+      </c>
+      <c r="BK217">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2782265</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44968.60416666666</v>
+      </c>
+      <c r="F218">
+        <v>23</v>
+      </c>
+      <c r="G218" t="s">
+        <v>67</v>
+      </c>
+      <c r="H218" t="s">
+        <v>69</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>159</v>
+      </c>
+      <c r="P218" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q218">
+        <v>4</v>
+      </c>
+      <c r="R218">
+        <v>6</v>
+      </c>
+      <c r="S218">
+        <v>10</v>
+      </c>
+      <c r="T218">
+        <v>6.5</v>
+      </c>
+      <c r="U218">
+        <v>2.25</v>
+      </c>
+      <c r="V218">
+        <v>2.1</v>
+      </c>
+      <c r="W218">
+        <v>1.4</v>
+      </c>
+      <c r="X218">
+        <v>2.75</v>
+      </c>
+      <c r="Y218">
+        <v>2.75</v>
+      </c>
+      <c r="Z218">
+        <v>1.4</v>
+      </c>
+      <c r="AA218">
+        <v>8</v>
+      </c>
+      <c r="AB218">
+        <v>1.08</v>
+      </c>
+      <c r="AC218">
+        <v>6.3</v>
+      </c>
+      <c r="AD218">
+        <v>4.1</v>
+      </c>
+      <c r="AE218">
+        <v>1.54</v>
+      </c>
+      <c r="AF218">
+        <v>1.06</v>
+      </c>
+      <c r="AG218">
+        <v>11</v>
+      </c>
+      <c r="AH218">
+        <v>1.33</v>
+      </c>
+      <c r="AI218">
+        <v>3.5</v>
+      </c>
+      <c r="AJ218">
+        <v>1.95</v>
+      </c>
+      <c r="AK218">
+        <v>1.95</v>
+      </c>
+      <c r="AL218">
+        <v>2.1</v>
+      </c>
+      <c r="AM218">
+        <v>1.67</v>
+      </c>
+      <c r="AN218">
+        <v>2.55</v>
+      </c>
+      <c r="AO218">
+        <v>1.22</v>
+      </c>
+      <c r="AP218">
+        <v>1.11</v>
+      </c>
+      <c r="AQ218">
+        <v>1.2</v>
+      </c>
+      <c r="AR218">
+        <v>1.7</v>
+      </c>
+      <c r="AS218">
+        <v>1.18</v>
+      </c>
+      <c r="AT218">
+        <v>1.64</v>
+      </c>
+      <c r="AU218">
+        <v>1.2</v>
+      </c>
+      <c r="AV218">
+        <v>1.49</v>
+      </c>
+      <c r="AW218">
+        <v>2.69</v>
+      </c>
+      <c r="AX218">
+        <v>4.1</v>
+      </c>
+      <c r="AY218">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ218">
+        <v>1.36</v>
+      </c>
+      <c r="BA218">
+        <v>1.26</v>
+      </c>
+      <c r="BB218">
+        <v>1.52</v>
+      </c>
+      <c r="BC218">
+        <v>1.89</v>
+      </c>
+      <c r="BD218">
+        <v>2.45</v>
+      </c>
+      <c r="BE218">
+        <v>3.2</v>
+      </c>
+      <c r="BF218">
+        <v>6</v>
+      </c>
+      <c r="BG218">
+        <v>8</v>
+      </c>
+      <c r="BH218">
+        <v>6</v>
+      </c>
+      <c r="BI218">
+        <v>8</v>
+      </c>
+      <c r="BJ218">
+        <v>12</v>
+      </c>
+      <c r="BK218">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2782269</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F219">
+        <v>23</v>
+      </c>
+      <c r="G219" t="s">
+        <v>68</v>
+      </c>
+      <c r="H219" t="s">
+        <v>73</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>85</v>
+      </c>
+      <c r="P219" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q219">
+        <v>7</v>
+      </c>
+      <c r="R219">
+        <v>3</v>
+      </c>
+      <c r="S219">
+        <v>10</v>
+      </c>
+      <c r="T219">
+        <v>4</v>
+      </c>
+      <c r="U219">
+        <v>2.38</v>
+      </c>
+      <c r="V219">
+        <v>2.4</v>
+      </c>
+      <c r="W219">
+        <v>1.3</v>
+      </c>
+      <c r="X219">
+        <v>3.4</v>
+      </c>
+      <c r="Y219">
+        <v>2.5</v>
+      </c>
+      <c r="Z219">
+        <v>1.5</v>
+      </c>
+      <c r="AA219">
+        <v>6</v>
+      </c>
+      <c r="AB219">
+        <v>1.13</v>
+      </c>
+      <c r="AC219">
+        <v>4</v>
+      </c>
+      <c r="AD219">
+        <v>3.8</v>
+      </c>
+      <c r="AE219">
+        <v>1.85</v>
+      </c>
+      <c r="AF219">
+        <v>1.03</v>
+      </c>
+      <c r="AG219">
+        <v>15</v>
+      </c>
+      <c r="AH219">
+        <v>1.22</v>
+      </c>
+      <c r="AI219">
+        <v>4.6</v>
+      </c>
+      <c r="AJ219">
+        <v>1.67</v>
+      </c>
+      <c r="AK219">
+        <v>2.2</v>
+      </c>
+      <c r="AL219">
+        <v>1.62</v>
+      </c>
+      <c r="AM219">
+        <v>2.2</v>
+      </c>
+      <c r="AN219">
+        <v>1.95</v>
+      </c>
+      <c r="AO219">
+        <v>1.25</v>
+      </c>
+      <c r="AP219">
+        <v>1.24</v>
+      </c>
+      <c r="AQ219">
+        <v>1.3</v>
+      </c>
+      <c r="AR219">
+        <v>1.55</v>
+      </c>
+      <c r="AS219">
+        <v>1.18</v>
+      </c>
+      <c r="AT219">
+        <v>1.67</v>
+      </c>
+      <c r="AU219">
+        <v>1.6</v>
+      </c>
+      <c r="AV219">
+        <v>1.59</v>
+      </c>
+      <c r="AW219">
+        <v>3.19</v>
+      </c>
+      <c r="AX219">
+        <v>2.72</v>
+      </c>
+      <c r="AY219">
+        <v>7.8</v>
+      </c>
+      <c r="AZ219">
+        <v>1.69</v>
+      </c>
+      <c r="BA219">
+        <v>1.24</v>
+      </c>
+      <c r="BB219">
+        <v>1.47</v>
+      </c>
+      <c r="BC219">
+        <v>1.85</v>
+      </c>
+      <c r="BD219">
+        <v>2.38</v>
+      </c>
+      <c r="BE219">
+        <v>3.18</v>
+      </c>
+      <c r="BF219">
+        <v>7</v>
+      </c>
+      <c r="BG219">
+        <v>6</v>
+      </c>
+      <c r="BH219">
+        <v>10</v>
+      </c>
+      <c r="BI219">
+        <v>6</v>
+      </c>
+      <c r="BJ219">
+        <v>17</v>
+      </c>
+      <c r="BK219">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2782272</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44969.5625</v>
+      </c>
+      <c r="F220">
+        <v>23</v>
+      </c>
+      <c r="G220" t="s">
+        <v>78</v>
+      </c>
+      <c r="H220" t="s">
+        <v>75</v>
+      </c>
+      <c r="I220">
+        <v>3</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>3</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220" t="s">
+        <v>228</v>
+      </c>
+      <c r="P220" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q220">
+        <v>8</v>
+      </c>
+      <c r="R220">
+        <v>4</v>
+      </c>
+      <c r="S220">
+        <v>12</v>
+      </c>
+      <c r="T220">
+        <v>1.62</v>
+      </c>
+      <c r="U220">
+        <v>2.75</v>
+      </c>
+      <c r="V220">
+        <v>9</v>
+      </c>
+      <c r="W220">
+        <v>1.25</v>
+      </c>
+      <c r="X220">
+        <v>3.75</v>
+      </c>
+      <c r="Y220">
+        <v>2.2</v>
+      </c>
+      <c r="Z220">
+        <v>1.62</v>
+      </c>
+      <c r="AA220">
+        <v>5</v>
+      </c>
+      <c r="AB220">
+        <v>1.17</v>
+      </c>
+      <c r="AC220">
+        <v>1.18</v>
+      </c>
+      <c r="AD220">
+        <v>7.1</v>
+      </c>
+      <c r="AE220">
+        <v>14.5</v>
+      </c>
+      <c r="AF220">
+        <v>1.01</v>
+      </c>
+      <c r="AG220">
+        <v>22</v>
+      </c>
+      <c r="AH220">
+        <v>1.14</v>
+      </c>
+      <c r="AI220">
+        <v>5.9</v>
+      </c>
+      <c r="AJ220">
+        <v>1.45</v>
+      </c>
+      <c r="AK220">
+        <v>2.63</v>
+      </c>
+      <c r="AL220">
+        <v>2</v>
+      </c>
+      <c r="AM220">
+        <v>1.75</v>
+      </c>
+      <c r="AN220">
+        <v>1.04</v>
+      </c>
+      <c r="AO220">
+        <v>1.11</v>
+      </c>
+      <c r="AP220">
+        <v>4.1</v>
+      </c>
+      <c r="AQ220">
+        <v>2.55</v>
+      </c>
+      <c r="AR220">
+        <v>1.1</v>
+      </c>
+      <c r="AS220">
+        <v>2.58</v>
+      </c>
+      <c r="AT220">
+        <v>1</v>
+      </c>
+      <c r="AU220">
+        <v>2.2</v>
+      </c>
+      <c r="AV220">
+        <v>1.33</v>
+      </c>
+      <c r="AW220">
+        <v>3.53</v>
+      </c>
+      <c r="AX220">
+        <v>1.21</v>
+      </c>
+      <c r="AY220">
+        <v>12.25</v>
+      </c>
+      <c r="AZ220">
+        <v>5.6</v>
+      </c>
+      <c r="BA220">
+        <v>1.21</v>
+      </c>
+      <c r="BB220">
+        <v>1.42</v>
+      </c>
+      <c r="BC220">
+        <v>1.73</v>
+      </c>
+      <c r="BD220">
+        <v>2.17</v>
+      </c>
+      <c r="BE220">
+        <v>2.79</v>
+      </c>
+      <c r="BF220">
+        <v>10</v>
+      </c>
+      <c r="BG220">
+        <v>3</v>
+      </c>
+      <c r="BH220">
+        <v>8</v>
+      </c>
+      <c r="BI220">
+        <v>3</v>
+      </c>
+      <c r="BJ220">
+        <v>18</v>
+      </c>
+      <c r="BK220">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,9 @@
     <t>['4', '39', '45+1']</t>
   </si>
   <si>
+    <t>['36', '49']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -1353,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK220"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1597,7 +1600,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1788,7 +1791,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2170,7 +2173,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2552,7 +2555,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2743,7 +2746,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2934,7 +2937,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3125,7 +3128,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3316,7 +3319,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3597,7 +3600,7 @@
         <v>1.55</v>
       </c>
       <c r="AT12">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3698,7 +3701,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -4271,7 +4274,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -5035,7 +5038,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5226,7 +5229,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5313,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT21">
         <v>0.9</v>
@@ -5799,7 +5802,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5990,7 +5993,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6181,7 +6184,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6372,7 +6375,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6754,7 +6757,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6945,7 +6948,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7136,7 +7139,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7518,7 +7521,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7796,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT34">
         <v>0.45</v>
@@ -7990,7 +7993,7 @@
         <v>2</v>
       </c>
       <c r="AT35">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU35">
         <v>1.74</v>
@@ -8855,7 +8858,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9046,7 +9049,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9619,7 +9622,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9810,7 +9813,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -9900,7 +9903,7 @@
         <v>1.18</v>
       </c>
       <c r="AT45">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU45">
         <v>1.59</v>
@@ -10574,7 +10577,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10852,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT50">
         <v>1.64</v>
@@ -10956,7 +10959,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11338,7 +11341,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11720,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q55">
         <v>10</v>
@@ -11911,7 +11914,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12293,7 +12296,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12675,7 +12678,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -13248,7 +13251,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13439,7 +13442,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13630,7 +13633,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13821,7 +13824,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14012,7 +14015,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14394,7 +14397,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14776,7 +14779,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14866,7 +14869,7 @@
         <v>0.55</v>
       </c>
       <c r="AT71">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU71">
         <v>1.71</v>
@@ -14967,7 +14970,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15054,7 +15057,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT72">
         <v>1.64</v>
@@ -15158,7 +15161,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -15349,7 +15352,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15731,7 +15734,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16877,7 +16880,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17259,7 +17262,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17641,7 +17644,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17832,7 +17835,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18596,7 +18599,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -19068,7 +19071,7 @@
         <v>1.91</v>
       </c>
       <c r="AT93">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU93">
         <v>1.92</v>
@@ -19551,7 +19554,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19742,7 +19745,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -20020,7 +20023,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT98">
         <v>1.7</v>
@@ -20315,7 +20318,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20787,7 +20790,7 @@
         <v>2.09</v>
       </c>
       <c r="AT102">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU102">
         <v>2.32</v>
@@ -20975,7 +20978,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT103">
         <v>0.55</v>
@@ -21079,7 +21082,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -22416,7 +22419,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22607,7 +22610,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22989,7 +22992,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23180,7 +23183,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23371,7 +23374,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23944,7 +23947,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24135,7 +24138,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24989,7 +24992,7 @@
         <v>1.75</v>
       </c>
       <c r="AT124">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU124">
         <v>1.63</v>
@@ -25090,7 +25093,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25177,7 +25180,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT125">
         <v>0.55</v>
@@ -25663,7 +25666,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25854,7 +25857,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26236,7 +26239,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>13</v>
@@ -26427,7 +26430,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26809,7 +26812,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>8</v>
@@ -27000,7 +27003,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27191,7 +27194,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27382,7 +27385,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27573,7 +27576,7 @@
         <v>124</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27764,7 +27767,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27955,7 +27958,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28337,7 +28340,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28424,7 +28427,7 @@
         <v>0.86</v>
       </c>
       <c r="AS142">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT142">
         <v>0.82</v>
@@ -28618,7 +28621,7 @@
         <v>1.18</v>
       </c>
       <c r="AT143">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU143">
         <v>1.09</v>
@@ -28910,7 +28913,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29101,7 +29104,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29292,7 +29295,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29483,7 +29486,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29674,7 +29677,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -29865,7 +29868,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30056,7 +30059,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30247,7 +30250,7 @@
         <v>139</v>
       </c>
       <c r="P152" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30438,7 +30441,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -30629,7 +30632,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q154">
         <v>7</v>
@@ -31202,7 +31205,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31393,7 +31396,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31584,7 +31587,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31671,7 +31674,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT159">
         <v>1.09</v>
@@ -32056,7 +32059,7 @@
         <v>2.58</v>
       </c>
       <c r="AT161">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU161">
         <v>2.29</v>
@@ -32539,7 +32542,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32730,7 +32733,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32921,7 +32924,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33112,7 +33115,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33494,7 +33497,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33876,7 +33879,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34258,7 +34261,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34449,7 +34452,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34640,7 +34643,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34831,7 +34834,7 @@
         <v>85</v>
       </c>
       <c r="P176" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -35213,7 +35216,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35404,7 +35407,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q179">
         <v>0</v>
@@ -35977,7 +35980,7 @@
         <v>207</v>
       </c>
       <c r="P182" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -37123,7 +37126,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37314,7 +37317,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37505,7 +37508,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37783,7 +37786,7 @@
         <v>1.1</v>
       </c>
       <c r="AS191">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT191">
         <v>1.08</v>
@@ -37887,7 +37890,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -38168,7 +38171,7 @@
         <v>1.27</v>
       </c>
       <c r="AT193">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU193">
         <v>1.62</v>
@@ -38269,7 +38272,7 @@
         <v>85</v>
       </c>
       <c r="P194" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38460,7 +38463,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -39224,7 +39227,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -40179,7 +40182,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q204">
         <v>11</v>
@@ -40943,7 +40946,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41516,7 +41519,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41707,7 +41710,7 @@
         <v>215</v>
       </c>
       <c r="P212" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41898,7 +41901,7 @@
         <v>194</v>
       </c>
       <c r="P213" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -43044,7 +43047,7 @@
         <v>85</v>
       </c>
       <c r="P219" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -43377,6 +43380,197 @@
       </c>
       <c r="BK220">
         <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2782271</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44970.70833333334</v>
+      </c>
+      <c r="F221">
+        <v>23</v>
+      </c>
+      <c r="G221" t="s">
+        <v>84</v>
+      </c>
+      <c r="H221" t="s">
+        <v>71</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>229</v>
+      </c>
+      <c r="P221" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q221">
+        <v>3</v>
+      </c>
+      <c r="R221">
+        <v>3</v>
+      </c>
+      <c r="S221">
+        <v>6</v>
+      </c>
+      <c r="T221">
+        <v>2.05</v>
+      </c>
+      <c r="U221">
+        <v>2.38</v>
+      </c>
+      <c r="V221">
+        <v>6</v>
+      </c>
+      <c r="W221">
+        <v>1.33</v>
+      </c>
+      <c r="X221">
+        <v>3.25</v>
+      </c>
+      <c r="Y221">
+        <v>2.63</v>
+      </c>
+      <c r="Z221">
+        <v>1.44</v>
+      </c>
+      <c r="AA221">
+        <v>6.5</v>
+      </c>
+      <c r="AB221">
+        <v>1.11</v>
+      </c>
+      <c r="AC221">
+        <v>1.32</v>
+      </c>
+      <c r="AD221">
+        <v>5.47</v>
+      </c>
+      <c r="AE221">
+        <v>7.63</v>
+      </c>
+      <c r="AF221">
+        <v>1.03</v>
+      </c>
+      <c r="AG221">
+        <v>13</v>
+      </c>
+      <c r="AH221">
+        <v>1.27</v>
+      </c>
+      <c r="AI221">
+        <v>4</v>
+      </c>
+      <c r="AJ221">
+        <v>1.43</v>
+      </c>
+      <c r="AK221">
+        <v>2.56</v>
+      </c>
+      <c r="AL221">
+        <v>1.91</v>
+      </c>
+      <c r="AM221">
+        <v>1.91</v>
+      </c>
+      <c r="AN221">
+        <v>1.15</v>
+      </c>
+      <c r="AO221">
+        <v>1.25</v>
+      </c>
+      <c r="AP221">
+        <v>2.5</v>
+      </c>
+      <c r="AQ221">
+        <v>2.1</v>
+      </c>
+      <c r="AR221">
+        <v>0.7</v>
+      </c>
+      <c r="AS221">
+        <v>2.18</v>
+      </c>
+      <c r="AT221">
+        <v>0.64</v>
+      </c>
+      <c r="AU221">
+        <v>2.3</v>
+      </c>
+      <c r="AV221">
+        <v>1.08</v>
+      </c>
+      <c r="AW221">
+        <v>3.38</v>
+      </c>
+      <c r="AX221">
+        <v>1.27</v>
+      </c>
+      <c r="AY221">
+        <v>10.5</v>
+      </c>
+      <c r="AZ221">
+        <v>4.75</v>
+      </c>
+      <c r="BA221">
+        <v>1.23</v>
+      </c>
+      <c r="BB221">
+        <v>1.38</v>
+      </c>
+      <c r="BC221">
+        <v>1.62</v>
+      </c>
+      <c r="BD221">
+        <v>1.94</v>
+      </c>
+      <c r="BE221">
+        <v>2.4</v>
+      </c>
+      <c r="BF221">
+        <v>7</v>
+      </c>
+      <c r="BG221">
+        <v>2</v>
+      </c>
+      <c r="BH221">
+        <v>9</v>
+      </c>
+      <c r="BI221">
+        <v>5</v>
+      </c>
+      <c r="BJ221">
+        <v>16</v>
+      </c>
+      <c r="BK221">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,9 @@
     <t>['36', '49']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -995,6 +998,9 @@
   </si>
   <si>
     <t>['80', '85']</t>
+  </si>
+  <si>
+    <t>['24', '72', '82']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1606,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1791,7 +1797,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2173,7 +2179,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2555,7 +2561,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2746,7 +2752,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2937,7 +2943,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3128,7 +3134,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3319,7 +3325,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3409,7 +3415,7 @@
         <v>1.27</v>
       </c>
       <c r="AT11">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3701,7 +3707,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3788,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT13">
         <v>1.09</v>
@@ -4274,7 +4280,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -5038,7 +5044,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5229,7 +5235,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5802,7 +5808,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5993,7 +5999,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6184,7 +6190,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6375,7 +6381,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6757,7 +6763,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6948,7 +6954,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7038,7 +7044,7 @@
         <v>2.09</v>
       </c>
       <c r="AT30">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU30">
         <v>2.93</v>
@@ -7139,7 +7145,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7521,7 +7527,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -8563,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT38">
         <v>1.27</v>
@@ -8858,7 +8864,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9049,7 +9055,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9622,7 +9628,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9813,7 +9819,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -10282,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10577,7 +10583,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10959,7 +10965,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11341,7 +11347,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11723,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>10</v>
@@ -11914,7 +11920,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12296,7 +12302,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12577,7 +12583,7 @@
         <v>1.55</v>
       </c>
       <c r="AT59">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU59">
         <v>1.54</v>
@@ -12678,7 +12684,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -13251,7 +13257,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13442,7 +13448,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13532,7 +13538,7 @@
         <v>1.27</v>
       </c>
       <c r="AT64">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU64">
         <v>1.11</v>
@@ -13633,7 +13639,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13824,7 +13830,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14015,7 +14021,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14397,7 +14403,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14484,7 +14490,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT69">
         <v>1.5</v>
@@ -14779,7 +14785,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14970,7 +14976,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15161,7 +15167,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -15352,7 +15358,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15734,7 +15740,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16880,7 +16886,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17262,7 +17268,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17644,7 +17650,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17731,7 +17737,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT86">
         <v>0.8</v>
@@ -17835,7 +17841,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18599,7 +18605,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -19554,7 +19560,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19745,7 +19751,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -20026,7 +20032,7 @@
         <v>2.18</v>
       </c>
       <c r="AT98">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU98">
         <v>2.65</v>
@@ -20318,7 +20324,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -21082,7 +21088,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -22419,7 +22425,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22610,7 +22616,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22992,7 +22998,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23183,7 +23189,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23374,7 +23380,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23846,7 +23852,7 @@
         <v>1.09</v>
       </c>
       <c r="AT118">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU118">
         <v>1.4</v>
@@ -23947,7 +23953,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24138,7 +24144,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -25093,7 +25099,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25371,7 +25377,7 @@
         <v>0.33</v>
       </c>
       <c r="AS126">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT126">
         <v>0.55</v>
@@ -25666,7 +25672,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25857,7 +25863,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26239,7 +26245,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>13</v>
@@ -26430,7 +26436,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26812,7 +26818,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>8</v>
@@ -27003,7 +27009,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27194,7 +27200,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27385,7 +27391,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27576,7 +27582,7 @@
         <v>124</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27767,7 +27773,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27958,7 +27964,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28340,7 +28346,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28913,7 +28919,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29104,7 +29110,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29295,7 +29301,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29486,7 +29492,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29677,7 +29683,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -29868,7 +29874,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30059,7 +30065,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30250,7 +30256,7 @@
         <v>139</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30441,7 +30447,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -30632,7 +30638,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q154">
         <v>7</v>
@@ -30719,7 +30725,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT154">
         <v>0.55</v>
@@ -31205,7 +31211,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31295,7 +31301,7 @@
         <v>1.18</v>
       </c>
       <c r="AT157">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU157">
         <v>1.66</v>
@@ -31396,7 +31402,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31587,7 +31593,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32542,7 +32548,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32733,7 +32739,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32924,7 +32930,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33115,7 +33121,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33497,7 +33503,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33775,7 +33781,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT170">
         <v>1.64</v>
@@ -33879,7 +33885,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34261,7 +34267,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34452,7 +34458,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34643,7 +34649,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34834,7 +34840,7 @@
         <v>85</v>
       </c>
       <c r="P176" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -35115,7 +35121,7 @@
         <v>1.8</v>
       </c>
       <c r="AT177">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU177">
         <v>1.48</v>
@@ -35216,7 +35222,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35407,7 +35413,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q179">
         <v>0</v>
@@ -35688,7 +35694,7 @@
         <v>2.36</v>
       </c>
       <c r="AT180">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU180">
         <v>1.98</v>
@@ -35980,7 +35986,7 @@
         <v>207</v>
       </c>
       <c r="P182" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -37126,7 +37132,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37317,7 +37323,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37508,7 +37514,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37890,7 +37896,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -38272,7 +38278,7 @@
         <v>85</v>
       </c>
       <c r="P194" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38463,7 +38469,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -39227,7 +39233,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -39314,7 +39320,7 @@
         <v>1.7</v>
       </c>
       <c r="AS199">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT199">
         <v>1.67</v>
@@ -40182,7 +40188,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q204">
         <v>11</v>
@@ -40946,7 +40952,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41418,7 +41424,7 @@
         <v>1.91</v>
       </c>
       <c r="AT210">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU210">
         <v>1.9</v>
@@ -41519,7 +41525,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41710,7 +41716,7 @@
         <v>215</v>
       </c>
       <c r="P212" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41901,7 +41907,7 @@
         <v>194</v>
       </c>
       <c r="P213" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42179,7 +42185,7 @@
         <v>1.1</v>
       </c>
       <c r="AS214">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AT214">
         <v>1.09</v>
@@ -43047,7 +43053,7 @@
         <v>85</v>
       </c>
       <c r="P219" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -43571,6 +43577,197 @@
       </c>
       <c r="BK221">
         <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2782148</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44972.6875</v>
+      </c>
+      <c r="F222">
+        <v>12</v>
+      </c>
+      <c r="G222" t="s">
+        <v>76</v>
+      </c>
+      <c r="H222" t="s">
+        <v>78</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>3</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+      <c r="O222" t="s">
+        <v>230</v>
+      </c>
+      <c r="P222" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q222">
+        <v>1</v>
+      </c>
+      <c r="R222">
+        <v>2</v>
+      </c>
+      <c r="S222">
+        <v>3</v>
+      </c>
+      <c r="T222">
+        <v>3.4</v>
+      </c>
+      <c r="U222">
+        <v>2.2</v>
+      </c>
+      <c r="V222">
+        <v>3</v>
+      </c>
+      <c r="W222">
+        <v>1.36</v>
+      </c>
+      <c r="X222">
+        <v>3</v>
+      </c>
+      <c r="Y222">
+        <v>2.63</v>
+      </c>
+      <c r="Z222">
+        <v>1.44</v>
+      </c>
+      <c r="AA222">
+        <v>7</v>
+      </c>
+      <c r="AB222">
+        <v>1.1</v>
+      </c>
+      <c r="AC222">
+        <v>2.8</v>
+      </c>
+      <c r="AD222">
+        <v>3.4</v>
+      </c>
+      <c r="AE222">
+        <v>2.45</v>
+      </c>
+      <c r="AF222">
+        <v>1.05</v>
+      </c>
+      <c r="AG222">
+        <v>12</v>
+      </c>
+      <c r="AH222">
+        <v>1.29</v>
+      </c>
+      <c r="AI222">
+        <v>3.8</v>
+      </c>
+      <c r="AJ222">
+        <v>1.8</v>
+      </c>
+      <c r="AK222">
+        <v>1.87</v>
+      </c>
+      <c r="AL222">
+        <v>1.67</v>
+      </c>
+      <c r="AM222">
+        <v>2.1</v>
+      </c>
+      <c r="AN222">
+        <v>1.53</v>
+      </c>
+      <c r="AO222">
+        <v>1.31</v>
+      </c>
+      <c r="AP222">
+        <v>1.41</v>
+      </c>
+      <c r="AQ222">
+        <v>2.6</v>
+      </c>
+      <c r="AR222">
+        <v>1.7</v>
+      </c>
+      <c r="AS222">
+        <v>2.36</v>
+      </c>
+      <c r="AT222">
+        <v>1.82</v>
+      </c>
+      <c r="AU222">
+        <v>2.42</v>
+      </c>
+      <c r="AV222">
+        <v>1.93</v>
+      </c>
+      <c r="AW222">
+        <v>4.35</v>
+      </c>
+      <c r="AX222">
+        <v>2.07</v>
+      </c>
+      <c r="AY222">
+        <v>7.5</v>
+      </c>
+      <c r="AZ222">
+        <v>2.12</v>
+      </c>
+      <c r="BA222">
+        <v>1.27</v>
+      </c>
+      <c r="BB222">
+        <v>1.53</v>
+      </c>
+      <c r="BC222">
+        <v>1.94</v>
+      </c>
+      <c r="BD222">
+        <v>2.53</v>
+      </c>
+      <c r="BE222">
+        <v>3.42</v>
+      </c>
+      <c r="BF222">
+        <v>2</v>
+      </c>
+      <c r="BG222">
+        <v>7</v>
+      </c>
+      <c r="BH222">
+        <v>9</v>
+      </c>
+      <c r="BI222">
+        <v>3</v>
+      </c>
+      <c r="BJ222">
+        <v>11</v>
+      </c>
+      <c r="BK222">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,18 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['5', '31']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['25', '56', '61']</t>
+  </si>
+  <si>
+    <t>['56', '72']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -1001,6 +1013,12 @@
   </si>
   <si>
     <t>['24', '72', '82']</t>
+  </si>
+  <si>
+    <t>['16', '61', '90+3', '90+8']</t>
+  </si>
+  <si>
+    <t>['10', '17']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK222"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1624,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1696,7 +1714,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1797,7 +1815,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1887,7 +1905,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2179,7 +2197,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2457,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT6">
         <v>0.55</v>
@@ -2561,7 +2579,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2648,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2752,7 +2770,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2839,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT8">
         <v>1.08</v>
@@ -2943,7 +2961,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3134,7 +3152,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3221,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT10">
         <v>1.64</v>
@@ -3325,7 +3343,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3415,7 +3433,7 @@
         <v>1.27</v>
       </c>
       <c r="AT11">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3603,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT12">
         <v>0.64</v>
@@ -3707,7 +3725,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3797,7 +3815,7 @@
         <v>2.36</v>
       </c>
       <c r="AT13">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3985,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT14">
         <v>1.64</v>
@@ -4179,7 +4197,7 @@
         <v>2.58</v>
       </c>
       <c r="AT15">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4280,7 +4298,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4370,7 +4388,7 @@
         <v>0.55</v>
       </c>
       <c r="AT16">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4558,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT17">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4749,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT18">
         <v>1.67</v>
@@ -4940,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT19">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5044,7 +5062,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5131,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT20">
         <v>1.5</v>
@@ -5235,7 +5253,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5325,7 +5343,7 @@
         <v>2.18</v>
       </c>
       <c r="AT21">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5513,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>0.82</v>
@@ -5808,7 +5826,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5895,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT24">
         <v>0.55</v>
@@ -5999,7 +6017,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6190,7 +6208,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6280,7 +6298,7 @@
         <v>1.09</v>
       </c>
       <c r="AT26">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -6381,7 +6399,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6471,7 +6489,7 @@
         <v>1.18</v>
       </c>
       <c r="AT27">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU27">
         <v>0.8</v>
@@ -6763,7 +6781,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6954,7 +6972,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7041,10 +7059,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT30">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU30">
         <v>2.93</v>
@@ -7145,7 +7163,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7232,10 +7250,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>2.01</v>
@@ -7527,7 +7545,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7617,7 +7635,7 @@
         <v>2.58</v>
       </c>
       <c r="AT33">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU33">
         <v>2.53</v>
@@ -7808,7 +7826,7 @@
         <v>2.18</v>
       </c>
       <c r="AT34">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>2.56</v>
@@ -7996,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT35">
         <v>0.64</v>
@@ -8187,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT36">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU36">
         <v>1.78</v>
@@ -8378,10 +8396,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>2.05</v>
@@ -8572,7 +8590,7 @@
         <v>2.36</v>
       </c>
       <c r="AT38">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU38">
         <v>2.29</v>
@@ -8760,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT39">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU39">
         <v>1.64</v>
@@ -8864,7 +8882,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8951,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT40">
         <v>1.64</v>
@@ -9055,7 +9073,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9142,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT41">
         <v>1.5</v>
@@ -9628,7 +9646,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9819,7 +9837,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -10583,7 +10601,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10965,7 +10983,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11243,10 +11261,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.79</v>
@@ -11347,7 +11365,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11434,10 +11452,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT53">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU53">
         <v>1.53</v>
@@ -11625,10 +11643,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT54">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.1</v>
@@ -11729,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q55">
         <v>10</v>
@@ -11816,10 +11834,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT55">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -11920,7 +11938,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12007,10 +12025,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT56">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU56">
         <v>1.94</v>
@@ -12198,10 +12216,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT57">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU57">
         <v>2.26</v>
@@ -12302,7 +12320,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12389,10 +12407,10 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT58">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU58">
         <v>1.78</v>
@@ -12580,10 +12598,10 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT59">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU59">
         <v>1.54</v>
@@ -12684,7 +12702,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12771,10 +12789,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT60">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>1.67</v>
@@ -12962,10 +12980,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT61">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU61">
         <v>1.72</v>
@@ -13153,10 +13171,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT62">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.22</v>
@@ -13257,7 +13275,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13344,10 +13362,10 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT63">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU63">
         <v>1.66</v>
@@ -13448,7 +13466,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13535,10 +13553,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT64">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU64">
         <v>1.11</v>
@@ -13639,7 +13657,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13726,10 +13744,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT65">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU65">
         <v>2.35</v>
@@ -13830,7 +13848,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13917,10 +13935,10 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT66">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>1.91</v>
@@ -14021,7 +14039,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14108,10 +14126,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT67">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU67">
         <v>1.9</v>
@@ -14299,10 +14317,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT68">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -14403,7 +14421,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14785,7 +14803,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14976,7 +14994,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -15167,7 +15185,7 @@
         <v>103</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -15358,7 +15376,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15740,7 +15758,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16400,7 +16418,7 @@
         <v>0.25</v>
       </c>
       <c r="AS79">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT79">
         <v>0.82</v>
@@ -16591,7 +16609,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT80">
         <v>1.09</v>
@@ -16785,7 +16803,7 @@
         <v>2.58</v>
       </c>
       <c r="AT81">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>2.39</v>
@@ -16886,7 +16904,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16976,7 +16994,7 @@
         <v>1.18</v>
       </c>
       <c r="AT82">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>0.8100000000000001</v>
@@ -17164,7 +17182,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT83">
         <v>1.5</v>
@@ -17268,7 +17286,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17358,7 +17376,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU84">
         <v>1.57</v>
@@ -17549,7 +17567,7 @@
         <v>1.27</v>
       </c>
       <c r="AT85">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU85">
         <v>1.39</v>
@@ -17650,7 +17668,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17740,7 +17758,7 @@
         <v>2.36</v>
       </c>
       <c r="AT86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>2.59</v>
@@ -17841,7 +17859,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17928,7 +17946,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT87">
         <v>1.67</v>
@@ -18119,7 +18137,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -18310,7 +18328,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT89">
         <v>1.64</v>
@@ -18504,7 +18522,7 @@
         <v>1.09</v>
       </c>
       <c r="AT90">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU90">
         <v>1.44</v>
@@ -18605,7 +18623,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18695,7 +18713,7 @@
         <v>1.75</v>
       </c>
       <c r="AT91">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU91">
         <v>1.34</v>
@@ -18883,7 +18901,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT92">
         <v>0.55</v>
@@ -19074,7 +19092,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT93">
         <v>0.64</v>
@@ -19268,7 +19286,7 @@
         <v>0.55</v>
       </c>
       <c r="AT94">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU94">
         <v>1.84</v>
@@ -19456,7 +19474,7 @@
         <v>1.25</v>
       </c>
       <c r="AS95">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT95">
         <v>1.64</v>
@@ -19560,7 +19578,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19650,7 +19668,7 @@
         <v>1.18</v>
       </c>
       <c r="AT96">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU96">
         <v>1.49</v>
@@ -19751,7 +19769,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19838,7 +19856,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT97">
         <v>1.08</v>
@@ -20032,7 +20050,7 @@
         <v>2.18</v>
       </c>
       <c r="AT98">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU98">
         <v>2.65</v>
@@ -20220,7 +20238,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT99">
         <v>0.55</v>
@@ -20324,7 +20342,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20602,7 +20620,7 @@
         <v>1.8</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT101">
         <v>1.08</v>
@@ -20793,7 +20811,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT102">
         <v>0.64</v>
@@ -20987,7 +21005,7 @@
         <v>2.18</v>
       </c>
       <c r="AT103">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU103">
         <v>2.4</v>
@@ -21088,7 +21106,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21178,7 +21196,7 @@
         <v>1.18</v>
       </c>
       <c r="AT104">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>0.9399999999999999</v>
@@ -21366,7 +21384,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT105">
         <v>1.5</v>
@@ -21751,7 +21769,7 @@
         <v>1.09</v>
       </c>
       <c r="AT107">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU107">
         <v>1.52</v>
@@ -21939,10 +21957,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT108">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>1.43</v>
@@ -22321,10 +22339,10 @@
         <v>0.75</v>
       </c>
       <c r="AS110">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT110">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU110">
         <v>1.5</v>
@@ -22425,7 +22443,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22512,7 +22530,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT111">
         <v>1.67</v>
@@ -22616,7 +22634,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22703,10 +22721,10 @@
         <v>0</v>
       </c>
       <c r="AS112">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT112">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU112">
         <v>1.12</v>
@@ -22894,7 +22912,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT113">
         <v>1.09</v>
@@ -22998,7 +23016,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23088,7 +23106,7 @@
         <v>1.18</v>
       </c>
       <c r="AT114">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU114">
         <v>1.59</v>
@@ -23189,7 +23207,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23279,7 +23297,7 @@
         <v>0.55</v>
       </c>
       <c r="AT115">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU115">
         <v>1.75</v>
@@ -23380,7 +23398,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23467,7 +23485,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>1.64</v>
@@ -23661,7 +23679,7 @@
         <v>1.27</v>
       </c>
       <c r="AT117">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU117">
         <v>1.49</v>
@@ -23852,7 +23870,7 @@
         <v>1.09</v>
       </c>
       <c r="AT118">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU118">
         <v>1.4</v>
@@ -23953,7 +23971,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24144,7 +24162,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24231,7 +24249,7 @@
         <v>0.17</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT120">
         <v>0.82</v>
@@ -24425,7 +24443,7 @@
         <v>1.33</v>
       </c>
       <c r="AT121">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <v>1.59</v>
@@ -24613,7 +24631,7 @@
         <v>0.33</v>
       </c>
       <c r="AS122">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT122">
         <v>1</v>
@@ -24804,7 +24822,7 @@
         <v>1.67</v>
       </c>
       <c r="AS123">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT123">
         <v>1.08</v>
@@ -25099,7 +25117,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25189,7 +25207,7 @@
         <v>2.18</v>
       </c>
       <c r="AT125">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU125">
         <v>2.38</v>
@@ -25568,10 +25586,10 @@
         <v>0.67</v>
       </c>
       <c r="AS127">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT127">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU127">
         <v>1.96</v>
@@ -25672,7 +25690,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25759,7 +25777,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT128">
         <v>1.09</v>
@@ -25863,7 +25881,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25950,7 +25968,7 @@
         <v>1.17</v>
       </c>
       <c r="AS129">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT129">
         <v>1.64</v>
@@ -26144,7 +26162,7 @@
         <v>2.58</v>
       </c>
       <c r="AT130">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU130">
         <v>2.22</v>
@@ -26245,7 +26263,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q131">
         <v>13</v>
@@ -26335,7 +26353,7 @@
         <v>1.18</v>
       </c>
       <c r="AT131">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU131">
         <v>1.61</v>
@@ -26436,7 +26454,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26523,10 +26541,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT132">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU132">
         <v>1.51</v>
@@ -26714,10 +26732,10 @@
         <v>2.17</v>
       </c>
       <c r="AS133">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT133">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU133">
         <v>1.56</v>
@@ -26818,7 +26836,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>8</v>
@@ -27009,7 +27027,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27096,7 +27114,7 @@
         <v>1.67</v>
       </c>
       <c r="AS135">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT135">
         <v>1.67</v>
@@ -27200,7 +27218,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27290,7 +27308,7 @@
         <v>1.27</v>
       </c>
       <c r="AT136">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU136">
         <v>1.57</v>
@@ -27391,7 +27409,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27478,10 +27496,10 @@
         <v>0.4</v>
       </c>
       <c r="AS137">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT137">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -27582,7 +27600,7 @@
         <v>124</v>
       </c>
       <c r="P138" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27773,7 +27791,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27863,7 +27881,7 @@
         <v>1.27</v>
       </c>
       <c r="AT139">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.46</v>
@@ -27964,7 +27982,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q140">
         <v>9</v>
@@ -28051,10 +28069,10 @@
         <v>0.67</v>
       </c>
       <c r="AS140">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT140">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU140">
         <v>1.99</v>
@@ -28242,10 +28260,10 @@
         <v>1</v>
       </c>
       <c r="AS141">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT141">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU141">
         <v>1.53</v>
@@ -28346,7 +28364,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28436,7 +28454,7 @@
         <v>2.18</v>
       </c>
       <c r="AT142">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU142">
         <v>2.44</v>
@@ -28815,7 +28833,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT144">
         <v>1.08</v>
@@ -28919,7 +28937,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29006,10 +29024,10 @@
         <v>2.29</v>
       </c>
       <c r="AS145">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT145">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU145">
         <v>1.33</v>
@@ -29110,7 +29128,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29197,7 +29215,7 @@
         <v>0.29</v>
       </c>
       <c r="AS146">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT146">
         <v>1</v>
@@ -29301,7 +29319,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29492,7 +29510,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29579,7 +29597,7 @@
         <v>1.57</v>
       </c>
       <c r="AS148">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT148">
         <v>1.5</v>
@@ -29683,7 +29701,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -29773,7 +29791,7 @@
         <v>1.33</v>
       </c>
       <c r="AT149">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU149">
         <v>1.62</v>
@@ -29874,7 +29892,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30065,7 +30083,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30256,7 +30274,7 @@
         <v>139</v>
       </c>
       <c r="P152" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30343,7 +30361,7 @@
         <v>0.29</v>
       </c>
       <c r="AS152">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT152">
         <v>0.82</v>
@@ -30447,7 +30465,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -30534,10 +30552,10 @@
         <v>0.83</v>
       </c>
       <c r="AS153">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT153">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU153">
         <v>1.45</v>
@@ -30638,7 +30656,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>7</v>
@@ -30728,7 +30746,7 @@
         <v>2.36</v>
       </c>
       <c r="AT154">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU154">
         <v>2.46</v>
@@ -30916,10 +30934,10 @@
         <v>0.71</v>
       </c>
       <c r="AS155">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT155">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -31107,7 +31125,7 @@
         <v>0.29</v>
       </c>
       <c r="AS156">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT156">
         <v>0.55</v>
@@ -31211,7 +31229,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31301,7 +31319,7 @@
         <v>1.18</v>
       </c>
       <c r="AT157">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU157">
         <v>1.66</v>
@@ -31402,7 +31420,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31593,7 +31611,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31683,7 +31701,7 @@
         <v>2.18</v>
       </c>
       <c r="AT159">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU159">
         <v>2.38</v>
@@ -31871,7 +31889,7 @@
         <v>1.63</v>
       </c>
       <c r="AS160">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT160">
         <v>1.67</v>
@@ -32256,7 +32274,7 @@
         <v>1.75</v>
       </c>
       <c r="AT162">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>1.79</v>
@@ -32444,10 +32462,10 @@
         <v>0.57</v>
       </c>
       <c r="AS163">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT163">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU163">
         <v>2.11</v>
@@ -32548,7 +32566,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32638,7 +32656,7 @@
         <v>1.18</v>
       </c>
       <c r="AT164">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU164">
         <v>1.18</v>
@@ -32739,7 +32757,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32826,10 +32844,10 @@
         <v>2.38</v>
       </c>
       <c r="AS165">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT165">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU165">
         <v>1.92</v>
@@ -32930,7 +32948,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33017,7 +33035,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -33121,7 +33139,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33208,7 +33226,7 @@
         <v>1.25</v>
       </c>
       <c r="AS167">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT167">
         <v>1.08</v>
@@ -33399,10 +33417,10 @@
         <v>1.14</v>
       </c>
       <c r="AS168">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT168">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU168">
         <v>1.44</v>
@@ -33503,7 +33521,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33593,7 +33611,7 @@
         <v>1.09</v>
       </c>
       <c r="AT169">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU169">
         <v>1.35</v>
@@ -33885,7 +33903,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33972,7 +33990,7 @@
         <v>1.63</v>
       </c>
       <c r="AS171">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT171">
         <v>1.64</v>
@@ -34163,10 +34181,10 @@
         <v>0.63</v>
       </c>
       <c r="AS172">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT172">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU172">
         <v>1.96</v>
@@ -34267,7 +34285,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34458,7 +34476,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34548,7 +34566,7 @@
         <v>1.18</v>
       </c>
       <c r="AT174">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU174">
         <v>1.58</v>
@@ -34649,7 +34667,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34736,7 +34754,7 @@
         <v>0.63</v>
       </c>
       <c r="AS175">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT175">
         <v>0.82</v>
@@ -34840,7 +34858,7 @@
         <v>85</v>
       </c>
       <c r="P176" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q176">
         <v>10</v>
@@ -35118,10 +35136,10 @@
         <v>2</v>
       </c>
       <c r="AS177">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT177">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU177">
         <v>1.48</v>
@@ -35222,7 +35240,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35413,7 +35431,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q179">
         <v>0</v>
@@ -35500,10 +35518,10 @@
         <v>0.63</v>
       </c>
       <c r="AS179">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT179">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU179">
         <v>1.49</v>
@@ -35691,10 +35709,10 @@
         <v>2.13</v>
       </c>
       <c r="AS180">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT180">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU180">
         <v>1.98</v>
@@ -35882,10 +35900,10 @@
         <v>1</v>
       </c>
       <c r="AS181">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT181">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU181">
         <v>1.86</v>
@@ -35986,7 +36004,7 @@
         <v>207</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36073,10 +36091,10 @@
         <v>0.67</v>
       </c>
       <c r="AS182">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT182">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU182">
         <v>1.5</v>
@@ -36264,10 +36282,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT183">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU183">
         <v>1.47</v>
@@ -36455,10 +36473,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS184">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT184">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU184">
         <v>1.31</v>
@@ -36646,10 +36664,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS185">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT185">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU185">
         <v>1.45</v>
@@ -36837,10 +36855,10 @@
         <v>1.13</v>
       </c>
       <c r="AS186">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT186">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU186">
         <v>1.44</v>
@@ -37028,10 +37046,10 @@
         <v>1.44</v>
       </c>
       <c r="AS187">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT187">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU187">
         <v>2.08</v>
@@ -37132,7 +37150,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37219,10 +37237,10 @@
         <v>2.44</v>
       </c>
       <c r="AS188">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT188">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU188">
         <v>1.88</v>
@@ -37323,7 +37341,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37514,7 +37532,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37896,7 +37914,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q192">
         <v>5</v>
@@ -38278,7 +38296,7 @@
         <v>85</v>
       </c>
       <c r="P194" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38469,7 +38487,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -39233,7 +39251,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -39702,10 +39720,10 @@
         <v>1.3</v>
       </c>
       <c r="AS201">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT201">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU201">
         <v>1.54</v>
@@ -39893,10 +39911,10 @@
         <v>2.5</v>
       </c>
       <c r="AS202">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT202">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU202">
         <v>1.47</v>
@@ -40084,10 +40102,10 @@
         <v>0.89</v>
       </c>
       <c r="AS203">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT203">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU203">
         <v>1.35</v>
@@ -40188,7 +40206,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q204">
         <v>11</v>
@@ -40275,10 +40293,10 @@
         <v>0.9</v>
       </c>
       <c r="AS204">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT204">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU204">
         <v>1.48</v>
@@ -40466,10 +40484,10 @@
         <v>0.9</v>
       </c>
       <c r="AS205">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT205">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU205">
         <v>1.45</v>
@@ -40657,10 +40675,10 @@
         <v>0.5</v>
       </c>
       <c r="AS206">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT206">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU206">
         <v>1.86</v>
@@ -40848,10 +40866,10 @@
         <v>1</v>
       </c>
       <c r="AS207">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT207">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU207">
         <v>1.88</v>
@@ -40952,7 +40970,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41039,10 +41057,10 @@
         <v>0.5</v>
       </c>
       <c r="AS208">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT208">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU208">
         <v>2.09</v>
@@ -41230,10 +41248,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS209">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT209">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU209">
         <v>1.47</v>
@@ -41421,10 +41439,10 @@
         <v>1.89</v>
       </c>
       <c r="AS210">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT210">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU210">
         <v>1.9</v>
@@ -41525,7 +41543,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41612,10 +41630,10 @@
         <v>0.5</v>
       </c>
       <c r="AS211">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT211">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU211">
         <v>1.86</v>
@@ -41716,7 +41734,7 @@
         <v>215</v>
       </c>
       <c r="P212" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41907,7 +41925,7 @@
         <v>194</v>
       </c>
       <c r="P213" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -43053,7 +43071,7 @@
         <v>85</v>
       </c>
       <c r="P219" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -43626,7 +43644,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43716,7 +43734,7 @@
         <v>2.36</v>
       </c>
       <c r="AT222">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU222">
         <v>2.42</v>
@@ -43768,6 +43786,1916 @@
       </c>
       <c r="BK222">
         <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2782274</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44975.39583333334</v>
+      </c>
+      <c r="F223">
+        <v>24</v>
+      </c>
+      <c r="G223" t="s">
+        <v>75</v>
+      </c>
+      <c r="H223" t="s">
+        <v>76</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>3</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>4</v>
+      </c>
+      <c r="N223">
+        <v>6</v>
+      </c>
+      <c r="O223" t="s">
+        <v>231</v>
+      </c>
+      <c r="P223" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q223">
+        <v>2</v>
+      </c>
+      <c r="R223">
+        <v>9</v>
+      </c>
+      <c r="S223">
+        <v>11</v>
+      </c>
+      <c r="T223">
+        <v>5</v>
+      </c>
+      <c r="U223">
+        <v>2.25</v>
+      </c>
+      <c r="V223">
+        <v>2.3</v>
+      </c>
+      <c r="W223">
+        <v>1.36</v>
+      </c>
+      <c r="X223">
+        <v>3</v>
+      </c>
+      <c r="Y223">
+        <v>2.75</v>
+      </c>
+      <c r="Z223">
+        <v>1.4</v>
+      </c>
+      <c r="AA223">
+        <v>7</v>
+      </c>
+      <c r="AB223">
+        <v>1.1</v>
+      </c>
+      <c r="AC223">
+        <v>4.9</v>
+      </c>
+      <c r="AD223">
+        <v>4.2</v>
+      </c>
+      <c r="AE223">
+        <v>1.67</v>
+      </c>
+      <c r="AF223">
+        <v>1.05</v>
+      </c>
+      <c r="AG223">
+        <v>12</v>
+      </c>
+      <c r="AH223">
+        <v>1.3</v>
+      </c>
+      <c r="AI223">
+        <v>3.7</v>
+      </c>
+      <c r="AJ223">
+        <v>1.94</v>
+      </c>
+      <c r="AK223">
+        <v>1.86</v>
+      </c>
+      <c r="AL223">
+        <v>1.8</v>
+      </c>
+      <c r="AM223">
+        <v>1.95</v>
+      </c>
+      <c r="AN223">
+        <v>2.05</v>
+      </c>
+      <c r="AO223">
+        <v>1.26</v>
+      </c>
+      <c r="AP223">
+        <v>1.18</v>
+      </c>
+      <c r="AQ223">
+        <v>1.55</v>
+      </c>
+      <c r="AR223">
+        <v>2.27</v>
+      </c>
+      <c r="AS223">
+        <v>1.42</v>
+      </c>
+      <c r="AT223">
+        <v>2.33</v>
+      </c>
+      <c r="AU223">
+        <v>1.56</v>
+      </c>
+      <c r="AV223">
+        <v>1.65</v>
+      </c>
+      <c r="AW223">
+        <v>3.21</v>
+      </c>
+      <c r="AX223">
+        <v>3.32</v>
+      </c>
+      <c r="AY223">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ223">
+        <v>1.49</v>
+      </c>
+      <c r="BA223">
+        <v>1.26</v>
+      </c>
+      <c r="BB223">
+        <v>1.51</v>
+      </c>
+      <c r="BC223">
+        <v>1.88</v>
+      </c>
+      <c r="BD223">
+        <v>2.42</v>
+      </c>
+      <c r="BE223">
+        <v>3.2</v>
+      </c>
+      <c r="BF223">
+        <v>6</v>
+      </c>
+      <c r="BG223">
+        <v>6</v>
+      </c>
+      <c r="BH223">
+        <v>1</v>
+      </c>
+      <c r="BI223">
+        <v>8</v>
+      </c>
+      <c r="BJ223">
+        <v>7</v>
+      </c>
+      <c r="BK223">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2782278</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F224">
+        <v>24</v>
+      </c>
+      <c r="G224" t="s">
+        <v>71</v>
+      </c>
+      <c r="H224" t="s">
+        <v>68</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>101</v>
+      </c>
+      <c r="P224" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q224">
+        <v>6</v>
+      </c>
+      <c r="R224">
+        <v>4</v>
+      </c>
+      <c r="S224">
+        <v>10</v>
+      </c>
+      <c r="T224">
+        <v>3.1</v>
+      </c>
+      <c r="U224">
+        <v>2.1</v>
+      </c>
+      <c r="V224">
+        <v>3.6</v>
+      </c>
+      <c r="W224">
+        <v>1.44</v>
+      </c>
+      <c r="X224">
+        <v>2.63</v>
+      </c>
+      <c r="Y224">
+        <v>3</v>
+      </c>
+      <c r="Z224">
+        <v>1.36</v>
+      </c>
+      <c r="AA224">
+        <v>9</v>
+      </c>
+      <c r="AB224">
+        <v>1.07</v>
+      </c>
+      <c r="AC224">
+        <v>2.28</v>
+      </c>
+      <c r="AD224">
+        <v>3.8</v>
+      </c>
+      <c r="AE224">
+        <v>2.95</v>
+      </c>
+      <c r="AF224">
+        <v>1.07</v>
+      </c>
+      <c r="AG224">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH224">
+        <v>1.36</v>
+      </c>
+      <c r="AI224">
+        <v>3.3</v>
+      </c>
+      <c r="AJ224">
+        <v>1.94</v>
+      </c>
+      <c r="AK224">
+        <v>1.86</v>
+      </c>
+      <c r="AL224">
+        <v>1.8</v>
+      </c>
+      <c r="AM224">
+        <v>1.95</v>
+      </c>
+      <c r="AN224">
+        <v>1.41</v>
+      </c>
+      <c r="AO224">
+        <v>1.32</v>
+      </c>
+      <c r="AP224">
+        <v>1.61</v>
+      </c>
+      <c r="AQ224">
+        <v>1</v>
+      </c>
+      <c r="AR224">
+        <v>0.55</v>
+      </c>
+      <c r="AS224">
+        <v>1.17</v>
+      </c>
+      <c r="AT224">
+        <v>0.5</v>
+      </c>
+      <c r="AU224">
+        <v>1.48</v>
+      </c>
+      <c r="AV224">
+        <v>1.5</v>
+      </c>
+      <c r="AW224">
+        <v>2.98</v>
+      </c>
+      <c r="AX224">
+        <v>2.07</v>
+      </c>
+      <c r="AY224">
+        <v>8.1</v>
+      </c>
+      <c r="AZ224">
+        <v>2.08</v>
+      </c>
+      <c r="BA224">
+        <v>1.26</v>
+      </c>
+      <c r="BB224">
+        <v>1.52</v>
+      </c>
+      <c r="BC224">
+        <v>1.89</v>
+      </c>
+      <c r="BD224">
+        <v>2.45</v>
+      </c>
+      <c r="BE224">
+        <v>3.28</v>
+      </c>
+      <c r="BF224">
+        <v>7</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>7</v>
+      </c>
+      <c r="BI224">
+        <v>5</v>
+      </c>
+      <c r="BJ224">
+        <v>14</v>
+      </c>
+      <c r="BK224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2782275</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F225">
+        <v>24</v>
+      </c>
+      <c r="G225" t="s">
+        <v>81</v>
+      </c>
+      <c r="H225" t="s">
+        <v>65</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>232</v>
+      </c>
+      <c r="P225" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q225">
+        <v>2</v>
+      </c>
+      <c r="R225">
+        <v>6</v>
+      </c>
+      <c r="S225">
+        <v>8</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>2.1</v>
+      </c>
+      <c r="V225">
+        <v>4.75</v>
+      </c>
+      <c r="W225">
+        <v>1.44</v>
+      </c>
+      <c r="X225">
+        <v>2.63</v>
+      </c>
+      <c r="Y225">
+        <v>3.25</v>
+      </c>
+      <c r="Z225">
+        <v>1.33</v>
+      </c>
+      <c r="AA225">
+        <v>9</v>
+      </c>
+      <c r="AB225">
+        <v>1.07</v>
+      </c>
+      <c r="AC225">
+        <v>2.06</v>
+      </c>
+      <c r="AD225">
+        <v>3.35</v>
+      </c>
+      <c r="AE225">
+        <v>3.85</v>
+      </c>
+      <c r="AF225">
+        <v>1.07</v>
+      </c>
+      <c r="AG225">
+        <v>7.5</v>
+      </c>
+      <c r="AH225">
+        <v>1.4</v>
+      </c>
+      <c r="AI225">
+        <v>2.75</v>
+      </c>
+      <c r="AJ225">
+        <v>2.18</v>
+      </c>
+      <c r="AK225">
+        <v>1.68</v>
+      </c>
+      <c r="AL225">
+        <v>1.95</v>
+      </c>
+      <c r="AM225">
+        <v>1.8</v>
+      </c>
+      <c r="AN225">
+        <v>1.23</v>
+      </c>
+      <c r="AO225">
+        <v>1.31</v>
+      </c>
+      <c r="AP225">
+        <v>1.83</v>
+      </c>
+      <c r="AQ225">
+        <v>2</v>
+      </c>
+      <c r="AR225">
+        <v>0.9</v>
+      </c>
+      <c r="AS225">
+        <v>1.92</v>
+      </c>
+      <c r="AT225">
+        <v>0.91</v>
+      </c>
+      <c r="AU225">
+        <v>1.48</v>
+      </c>
+      <c r="AV225">
+        <v>1.35</v>
+      </c>
+      <c r="AW225">
+        <v>2.83</v>
+      </c>
+      <c r="AX225">
+        <v>1.67</v>
+      </c>
+      <c r="AY225">
+        <v>8.4</v>
+      </c>
+      <c r="AZ225">
+        <v>2.71</v>
+      </c>
+      <c r="BA225">
+        <v>1.28</v>
+      </c>
+      <c r="BB225">
+        <v>1.53</v>
+      </c>
+      <c r="BC225">
+        <v>1.88</v>
+      </c>
+      <c r="BD225">
+        <v>2.42</v>
+      </c>
+      <c r="BE225">
+        <v>3.28</v>
+      </c>
+      <c r="BF225">
+        <v>6</v>
+      </c>
+      <c r="BG225">
+        <v>5</v>
+      </c>
+      <c r="BH225">
+        <v>6</v>
+      </c>
+      <c r="BI225">
+        <v>3</v>
+      </c>
+      <c r="BJ225">
+        <v>12</v>
+      </c>
+      <c r="BK225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2782276</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F226">
+        <v>24</v>
+      </c>
+      <c r="G226" t="s">
+        <v>77</v>
+      </c>
+      <c r="H226" t="s">
+        <v>66</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
+        <v>85</v>
+      </c>
+      <c r="P226" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q226">
+        <v>10</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>12</v>
+      </c>
+      <c r="T226">
+        <v>2.25</v>
+      </c>
+      <c r="U226">
+        <v>2.3</v>
+      </c>
+      <c r="V226">
+        <v>5</v>
+      </c>
+      <c r="W226">
+        <v>1.33</v>
+      </c>
+      <c r="X226">
+        <v>3.25</v>
+      </c>
+      <c r="Y226">
+        <v>2.63</v>
+      </c>
+      <c r="Z226">
+        <v>1.44</v>
+      </c>
+      <c r="AA226">
+        <v>6.5</v>
+      </c>
+      <c r="AB226">
+        <v>1.11</v>
+      </c>
+      <c r="AC226">
+        <v>1.72</v>
+      </c>
+      <c r="AD226">
+        <v>3.95</v>
+      </c>
+      <c r="AE226">
+        <v>4.8</v>
+      </c>
+      <c r="AF226">
+        <v>1.04</v>
+      </c>
+      <c r="AG226">
+        <v>14</v>
+      </c>
+      <c r="AH226">
+        <v>1.26</v>
+      </c>
+      <c r="AI226">
+        <v>4.1</v>
+      </c>
+      <c r="AJ226">
+        <v>1.75</v>
+      </c>
+      <c r="AK226">
+        <v>2.07</v>
+      </c>
+      <c r="AL226">
+        <v>1.75</v>
+      </c>
+      <c r="AM226">
+        <v>2</v>
+      </c>
+      <c r="AN226">
+        <v>1.19</v>
+      </c>
+      <c r="AO226">
+        <v>1.25</v>
+      </c>
+      <c r="AP226">
+        <v>2.1</v>
+      </c>
+      <c r="AQ226">
+        <v>1.7</v>
+      </c>
+      <c r="AR226">
+        <v>1.27</v>
+      </c>
+      <c r="AS226">
+        <v>1.55</v>
+      </c>
+      <c r="AT226">
+        <v>1.42</v>
+      </c>
+      <c r="AU226">
+        <v>1.92</v>
+      </c>
+      <c r="AV226">
+        <v>1.3</v>
+      </c>
+      <c r="AW226">
+        <v>3.22</v>
+      </c>
+      <c r="AX226">
+        <v>1.43</v>
+      </c>
+      <c r="AY226">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ226">
+        <v>3.58</v>
+      </c>
+      <c r="BA226">
+        <v>1.21</v>
+      </c>
+      <c r="BB226">
+        <v>1.42</v>
+      </c>
+      <c r="BC226">
+        <v>1.73</v>
+      </c>
+      <c r="BD226">
+        <v>2.17</v>
+      </c>
+      <c r="BE226">
+        <v>2.84</v>
+      </c>
+      <c r="BF226">
+        <v>8</v>
+      </c>
+      <c r="BG226">
+        <v>3</v>
+      </c>
+      <c r="BH226">
+        <v>10</v>
+      </c>
+      <c r="BI226">
+        <v>0</v>
+      </c>
+      <c r="BJ226">
+        <v>18</v>
+      </c>
+      <c r="BK226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2782277</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F227">
+        <v>24</v>
+      </c>
+      <c r="G227" t="s">
+        <v>83</v>
+      </c>
+      <c r="H227" t="s">
+        <v>79</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
+        <v>85</v>
+      </c>
+      <c r="P227" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q227">
+        <v>8</v>
+      </c>
+      <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>10</v>
+      </c>
+      <c r="T227">
+        <v>1.91</v>
+      </c>
+      <c r="U227">
+        <v>2.38</v>
+      </c>
+      <c r="V227">
+        <v>8</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>3</v>
+      </c>
+      <c r="Y227">
+        <v>2.75</v>
+      </c>
+      <c r="Z227">
+        <v>1.4</v>
+      </c>
+      <c r="AA227">
+        <v>7</v>
+      </c>
+      <c r="AB227">
+        <v>1.1</v>
+      </c>
+      <c r="AC227">
+        <v>1.47</v>
+      </c>
+      <c r="AD227">
+        <v>4.4</v>
+      </c>
+      <c r="AE227">
+        <v>7.5</v>
+      </c>
+      <c r="AF227">
+        <v>1.05</v>
+      </c>
+      <c r="AG227">
+        <v>11</v>
+      </c>
+      <c r="AH227">
+        <v>1.3</v>
+      </c>
+      <c r="AI227">
+        <v>3.7</v>
+      </c>
+      <c r="AJ227">
+        <v>1.93</v>
+      </c>
+      <c r="AK227">
+        <v>1.87</v>
+      </c>
+      <c r="AL227">
+        <v>2.2</v>
+      </c>
+      <c r="AM227">
+        <v>1.62</v>
+      </c>
+      <c r="AN227">
+        <v>1.07</v>
+      </c>
+      <c r="AO227">
+        <v>1.19</v>
+      </c>
+      <c r="AP227">
+        <v>2.95</v>
+      </c>
+      <c r="AQ227">
+        <v>1.8</v>
+      </c>
+      <c r="AR227">
+        <v>0.82</v>
+      </c>
+      <c r="AS227">
+        <v>1.64</v>
+      </c>
+      <c r="AT227">
+        <v>1</v>
+      </c>
+      <c r="AU227">
+        <v>1.52</v>
+      </c>
+      <c r="AV227">
+        <v>1.2</v>
+      </c>
+      <c r="AW227">
+        <v>2.72</v>
+      </c>
+      <c r="AX227">
+        <v>1.26</v>
+      </c>
+      <c r="AY227">
+        <v>10</v>
+      </c>
+      <c r="AZ227">
+        <v>5.15</v>
+      </c>
+      <c r="BA227">
+        <v>1.22</v>
+      </c>
+      <c r="BB227">
+        <v>1.44</v>
+      </c>
+      <c r="BC227">
+        <v>1.78</v>
+      </c>
+      <c r="BD227">
+        <v>2.24</v>
+      </c>
+      <c r="BE227">
+        <v>2.93</v>
+      </c>
+      <c r="BF227">
+        <v>6</v>
+      </c>
+      <c r="BG227">
+        <v>6</v>
+      </c>
+      <c r="BH227">
+        <v>5</v>
+      </c>
+      <c r="BI227">
+        <v>3</v>
+      </c>
+      <c r="BJ227">
+        <v>11</v>
+      </c>
+      <c r="BK227">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2782281</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F228">
+        <v>24</v>
+      </c>
+      <c r="G228" t="s">
+        <v>82</v>
+      </c>
+      <c r="H228" t="s">
+        <v>78</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>111</v>
+      </c>
+      <c r="P228" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>10</v>
+      </c>
+      <c r="S228">
+        <v>10</v>
+      </c>
+      <c r="T228">
+        <v>8</v>
+      </c>
+      <c r="U228">
+        <v>2.6</v>
+      </c>
+      <c r="V228">
+        <v>1.73</v>
+      </c>
+      <c r="W228">
+        <v>1.29</v>
+      </c>
+      <c r="X228">
+        <v>3.5</v>
+      </c>
+      <c r="Y228">
+        <v>2.38</v>
+      </c>
+      <c r="Z228">
+        <v>1.53</v>
+      </c>
+      <c r="AA228">
+        <v>5.5</v>
+      </c>
+      <c r="AB228">
+        <v>1.14</v>
+      </c>
+      <c r="AC228">
+        <v>10.5</v>
+      </c>
+      <c r="AD228">
+        <v>6</v>
+      </c>
+      <c r="AE228">
+        <v>1.29</v>
+      </c>
+      <c r="AF228">
+        <v>1.02</v>
+      </c>
+      <c r="AG228">
+        <v>17</v>
+      </c>
+      <c r="AH228">
+        <v>1.19</v>
+      </c>
+      <c r="AI228">
+        <v>5</v>
+      </c>
+      <c r="AJ228">
+        <v>1.63</v>
+      </c>
+      <c r="AK228">
+        <v>2.28</v>
+      </c>
+      <c r="AL228">
+        <v>2</v>
+      </c>
+      <c r="AM228">
+        <v>1.75</v>
+      </c>
+      <c r="AN228">
+        <v>3.3</v>
+      </c>
+      <c r="AO228">
+        <v>1.15</v>
+      </c>
+      <c r="AP228">
+        <v>1.07</v>
+      </c>
+      <c r="AQ228">
+        <v>1.64</v>
+      </c>
+      <c r="AR228">
+        <v>1.82</v>
+      </c>
+      <c r="AS228">
+        <v>1.58</v>
+      </c>
+      <c r="AT228">
+        <v>1.75</v>
+      </c>
+      <c r="AU228">
+        <v>1.42</v>
+      </c>
+      <c r="AV228">
+        <v>1.87</v>
+      </c>
+      <c r="AW228">
+        <v>3.29</v>
+      </c>
+      <c r="AX228">
+        <v>5.45</v>
+      </c>
+      <c r="AY228">
+        <v>10.25</v>
+      </c>
+      <c r="AZ228">
+        <v>1.24</v>
+      </c>
+      <c r="BA228">
+        <v>1.26</v>
+      </c>
+      <c r="BB228">
+        <v>1.5</v>
+      </c>
+      <c r="BC228">
+        <v>1.86</v>
+      </c>
+      <c r="BD228">
+        <v>2.38</v>
+      </c>
+      <c r="BE228">
+        <v>3.08</v>
+      </c>
+      <c r="BF228">
+        <v>2</v>
+      </c>
+      <c r="BG228">
+        <v>7</v>
+      </c>
+      <c r="BH228">
+        <v>2</v>
+      </c>
+      <c r="BI228">
+        <v>11</v>
+      </c>
+      <c r="BJ228">
+        <v>4</v>
+      </c>
+      <c r="BK228">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2782283</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F229">
+        <v>24</v>
+      </c>
+      <c r="G229" t="s">
+        <v>80</v>
+      </c>
+      <c r="H229" t="s">
+        <v>67</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" t="s">
+        <v>85</v>
+      </c>
+      <c r="P229" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q229">
+        <v>12</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>14</v>
+      </c>
+      <c r="T229">
+        <v>2.25</v>
+      </c>
+      <c r="U229">
+        <v>2.2</v>
+      </c>
+      <c r="V229">
+        <v>5.5</v>
+      </c>
+      <c r="W229">
+        <v>1.44</v>
+      </c>
+      <c r="X229">
+        <v>2.63</v>
+      </c>
+      <c r="Y229">
+        <v>3.25</v>
+      </c>
+      <c r="Z229">
+        <v>1.33</v>
+      </c>
+      <c r="AA229">
+        <v>9</v>
+      </c>
+      <c r="AB229">
+        <v>1.07</v>
+      </c>
+      <c r="AC229">
+        <v>1.68</v>
+      </c>
+      <c r="AD229">
+        <v>4.1</v>
+      </c>
+      <c r="AE229">
+        <v>5</v>
+      </c>
+      <c r="AF229">
+        <v>1.07</v>
+      </c>
+      <c r="AG229">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH229">
+        <v>1.37</v>
+      </c>
+      <c r="AI229">
+        <v>3.25</v>
+      </c>
+      <c r="AJ229">
+        <v>2</v>
+      </c>
+      <c r="AK229">
+        <v>1.81</v>
+      </c>
+      <c r="AL229">
+        <v>2</v>
+      </c>
+      <c r="AM229">
+        <v>1.75</v>
+      </c>
+      <c r="AN229">
+        <v>1.15</v>
+      </c>
+      <c r="AO229">
+        <v>1.26</v>
+      </c>
+      <c r="AP229">
+        <v>2.2</v>
+      </c>
+      <c r="AQ229">
+        <v>1.27</v>
+      </c>
+      <c r="AR229">
+        <v>0.45</v>
+      </c>
+      <c r="AS229">
+        <v>1.17</v>
+      </c>
+      <c r="AT229">
+        <v>0.67</v>
+      </c>
+      <c r="AU229">
+        <v>1.37</v>
+      </c>
+      <c r="AV229">
+        <v>1.05</v>
+      </c>
+      <c r="AW229">
+        <v>2.42</v>
+      </c>
+      <c r="AX229">
+        <v>1.37</v>
+      </c>
+      <c r="AY229">
+        <v>9.4</v>
+      </c>
+      <c r="AZ229">
+        <v>3.98</v>
+      </c>
+      <c r="BA229">
+        <v>1.26</v>
+      </c>
+      <c r="BB229">
+        <v>1.5</v>
+      </c>
+      <c r="BC229">
+        <v>1.88</v>
+      </c>
+      <c r="BD229">
+        <v>2.39</v>
+      </c>
+      <c r="BE229">
+        <v>3.2</v>
+      </c>
+      <c r="BF229">
+        <v>5</v>
+      </c>
+      <c r="BG229">
+        <v>2</v>
+      </c>
+      <c r="BH229">
+        <v>5</v>
+      </c>
+      <c r="BI229">
+        <v>1</v>
+      </c>
+      <c r="BJ229">
+        <v>10</v>
+      </c>
+      <c r="BK229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2782280</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44975.60416666666</v>
+      </c>
+      <c r="F230">
+        <v>24</v>
+      </c>
+      <c r="G230" t="s">
+        <v>69</v>
+      </c>
+      <c r="H230" t="s">
+        <v>84</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>2</v>
+      </c>
+      <c r="K230">
+        <v>2</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>85</v>
+      </c>
+      <c r="P230" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q230">
+        <v>6</v>
+      </c>
+      <c r="R230">
+        <v>7</v>
+      </c>
+      <c r="S230">
+        <v>13</v>
+      </c>
+      <c r="T230">
+        <v>3</v>
+      </c>
+      <c r="U230">
+        <v>2.25</v>
+      </c>
+      <c r="V230">
+        <v>3.4</v>
+      </c>
+      <c r="W230">
+        <v>1.33</v>
+      </c>
+      <c r="X230">
+        <v>3.25</v>
+      </c>
+      <c r="Y230">
+        <v>2.63</v>
+      </c>
+      <c r="Z230">
+        <v>1.44</v>
+      </c>
+      <c r="AA230">
+        <v>7</v>
+      </c>
+      <c r="AB230">
+        <v>1.1</v>
+      </c>
+      <c r="AC230">
+        <v>2.55</v>
+      </c>
+      <c r="AD230">
+        <v>3.5</v>
+      </c>
+      <c r="AE230">
+        <v>2.75</v>
+      </c>
+      <c r="AF230">
+        <v>1.05</v>
+      </c>
+      <c r="AG230">
+        <v>10.5</v>
+      </c>
+      <c r="AH230">
+        <v>1.24</v>
+      </c>
+      <c r="AI230">
+        <v>3.7</v>
+      </c>
+      <c r="AJ230">
+        <v>1.81</v>
+      </c>
+      <c r="AK230">
+        <v>2</v>
+      </c>
+      <c r="AL230">
+        <v>1.62</v>
+      </c>
+      <c r="AM230">
+        <v>2.2</v>
+      </c>
+      <c r="AN230">
+        <v>1.4</v>
+      </c>
+      <c r="AO230">
+        <v>1.29</v>
+      </c>
+      <c r="AP230">
+        <v>1.57</v>
+      </c>
+      <c r="AQ230">
+        <v>2.09</v>
+      </c>
+      <c r="AR230">
+        <v>0.8</v>
+      </c>
+      <c r="AS230">
+        <v>1.92</v>
+      </c>
+      <c r="AT230">
+        <v>1</v>
+      </c>
+      <c r="AU230">
+        <v>2.02</v>
+      </c>
+      <c r="AV230">
+        <v>1.8</v>
+      </c>
+      <c r="AW230">
+        <v>3.82</v>
+      </c>
+      <c r="AX230">
+        <v>1.88</v>
+      </c>
+      <c r="AY230">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ230">
+        <v>2.3</v>
+      </c>
+      <c r="BA230">
+        <v>1.24</v>
+      </c>
+      <c r="BB230">
+        <v>1.47</v>
+      </c>
+      <c r="BC230">
+        <v>1.83</v>
+      </c>
+      <c r="BD230">
+        <v>2.32</v>
+      </c>
+      <c r="BE230">
+        <v>3.04</v>
+      </c>
+      <c r="BF230">
+        <v>5</v>
+      </c>
+      <c r="BG230">
+        <v>8</v>
+      </c>
+      <c r="BH230">
+        <v>7</v>
+      </c>
+      <c r="BI230">
+        <v>4</v>
+      </c>
+      <c r="BJ230">
+        <v>12</v>
+      </c>
+      <c r="BK230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2782279</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F231">
+        <v>24</v>
+      </c>
+      <c r="G231" t="s">
+        <v>73</v>
+      </c>
+      <c r="H231" t="s">
+        <v>72</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>233</v>
+      </c>
+      <c r="P231" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q231">
+        <v>6</v>
+      </c>
+      <c r="R231">
+        <v>6</v>
+      </c>
+      <c r="S231">
+        <v>12</v>
+      </c>
+      <c r="T231">
+        <v>2.1</v>
+      </c>
+      <c r="U231">
+        <v>2.5</v>
+      </c>
+      <c r="V231">
+        <v>5</v>
+      </c>
+      <c r="W231">
+        <v>1.29</v>
+      </c>
+      <c r="X231">
+        <v>3.5</v>
+      </c>
+      <c r="Y231">
+        <v>2.38</v>
+      </c>
+      <c r="Z231">
+        <v>1.53</v>
+      </c>
+      <c r="AA231">
+        <v>5.5</v>
+      </c>
+      <c r="AB231">
+        <v>1.14</v>
+      </c>
+      <c r="AC231">
+        <v>1.61</v>
+      </c>
+      <c r="AD231">
+        <v>4.4</v>
+      </c>
+      <c r="AE231">
+        <v>5</v>
+      </c>
+      <c r="AF231">
+        <v>1.03</v>
+      </c>
+      <c r="AG231">
+        <v>17</v>
+      </c>
+      <c r="AH231">
+        <v>1.2</v>
+      </c>
+      <c r="AI231">
+        <v>4.85</v>
+      </c>
+      <c r="AJ231">
+        <v>1.57</v>
+      </c>
+      <c r="AK231">
+        <v>2.15</v>
+      </c>
+      <c r="AL231">
+        <v>1.67</v>
+      </c>
+      <c r="AM231">
+        <v>2.1</v>
+      </c>
+      <c r="AN231">
+        <v>1.15</v>
+      </c>
+      <c r="AO231">
+        <v>1.21</v>
+      </c>
+      <c r="AP231">
+        <v>2.35</v>
+      </c>
+      <c r="AQ231">
+        <v>2.36</v>
+      </c>
+      <c r="AR231">
+        <v>1.09</v>
+      </c>
+      <c r="AS231">
+        <v>2.42</v>
+      </c>
+      <c r="AT231">
+        <v>1</v>
+      </c>
+      <c r="AU231">
+        <v>1.93</v>
+      </c>
+      <c r="AV231">
+        <v>1.41</v>
+      </c>
+      <c r="AW231">
+        <v>3.34</v>
+      </c>
+      <c r="AX231">
+        <v>1.36</v>
+      </c>
+      <c r="AY231">
+        <v>9.5</v>
+      </c>
+      <c r="AZ231">
+        <v>4.05</v>
+      </c>
+      <c r="BA231">
+        <v>1.19</v>
+      </c>
+      <c r="BB231">
+        <v>1.39</v>
+      </c>
+      <c r="BC231">
+        <v>1.69</v>
+      </c>
+      <c r="BD231">
+        <v>2.11</v>
+      </c>
+      <c r="BE231">
+        <v>2.71</v>
+      </c>
+      <c r="BF231">
+        <v>0</v>
+      </c>
+      <c r="BG231">
+        <v>3</v>
+      </c>
+      <c r="BH231">
+        <v>0</v>
+      </c>
+      <c r="BI231">
+        <v>5</v>
+      </c>
+      <c r="BJ231">
+        <v>0</v>
+      </c>
+      <c r="BK231">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2782282</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44976.5625</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>70</v>
+      </c>
+      <c r="H232" t="s">
+        <v>74</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>234</v>
+      </c>
+      <c r="P232" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q232">
+        <v>4</v>
+      </c>
+      <c r="R232">
+        <v>7</v>
+      </c>
+      <c r="S232">
+        <v>11</v>
+      </c>
+      <c r="T232">
+        <v>2.4</v>
+      </c>
+      <c r="U232">
+        <v>2.25</v>
+      </c>
+      <c r="V232">
+        <v>4.5</v>
+      </c>
+      <c r="W232">
+        <v>1.36</v>
+      </c>
+      <c r="X232">
+        <v>3</v>
+      </c>
+      <c r="Y232">
+        <v>2.63</v>
+      </c>
+      <c r="Z232">
+        <v>1.44</v>
+      </c>
+      <c r="AA232">
+        <v>7</v>
+      </c>
+      <c r="AB232">
+        <v>1.1</v>
+      </c>
+      <c r="AC232">
+        <v>1.85</v>
+      </c>
+      <c r="AD232">
+        <v>3.6</v>
+      </c>
+      <c r="AE232">
+        <v>4</v>
+      </c>
+      <c r="AF232">
+        <v>1.05</v>
+      </c>
+      <c r="AG232">
+        <v>13</v>
+      </c>
+      <c r="AH232">
+        <v>1.28</v>
+      </c>
+      <c r="AI232">
+        <v>3.9</v>
+      </c>
+      <c r="AJ232">
+        <v>1.84</v>
+      </c>
+      <c r="AK232">
+        <v>2.06</v>
+      </c>
+      <c r="AL232">
+        <v>1.7</v>
+      </c>
+      <c r="AM232">
+        <v>2.05</v>
+      </c>
+      <c r="AN232">
+        <v>1.2</v>
+      </c>
+      <c r="AO232">
+        <v>1.27</v>
+      </c>
+      <c r="AP232">
+        <v>2</v>
+      </c>
+      <c r="AQ232">
+        <v>1.91</v>
+      </c>
+      <c r="AR232">
+        <v>0.55</v>
+      </c>
+      <c r="AS232">
+        <v>2</v>
+      </c>
+      <c r="AT232">
+        <v>0.5</v>
+      </c>
+      <c r="AU232">
+        <v>1.84</v>
+      </c>
+      <c r="AV232">
+        <v>1.56</v>
+      </c>
+      <c r="AW232">
+        <v>3.4</v>
+      </c>
+      <c r="AX232">
+        <v>1.55</v>
+      </c>
+      <c r="AY232">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ232">
+        <v>3.05</v>
+      </c>
+      <c r="BA232">
+        <v>1.24</v>
+      </c>
+      <c r="BB232">
+        <v>1.47</v>
+      </c>
+      <c r="BC232">
+        <v>1.82</v>
+      </c>
+      <c r="BD232">
+        <v>2.32</v>
+      </c>
+      <c r="BE232">
+        <v>3.04</v>
+      </c>
+      <c r="BF232">
+        <v>7</v>
+      </c>
+      <c r="BG232">
+        <v>2</v>
+      </c>
+      <c r="BH232">
+        <v>4</v>
+      </c>
+      <c r="BI232">
+        <v>4</v>
+      </c>
+      <c r="BJ232">
+        <v>11</v>
+      </c>
+      <c r="BK232">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1380,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK232"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -2287,7 +2287,7 @@
         <v>1.18</v>
       </c>
       <c r="AT5">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU22">
         <v>1.65</v>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT25">
         <v>1.09</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT43">
         <v>1.64</v>
@@ -10118,7 +10118,7 @@
         <v>1.18</v>
       </c>
       <c r="AT46">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU46">
         <v>0.85</v>
@@ -14699,7 +14699,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT70">
         <v>1.64</v>
@@ -15657,7 +15657,7 @@
         <v>1.27</v>
       </c>
       <c r="AT75">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU75">
         <v>1.23</v>
@@ -16994,7 +16994,7 @@
         <v>1.64</v>
       </c>
       <c r="AT82">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU82">
         <v>1.51</v>
@@ -18710,7 +18710,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT91">
         <v>0.67</v>
@@ -20432,7 +20432,7 @@
         <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -21575,7 +21575,7 @@
         <v>0.4</v>
       </c>
       <c r="AS106">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -24825,7 +24825,7 @@
         <v>1.92</v>
       </c>
       <c r="AT123">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU123">
         <v>1.47</v>
@@ -25013,7 +25013,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT124">
         <v>0.64</v>
@@ -29406,7 +29406,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT147">
         <v>1.67</v>
@@ -29982,7 +29982,7 @@
         <v>1.17</v>
       </c>
       <c r="AT150">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU150">
         <v>1.51</v>
@@ -32462,7 +32462,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT163">
         <v>1</v>
@@ -34948,7 +34948,7 @@
         <v>1.42</v>
       </c>
       <c r="AT176">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU176">
         <v>1.47</v>
@@ -35327,7 +35327,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT178">
         <v>1.08</v>
@@ -39150,7 +39150,7 @@
         <v>2.58</v>
       </c>
       <c r="AT198">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU198">
         <v>2.22</v>
@@ -39529,7 +39529,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT200">
         <v>1.5</v>
@@ -42397,7 +42397,7 @@
         <v>0.55</v>
       </c>
       <c r="AT215">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU215">
         <v>1.59</v>
@@ -42776,7 +42776,7 @@
         <v>0.6</v>
       </c>
       <c r="AS217">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT217">
         <v>0.55</v>
@@ -45696,6 +45696,197 @@
       </c>
       <c r="BK232">
         <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2782287</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44981.70833333334</v>
+      </c>
+      <c r="F233">
+        <v>25</v>
+      </c>
+      <c r="G233" t="s">
+        <v>66</v>
+      </c>
+      <c r="H233" t="s">
+        <v>80</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>101</v>
+      </c>
+      <c r="P233" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q233">
+        <v>3</v>
+      </c>
+      <c r="R233">
+        <v>3</v>
+      </c>
+      <c r="S233">
+        <v>6</v>
+      </c>
+      <c r="T233">
+        <v>3</v>
+      </c>
+      <c r="U233">
+        <v>2.1</v>
+      </c>
+      <c r="V233">
+        <v>3.75</v>
+      </c>
+      <c r="W233">
+        <v>1.44</v>
+      </c>
+      <c r="X233">
+        <v>2.63</v>
+      </c>
+      <c r="Y233">
+        <v>3</v>
+      </c>
+      <c r="Z233">
+        <v>1.36</v>
+      </c>
+      <c r="AA233">
+        <v>9</v>
+      </c>
+      <c r="AB233">
+        <v>1.07</v>
+      </c>
+      <c r="AC233">
+        <v>2.25</v>
+      </c>
+      <c r="AD233">
+        <v>3.2</v>
+      </c>
+      <c r="AE233">
+        <v>3</v>
+      </c>
+      <c r="AF233">
+        <v>1.05</v>
+      </c>
+      <c r="AG233">
+        <v>9</v>
+      </c>
+      <c r="AH233">
+        <v>1.33</v>
+      </c>
+      <c r="AI233">
+        <v>3.2</v>
+      </c>
+      <c r="AJ233">
+        <v>1.94</v>
+      </c>
+      <c r="AK233">
+        <v>1.78</v>
+      </c>
+      <c r="AL233">
+        <v>1.8</v>
+      </c>
+      <c r="AM233">
+        <v>1.95</v>
+      </c>
+      <c r="AN233">
+        <v>1.33</v>
+      </c>
+      <c r="AO233">
+        <v>1.32</v>
+      </c>
+      <c r="AP233">
+        <v>1.63</v>
+      </c>
+      <c r="AQ233">
+        <v>1.75</v>
+      </c>
+      <c r="AR233">
+        <v>0.82</v>
+      </c>
+      <c r="AS233">
+        <v>1.69</v>
+      </c>
+      <c r="AT233">
+        <v>0.83</v>
+      </c>
+      <c r="AU233">
+        <v>1.64</v>
+      </c>
+      <c r="AV233">
+        <v>1.47</v>
+      </c>
+      <c r="AW233">
+        <v>3.11</v>
+      </c>
+      <c r="AX233">
+        <v>1.75</v>
+      </c>
+      <c r="AY233">
+        <v>7.5</v>
+      </c>
+      <c r="AZ233">
+        <v>2.43</v>
+      </c>
+      <c r="BA233">
+        <v>1.38</v>
+      </c>
+      <c r="BB233">
+        <v>1.66</v>
+      </c>
+      <c r="BC233">
+        <v>2.05</v>
+      </c>
+      <c r="BD233">
+        <v>2.65</v>
+      </c>
+      <c r="BE233">
+        <v>3.6</v>
+      </c>
+      <c r="BF233">
+        <v>6</v>
+      </c>
+      <c r="BG233">
+        <v>3</v>
+      </c>
+      <c r="BH233">
+        <v>5</v>
+      </c>
+      <c r="BI233">
+        <v>6</v>
+      </c>
+      <c r="BJ233">
+        <v>11</v>
+      </c>
+      <c r="BK233">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,15 @@
     <t>['56', '72']</t>
   </si>
   <si>
+    <t>['70', '73', '78', '85']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -794,9 +803,6 @@
   </si>
   <si>
     <t>['62']</t>
-  </si>
-  <si>
-    <t>['83']</t>
   </si>
   <si>
     <t>['45+1', '79']</t>
@@ -991,9 +997,6 @@
     <t>['44', '45+2']</t>
   </si>
   <si>
-    <t>['77']</t>
-  </si>
-  <si>
     <t>['27', '88']</t>
   </si>
   <si>
@@ -1019,6 +1022,15 @@
   </si>
   <si>
     <t>['10', '17']</t>
+  </si>
+  <si>
+    <t>['63', '81']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['15', '29', '45', '51']</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK233"/>
+  <dimension ref="A1:BK239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1624,7 +1636,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1711,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT2">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1815,7 +1827,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2093,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2197,7 +2209,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2284,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
         <v>0.83</v>
@@ -2478,7 +2490,7 @@
         <v>1.92</v>
       </c>
       <c r="AT6">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2579,7 +2591,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2669,7 +2681,7 @@
         <v>2</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2770,7 +2782,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2857,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT8">
         <v>1.08</v>
@@ -2961,7 +2973,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3048,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>1.09</v>
@@ -3152,7 +3164,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3343,7 +3355,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3430,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT11">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3725,7 +3737,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -4298,7 +4310,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -5062,7 +5074,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5253,7 +5265,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5722,10 +5734,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU23">
         <v>1.35</v>
@@ -5826,7 +5838,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5913,10 +5925,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT24">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>1.26</v>
@@ -6017,7 +6029,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6208,7 +6220,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6295,10 +6307,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -6399,7 +6411,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6486,10 +6498,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT27">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU27">
         <v>0.8</v>
@@ -6677,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT28">
         <v>1.08</v>
@@ -6781,7 +6793,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6868,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
         <v>1.64</v>
@@ -6972,7 +6984,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7062,7 +7074,7 @@
         <v>1.92</v>
       </c>
       <c r="AT30">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU30">
         <v>2.93</v>
@@ -7163,7 +7175,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7927,7 +7939,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8882,7 +8894,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9073,7 +9085,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9351,7 +9363,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT42">
         <v>1.09</v>
@@ -9646,7 +9658,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9837,7 +9849,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -9924,7 +9936,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
         <v>0.64</v>
@@ -10115,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT46">
         <v>0.83</v>
@@ -10309,7 +10321,7 @@
         <v>2.36</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU47">
         <v>2.47</v>
@@ -10500,7 +10512,7 @@
         <v>2.58</v>
       </c>
       <c r="AT48">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU48">
         <v>2.4</v>
@@ -10601,7 +10613,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10688,7 +10700,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT49">
         <v>1.5</v>
@@ -10983,7 +10995,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11070,7 +11082,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT51">
         <v>1.67</v>
@@ -11261,7 +11273,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT52">
         <v>1</v>
@@ -11455,7 +11467,7 @@
         <v>1.17</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU53">
         <v>1.1</v>
@@ -11556,7 +11568,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -11747,7 +11759,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>10</v>
@@ -12129,7 +12141,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12320,7 +12332,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12601,7 +12613,7 @@
         <v>1.42</v>
       </c>
       <c r="AT59">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU59">
         <v>1.54</v>
@@ -12702,7 +12714,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12983,7 +12995,7 @@
         <v>2.42</v>
       </c>
       <c r="AT61">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU61">
         <v>1.72</v>
@@ -13084,7 +13096,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13365,7 +13377,7 @@
         <v>1.42</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU63">
         <v>1.22</v>
@@ -13466,7 +13478,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13556,7 +13568,7 @@
         <v>1.17</v>
       </c>
       <c r="AT64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU64">
         <v>1.11</v>
@@ -13657,7 +13669,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13848,7 +13860,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14039,7 +14051,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14129,7 +14141,7 @@
         <v>1.92</v>
       </c>
       <c r="AT67">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU67">
         <v>1.9</v>
@@ -14317,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT68">
         <v>0.5</v>
@@ -14421,7 +14433,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14612,7 +14624,7 @@
         <v>103</v>
       </c>
       <c r="P70" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14803,7 +14815,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14890,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT71">
         <v>1.08</v>
@@ -15081,7 +15093,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT72">
         <v>1.09</v>
@@ -15185,7 +15197,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15376,7 +15388,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15654,7 +15666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT75">
         <v>0.83</v>
@@ -15758,7 +15770,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16036,10 +16048,10 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU77">
         <v>1.73</v>
@@ -16227,10 +16239,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT78">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16331,7 +16343,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16418,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16612,7 +16624,7 @@
         <v>2.58</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU80">
         <v>2.39</v>
@@ -17373,7 +17385,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT84">
         <v>1.42</v>
@@ -17477,7 +17489,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17564,7 +17576,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT85">
         <v>0.5</v>
@@ -17668,7 +17680,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17859,7 +17871,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17946,7 +17958,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT87">
         <v>1.67</v>
@@ -18140,7 +18152,7 @@
         <v>1.58</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU88">
         <v>1.53</v>
@@ -18519,7 +18531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT90">
         <v>0.91</v>
@@ -18623,7 +18635,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18904,7 +18916,7 @@
         <v>1.17</v>
       </c>
       <c r="AT92">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU92">
         <v>1.04</v>
@@ -19196,7 +19208,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19387,7 +19399,7 @@
         <v>85</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19474,10 +19486,10 @@
         <v>2.25</v>
       </c>
       <c r="AS95">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU95">
         <v>1.49</v>
@@ -20050,7 +20062,7 @@
         <v>2.18</v>
       </c>
       <c r="AT98">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU98">
         <v>2.65</v>
@@ -20241,7 +20253,7 @@
         <v>1.55</v>
       </c>
       <c r="AT99">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU99">
         <v>1.97</v>
@@ -20342,7 +20354,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20429,7 +20441,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT100">
         <v>0.83</v>
@@ -20533,7 +20545,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20620,10 +20632,10 @@
         <v>0.6</v>
       </c>
       <c r="AS101">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU101">
         <v>0.9399999999999999</v>
@@ -21578,7 +21590,7 @@
         <v>1.69</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU106">
         <v>1.51</v>
@@ -21766,7 +21778,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT107">
         <v>0.5</v>
@@ -22148,7 +22160,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT109">
         <v>0.91</v>
@@ -22443,7 +22455,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22634,7 +22646,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22825,7 +22837,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22915,7 +22927,7 @@
         <v>0.55</v>
       </c>
       <c r="AT113">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU113">
         <v>1.75</v>
@@ -23016,7 +23028,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23103,7 +23115,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT114">
         <v>1.42</v>
@@ -23398,7 +23410,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23676,7 +23688,7 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT117">
         <v>0.67</v>
@@ -23867,10 +23879,10 @@
         <v>1.6</v>
       </c>
       <c r="AS118">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT118">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU118">
         <v>1.4</v>
@@ -24061,7 +24073,7 @@
         <v>1.92</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU119">
         <v>2.23</v>
@@ -24249,10 +24261,10 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT120">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU120">
         <v>1.59</v>
@@ -24353,7 +24365,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24440,7 +24452,7 @@
         <v>1.33</v>
       </c>
       <c r="AS121">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT121">
         <v>1.5</v>
@@ -24735,7 +24747,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -25117,7 +25129,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25398,7 +25410,7 @@
         <v>2.36</v>
       </c>
       <c r="AT126">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU126">
         <v>2.4</v>
@@ -25881,7 +25893,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q129">
         <v>13</v>
@@ -25968,7 +25980,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
         <v>0.67</v>
@@ -26072,7 +26084,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26263,7 +26275,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26454,7 +26466,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26541,7 +26553,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT132">
         <v>1</v>
@@ -26735,7 +26747,7 @@
         <v>1.64</v>
       </c>
       <c r="AT133">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU133">
         <v>1.56</v>
@@ -26836,7 +26848,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27027,7 +27039,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27218,7 +27230,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27305,7 +27317,7 @@
         <v>0.6</v>
       </c>
       <c r="AS136">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT136">
         <v>0.91</v>
@@ -27409,7 +27421,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27600,7 +27612,7 @@
         <v>123</v>
       </c>
       <c r="P138" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27791,7 +27803,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27878,7 +27890,7 @@
         <v>0.86</v>
       </c>
       <c r="AS139">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -28069,7 +28081,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT140">
         <v>0.64</v>
@@ -28173,7 +28185,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28555,7 +28567,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28645,7 +28657,7 @@
         <v>2.18</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU143">
         <v>2.44</v>
@@ -28937,7 +28949,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29027,7 +29039,7 @@
         <v>1.17</v>
       </c>
       <c r="AT145">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU145">
         <v>1.33</v>
@@ -29128,7 +29140,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29218,7 +29230,7 @@
         <v>1.55</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU146">
         <v>2.04</v>
@@ -29319,7 +29331,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29510,7 +29522,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29701,7 +29713,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29788,7 +29800,7 @@
         <v>1.71</v>
       </c>
       <c r="AS149">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT149">
         <v>1.64</v>
@@ -29892,7 +29904,7 @@
         <v>137</v>
       </c>
       <c r="P150" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -29979,7 +29991,7 @@
         <v>0.29</v>
       </c>
       <c r="AS150">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT150">
         <v>0.83</v>
@@ -30083,7 +30095,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30274,7 +30286,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30361,7 +30373,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT152">
         <v>1.42</v>
@@ -30465,7 +30477,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -30656,7 +30668,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>7</v>
@@ -31128,7 +31140,7 @@
         <v>2.42</v>
       </c>
       <c r="AT156">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU156">
         <v>1.92</v>
@@ -31229,7 +31241,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31316,10 +31328,10 @@
         <v>1.83</v>
       </c>
       <c r="AS157">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU157">
         <v>1.66</v>
@@ -31420,7 +31432,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31507,7 +31519,7 @@
         <v>0.88</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT158">
         <v>1.09</v>
@@ -31611,7 +31623,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32465,7 +32477,7 @@
         <v>1.69</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU163">
         <v>1.79</v>
@@ -32566,7 +32578,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32653,7 +32665,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT164">
         <v>0.91</v>
@@ -32757,7 +32769,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32847,7 +32859,7 @@
         <v>1.55</v>
       </c>
       <c r="AT165">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU165">
         <v>1.92</v>
@@ -32948,7 +32960,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33038,7 +33050,7 @@
         <v>2</v>
       </c>
       <c r="AT166">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU166">
         <v>1.98</v>
@@ -33139,7 +33151,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33521,7 +33533,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33608,7 +33620,7 @@
         <v>1.25</v>
       </c>
       <c r="AS169">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT169">
         <v>1.42</v>
@@ -33903,7 +33915,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -33990,7 +34002,7 @@
         <v>1.63</v>
       </c>
       <c r="AS171">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT171">
         <v>1.64</v>
@@ -34285,7 +34297,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34375,7 +34387,7 @@
         <v>0.55</v>
       </c>
       <c r="AT173">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU173">
         <v>1.68</v>
@@ -34476,7 +34488,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34563,7 +34575,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT174">
         <v>0.5</v>
@@ -34667,7 +34679,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q175">
         <v>10</v>
@@ -34754,7 +34766,7 @@
         <v>1.5</v>
       </c>
       <c r="AS175">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT175">
         <v>1.5</v>
@@ -34858,7 +34870,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35139,7 +35151,7 @@
         <v>1.64</v>
       </c>
       <c r="AT177">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU177">
         <v>1.48</v>
@@ -35240,7 +35252,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35431,7 +35443,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="Q179">
         <v>0</v>
@@ -35712,7 +35724,7 @@
         <v>2.42</v>
       </c>
       <c r="AT180">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU180">
         <v>1.98</v>
@@ -35813,7 +35825,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35900,10 +35912,10 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT181">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU181">
         <v>1.5</v>
@@ -37150,7 +37162,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37240,7 +37252,7 @@
         <v>2</v>
       </c>
       <c r="AT188">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU188">
         <v>1.88</v>
@@ -37341,7 +37353,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37428,7 +37440,7 @@
         <v>1.78</v>
       </c>
       <c r="AS189">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT189">
         <v>1.67</v>
@@ -37532,7 +37544,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37914,7 +37926,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38001,10 +38013,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS192">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT192">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU192">
         <v>1.16</v>
@@ -38105,7 +38117,7 @@
         <v>85</v>
       </c>
       <c r="P193" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="Q193">
         <v>2</v>
@@ -38195,7 +38207,7 @@
         <v>0.55</v>
       </c>
       <c r="AT193">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU193">
         <v>1.6</v>
@@ -38383,7 +38395,7 @@
         <v>0.78</v>
       </c>
       <c r="AS194">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT194">
         <v>0.64</v>
@@ -38487,7 +38499,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38574,7 +38586,7 @@
         <v>1.78</v>
       </c>
       <c r="AS195">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT195">
         <v>1.64</v>
@@ -38765,7 +38777,7 @@
         <v>1.78</v>
       </c>
       <c r="AS196">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT196">
         <v>1.64</v>
@@ -38956,7 +38968,7 @@
         <v>1.11</v>
       </c>
       <c r="AS197">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT197">
         <v>1.09</v>
@@ -39251,7 +39263,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -39911,10 +39923,10 @@
         <v>2.5</v>
       </c>
       <c r="AS202">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT202">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU202">
         <v>1.47</v>
@@ -40105,7 +40117,7 @@
         <v>1.92</v>
       </c>
       <c r="AT203">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU203">
         <v>1.45</v>
@@ -40588,7 +40600,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q206">
         <v>11</v>
@@ -40970,7 +40982,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41442,7 +41454,7 @@
         <v>2</v>
       </c>
       <c r="AT210">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU210">
         <v>1.9</v>
@@ -41543,7 +41555,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41734,7 +41746,7 @@
         <v>213</v>
       </c>
       <c r="P212" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41821,7 +41833,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT212">
         <v>1.08</v>
@@ -42203,7 +42215,7 @@
         <v>1.64</v>
       </c>
       <c r="AS214">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT214">
         <v>1.5</v>
@@ -42307,7 +42319,7 @@
         <v>194</v>
       </c>
       <c r="P215" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42585,7 +42597,7 @@
         <v>1.7</v>
       </c>
       <c r="AS216">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT216">
         <v>1.64</v>
@@ -42779,7 +42791,7 @@
         <v>1.69</v>
       </c>
       <c r="AT217">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU217">
         <v>1.63</v>
@@ -42967,7 +42979,7 @@
         <v>1.7</v>
       </c>
       <c r="AS218">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT218">
         <v>1.64</v>
@@ -43071,7 +43083,7 @@
         <v>85</v>
       </c>
       <c r="P219" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -43158,7 +43170,7 @@
         <v>1.55</v>
       </c>
       <c r="AS219">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT219">
         <v>1.67</v>
@@ -43352,7 +43364,7 @@
         <v>2.58</v>
       </c>
       <c r="AT220">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU220">
         <v>2.2</v>
@@ -43644,7 +43656,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43734,7 +43746,7 @@
         <v>2.36</v>
       </c>
       <c r="AT222">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU222">
         <v>2.42</v>
@@ -43835,7 +43847,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -43925,7 +43937,7 @@
         <v>1.42</v>
       </c>
       <c r="AT223">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU223">
         <v>1.56</v>
@@ -44116,7 +44128,7 @@
         <v>1.64</v>
       </c>
       <c r="AT224">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU224">
         <v>1.52</v>
@@ -44304,7 +44316,7 @@
         <v>0.55</v>
       </c>
       <c r="AS225">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT225">
         <v>0.5</v>
@@ -44498,7 +44510,7 @@
         <v>1.58</v>
       </c>
       <c r="AT226">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU226">
         <v>1.42</v>
@@ -45172,7 +45184,7 @@
         <v>85</v>
       </c>
       <c r="P230" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45745,7 +45757,7 @@
         <v>101</v>
       </c>
       <c r="P233" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45887,6 +45899,1152 @@
       </c>
       <c r="BK233">
         <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2782286</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F234">
+        <v>25</v>
+      </c>
+      <c r="G234" t="s">
+        <v>71</v>
+      </c>
+      <c r="H234" t="s">
+        <v>75</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>2</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" t="s">
+        <v>85</v>
+      </c>
+      <c r="P234" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q234">
+        <v>5</v>
+      </c>
+      <c r="R234">
+        <v>1</v>
+      </c>
+      <c r="S234">
+        <v>6</v>
+      </c>
+      <c r="T234">
+        <v>3.2</v>
+      </c>
+      <c r="U234">
+        <v>2.05</v>
+      </c>
+      <c r="V234">
+        <v>3.6</v>
+      </c>
+      <c r="W234">
+        <v>1.5</v>
+      </c>
+      <c r="X234">
+        <v>2.5</v>
+      </c>
+      <c r="Y234">
+        <v>3.4</v>
+      </c>
+      <c r="Z234">
+        <v>1.3</v>
+      </c>
+      <c r="AA234">
+        <v>10</v>
+      </c>
+      <c r="AB234">
+        <v>1.06</v>
+      </c>
+      <c r="AC234">
+        <v>2.5</v>
+      </c>
+      <c r="AD234">
+        <v>3</v>
+      </c>
+      <c r="AE234">
+        <v>2.88</v>
+      </c>
+      <c r="AF234">
+        <v>1.08</v>
+      </c>
+      <c r="AG234">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH234">
+        <v>1.42</v>
+      </c>
+      <c r="AI234">
+        <v>3</v>
+      </c>
+      <c r="AJ234">
+        <v>2.3</v>
+      </c>
+      <c r="AK234">
+        <v>1.6</v>
+      </c>
+      <c r="AL234">
+        <v>1.95</v>
+      </c>
+      <c r="AM234">
+        <v>1.8</v>
+      </c>
+      <c r="AN234">
+        <v>1.44</v>
+      </c>
+      <c r="AO234">
+        <v>1.34</v>
+      </c>
+      <c r="AP234">
+        <v>1.59</v>
+      </c>
+      <c r="AQ234">
+        <v>1.17</v>
+      </c>
+      <c r="AR234">
+        <v>1</v>
+      </c>
+      <c r="AS234">
+        <v>1.08</v>
+      </c>
+      <c r="AT234">
+        <v>1.17</v>
+      </c>
+      <c r="AU234">
+        <v>1.51</v>
+      </c>
+      <c r="AV234">
+        <v>1.27</v>
+      </c>
+      <c r="AW234">
+        <v>2.78</v>
+      </c>
+      <c r="AX234">
+        <v>1.91</v>
+      </c>
+      <c r="AY234">
+        <v>7.7</v>
+      </c>
+      <c r="AZ234">
+        <v>2.31</v>
+      </c>
+      <c r="BA234">
+        <v>1.26</v>
+      </c>
+      <c r="BB234">
+        <v>1.51</v>
+      </c>
+      <c r="BC234">
+        <v>1.9</v>
+      </c>
+      <c r="BD234">
+        <v>2.45</v>
+      </c>
+      <c r="BE234">
+        <v>3.34</v>
+      </c>
+      <c r="BF234">
+        <v>5</v>
+      </c>
+      <c r="BG234">
+        <v>6</v>
+      </c>
+      <c r="BH234">
+        <v>11</v>
+      </c>
+      <c r="BI234">
+        <v>4</v>
+      </c>
+      <c r="BJ234">
+        <v>16</v>
+      </c>
+      <c r="BK234">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2782292</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F235">
+        <v>25</v>
+      </c>
+      <c r="G235" t="s">
+        <v>74</v>
+      </c>
+      <c r="H235" t="s">
+        <v>82</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
+      <c r="O235" t="s">
+        <v>235</v>
+      </c>
+      <c r="P235" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q235">
+        <v>12</v>
+      </c>
+      <c r="R235">
+        <v>3</v>
+      </c>
+      <c r="S235">
+        <v>15</v>
+      </c>
+      <c r="T235">
+        <v>2.4</v>
+      </c>
+      <c r="U235">
+        <v>2.1</v>
+      </c>
+      <c r="V235">
+        <v>5.5</v>
+      </c>
+      <c r="W235">
+        <v>1.44</v>
+      </c>
+      <c r="X235">
+        <v>2.63</v>
+      </c>
+      <c r="Y235">
+        <v>3.25</v>
+      </c>
+      <c r="Z235">
+        <v>1.33</v>
+      </c>
+      <c r="AA235">
+        <v>9</v>
+      </c>
+      <c r="AB235">
+        <v>1.07</v>
+      </c>
+      <c r="AC235">
+        <v>1.7</v>
+      </c>
+      <c r="AD235">
+        <v>3.4</v>
+      </c>
+      <c r="AE235">
+        <v>5</v>
+      </c>
+      <c r="AF235">
+        <v>1.07</v>
+      </c>
+      <c r="AG235">
+        <v>9.6</v>
+      </c>
+      <c r="AH235">
+        <v>1.38</v>
+      </c>
+      <c r="AI235">
+        <v>3.15</v>
+      </c>
+      <c r="AJ235">
+        <v>2.15</v>
+      </c>
+      <c r="AK235">
+        <v>1.67</v>
+      </c>
+      <c r="AL235">
+        <v>2</v>
+      </c>
+      <c r="AM235">
+        <v>1.75</v>
+      </c>
+      <c r="AN235">
+        <v>1.18</v>
+      </c>
+      <c r="AO235">
+        <v>1.28</v>
+      </c>
+      <c r="AP235">
+        <v>2.05</v>
+      </c>
+      <c r="AQ235">
+        <v>1.27</v>
+      </c>
+      <c r="AR235">
+        <v>0.55</v>
+      </c>
+      <c r="AS235">
+        <v>1.42</v>
+      </c>
+      <c r="AT235">
+        <v>0.5</v>
+      </c>
+      <c r="AU235">
+        <v>1.57</v>
+      </c>
+      <c r="AV235">
+        <v>1.1</v>
+      </c>
+      <c r="AW235">
+        <v>2.67</v>
+      </c>
+      <c r="AX235">
+        <v>1.35</v>
+      </c>
+      <c r="AY235">
+        <v>9</v>
+      </c>
+      <c r="AZ235">
+        <v>4.25</v>
+      </c>
+      <c r="BA235">
+        <v>1.27</v>
+      </c>
+      <c r="BB235">
+        <v>1.53</v>
+      </c>
+      <c r="BC235">
+        <v>1.93</v>
+      </c>
+      <c r="BD235">
+        <v>2.53</v>
+      </c>
+      <c r="BE235">
+        <v>3.42</v>
+      </c>
+      <c r="BF235">
+        <v>6</v>
+      </c>
+      <c r="BG235">
+        <v>4</v>
+      </c>
+      <c r="BH235">
+        <v>13</v>
+      </c>
+      <c r="BI235">
+        <v>5</v>
+      </c>
+      <c r="BJ235">
+        <v>19</v>
+      </c>
+      <c r="BK235">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2782288</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F236">
+        <v>25</v>
+      </c>
+      <c r="G236" t="s">
+        <v>68</v>
+      </c>
+      <c r="H236" t="s">
+        <v>79</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>236</v>
+      </c>
+      <c r="P236" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q236">
+        <v>9</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>11</v>
+      </c>
+      <c r="T236">
+        <v>2.63</v>
+      </c>
+      <c r="U236">
+        <v>2.2</v>
+      </c>
+      <c r="V236">
+        <v>4.33</v>
+      </c>
+      <c r="W236">
+        <v>1.4</v>
+      </c>
+      <c r="X236">
+        <v>2.75</v>
+      </c>
+      <c r="Y236">
+        <v>3</v>
+      </c>
+      <c r="Z236">
+        <v>1.36</v>
+      </c>
+      <c r="AA236">
+        <v>8</v>
+      </c>
+      <c r="AB236">
+        <v>1.08</v>
+      </c>
+      <c r="AC236">
+        <v>1.91</v>
+      </c>
+      <c r="AD236">
+        <v>3.3</v>
+      </c>
+      <c r="AE236">
+        <v>3.9</v>
+      </c>
+      <c r="AF236">
+        <v>1.06</v>
+      </c>
+      <c r="AG236">
+        <v>10</v>
+      </c>
+      <c r="AH236">
+        <v>1.34</v>
+      </c>
+      <c r="AI236">
+        <v>3.4</v>
+      </c>
+      <c r="AJ236">
+        <v>2</v>
+      </c>
+      <c r="AK236">
+        <v>1.78</v>
+      </c>
+      <c r="AL236">
+        <v>1.8</v>
+      </c>
+      <c r="AM236">
+        <v>1.95</v>
+      </c>
+      <c r="AN236">
+        <v>1.26</v>
+      </c>
+      <c r="AO236">
+        <v>1.3</v>
+      </c>
+      <c r="AP236">
+        <v>1.78</v>
+      </c>
+      <c r="AQ236">
+        <v>1.18</v>
+      </c>
+      <c r="AR236">
+        <v>1</v>
+      </c>
+      <c r="AS236">
+        <v>1.33</v>
+      </c>
+      <c r="AT236">
+        <v>0.92</v>
+      </c>
+      <c r="AU236">
+        <v>1.63</v>
+      </c>
+      <c r="AV236">
+        <v>1.2</v>
+      </c>
+      <c r="AW236">
+        <v>2.83</v>
+      </c>
+      <c r="AX236">
+        <v>1.52</v>
+      </c>
+      <c r="AY236">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ236">
+        <v>3.24</v>
+      </c>
+      <c r="BA236">
+        <v>1.25</v>
+      </c>
+      <c r="BB236">
+        <v>1.49</v>
+      </c>
+      <c r="BC236">
+        <v>1.88</v>
+      </c>
+      <c r="BD236">
+        <v>2.42</v>
+      </c>
+      <c r="BE236">
+        <v>3.28</v>
+      </c>
+      <c r="BF236">
+        <v>5</v>
+      </c>
+      <c r="BG236">
+        <v>3</v>
+      </c>
+      <c r="BH236">
+        <v>10</v>
+      </c>
+      <c r="BI236">
+        <v>5</v>
+      </c>
+      <c r="BJ236">
+        <v>15</v>
+      </c>
+      <c r="BK236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2782289</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F237">
+        <v>25</v>
+      </c>
+      <c r="G237" t="s">
+        <v>72</v>
+      </c>
+      <c r="H237" t="s">
+        <v>76</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" t="s">
+        <v>85</v>
+      </c>
+      <c r="P237" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>8</v>
+      </c>
+      <c r="S237">
+        <v>8</v>
+      </c>
+      <c r="T237">
+        <v>4.75</v>
+      </c>
+      <c r="U237">
+        <v>2.3</v>
+      </c>
+      <c r="V237">
+        <v>2.25</v>
+      </c>
+      <c r="W237">
+        <v>1.33</v>
+      </c>
+      <c r="X237">
+        <v>3.25</v>
+      </c>
+      <c r="Y237">
+        <v>2.5</v>
+      </c>
+      <c r="Z237">
+        <v>1.5</v>
+      </c>
+      <c r="AA237">
+        <v>6.5</v>
+      </c>
+      <c r="AB237">
+        <v>1.11</v>
+      </c>
+      <c r="AC237">
+        <v>4.8</v>
+      </c>
+      <c r="AD237">
+        <v>3.9</v>
+      </c>
+      <c r="AE237">
+        <v>1.62</v>
+      </c>
+      <c r="AF237">
+        <v>1.04</v>
+      </c>
+      <c r="AG237">
+        <v>15</v>
+      </c>
+      <c r="AH237">
+        <v>1.23</v>
+      </c>
+      <c r="AI237">
+        <v>4.35</v>
+      </c>
+      <c r="AJ237">
+        <v>1.65</v>
+      </c>
+      <c r="AK237">
+        <v>2.25</v>
+      </c>
+      <c r="AL237">
+        <v>1.7</v>
+      </c>
+      <c r="AM237">
+        <v>2.05</v>
+      </c>
+      <c r="AN237">
+        <v>2.1</v>
+      </c>
+      <c r="AO237">
+        <v>1.25</v>
+      </c>
+      <c r="AP237">
+        <v>1.19</v>
+      </c>
+      <c r="AQ237">
+        <v>1.09</v>
+      </c>
+      <c r="AR237">
+        <v>2.33</v>
+      </c>
+      <c r="AS237">
+        <v>1</v>
+      </c>
+      <c r="AT237">
+        <v>2.38</v>
+      </c>
+      <c r="AU237">
+        <v>1.41</v>
+      </c>
+      <c r="AV237">
+        <v>1.68</v>
+      </c>
+      <c r="AW237">
+        <v>3.09</v>
+      </c>
+      <c r="AX237">
+        <v>4.05</v>
+      </c>
+      <c r="AY237">
+        <v>9</v>
+      </c>
+      <c r="AZ237">
+        <v>1.37</v>
+      </c>
+      <c r="BA237">
+        <v>1.21</v>
+      </c>
+      <c r="BB237">
+        <v>1.42</v>
+      </c>
+      <c r="BC237">
+        <v>1.76</v>
+      </c>
+      <c r="BD237">
+        <v>2.22</v>
+      </c>
+      <c r="BE237">
+        <v>2.93</v>
+      </c>
+      <c r="BF237">
+        <v>2</v>
+      </c>
+      <c r="BG237">
+        <v>5</v>
+      </c>
+      <c r="BH237">
+        <v>1</v>
+      </c>
+      <c r="BI237">
+        <v>8</v>
+      </c>
+      <c r="BJ237">
+        <v>3</v>
+      </c>
+      <c r="BK237">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2782284</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44982.60416666666</v>
+      </c>
+      <c r="F238">
+        <v>25</v>
+      </c>
+      <c r="G238" t="s">
+        <v>67</v>
+      </c>
+      <c r="H238" t="s">
+        <v>78</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>3</v>
+      </c>
+      <c r="K238">
+        <v>3</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>4</v>
+      </c>
+      <c r="N238">
+        <v>5</v>
+      </c>
+      <c r="O238" t="s">
+        <v>237</v>
+      </c>
+      <c r="P238" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q238">
+        <v>4</v>
+      </c>
+      <c r="R238">
+        <v>6</v>
+      </c>
+      <c r="S238">
+        <v>10</v>
+      </c>
+      <c r="T238">
+        <v>8.5</v>
+      </c>
+      <c r="U238">
+        <v>2.75</v>
+      </c>
+      <c r="V238">
+        <v>1.67</v>
+      </c>
+      <c r="W238">
+        <v>1.25</v>
+      </c>
+      <c r="X238">
+        <v>3.75</v>
+      </c>
+      <c r="Y238">
+        <v>2.2</v>
+      </c>
+      <c r="Z238">
+        <v>1.62</v>
+      </c>
+      <c r="AA238">
+        <v>5</v>
+      </c>
+      <c r="AB238">
+        <v>1.17</v>
+      </c>
+      <c r="AC238">
+        <v>10.5</v>
+      </c>
+      <c r="AD238">
+        <v>5.25</v>
+      </c>
+      <c r="AE238">
+        <v>1.25</v>
+      </c>
+      <c r="AF238">
+        <v>1.02</v>
+      </c>
+      <c r="AG238">
+        <v>19</v>
+      </c>
+      <c r="AH238">
+        <v>1.17</v>
+      </c>
+      <c r="AI238">
+        <v>5.4</v>
+      </c>
+      <c r="AJ238">
+        <v>1.55</v>
+      </c>
+      <c r="AK238">
+        <v>2.4</v>
+      </c>
+      <c r="AL238">
+        <v>1.95</v>
+      </c>
+      <c r="AM238">
+        <v>1.8</v>
+      </c>
+      <c r="AN238">
+        <v>3.9</v>
+      </c>
+      <c r="AO238">
+        <v>1.12</v>
+      </c>
+      <c r="AP238">
+        <v>1.03</v>
+      </c>
+      <c r="AQ238">
+        <v>1.18</v>
+      </c>
+      <c r="AR238">
+        <v>1.75</v>
+      </c>
+      <c r="AS238">
+        <v>1.08</v>
+      </c>
+      <c r="AT238">
+        <v>1.85</v>
+      </c>
+      <c r="AU238">
+        <v>1.22</v>
+      </c>
+      <c r="AV238">
+        <v>1.91</v>
+      </c>
+      <c r="AW238">
+        <v>3.13</v>
+      </c>
+      <c r="AX238">
+        <v>7.8</v>
+      </c>
+      <c r="AY238">
+        <v>12.5</v>
+      </c>
+      <c r="AZ238">
+        <v>1.14</v>
+      </c>
+      <c r="BA238">
+        <v>1.21</v>
+      </c>
+      <c r="BB238">
+        <v>1.43</v>
+      </c>
+      <c r="BC238">
+        <v>1.78</v>
+      </c>
+      <c r="BD238">
+        <v>2.24</v>
+      </c>
+      <c r="BE238">
+        <v>2.98</v>
+      </c>
+      <c r="BF238">
+        <v>3</v>
+      </c>
+      <c r="BG238">
+        <v>6</v>
+      </c>
+      <c r="BH238">
+        <v>11</v>
+      </c>
+      <c r="BI238">
+        <v>15</v>
+      </c>
+      <c r="BJ238">
+        <v>14</v>
+      </c>
+      <c r="BK238">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2782285</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44982.69791666666</v>
+      </c>
+      <c r="F239">
+        <v>25</v>
+      </c>
+      <c r="G239" t="s">
+        <v>65</v>
+      </c>
+      <c r="H239" t="s">
+        <v>84</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239" t="s">
+        <v>85</v>
+      </c>
+      <c r="P239" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q239">
+        <v>5</v>
+      </c>
+      <c r="R239">
+        <v>3</v>
+      </c>
+      <c r="S239">
+        <v>8</v>
+      </c>
+      <c r="T239">
+        <v>5</v>
+      </c>
+      <c r="U239">
+        <v>2.3</v>
+      </c>
+      <c r="V239">
+        <v>2.3</v>
+      </c>
+      <c r="W239">
+        <v>1.36</v>
+      </c>
+      <c r="X239">
+        <v>3</v>
+      </c>
+      <c r="Y239">
+        <v>2.63</v>
+      </c>
+      <c r="Z239">
+        <v>1.44</v>
+      </c>
+      <c r="AA239">
+        <v>7</v>
+      </c>
+      <c r="AB239">
+        <v>1.1</v>
+      </c>
+      <c r="AC239">
+        <v>4.6</v>
+      </c>
+      <c r="AD239">
+        <v>3.9</v>
+      </c>
+      <c r="AE239">
+        <v>1.73</v>
+      </c>
+      <c r="AF239">
+        <v>1.05</v>
+      </c>
+      <c r="AG239">
+        <v>13</v>
+      </c>
+      <c r="AH239">
+        <v>1.28</v>
+      </c>
+      <c r="AI239">
+        <v>3.9</v>
+      </c>
+      <c r="AJ239">
+        <v>1.72</v>
+      </c>
+      <c r="AK239">
+        <v>1.96</v>
+      </c>
+      <c r="AL239">
+        <v>1.75</v>
+      </c>
+      <c r="AM239">
+        <v>2</v>
+      </c>
+      <c r="AN239">
+        <v>2.1</v>
+      </c>
+      <c r="AO239">
+        <v>1.26</v>
+      </c>
+      <c r="AP239">
+        <v>1.18</v>
+      </c>
+      <c r="AQ239">
+        <v>1.33</v>
+      </c>
+      <c r="AR239">
+        <v>1</v>
+      </c>
+      <c r="AS239">
+        <v>1.31</v>
+      </c>
+      <c r="AT239">
+        <v>1</v>
+      </c>
+      <c r="AU239">
+        <v>1.42</v>
+      </c>
+      <c r="AV239">
+        <v>1.79</v>
+      </c>
+      <c r="AW239">
+        <v>3.21</v>
+      </c>
+      <c r="AX239">
+        <v>3.68</v>
+      </c>
+      <c r="AY239">
+        <v>8.6</v>
+      </c>
+      <c r="AZ239">
+        <v>1.43</v>
+      </c>
+      <c r="BA239">
+        <v>1.23</v>
+      </c>
+      <c r="BB239">
+        <v>1.47</v>
+      </c>
+      <c r="BC239">
+        <v>1.84</v>
+      </c>
+      <c r="BD239">
+        <v>2.36</v>
+      </c>
+      <c r="BE239">
+        <v>3.18</v>
+      </c>
+      <c r="BF239">
+        <v>0</v>
+      </c>
+      <c r="BG239">
+        <v>5</v>
+      </c>
+      <c r="BH239">
+        <v>7</v>
+      </c>
+      <c r="BI239">
+        <v>8</v>
+      </c>
+      <c r="BJ239">
+        <v>7</v>
+      </c>
+      <c r="BK239">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="340">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['46', '82']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -1392,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK239"/>
+  <dimension ref="A1:BK240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1636,7 +1639,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1827,7 +1830,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2209,7 +2212,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2591,7 +2594,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2678,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT7">
         <v>0.92</v>
@@ -2782,7 +2785,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2872,7 +2875,7 @@
         <v>1.08</v>
       </c>
       <c r="AT8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2973,7 +2976,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3164,7 +3167,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3355,7 +3358,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3737,7 +3740,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -4310,7 +4313,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -5074,7 +5077,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5265,7 +5268,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5543,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT22">
         <v>0.83</v>
@@ -5838,7 +5841,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6029,7 +6032,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6220,7 +6223,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6411,7 +6414,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6692,7 +6695,7 @@
         <v>1.33</v>
       </c>
       <c r="AT28">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.51</v>
@@ -6793,7 +6796,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6984,7 +6987,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7175,7 +7178,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7939,7 +7942,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8894,7 +8897,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9085,7 +9088,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9658,7 +9661,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9748,7 +9751,7 @@
         <v>0.55</v>
       </c>
       <c r="AT44">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>1.87</v>
@@ -9849,7 +9852,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -10613,7 +10616,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10995,7 +10998,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11568,7 +11571,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -11846,7 +11849,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT55">
         <v>1.42</v>
@@ -12141,7 +12144,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12332,7 +12335,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12714,7 +12717,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -13096,7 +13099,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13478,7 +13481,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13669,7 +13672,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13860,7 +13863,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13947,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -14051,7 +14054,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14433,7 +14436,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14624,7 +14627,7 @@
         <v>103</v>
       </c>
       <c r="P70" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14815,7 +14818,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14905,7 +14908,7 @@
         <v>1.31</v>
       </c>
       <c r="AT71">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.74</v>
@@ -15197,7 +15200,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15388,7 +15391,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15770,7 +15773,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16343,7 +16346,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17489,7 +17492,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17680,7 +17683,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17871,7 +17874,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18635,7 +18638,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -19104,7 +19107,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT93">
         <v>0.64</v>
@@ -19208,7 +19211,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19298,7 +19301,7 @@
         <v>1.42</v>
       </c>
       <c r="AT94">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.26</v>
@@ -19399,7 +19402,7 @@
         <v>85</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -20354,7 +20357,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20545,7 +20548,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20826,7 +20829,7 @@
         <v>1.92</v>
       </c>
       <c r="AT102">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.5</v>
@@ -22455,7 +22458,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22646,7 +22649,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22837,7 +22840,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -23028,7 +23031,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23410,7 +23413,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23497,7 +23500,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT116">
         <v>1.64</v>
@@ -24365,7 +24368,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24646,7 +24649,7 @@
         <v>1.55</v>
       </c>
       <c r="AT122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU122">
         <v>2.02</v>
@@ -24747,7 +24750,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -25129,7 +25132,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25893,7 +25896,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>13</v>
@@ -26084,7 +26087,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26275,7 +26278,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26466,7 +26469,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26848,7 +26851,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27039,7 +27042,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27230,7 +27233,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27421,7 +27424,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27508,7 +27511,7 @@
         <v>0.4</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT137">
         <v>1</v>
@@ -27612,7 +27615,7 @@
         <v>123</v>
       </c>
       <c r="P138" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27803,7 +27806,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28185,7 +28188,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28272,7 +28275,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT141">
         <v>0.5</v>
@@ -28567,7 +28570,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28848,7 +28851,7 @@
         <v>1.92</v>
       </c>
       <c r="AT144">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>2.23</v>
@@ -28949,7 +28952,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29140,7 +29143,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29331,7 +29334,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29522,7 +29525,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29713,7 +29716,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29904,7 +29907,7 @@
         <v>137</v>
       </c>
       <c r="P150" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -30095,7 +30098,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30286,7 +30289,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30477,7 +30480,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -30668,7 +30671,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q154">
         <v>7</v>
@@ -31241,7 +31244,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31432,7 +31435,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31623,7 +31626,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32578,7 +32581,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32769,7 +32772,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32960,7 +32963,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33047,7 +33050,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT166">
         <v>1.17</v>
@@ -33151,7 +33154,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33241,7 +33244,7 @@
         <v>1.58</v>
       </c>
       <c r="AT167">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU167">
         <v>1.46</v>
@@ -33533,7 +33536,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33915,7 +33918,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34297,7 +34300,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34488,7 +34491,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34679,7 +34682,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q175">
         <v>10</v>
@@ -34870,7 +34873,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35252,7 +35255,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35342,7 +35345,7 @@
         <v>1.69</v>
       </c>
       <c r="AT178">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU178">
         <v>1.71</v>
@@ -35825,7 +35828,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -37162,7 +37165,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37249,7 +37252,7 @@
         <v>2.44</v>
       </c>
       <c r="AS188">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT188">
         <v>2.38</v>
@@ -37353,7 +37356,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37544,7 +37547,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37825,7 +37828,7 @@
         <v>2.18</v>
       </c>
       <c r="AT191">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU191">
         <v>2.37</v>
@@ -38499,7 +38502,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -39263,7 +39266,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -40600,7 +40603,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q206">
         <v>11</v>
@@ -40982,7 +40985,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41451,7 +41454,7 @@
         <v>1.89</v>
       </c>
       <c r="AS210">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT210">
         <v>1.85</v>
@@ -41555,7 +41558,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41746,7 +41749,7 @@
         <v>213</v>
       </c>
       <c r="P212" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41836,7 +41839,7 @@
         <v>1.42</v>
       </c>
       <c r="AT212">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU212">
         <v>1.6</v>
@@ -42319,7 +42322,7 @@
         <v>194</v>
       </c>
       <c r="P215" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -43083,7 +43086,7 @@
         <v>85</v>
       </c>
       <c r="P219" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -43656,7 +43659,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43847,7 +43850,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -45184,7 +45187,7 @@
         <v>85</v>
       </c>
       <c r="P230" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45653,7 +45656,7 @@
         <v>0.55</v>
       </c>
       <c r="AS232">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT232">
         <v>0.5</v>
@@ -45757,7 +45760,7 @@
         <v>101</v>
       </c>
       <c r="P233" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45948,7 +45951,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q234">
         <v>5</v>
@@ -46521,7 +46524,7 @@
         <v>85</v>
       </c>
       <c r="P237" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -46712,7 +46715,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47045,6 +47048,197 @@
       </c>
       <c r="BK239">
         <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2782435</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44983.4375</v>
+      </c>
+      <c r="F240">
+        <v>25</v>
+      </c>
+      <c r="G240" t="s">
+        <v>70</v>
+      </c>
+      <c r="H240" t="s">
+        <v>83</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>2</v>
+      </c>
+      <c r="O240" t="s">
+        <v>238</v>
+      </c>
+      <c r="P240" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q240">
+        <v>4</v>
+      </c>
+      <c r="R240">
+        <v>4</v>
+      </c>
+      <c r="S240">
+        <v>8</v>
+      </c>
+      <c r="T240">
+        <v>3.1</v>
+      </c>
+      <c r="U240">
+        <v>2.1</v>
+      </c>
+      <c r="V240">
+        <v>3.4</v>
+      </c>
+      <c r="W240">
+        <v>1.4</v>
+      </c>
+      <c r="X240">
+        <v>2.75</v>
+      </c>
+      <c r="Y240">
+        <v>3</v>
+      </c>
+      <c r="Z240">
+        <v>1.36</v>
+      </c>
+      <c r="AA240">
+        <v>8</v>
+      </c>
+      <c r="AB240">
+        <v>1.08</v>
+      </c>
+      <c r="AC240">
+        <v>2.3</v>
+      </c>
+      <c r="AD240">
+        <v>3.3</v>
+      </c>
+      <c r="AE240">
+        <v>2.9</v>
+      </c>
+      <c r="AF240">
+        <v>1.06</v>
+      </c>
+      <c r="AG240">
+        <v>10</v>
+      </c>
+      <c r="AH240">
+        <v>1.34</v>
+      </c>
+      <c r="AI240">
+        <v>3.4</v>
+      </c>
+      <c r="AJ240">
+        <v>1.95</v>
+      </c>
+      <c r="AK240">
+        <v>1.85</v>
+      </c>
+      <c r="AL240">
+        <v>1.75</v>
+      </c>
+      <c r="AM240">
+        <v>2</v>
+      </c>
+      <c r="AN240">
+        <v>1.4</v>
+      </c>
+      <c r="AO240">
+        <v>1.32</v>
+      </c>
+      <c r="AP240">
+        <v>1.53</v>
+      </c>
+      <c r="AQ240">
+        <v>2</v>
+      </c>
+      <c r="AR240">
+        <v>1.08</v>
+      </c>
+      <c r="AS240">
+        <v>2.08</v>
+      </c>
+      <c r="AT240">
+        <v>1</v>
+      </c>
+      <c r="AU240">
+        <v>1.82</v>
+      </c>
+      <c r="AV240">
+        <v>1.61</v>
+      </c>
+      <c r="AW240">
+        <v>3.43</v>
+      </c>
+      <c r="AX240">
+        <v>1.86</v>
+      </c>
+      <c r="AY240">
+        <v>7.8</v>
+      </c>
+      <c r="AZ240">
+        <v>2.38</v>
+      </c>
+      <c r="BA240">
+        <v>1.17</v>
+      </c>
+      <c r="BB240">
+        <v>1.34</v>
+      </c>
+      <c r="BC240">
+        <v>1.65</v>
+      </c>
+      <c r="BD240">
+        <v>2.09</v>
+      </c>
+      <c r="BE240">
+        <v>2.73</v>
+      </c>
+      <c r="BF240">
+        <v>4</v>
+      </c>
+      <c r="BG240">
+        <v>3</v>
+      </c>
+      <c r="BH240">
+        <v>5</v>
+      </c>
+      <c r="BI240">
+        <v>8</v>
+      </c>
+      <c r="BJ240">
+        <v>9</v>
+      </c>
+      <c r="BK240">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,12 @@
     <t>['46', '82']</t>
   </si>
   <si>
+    <t>['40', '45+1', '71', '80']</t>
+  </si>
+  <si>
+    <t>['73', '77']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -1395,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK240"/>
+  <dimension ref="A1:BK242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1645,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1830,7 +1836,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2212,7 +2218,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2302,7 +2308,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2594,7 +2600,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2785,7 +2791,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2976,7 +2982,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3167,7 +3173,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3358,7 +3364,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3639,7 +3645,7 @@
         <v>1.42</v>
       </c>
       <c r="AT12">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3740,7 +3746,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3827,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -4313,7 +4319,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -5077,7 +5083,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5268,7 +5274,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5355,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT21">
         <v>0.91</v>
@@ -5549,7 +5555,7 @@
         <v>2.08</v>
       </c>
       <c r="AT22">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU22">
         <v>1.65</v>
@@ -5841,7 +5847,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6032,7 +6038,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6223,7 +6229,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6414,7 +6420,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6796,7 +6802,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6987,7 +6993,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7178,7 +7184,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7647,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT33">
         <v>0.67</v>
@@ -7942,7 +7948,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8223,7 +8229,7 @@
         <v>1.92</v>
       </c>
       <c r="AT36">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU36">
         <v>1.74</v>
@@ -8602,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT38">
         <v>1.42</v>
@@ -8897,7 +8903,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9088,7 +9094,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9661,7 +9667,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9852,7 +9858,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -9942,7 +9948,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU45">
         <v>1.59</v>
@@ -10133,7 +10139,7 @@
         <v>1.08</v>
       </c>
       <c r="AT46">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU46">
         <v>0.85</v>
@@ -10321,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT47">
         <v>1.17</v>
@@ -10616,7 +10622,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10894,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT50">
         <v>1.64</v>
@@ -10998,7 +11004,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11571,7 +11577,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -12144,7 +12150,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12335,7 +12341,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12717,7 +12723,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -13099,7 +13105,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13481,7 +13487,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13672,7 +13678,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13863,7 +13869,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14054,7 +14060,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14436,7 +14442,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14523,7 +14529,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT69">
         <v>1.5</v>
@@ -14627,7 +14633,7 @@
         <v>103</v>
       </c>
       <c r="P70" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14818,7 +14824,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15200,7 +15206,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15287,7 +15293,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT73">
         <v>1.64</v>
@@ -15391,7 +15397,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15481,7 +15487,7 @@
         <v>0.55</v>
       </c>
       <c r="AT74">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15672,7 +15678,7 @@
         <v>1.42</v>
       </c>
       <c r="AT75">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU75">
         <v>1.23</v>
@@ -15773,7 +15779,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16346,7 +16352,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17009,7 +17015,7 @@
         <v>1.64</v>
       </c>
       <c r="AT82">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU82">
         <v>1.51</v>
@@ -17492,7 +17498,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17683,7 +17689,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17770,7 +17776,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17874,7 +17880,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18638,7 +18644,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -19110,7 +19116,7 @@
         <v>2.08</v>
       </c>
       <c r="AT93">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU93">
         <v>1.92</v>
@@ -19211,7 +19217,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19402,7 +19408,7 @@
         <v>85</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -20062,7 +20068,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT98">
         <v>1.85</v>
@@ -20357,7 +20363,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20447,7 +20453,7 @@
         <v>1.31</v>
       </c>
       <c r="AT100">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20548,7 +20554,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21020,7 +21026,7 @@
         <v>1.92</v>
       </c>
       <c r="AT103">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU103">
         <v>2.32</v>
@@ -21208,7 +21214,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT104">
         <v>0.5</v>
@@ -22458,7 +22464,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22649,7 +22655,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22840,7 +22846,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -23031,7 +23037,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23413,7 +23419,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -24368,7 +24374,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24750,7 +24756,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24840,7 +24846,7 @@
         <v>1.92</v>
       </c>
       <c r="AT123">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU123">
         <v>1.47</v>
@@ -25031,7 +25037,7 @@
         <v>1.69</v>
       </c>
       <c r="AT124">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU124">
         <v>1.63</v>
@@ -25132,7 +25138,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25219,7 +25225,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT125">
         <v>0.5</v>
@@ -25410,7 +25416,7 @@
         <v>0.33</v>
       </c>
       <c r="AS126">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT126">
         <v>0.5</v>
@@ -25896,7 +25902,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>13</v>
@@ -26087,7 +26093,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26278,7 +26284,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26469,7 +26475,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26851,7 +26857,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27042,7 +27048,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27233,7 +27239,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27424,7 +27430,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27615,7 +27621,7 @@
         <v>123</v>
       </c>
       <c r="P138" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27806,7 +27812,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28087,7 +28093,7 @@
         <v>1.08</v>
       </c>
       <c r="AT140">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU140">
         <v>1.09</v>
@@ -28188,7 +28194,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28570,7 +28576,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28657,7 +28663,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT143">
         <v>0.92</v>
@@ -28952,7 +28958,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29143,7 +29149,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29334,7 +29340,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29525,7 +29531,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29716,7 +29722,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29907,7 +29913,7 @@
         <v>137</v>
       </c>
       <c r="P150" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -29997,7 +30003,7 @@
         <v>1.08</v>
       </c>
       <c r="AT150">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU150">
         <v>1.51</v>
@@ -30098,7 +30104,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30289,7 +30295,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30480,7 +30486,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -30671,7 +30677,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q154">
         <v>7</v>
@@ -30758,7 +30764,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT154">
         <v>0.5</v>
@@ -31244,7 +31250,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31435,7 +31441,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31626,7 +31632,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31713,7 +31719,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT159">
         <v>1</v>
@@ -32289,7 +32295,7 @@
         <v>2.58</v>
       </c>
       <c r="AT162">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU162">
         <v>2.29</v>
@@ -32581,7 +32587,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32772,7 +32778,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32963,7 +32969,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33154,7 +33160,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33536,7 +33542,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33814,7 +33820,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT170">
         <v>1.64</v>
@@ -33918,7 +33924,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34300,7 +34306,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34491,7 +34497,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34682,7 +34688,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>10</v>
@@ -34873,7 +34879,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34963,7 +34969,7 @@
         <v>1.42</v>
       </c>
       <c r="AT176">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU176">
         <v>1.47</v>
@@ -35255,7 +35261,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35828,7 +35834,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -37165,7 +37171,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37356,7 +37362,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37547,7 +37553,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37825,7 +37831,7 @@
         <v>1.1</v>
       </c>
       <c r="AS191">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT191">
         <v>1</v>
@@ -38401,7 +38407,7 @@
         <v>1.42</v>
       </c>
       <c r="AT194">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU194">
         <v>1.62</v>
@@ -38502,7 +38508,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -39165,7 +39171,7 @@
         <v>2.58</v>
       </c>
       <c r="AT198">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU198">
         <v>2.22</v>
@@ -39266,7 +39272,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -39353,7 +39359,7 @@
         <v>1.7</v>
       </c>
       <c r="AS199">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT199">
         <v>1.67</v>
@@ -40603,7 +40609,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q206">
         <v>11</v>
@@ -40985,7 +40991,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41558,7 +41564,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41749,7 +41755,7 @@
         <v>213</v>
       </c>
       <c r="P212" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -42027,7 +42033,7 @@
         <v>1.1</v>
       </c>
       <c r="AS213">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT213">
         <v>1.09</v>
@@ -42322,7 +42328,7 @@
         <v>194</v>
       </c>
       <c r="P215" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42412,7 +42418,7 @@
         <v>0.55</v>
       </c>
       <c r="AT215">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU215">
         <v>1.59</v>
@@ -43086,7 +43092,7 @@
         <v>85</v>
       </c>
       <c r="P219" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -43555,10 +43561,10 @@
         <v>0.7</v>
       </c>
       <c r="AS221">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT221">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU221">
         <v>2.3</v>
@@ -43659,7 +43665,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43746,7 +43752,7 @@
         <v>1.7</v>
       </c>
       <c r="AS222">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT222">
         <v>1.85</v>
@@ -43850,7 +43856,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -45187,7 +45193,7 @@
         <v>85</v>
       </c>
       <c r="P230" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45760,7 +45766,7 @@
         <v>101</v>
       </c>
       <c r="P233" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45850,7 +45856,7 @@
         <v>1.69</v>
       </c>
       <c r="AT233">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU233">
         <v>1.64</v>
@@ -45951,7 +45957,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q234">
         <v>5</v>
@@ -46524,7 +46530,7 @@
         <v>85</v>
       </c>
       <c r="P237" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -46715,7 +46721,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47239,6 +47245,388 @@
       </c>
       <c r="BK240">
         <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2782103</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44986.69791666666</v>
+      </c>
+      <c r="F241">
+        <v>7</v>
+      </c>
+      <c r="G241" t="s">
+        <v>76</v>
+      </c>
+      <c r="H241" t="s">
+        <v>71</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>2</v>
+      </c>
+      <c r="L241">
+        <v>4</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>4</v>
+      </c>
+      <c r="O241" t="s">
+        <v>239</v>
+      </c>
+      <c r="P241" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q241">
+        <v>5</v>
+      </c>
+      <c r="R241">
+        <v>1</v>
+      </c>
+      <c r="S241">
+        <v>6</v>
+      </c>
+      <c r="T241">
+        <v>1.8</v>
+      </c>
+      <c r="U241">
+        <v>2.5</v>
+      </c>
+      <c r="V241">
+        <v>8</v>
+      </c>
+      <c r="W241">
+        <v>1.3</v>
+      </c>
+      <c r="X241">
+        <v>3.4</v>
+      </c>
+      <c r="Y241">
+        <v>2.5</v>
+      </c>
+      <c r="Z241">
+        <v>1.5</v>
+      </c>
+      <c r="AA241">
+        <v>6</v>
+      </c>
+      <c r="AB241">
+        <v>1.13</v>
+      </c>
+      <c r="AC241">
+        <v>1.3</v>
+      </c>
+      <c r="AD241">
+        <v>4.95</v>
+      </c>
+      <c r="AE241">
+        <v>9.5</v>
+      </c>
+      <c r="AF241">
+        <v>1.03</v>
+      </c>
+      <c r="AG241">
+        <v>12.5</v>
+      </c>
+      <c r="AH241">
+        <v>1.21</v>
+      </c>
+      <c r="AI241">
+        <v>4.1</v>
+      </c>
+      <c r="AJ241">
+        <v>1.83</v>
+      </c>
+      <c r="AK241">
+        <v>2.03</v>
+      </c>
+      <c r="AL241">
+        <v>2.05</v>
+      </c>
+      <c r="AM241">
+        <v>1.7</v>
+      </c>
+      <c r="AN241">
+        <v>1.07</v>
+      </c>
+      <c r="AO241">
+        <v>1.17</v>
+      </c>
+      <c r="AP241">
+        <v>3.2</v>
+      </c>
+      <c r="AQ241">
+        <v>2.36</v>
+      </c>
+      <c r="AR241">
+        <v>0.64</v>
+      </c>
+      <c r="AS241">
+        <v>2.42</v>
+      </c>
+      <c r="AT241">
+        <v>0.58</v>
+      </c>
+      <c r="AU241">
+        <v>2.31</v>
+      </c>
+      <c r="AV241">
+        <v>1.04</v>
+      </c>
+      <c r="AW241">
+        <v>3.35</v>
+      </c>
+      <c r="AX241">
+        <v>1.14</v>
+      </c>
+      <c r="AY241">
+        <v>11.5</v>
+      </c>
+      <c r="AZ241">
+        <v>7.5</v>
+      </c>
+      <c r="BA241">
+        <v>1.14</v>
+      </c>
+      <c r="BB241">
+        <v>1.27</v>
+      </c>
+      <c r="BC241">
+        <v>1.48</v>
+      </c>
+      <c r="BD241">
+        <v>1.82</v>
+      </c>
+      <c r="BE241">
+        <v>2.35</v>
+      </c>
+      <c r="BF241">
+        <v>6</v>
+      </c>
+      <c r="BG241">
+        <v>6</v>
+      </c>
+      <c r="BH241">
+        <v>10</v>
+      </c>
+      <c r="BI241">
+        <v>3</v>
+      </c>
+      <c r="BJ241">
+        <v>16</v>
+      </c>
+      <c r="BK241">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2782100</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44986.70833333334</v>
+      </c>
+      <c r="F242">
+        <v>7</v>
+      </c>
+      <c r="G242" t="s">
+        <v>84</v>
+      </c>
+      <c r="H242" t="s">
+        <v>80</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="O242" t="s">
+        <v>240</v>
+      </c>
+      <c r="P242" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q242">
+        <v>5</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>7</v>
+      </c>
+      <c r="T242">
+        <v>1.67</v>
+      </c>
+      <c r="U242">
+        <v>2.75</v>
+      </c>
+      <c r="V242">
+        <v>8.5</v>
+      </c>
+      <c r="W242">
+        <v>1.25</v>
+      </c>
+      <c r="X242">
+        <v>3.75</v>
+      </c>
+      <c r="Y242">
+        <v>2.2</v>
+      </c>
+      <c r="Z242">
+        <v>1.62</v>
+      </c>
+      <c r="AA242">
+        <v>5</v>
+      </c>
+      <c r="AB242">
+        <v>1.17</v>
+      </c>
+      <c r="AC242">
+        <v>1.5</v>
+      </c>
+      <c r="AD242">
+        <v>4.35</v>
+      </c>
+      <c r="AE242">
+        <v>5.5</v>
+      </c>
+      <c r="AF242">
+        <v>1.02</v>
+      </c>
+      <c r="AG242">
+        <v>19</v>
+      </c>
+      <c r="AH242">
+        <v>1.17</v>
+      </c>
+      <c r="AI242">
+        <v>5.4</v>
+      </c>
+      <c r="AJ242">
+        <v>1.68</v>
+      </c>
+      <c r="AK242">
+        <v>2.25</v>
+      </c>
+      <c r="AL242">
+        <v>2</v>
+      </c>
+      <c r="AM242">
+        <v>1.75</v>
+      </c>
+      <c r="AN242">
+        <v>1.05</v>
+      </c>
+      <c r="AO242">
+        <v>1.13</v>
+      </c>
+      <c r="AP242">
+        <v>3.9</v>
+      </c>
+      <c r="AQ242">
+        <v>2.18</v>
+      </c>
+      <c r="AR242">
+        <v>0.83</v>
+      </c>
+      <c r="AS242">
+        <v>2.25</v>
+      </c>
+      <c r="AT242">
+        <v>0.77</v>
+      </c>
+      <c r="AU242">
+        <v>2.23</v>
+      </c>
+      <c r="AV242">
+        <v>1.44</v>
+      </c>
+      <c r="AW242">
+        <v>3.67</v>
+      </c>
+      <c r="AX242">
+        <v>1.05</v>
+      </c>
+      <c r="AY242">
+        <v>17.75</v>
+      </c>
+      <c r="AZ242">
+        <v>13.25</v>
+      </c>
+      <c r="BA242">
+        <v>1.09</v>
+      </c>
+      <c r="BB242">
+        <v>1.22</v>
+      </c>
+      <c r="BC242">
+        <v>1.45</v>
+      </c>
+      <c r="BD242">
+        <v>1.78</v>
+      </c>
+      <c r="BE242">
+        <v>2.34</v>
+      </c>
+      <c r="BF242">
+        <v>7</v>
+      </c>
+      <c r="BG242">
+        <v>2</v>
+      </c>
+      <c r="BH242">
+        <v>8</v>
+      </c>
+      <c r="BI242">
+        <v>3</v>
+      </c>
+      <c r="BJ242">
+        <v>15</v>
+      </c>
+      <c r="BK242">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="349">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,27 @@
     <t>['73', '77']</t>
   </si>
   <si>
+    <t>['15', '67']</t>
+  </si>
+  <si>
+    <t>['62', '70', '90+7']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['18', '51', '69', '89']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['43', '47', '50', '66', '75', '83', '88']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -868,9 +889,6 @@
     <t>['6', '65']</t>
   </si>
   <si>
-    <t>['35']</t>
-  </si>
-  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -958,9 +976,6 @@
     <t>['5', '37', '81']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['45+1', '51', '64']</t>
   </si>
   <si>
@@ -1040,6 +1055,12 @@
   </si>
   <si>
     <t>['15', '29', '45', '51']</t>
+  </si>
+  <si>
+    <t>['1', '57']</t>
+  </si>
+  <si>
+    <t>['10', '29']</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK242"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,7 +1666,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1836,7 +1857,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2218,7 +2239,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2600,7 +2621,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2791,7 +2812,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2982,7 +3003,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3173,7 +3194,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3364,7 +3385,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3642,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT12">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3746,7 +3767,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3833,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4024,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT14">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4215,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4319,7 +4340,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4406,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4597,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT17">
         <v>1.42</v>
@@ -4791,7 +4812,7 @@
         <v>1.92</v>
       </c>
       <c r="AT18">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4979,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5083,7 +5104,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5170,10 +5191,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5274,7 +5295,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5361,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT21">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5847,7 +5868,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6038,7 +6059,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6229,7 +6250,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6420,7 +6441,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6802,7 +6823,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6993,7 +7014,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7184,7 +7205,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7462,10 +7483,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU32">
         <v>1.65</v>
@@ -7653,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU33">
         <v>2.56</v>
@@ -7844,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU34">
         <v>2.05</v>
@@ -7948,7 +7969,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8035,10 +8056,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT35">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU35">
         <v>2.53</v>
@@ -8229,7 +8250,7 @@
         <v>1.92</v>
       </c>
       <c r="AT36">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU36">
         <v>1.74</v>
@@ -8417,10 +8438,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU37">
         <v>1.78</v>
@@ -8608,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT38">
         <v>1.42</v>
@@ -8799,10 +8820,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT39">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU39">
         <v>1.64</v>
@@ -8903,7 +8924,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8990,10 +9011,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT40">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>0.87</v>
@@ -9094,7 +9115,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9181,10 +9202,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT41">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9667,7 +9688,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9754,7 +9775,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -9858,7 +9879,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -9948,7 +9969,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU45">
         <v>1.59</v>
@@ -10327,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT47">
         <v>1.17</v>
@@ -10518,7 +10539,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT48">
         <v>0.5</v>
@@ -10622,7 +10643,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10712,7 +10733,7 @@
         <v>1.42</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU49">
         <v>1.07</v>
@@ -10900,10 +10921,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT50">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU50">
         <v>2.69</v>
@@ -11004,7 +11025,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11094,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU51">
         <v>1.28</v>
@@ -11473,7 +11494,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT53">
         <v>0.92</v>
@@ -11577,7 +11598,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -11664,10 +11685,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT54">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU54">
         <v>1.53</v>
@@ -12049,7 +12070,7 @@
         <v>1.92</v>
       </c>
       <c r="AT56">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU56">
         <v>2.26</v>
@@ -12150,7 +12171,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12240,7 +12261,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU57">
         <v>1.94</v>
@@ -12341,7 +12362,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12428,10 +12449,10 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT58">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU58">
         <v>1.78</v>
@@ -12619,7 +12640,7 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT59">
         <v>1.85</v>
@@ -12723,7 +12744,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12810,10 +12831,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU60">
         <v>1.67</v>
@@ -13105,7 +13126,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13192,7 +13213,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT62">
         <v>1.42</v>
@@ -13383,7 +13404,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT63">
         <v>0.92</v>
@@ -13487,7 +13508,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13574,7 +13595,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT64">
         <v>1.85</v>
@@ -13678,7 +13699,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13768,7 +13789,7 @@
         <v>1.92</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU65">
         <v>2.35</v>
@@ -13869,7 +13890,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13959,7 +13980,7 @@
         <v>2.08</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU66">
         <v>1.91</v>
@@ -14060,7 +14081,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14341,7 +14362,7 @@
         <v>1.08</v>
       </c>
       <c r="AT68">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -14442,7 +14463,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14529,10 +14550,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT69">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14633,7 +14654,7 @@
         <v>103</v>
       </c>
       <c r="P70" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14723,7 +14744,7 @@
         <v>1.69</v>
       </c>
       <c r="AT70">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU70">
         <v>1.57</v>
@@ -14824,7 +14845,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15206,7 +15227,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15293,7 +15314,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT73">
         <v>1.64</v>
@@ -15397,7 +15418,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15484,10 +15505,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT74">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15779,7 +15800,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15866,10 +15887,10 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT76">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU76">
         <v>2.34</v>
@@ -16352,7 +16373,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16442,7 +16463,7 @@
         <v>1.08</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU79">
         <v>0.8100000000000001</v>
@@ -16630,7 +16651,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT80">
         <v>0.92</v>
@@ -17012,7 +17033,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT82">
         <v>0.77</v>
@@ -17203,10 +17224,10 @@
         <v>1.25</v>
       </c>
       <c r="AS83">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT83">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU83">
         <v>2.02</v>
@@ -17498,7 +17519,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17588,7 +17609,7 @@
         <v>1.31</v>
       </c>
       <c r="AT85">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU85">
         <v>1.57</v>
@@ -17689,7 +17710,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17776,7 +17797,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17880,7 +17901,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17970,7 +17991,7 @@
         <v>1.08</v>
       </c>
       <c r="AT87">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU87">
         <v>1.57</v>
@@ -18158,7 +18179,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT88">
         <v>1.17</v>
@@ -18543,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT90">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU90">
         <v>1.44</v>
@@ -18644,7 +18665,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18734,7 +18755,7 @@
         <v>1.69</v>
       </c>
       <c r="AT91">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU91">
         <v>1.34</v>
@@ -18922,7 +18943,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT92">
         <v>0.5</v>
@@ -19116,7 +19137,7 @@
         <v>2.08</v>
       </c>
       <c r="AT93">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU93">
         <v>1.92</v>
@@ -19217,7 +19238,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19304,7 +19325,7 @@
         <v>1.5</v>
       </c>
       <c r="AS94">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19408,7 +19429,7 @@
         <v>85</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19686,10 +19707,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT96">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU96">
         <v>1.84</v>
@@ -19880,7 +19901,7 @@
         <v>2.42</v>
       </c>
       <c r="AT97">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU97">
         <v>1.6</v>
@@ -20068,7 +20089,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT98">
         <v>1.85</v>
@@ -20259,7 +20280,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT99">
         <v>0.5</v>
@@ -20363,7 +20384,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20554,7 +20575,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -21026,7 +21047,7 @@
         <v>1.92</v>
       </c>
       <c r="AT103">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU103">
         <v>2.32</v>
@@ -21214,10 +21235,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU104">
         <v>2.4</v>
@@ -21408,7 +21429,7 @@
         <v>2.42</v>
       </c>
       <c r="AT105">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU105">
         <v>1.69</v>
@@ -21790,7 +21811,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU107">
         <v>1.52</v>
@@ -21978,7 +21999,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -22172,7 +22193,7 @@
         <v>1.08</v>
       </c>
       <c r="AT109">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU109">
         <v>1.5</v>
@@ -22360,7 +22381,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT110">
         <v>1.64</v>
@@ -22464,7 +22485,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22551,10 +22572,10 @@
         <v>1.8</v>
       </c>
       <c r="AS111">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU111">
         <v>1.69</v>
@@ -22655,7 +22676,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22742,10 +22763,10 @@
         <v>0</v>
       </c>
       <c r="AS112">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU112">
         <v>1.12</v>
@@ -22846,7 +22867,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22933,7 +22954,7 @@
         <v>2.4</v>
       </c>
       <c r="AS113">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT113">
         <v>2.38</v>
@@ -23037,7 +23058,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23315,7 +23336,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT115">
         <v>1.09</v>
@@ -23419,7 +23440,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23509,7 +23530,7 @@
         <v>2.08</v>
       </c>
       <c r="AT116">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU116">
         <v>2.02</v>
@@ -23700,7 +23721,7 @@
         <v>1.42</v>
       </c>
       <c r="AT117">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU117">
         <v>1.49</v>
@@ -24374,7 +24395,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24464,7 +24485,7 @@
         <v>1.08</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU121">
         <v>1.1</v>
@@ -24652,7 +24673,7 @@
         <v>1.67</v>
       </c>
       <c r="AS122">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT122">
         <v>1</v>
@@ -24756,7 +24777,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -25037,7 +25058,7 @@
         <v>1.69</v>
       </c>
       <c r="AT124">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU124">
         <v>1.63</v>
@@ -25138,7 +25159,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25225,10 +25246,10 @@
         <v>0.2</v>
       </c>
       <c r="AS125">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT125">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU125">
         <v>2.38</v>
@@ -25416,7 +25437,7 @@
         <v>0.33</v>
       </c>
       <c r="AS126">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT126">
         <v>0.5</v>
@@ -25610,7 +25631,7 @@
         <v>2.42</v>
       </c>
       <c r="AT127">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU127">
         <v>1.96</v>
@@ -25798,7 +25819,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT128">
         <v>1.42</v>
@@ -25902,7 +25923,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q129">
         <v>13</v>
@@ -25992,7 +26013,7 @@
         <v>1.33</v>
       </c>
       <c r="AT129">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU129">
         <v>1.61</v>
@@ -26093,7 +26114,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26180,7 +26201,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT130">
         <v>1.64</v>
@@ -26284,7 +26305,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26371,7 +26392,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT131">
         <v>1.09</v>
@@ -26475,7 +26496,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26565,7 +26586,7 @@
         <v>1.08</v>
       </c>
       <c r="AT132">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU132">
         <v>1.51</v>
@@ -26753,7 +26774,7 @@
         <v>2.17</v>
       </c>
       <c r="AS133">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT133">
         <v>2.38</v>
@@ -26857,7 +26878,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26944,10 +26965,10 @@
         <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT134">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU134">
         <v>1.53</v>
@@ -27048,7 +27069,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27135,10 +27156,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT135">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU135">
         <v>1.67</v>
@@ -27239,7 +27260,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27329,7 +27350,7 @@
         <v>1.42</v>
       </c>
       <c r="AT136">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU136">
         <v>1.57</v>
@@ -27430,7 +27451,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27621,7 +27642,7 @@
         <v>123</v>
       </c>
       <c r="P138" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27708,7 +27729,7 @@
         <v>0.57</v>
       </c>
       <c r="AS138">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT138">
         <v>1.09</v>
@@ -27812,7 +27833,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27902,7 +27923,7 @@
         <v>1.42</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU139">
         <v>1.46</v>
@@ -28093,7 +28114,7 @@
         <v>1.08</v>
       </c>
       <c r="AT140">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU140">
         <v>1.09</v>
@@ -28194,7 +28215,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28284,7 +28305,7 @@
         <v>2.08</v>
       </c>
       <c r="AT141">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU141">
         <v>1.99</v>
@@ -28472,10 +28493,10 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT142">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU142">
         <v>1.53</v>
@@ -28576,7 +28597,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28663,7 +28684,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT143">
         <v>0.92</v>
@@ -28958,7 +28979,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29045,7 +29066,7 @@
         <v>2.29</v>
       </c>
       <c r="AS145">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT145">
         <v>2.38</v>
@@ -29149,7 +29170,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29236,7 +29257,7 @@
         <v>0.29</v>
       </c>
       <c r="AS146">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT146">
         <v>1.17</v>
@@ -29340,7 +29361,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29430,7 +29451,7 @@
         <v>1.69</v>
       </c>
       <c r="AT147">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU147">
         <v>1.77</v>
@@ -29531,7 +29552,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29621,7 +29642,7 @@
         <v>1.92</v>
       </c>
       <c r="AT148">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU148">
         <v>1.45</v>
@@ -29722,7 +29743,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29812,7 +29833,7 @@
         <v>1</v>
       </c>
       <c r="AT149">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU149">
         <v>1.38</v>
@@ -29913,7 +29934,7 @@
         <v>137</v>
       </c>
       <c r="P150" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -30104,7 +30125,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30191,7 +30212,7 @@
         <v>1.43</v>
       </c>
       <c r="AS151">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT151">
         <v>1.64</v>
@@ -30295,7 +30316,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30486,7 +30507,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -30573,7 +30594,7 @@
         <v>0.83</v>
       </c>
       <c r="AS153">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT153">
         <v>1</v>
@@ -30677,7 +30698,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="Q154">
         <v>7</v>
@@ -30764,10 +30785,10 @@
         <v>0.57</v>
       </c>
       <c r="AS154">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT154">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU154">
         <v>2.46</v>
@@ -30955,10 +30976,10 @@
         <v>0.71</v>
       </c>
       <c r="AS155">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT155">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -31250,7 +31271,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31441,7 +31462,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31632,7 +31653,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31719,10 +31740,10 @@
         <v>1.13</v>
       </c>
       <c r="AS159">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT159">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU159">
         <v>2.38</v>
@@ -31910,10 +31931,10 @@
         <v>1.63</v>
       </c>
       <c r="AS160">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT160">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU160">
         <v>1.32</v>
@@ -32104,7 +32125,7 @@
         <v>1.92</v>
       </c>
       <c r="AT161">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU161">
         <v>2.11</v>
@@ -32292,10 +32313,10 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT162">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU162">
         <v>2.29</v>
@@ -32587,7 +32608,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32677,7 +32698,7 @@
         <v>1.08</v>
       </c>
       <c r="AT164">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU164">
         <v>1.18</v>
@@ -32778,7 +32799,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32865,7 +32886,7 @@
         <v>2.38</v>
       </c>
       <c r="AS165">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT165">
         <v>2.38</v>
@@ -32969,7 +32990,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33160,7 +33181,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33247,7 +33268,7 @@
         <v>1.25</v>
       </c>
       <c r="AS167">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT167">
         <v>1</v>
@@ -33542,7 +33563,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33820,10 +33841,10 @@
         <v>1.88</v>
       </c>
       <c r="AS170">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT170">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU170">
         <v>2.4</v>
@@ -33924,7 +33945,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34205,7 +34226,7 @@
         <v>2.42</v>
       </c>
       <c r="AT172">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU172">
         <v>1.96</v>
@@ -34306,7 +34327,7 @@
         <v>85</v>
       </c>
       <c r="P173" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34393,7 +34414,7 @@
         <v>0.25</v>
       </c>
       <c r="AS173">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT173">
         <v>0.5</v>
@@ -34497,7 +34518,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34587,7 +34608,7 @@
         <v>1.33</v>
       </c>
       <c r="AT174">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU174">
         <v>1.58</v>
@@ -34688,7 +34709,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q175">
         <v>10</v>
@@ -34778,7 +34799,7 @@
         <v>1.31</v>
       </c>
       <c r="AT175">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU175">
         <v>1.46</v>
@@ -34879,7 +34900,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34966,7 +34987,7 @@
         <v>0.63</v>
       </c>
       <c r="AS176">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT176">
         <v>0.77</v>
@@ -35157,7 +35178,7 @@
         <v>2</v>
       </c>
       <c r="AS177">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT177">
         <v>1.85</v>
@@ -35261,7 +35282,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35539,10 +35560,10 @@
         <v>0.63</v>
       </c>
       <c r="AS179">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT179">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU179">
         <v>1.49</v>
@@ -35834,7 +35855,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36112,7 +36133,7 @@
         <v>1</v>
       </c>
       <c r="AS182">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT182">
         <v>1</v>
@@ -36303,10 +36324,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS183">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT183">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU183">
         <v>1.31</v>
@@ -36494,10 +36515,10 @@
         <v>1</v>
       </c>
       <c r="AS184">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT184">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU184">
         <v>1.47</v>
@@ -36688,7 +36709,7 @@
         <v>1.92</v>
       </c>
       <c r="AT185">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU185">
         <v>1.45</v>
@@ -36876,10 +36897,10 @@
         <v>1.13</v>
       </c>
       <c r="AS186">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT186">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU186">
         <v>1.44</v>
@@ -37171,7 +37192,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37362,7 +37383,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37452,7 +37473,7 @@
         <v>1.31</v>
       </c>
       <c r="AT189">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU189">
         <v>1.54</v>
@@ -37553,7 +37574,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37640,10 +37661,10 @@
         <v>1.67</v>
       </c>
       <c r="AS190">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT190">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU190">
         <v>2.24</v>
@@ -37831,7 +37852,7 @@
         <v>1.1</v>
       </c>
       <c r="AS191">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT191">
         <v>1</v>
@@ -38213,7 +38234,7 @@
         <v>0.89</v>
       </c>
       <c r="AS193">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT193">
         <v>1.17</v>
@@ -38407,7 +38428,7 @@
         <v>1.42</v>
       </c>
       <c r="AT194">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU194">
         <v>1.62</v>
@@ -38508,7 +38529,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38789,7 +38810,7 @@
         <v>1.31</v>
       </c>
       <c r="AT196">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU196">
         <v>1.53</v>
@@ -39168,7 +39189,7 @@
         <v>0.67</v>
       </c>
       <c r="AS198">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT198">
         <v>0.77</v>
@@ -39272,7 +39293,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -39359,10 +39380,10 @@
         <v>1.7</v>
       </c>
       <c r="AS199">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT199">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU199">
         <v>2.35</v>
@@ -39553,7 +39574,7 @@
         <v>1.69</v>
       </c>
       <c r="AT200">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU200">
         <v>1.66</v>
@@ -39741,7 +39762,7 @@
         <v>1.3</v>
       </c>
       <c r="AS201">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT201">
         <v>1.42</v>
@@ -40314,7 +40335,7 @@
         <v>0.89</v>
       </c>
       <c r="AS204">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT204">
         <v>1</v>
@@ -40508,7 +40529,7 @@
         <v>2.42</v>
       </c>
       <c r="AT205">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU205">
         <v>1.88</v>
@@ -40609,7 +40630,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q206">
         <v>11</v>
@@ -40696,10 +40717,10 @@
         <v>0.9</v>
       </c>
       <c r="AS206">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT206">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU206">
         <v>1.48</v>
@@ -40887,10 +40908,10 @@
         <v>0.5</v>
       </c>
       <c r="AS207">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT207">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU207">
         <v>1.86</v>
@@ -40991,7 +41012,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41081,7 +41102,7 @@
         <v>1.92</v>
       </c>
       <c r="AT208">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU208">
         <v>2.09</v>
@@ -41269,10 +41290,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS209">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT209">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU209">
         <v>1.47</v>
@@ -41564,7 +41585,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41654,7 +41675,7 @@
         <v>2.42</v>
       </c>
       <c r="AT211">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU211">
         <v>1.86</v>
@@ -41755,7 +41776,7 @@
         <v>213</v>
       </c>
       <c r="P212" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -42033,7 +42054,7 @@
         <v>1.1</v>
       </c>
       <c r="AS213">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT213">
         <v>1.09</v>
@@ -42227,7 +42248,7 @@
         <v>1</v>
       </c>
       <c r="AT214">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU214">
         <v>1.35</v>
@@ -42328,7 +42349,7 @@
         <v>194</v>
       </c>
       <c r="P215" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42415,7 +42436,7 @@
         <v>0.6</v>
       </c>
       <c r="AS215">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT215">
         <v>0.77</v>
@@ -42991,7 +43012,7 @@
         <v>1.08</v>
       </c>
       <c r="AT218">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU218">
         <v>1.2</v>
@@ -43092,7 +43113,7 @@
         <v>85</v>
       </c>
       <c r="P219" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -43182,7 +43203,7 @@
         <v>1.33</v>
       </c>
       <c r="AT219">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU219">
         <v>1.6</v>
@@ -43370,7 +43391,7 @@
         <v>1.1</v>
       </c>
       <c r="AS220">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT220">
         <v>1.17</v>
@@ -43561,10 +43582,10 @@
         <v>0.7</v>
       </c>
       <c r="AS221">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT221">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU221">
         <v>2.3</v>
@@ -43665,7 +43686,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43752,7 +43773,7 @@
         <v>1.7</v>
       </c>
       <c r="AS222">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT222">
         <v>1.85</v>
@@ -43856,7 +43877,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -43943,7 +43964,7 @@
         <v>2.27</v>
       </c>
       <c r="AS223">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT223">
         <v>2.38</v>
@@ -44134,7 +44155,7 @@
         <v>0.82</v>
       </c>
       <c r="AS224">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT224">
         <v>0.92</v>
@@ -44328,7 +44349,7 @@
         <v>1.08</v>
       </c>
       <c r="AT225">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU225">
         <v>1.48</v>
@@ -44516,7 +44537,7 @@
         <v>1.82</v>
       </c>
       <c r="AS226">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT226">
         <v>1.85</v>
@@ -44707,10 +44728,10 @@
         <v>0.45</v>
       </c>
       <c r="AS227">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT227">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU227">
         <v>1.37</v>
@@ -44898,7 +44919,7 @@
         <v>1.27</v>
       </c>
       <c r="AS228">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT228">
         <v>1.42</v>
@@ -45092,7 +45113,7 @@
         <v>1.92</v>
       </c>
       <c r="AT229">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU229">
         <v>1.48</v>
@@ -45193,7 +45214,7 @@
         <v>85</v>
       </c>
       <c r="P230" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45474,7 +45495,7 @@
         <v>2.42</v>
       </c>
       <c r="AT231">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU231">
         <v>1.93</v>
@@ -45665,7 +45686,7 @@
         <v>2.08</v>
       </c>
       <c r="AT232">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU232">
         <v>1.84</v>
@@ -45766,7 +45787,7 @@
         <v>101</v>
       </c>
       <c r="P233" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45957,7 +45978,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q234">
         <v>5</v>
@@ -46530,7 +46551,7 @@
         <v>85</v>
       </c>
       <c r="P237" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -46721,7 +46742,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47381,10 +47402,10 @@
         <v>0.64</v>
       </c>
       <c r="AS241">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT241">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU241">
         <v>2.31</v>
@@ -47572,7 +47593,7 @@
         <v>0.83</v>
       </c>
       <c r="AS242">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT242">
         <v>0.77</v>
@@ -47627,6 +47648,1725 @@
       </c>
       <c r="BK242">
         <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2782298</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44989.39583333334</v>
+      </c>
+      <c r="F243">
+        <v>26</v>
+      </c>
+      <c r="G243" t="s">
+        <v>78</v>
+      </c>
+      <c r="H243" t="s">
+        <v>69</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" t="s">
+        <v>241</v>
+      </c>
+      <c r="P243" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q243">
+        <v>8</v>
+      </c>
+      <c r="R243">
+        <v>4</v>
+      </c>
+      <c r="S243">
+        <v>12</v>
+      </c>
+      <c r="T243">
+        <v>1.95</v>
+      </c>
+      <c r="U243">
+        <v>2.5</v>
+      </c>
+      <c r="V243">
+        <v>6.5</v>
+      </c>
+      <c r="W243">
+        <v>1.3</v>
+      </c>
+      <c r="X243">
+        <v>3.4</v>
+      </c>
+      <c r="Y243">
+        <v>2.5</v>
+      </c>
+      <c r="Z243">
+        <v>1.5</v>
+      </c>
+      <c r="AA243">
+        <v>6</v>
+      </c>
+      <c r="AB243">
+        <v>1.13</v>
+      </c>
+      <c r="AC243">
+        <v>1.43</v>
+      </c>
+      <c r="AD243">
+        <v>4.8</v>
+      </c>
+      <c r="AE243">
+        <v>6.75</v>
+      </c>
+      <c r="AF243">
+        <v>1.01</v>
+      </c>
+      <c r="AG243">
+        <v>13</v>
+      </c>
+      <c r="AH243">
+        <v>1.17</v>
+      </c>
+      <c r="AI243">
+        <v>4.7</v>
+      </c>
+      <c r="AJ243">
+        <v>1.55</v>
+      </c>
+      <c r="AK243">
+        <v>2.24</v>
+      </c>
+      <c r="AL243">
+        <v>1.91</v>
+      </c>
+      <c r="AM243">
+        <v>1.91</v>
+      </c>
+      <c r="AN243">
+        <v>1.06</v>
+      </c>
+      <c r="AO243">
+        <v>1.18</v>
+      </c>
+      <c r="AP243">
+        <v>2.95</v>
+      </c>
+      <c r="AQ243">
+        <v>2.58</v>
+      </c>
+      <c r="AR243">
+        <v>1.64</v>
+      </c>
+      <c r="AS243">
+        <v>2.62</v>
+      </c>
+      <c r="AT243">
+        <v>1.5</v>
+      </c>
+      <c r="AU243">
+        <v>2.21</v>
+      </c>
+      <c r="AV243">
+        <v>1.54</v>
+      </c>
+      <c r="AW243">
+        <v>3.75</v>
+      </c>
+      <c r="AX243">
+        <v>1.33</v>
+      </c>
+      <c r="AY243">
+        <v>9.5</v>
+      </c>
+      <c r="AZ243">
+        <v>4.1</v>
+      </c>
+      <c r="BA243">
+        <v>1.3</v>
+      </c>
+      <c r="BB243">
+        <v>1.5</v>
+      </c>
+      <c r="BC243">
+        <v>1.81</v>
+      </c>
+      <c r="BD243">
+        <v>2.25</v>
+      </c>
+      <c r="BE243">
+        <v>2.9</v>
+      </c>
+      <c r="BF243">
+        <v>4</v>
+      </c>
+      <c r="BG243">
+        <v>3</v>
+      </c>
+      <c r="BH243">
+        <v>6</v>
+      </c>
+      <c r="BI243">
+        <v>1</v>
+      </c>
+      <c r="BJ243">
+        <v>10</v>
+      </c>
+      <c r="BK243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2782293</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F244">
+        <v>26</v>
+      </c>
+      <c r="G244" t="s">
+        <v>76</v>
+      </c>
+      <c r="H244" t="s">
+        <v>67</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>3</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>5</v>
+      </c>
+      <c r="O244" t="s">
+        <v>242</v>
+      </c>
+      <c r="P244" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q244">
+        <v>17</v>
+      </c>
+      <c r="R244">
+        <v>1</v>
+      </c>
+      <c r="S244">
+        <v>18</v>
+      </c>
+      <c r="T244">
+        <v>1.62</v>
+      </c>
+      <c r="U244">
+        <v>2.75</v>
+      </c>
+      <c r="V244">
+        <v>10</v>
+      </c>
+      <c r="W244">
+        <v>1.29</v>
+      </c>
+      <c r="X244">
+        <v>3.5</v>
+      </c>
+      <c r="Y244">
+        <v>2.25</v>
+      </c>
+      <c r="Z244">
+        <v>1.57</v>
+      </c>
+      <c r="AA244">
+        <v>5.5</v>
+      </c>
+      <c r="AB244">
+        <v>1.14</v>
+      </c>
+      <c r="AC244">
+        <v>1.22</v>
+      </c>
+      <c r="AD244">
+        <v>6.5</v>
+      </c>
+      <c r="AE244">
+        <v>12</v>
+      </c>
+      <c r="AF244">
+        <v>1.02</v>
+      </c>
+      <c r="AG244">
+        <v>12</v>
+      </c>
+      <c r="AH244">
+        <v>1.15</v>
+      </c>
+      <c r="AI244">
+        <v>5</v>
+      </c>
+      <c r="AJ244">
+        <v>1.42</v>
+      </c>
+      <c r="AK244">
+        <v>2.59</v>
+      </c>
+      <c r="AL244">
+        <v>2.2</v>
+      </c>
+      <c r="AM244">
+        <v>1.62</v>
+      </c>
+      <c r="AN244">
+        <v>1.01</v>
+      </c>
+      <c r="AO244">
+        <v>1.1</v>
+      </c>
+      <c r="AP244">
+        <v>4.4</v>
+      </c>
+      <c r="AQ244">
+        <v>2.42</v>
+      </c>
+      <c r="AR244">
+        <v>0.67</v>
+      </c>
+      <c r="AS244">
+        <v>2.46</v>
+      </c>
+      <c r="AT244">
+        <v>0.62</v>
+      </c>
+      <c r="AU244">
+        <v>2.28</v>
+      </c>
+      <c r="AV244">
+        <v>1.01</v>
+      </c>
+      <c r="AW244">
+        <v>3.29</v>
+      </c>
+      <c r="AX244">
+        <v>1.18</v>
+      </c>
+      <c r="AY244">
+        <v>12.5</v>
+      </c>
+      <c r="AZ244">
+        <v>6.75</v>
+      </c>
+      <c r="BA244">
+        <v>1.27</v>
+      </c>
+      <c r="BB244">
+        <v>1.45</v>
+      </c>
+      <c r="BC244">
+        <v>1.72</v>
+      </c>
+      <c r="BD244">
+        <v>2.12</v>
+      </c>
+      <c r="BE244">
+        <v>2.7</v>
+      </c>
+      <c r="BF244">
+        <v>10</v>
+      </c>
+      <c r="BG244">
+        <v>5</v>
+      </c>
+      <c r="BH244">
+        <v>21</v>
+      </c>
+      <c r="BI244">
+        <v>0</v>
+      </c>
+      <c r="BJ244">
+        <v>31</v>
+      </c>
+      <c r="BK244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2782436</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F245">
+        <v>26</v>
+      </c>
+      <c r="G245" t="s">
+        <v>83</v>
+      </c>
+      <c r="H245" t="s">
+        <v>68</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>135</v>
+      </c>
+      <c r="P245" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q245">
+        <v>5</v>
+      </c>
+      <c r="R245">
+        <v>7</v>
+      </c>
+      <c r="S245">
+        <v>12</v>
+      </c>
+      <c r="T245">
+        <v>2.2</v>
+      </c>
+      <c r="U245">
+        <v>2.25</v>
+      </c>
+      <c r="V245">
+        <v>5.5</v>
+      </c>
+      <c r="W245">
+        <v>1.36</v>
+      </c>
+      <c r="X245">
+        <v>3</v>
+      </c>
+      <c r="Y245">
+        <v>2.75</v>
+      </c>
+      <c r="Z245">
+        <v>1.4</v>
+      </c>
+      <c r="AA245">
+        <v>7</v>
+      </c>
+      <c r="AB245">
+        <v>1.1</v>
+      </c>
+      <c r="AC245">
+        <v>1.63</v>
+      </c>
+      <c r="AD245">
+        <v>4</v>
+      </c>
+      <c r="AE245">
+        <v>5.25</v>
+      </c>
+      <c r="AF245">
+        <v>1.05</v>
+      </c>
+      <c r="AG245">
+        <v>12</v>
+      </c>
+      <c r="AH245">
+        <v>1.29</v>
+      </c>
+      <c r="AI245">
+        <v>3.8</v>
+      </c>
+      <c r="AJ245">
+        <v>1.65</v>
+      </c>
+      <c r="AK245">
+        <v>2.07</v>
+      </c>
+      <c r="AL245">
+        <v>1.91</v>
+      </c>
+      <c r="AM245">
+        <v>1.91</v>
+      </c>
+      <c r="AN245">
+        <v>1.16</v>
+      </c>
+      <c r="AO245">
+        <v>1.24</v>
+      </c>
+      <c r="AP245">
+        <v>2.25</v>
+      </c>
+      <c r="AQ245">
+        <v>1.64</v>
+      </c>
+      <c r="AR245">
+        <v>0.5</v>
+      </c>
+      <c r="AS245">
+        <v>1.75</v>
+      </c>
+      <c r="AT245">
+        <v>0.46</v>
+      </c>
+      <c r="AU245">
+        <v>1.52</v>
+      </c>
+      <c r="AV245">
+        <v>1.44</v>
+      </c>
+      <c r="AW245">
+        <v>2.96</v>
+      </c>
+      <c r="AX245">
+        <v>1.44</v>
+      </c>
+      <c r="AY245">
+        <v>8.5</v>
+      </c>
+      <c r="AZ245">
+        <v>3.45</v>
+      </c>
+      <c r="BA245">
+        <v>1.34</v>
+      </c>
+      <c r="BB245">
+        <v>1.57</v>
+      </c>
+      <c r="BC245">
+        <v>1.91</v>
+      </c>
+      <c r="BD245">
+        <v>2.4</v>
+      </c>
+      <c r="BE245">
+        <v>3.15</v>
+      </c>
+      <c r="BF245">
+        <v>4</v>
+      </c>
+      <c r="BG245">
+        <v>3</v>
+      </c>
+      <c r="BH245">
+        <v>9</v>
+      </c>
+      <c r="BI245">
+        <v>8</v>
+      </c>
+      <c r="BJ245">
+        <v>13</v>
+      </c>
+      <c r="BK245">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2782301</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F246">
+        <v>26</v>
+      </c>
+      <c r="G246" t="s">
+        <v>80</v>
+      </c>
+      <c r="H246" t="s">
+        <v>70</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246" t="s">
+        <v>243</v>
+      </c>
+      <c r="P246" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q246">
+        <v>4</v>
+      </c>
+      <c r="R246">
+        <v>8</v>
+      </c>
+      <c r="S246">
+        <v>12</v>
+      </c>
+      <c r="T246">
+        <v>3.75</v>
+      </c>
+      <c r="U246">
+        <v>2.1</v>
+      </c>
+      <c r="V246">
+        <v>3</v>
+      </c>
+      <c r="W246">
+        <v>1.44</v>
+      </c>
+      <c r="X246">
+        <v>2.63</v>
+      </c>
+      <c r="Y246">
+        <v>3</v>
+      </c>
+      <c r="Z246">
+        <v>1.36</v>
+      </c>
+      <c r="AA246">
+        <v>9</v>
+      </c>
+      <c r="AB246">
+        <v>1.07</v>
+      </c>
+      <c r="AC246">
+        <v>3.2</v>
+      </c>
+      <c r="AD246">
+        <v>3.3</v>
+      </c>
+      <c r="AE246">
+        <v>2.3</v>
+      </c>
+      <c r="AF246">
+        <v>1.03</v>
+      </c>
+      <c r="AG246">
+        <v>8.5</v>
+      </c>
+      <c r="AH246">
+        <v>1.35</v>
+      </c>
+      <c r="AI246">
+        <v>3.38</v>
+      </c>
+      <c r="AJ246">
+        <v>1.88</v>
+      </c>
+      <c r="AK246">
+        <v>1.79</v>
+      </c>
+      <c r="AL246">
+        <v>1.8</v>
+      </c>
+      <c r="AM246">
+        <v>1.95</v>
+      </c>
+      <c r="AN246">
+        <v>1.65</v>
+      </c>
+      <c r="AO246">
+        <v>1.35</v>
+      </c>
+      <c r="AP246">
+        <v>1.28</v>
+      </c>
+      <c r="AQ246">
+        <v>1.17</v>
+      </c>
+      <c r="AR246">
+        <v>1.5</v>
+      </c>
+      <c r="AS246">
+        <v>1.31</v>
+      </c>
+      <c r="AT246">
+        <v>1.38</v>
+      </c>
+      <c r="AU246">
+        <v>1.38</v>
+      </c>
+      <c r="AV246">
+        <v>1.5</v>
+      </c>
+      <c r="AW246">
+        <v>2.88</v>
+      </c>
+      <c r="AX246">
+        <v>2.2</v>
+      </c>
+      <c r="AY246">
+        <v>8</v>
+      </c>
+      <c r="AZ246">
+        <v>1.86</v>
+      </c>
+      <c r="BA246">
+        <v>1.34</v>
+      </c>
+      <c r="BB246">
+        <v>1.56</v>
+      </c>
+      <c r="BC246">
+        <v>1.9</v>
+      </c>
+      <c r="BD246">
+        <v>2.4</v>
+      </c>
+      <c r="BE246">
+        <v>3.15</v>
+      </c>
+      <c r="BF246">
+        <v>5</v>
+      </c>
+      <c r="BG246">
+        <v>7</v>
+      </c>
+      <c r="BH246">
+        <v>4</v>
+      </c>
+      <c r="BI246">
+        <v>17</v>
+      </c>
+      <c r="BJ246">
+        <v>9</v>
+      </c>
+      <c r="BK246">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2782294</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F247">
+        <v>26</v>
+      </c>
+      <c r="G247" t="s">
+        <v>75</v>
+      </c>
+      <c r="H247" t="s">
+        <v>65</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="O247" t="s">
+        <v>244</v>
+      </c>
+      <c r="P247" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q247">
+        <v>2</v>
+      </c>
+      <c r="R247">
+        <v>4</v>
+      </c>
+      <c r="S247">
+        <v>6</v>
+      </c>
+      <c r="T247">
+        <v>2.75</v>
+      </c>
+      <c r="U247">
+        <v>2.05</v>
+      </c>
+      <c r="V247">
+        <v>4.5</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>2.5</v>
+      </c>
+      <c r="Y247">
+        <v>3.4</v>
+      </c>
+      <c r="Z247">
+        <v>1.3</v>
+      </c>
+      <c r="AA247">
+        <v>10</v>
+      </c>
+      <c r="AB247">
+        <v>1.06</v>
+      </c>
+      <c r="AC247">
+        <v>2.1</v>
+      </c>
+      <c r="AD247">
+        <v>3.05</v>
+      </c>
+      <c r="AE247">
+        <v>3.65</v>
+      </c>
+      <c r="AF247">
+        <v>1.06</v>
+      </c>
+      <c r="AG247">
+        <v>8</v>
+      </c>
+      <c r="AH247">
+        <v>1.37</v>
+      </c>
+      <c r="AI247">
+        <v>2.95</v>
+      </c>
+      <c r="AJ247">
+        <v>1.94</v>
+      </c>
+      <c r="AK247">
+        <v>1.74</v>
+      </c>
+      <c r="AL247">
+        <v>2</v>
+      </c>
+      <c r="AM247">
+        <v>1.75</v>
+      </c>
+      <c r="AN247">
+        <v>1.27</v>
+      </c>
+      <c r="AO247">
+        <v>1.35</v>
+      </c>
+      <c r="AP247">
+        <v>1.84</v>
+      </c>
+      <c r="AQ247">
+        <v>1.42</v>
+      </c>
+      <c r="AR247">
+        <v>0.91</v>
+      </c>
+      <c r="AS247">
+        <v>1.54</v>
+      </c>
+      <c r="AT247">
+        <v>0.83</v>
+      </c>
+      <c r="AU247">
+        <v>1.52</v>
+      </c>
+      <c r="AV247">
+        <v>1.32</v>
+      </c>
+      <c r="AW247">
+        <v>2.84</v>
+      </c>
+      <c r="AX247">
+        <v>1.68</v>
+      </c>
+      <c r="AY247">
+        <v>7.5</v>
+      </c>
+      <c r="AZ247">
+        <v>2.55</v>
+      </c>
+      <c r="BA247">
+        <v>1.41</v>
+      </c>
+      <c r="BB247">
+        <v>1.67</v>
+      </c>
+      <c r="BC247">
+        <v>2.07</v>
+      </c>
+      <c r="BD247">
+        <v>2.65</v>
+      </c>
+      <c r="BE247">
+        <v>3.6</v>
+      </c>
+      <c r="BF247">
+        <v>3</v>
+      </c>
+      <c r="BG247">
+        <v>2</v>
+      </c>
+      <c r="BH247">
+        <v>6</v>
+      </c>
+      <c r="BI247">
+        <v>3</v>
+      </c>
+      <c r="BJ247">
+        <v>9</v>
+      </c>
+      <c r="BK247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2782296</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F248">
+        <v>26</v>
+      </c>
+      <c r="G248" t="s">
+        <v>77</v>
+      </c>
+      <c r="H248" t="s">
+        <v>74</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>4</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>4</v>
+      </c>
+      <c r="O248" t="s">
+        <v>245</v>
+      </c>
+      <c r="P248" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q248">
+        <v>7</v>
+      </c>
+      <c r="R248">
+        <v>3</v>
+      </c>
+      <c r="S248">
+        <v>10</v>
+      </c>
+      <c r="T248">
+        <v>2.38</v>
+      </c>
+      <c r="U248">
+        <v>2.2</v>
+      </c>
+      <c r="V248">
+        <v>5</v>
+      </c>
+      <c r="W248">
+        <v>1.4</v>
+      </c>
+      <c r="X248">
+        <v>2.75</v>
+      </c>
+      <c r="Y248">
+        <v>2.75</v>
+      </c>
+      <c r="Z248">
+        <v>1.4</v>
+      </c>
+      <c r="AA248">
+        <v>8</v>
+      </c>
+      <c r="AB248">
+        <v>1.08</v>
+      </c>
+      <c r="AC248">
+        <v>1.8</v>
+      </c>
+      <c r="AD248">
+        <v>3.7</v>
+      </c>
+      <c r="AE248">
+        <v>4.4</v>
+      </c>
+      <c r="AF248">
+        <v>1.04</v>
+      </c>
+      <c r="AG248">
+        <v>9.5</v>
+      </c>
+      <c r="AH248">
+        <v>1.27</v>
+      </c>
+      <c r="AI248">
+        <v>3.6</v>
+      </c>
+      <c r="AJ248">
+        <v>1.87</v>
+      </c>
+      <c r="AK248">
+        <v>1.8</v>
+      </c>
+      <c r="AL248">
+        <v>1.8</v>
+      </c>
+      <c r="AM248">
+        <v>1.95</v>
+      </c>
+      <c r="AN248">
+        <v>1.2</v>
+      </c>
+      <c r="AO248">
+        <v>1.28</v>
+      </c>
+      <c r="AP248">
+        <v>1.95</v>
+      </c>
+      <c r="AQ248">
+        <v>1.55</v>
+      </c>
+      <c r="AR248">
+        <v>0.5</v>
+      </c>
+      <c r="AS248">
+        <v>1.67</v>
+      </c>
+      <c r="AT248">
+        <v>0.46</v>
+      </c>
+      <c r="AU248">
+        <v>1.94</v>
+      </c>
+      <c r="AV248">
+        <v>1.5</v>
+      </c>
+      <c r="AW248">
+        <v>3.44</v>
+      </c>
+      <c r="AX248">
+        <v>1.52</v>
+      </c>
+      <c r="AY248">
+        <v>8</v>
+      </c>
+      <c r="AZ248">
+        <v>3</v>
+      </c>
+      <c r="BA248">
+        <v>1.28</v>
+      </c>
+      <c r="BB248">
+        <v>1.48</v>
+      </c>
+      <c r="BC248">
+        <v>1.75</v>
+      </c>
+      <c r="BD248">
+        <v>2.17</v>
+      </c>
+      <c r="BE248">
+        <v>2.8</v>
+      </c>
+      <c r="BF248">
+        <v>10</v>
+      </c>
+      <c r="BG248">
+        <v>2</v>
+      </c>
+      <c r="BH248">
+        <v>11</v>
+      </c>
+      <c r="BI248">
+        <v>1</v>
+      </c>
+      <c r="BJ248">
+        <v>21</v>
+      </c>
+      <c r="BK248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2782300</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44989.60416666666</v>
+      </c>
+      <c r="F249">
+        <v>26</v>
+      </c>
+      <c r="G249" t="s">
+        <v>79</v>
+      </c>
+      <c r="H249" t="s">
+        <v>72</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
+        <v>246</v>
+      </c>
+      <c r="P249" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q249">
+        <v>3</v>
+      </c>
+      <c r="R249">
+        <v>4</v>
+      </c>
+      <c r="S249">
+        <v>7</v>
+      </c>
+      <c r="T249">
+        <v>3.25</v>
+      </c>
+      <c r="U249">
+        <v>2.1</v>
+      </c>
+      <c r="V249">
+        <v>3.25</v>
+      </c>
+      <c r="W249">
+        <v>1.4</v>
+      </c>
+      <c r="X249">
+        <v>2.75</v>
+      </c>
+      <c r="Y249">
+        <v>3</v>
+      </c>
+      <c r="Z249">
+        <v>1.36</v>
+      </c>
+      <c r="AA249">
+        <v>9</v>
+      </c>
+      <c r="AB249">
+        <v>1.07</v>
+      </c>
+      <c r="AC249">
+        <v>2.8</v>
+      </c>
+      <c r="AD249">
+        <v>3.5</v>
+      </c>
+      <c r="AE249">
+        <v>2.4</v>
+      </c>
+      <c r="AF249">
+        <v>1.07</v>
+      </c>
+      <c r="AG249">
+        <v>10</v>
+      </c>
+      <c r="AH249">
+        <v>1.35</v>
+      </c>
+      <c r="AI249">
+        <v>3.35</v>
+      </c>
+      <c r="AJ249">
+        <v>2.14</v>
+      </c>
+      <c r="AK249">
+        <v>1.71</v>
+      </c>
+      <c r="AL249">
+        <v>1.8</v>
+      </c>
+      <c r="AM249">
+        <v>1.95</v>
+      </c>
+      <c r="AN249">
+        <v>1.47</v>
+      </c>
+      <c r="AO249">
+        <v>1.32</v>
+      </c>
+      <c r="AP249">
+        <v>1.46</v>
+      </c>
+      <c r="AQ249">
+        <v>0.55</v>
+      </c>
+      <c r="AR249">
+        <v>1</v>
+      </c>
+      <c r="AS249">
+        <v>0.75</v>
+      </c>
+      <c r="AT249">
+        <v>0.92</v>
+      </c>
+      <c r="AU249">
+        <v>1.6</v>
+      </c>
+      <c r="AV249">
+        <v>1.37</v>
+      </c>
+      <c r="AW249">
+        <v>2.97</v>
+      </c>
+      <c r="AX249">
+        <v>1.96</v>
+      </c>
+      <c r="AY249">
+        <v>7.5</v>
+      </c>
+      <c r="AZ249">
+        <v>2.1</v>
+      </c>
+      <c r="BA249">
+        <v>1.35</v>
+      </c>
+      <c r="BB249">
+        <v>1.58</v>
+      </c>
+      <c r="BC249">
+        <v>1.93</v>
+      </c>
+      <c r="BD249">
+        <v>2.45</v>
+      </c>
+      <c r="BE249">
+        <v>3.25</v>
+      </c>
+      <c r="BF249">
+        <v>6</v>
+      </c>
+      <c r="BG249">
+        <v>0</v>
+      </c>
+      <c r="BH249">
+        <v>2</v>
+      </c>
+      <c r="BI249">
+        <v>8</v>
+      </c>
+      <c r="BJ249">
+        <v>8</v>
+      </c>
+      <c r="BK249">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2782299</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F250">
+        <v>26</v>
+      </c>
+      <c r="G250" t="s">
+        <v>82</v>
+      </c>
+      <c r="H250" t="s">
+        <v>71</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>2</v>
+      </c>
+      <c r="K250">
+        <v>3</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>2</v>
+      </c>
+      <c r="N250">
+        <v>4</v>
+      </c>
+      <c r="O250" t="s">
+        <v>99</v>
+      </c>
+      <c r="P250" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q250">
+        <v>3</v>
+      </c>
+      <c r="R250">
+        <v>3</v>
+      </c>
+      <c r="S250">
+        <v>6</v>
+      </c>
+      <c r="T250">
+        <v>3.5</v>
+      </c>
+      <c r="U250">
+        <v>1.95</v>
+      </c>
+      <c r="V250">
+        <v>3.6</v>
+      </c>
+      <c r="W250">
+        <v>1.53</v>
+      </c>
+      <c r="X250">
+        <v>2.38</v>
+      </c>
+      <c r="Y250">
+        <v>3.75</v>
+      </c>
+      <c r="Z250">
+        <v>1.25</v>
+      </c>
+      <c r="AA250">
+        <v>11</v>
+      </c>
+      <c r="AB250">
+        <v>1.05</v>
+      </c>
+      <c r="AC250">
+        <v>2.47</v>
+      </c>
+      <c r="AD250">
+        <v>3.12</v>
+      </c>
+      <c r="AE250">
+        <v>2.91</v>
+      </c>
+      <c r="AF250">
+        <v>1.11</v>
+      </c>
+      <c r="AG250">
+        <v>7.4</v>
+      </c>
+      <c r="AH250">
+        <v>1.51</v>
+      </c>
+      <c r="AI250">
+        <v>2.66</v>
+      </c>
+      <c r="AJ250">
+        <v>2.15</v>
+      </c>
+      <c r="AK250">
+        <v>1.6</v>
+      </c>
+      <c r="AL250">
+        <v>2.05</v>
+      </c>
+      <c r="AM250">
+        <v>1.7</v>
+      </c>
+      <c r="AN250">
+        <v>1.48</v>
+      </c>
+      <c r="AO250">
+        <v>1.36</v>
+      </c>
+      <c r="AP250">
+        <v>1.5</v>
+      </c>
+      <c r="AQ250">
+        <v>1.58</v>
+      </c>
+      <c r="AR250">
+        <v>0.58</v>
+      </c>
+      <c r="AS250">
+        <v>1.54</v>
+      </c>
+      <c r="AT250">
+        <v>0.62</v>
+      </c>
+      <c r="AU250">
+        <v>1.35</v>
+      </c>
+      <c r="AV250">
+        <v>1.04</v>
+      </c>
+      <c r="AW250">
+        <v>2.39</v>
+      </c>
+      <c r="AX250">
+        <v>1.98</v>
+      </c>
+      <c r="AY250">
+        <v>7.5</v>
+      </c>
+      <c r="AZ250">
+        <v>2.07</v>
+      </c>
+      <c r="BA250">
+        <v>1.37</v>
+      </c>
+      <c r="BB250">
+        <v>1.61</v>
+      </c>
+      <c r="BC250">
+        <v>1.98</v>
+      </c>
+      <c r="BD250">
+        <v>2.55</v>
+      </c>
+      <c r="BE250">
+        <v>3.4</v>
+      </c>
+      <c r="BF250">
+        <v>5</v>
+      </c>
+      <c r="BG250">
+        <v>4</v>
+      </c>
+      <c r="BH250">
+        <v>2</v>
+      </c>
+      <c r="BI250">
+        <v>2</v>
+      </c>
+      <c r="BJ250">
+        <v>7</v>
+      </c>
+      <c r="BK250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2782297</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44990.5625</v>
+      </c>
+      <c r="F251">
+        <v>26</v>
+      </c>
+      <c r="G251" t="s">
+        <v>84</v>
+      </c>
+      <c r="H251" t="s">
+        <v>73</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>7</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>7</v>
+      </c>
+      <c r="O251" t="s">
+        <v>247</v>
+      </c>
+      <c r="P251" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q251">
+        <v>4</v>
+      </c>
+      <c r="R251">
+        <v>3</v>
+      </c>
+      <c r="S251">
+        <v>7</v>
+      </c>
+      <c r="T251">
+        <v>3</v>
+      </c>
+      <c r="U251">
+        <v>2.3</v>
+      </c>
+      <c r="V251">
+        <v>3.2</v>
+      </c>
+      <c r="W251">
+        <v>1.3</v>
+      </c>
+      <c r="X251">
+        <v>3.4</v>
+      </c>
+      <c r="Y251">
+        <v>2.5</v>
+      </c>
+      <c r="Z251">
+        <v>1.5</v>
+      </c>
+      <c r="AA251">
+        <v>6</v>
+      </c>
+      <c r="AB251">
+        <v>1.13</v>
+      </c>
+      <c r="AC251">
+        <v>2.38</v>
+      </c>
+      <c r="AD251">
+        <v>3.8</v>
+      </c>
+      <c r="AE251">
+        <v>2.9</v>
+      </c>
+      <c r="AF251">
+        <v>1.03</v>
+      </c>
+      <c r="AG251">
+        <v>15</v>
+      </c>
+      <c r="AH251">
+        <v>1.22</v>
+      </c>
+      <c r="AI251">
+        <v>4.5</v>
+      </c>
+      <c r="AJ251">
+        <v>1.7</v>
+      </c>
+      <c r="AK251">
+        <v>2.17</v>
+      </c>
+      <c r="AL251">
+        <v>1.53</v>
+      </c>
+      <c r="AM251">
+        <v>2.38</v>
+      </c>
+      <c r="AN251">
+        <v>1.42</v>
+      </c>
+      <c r="AO251">
+        <v>1.28</v>
+      </c>
+      <c r="AP251">
+        <v>1.55</v>
+      </c>
+      <c r="AQ251">
+        <v>2.25</v>
+      </c>
+      <c r="AR251">
+        <v>1.67</v>
+      </c>
+      <c r="AS251">
+        <v>2.31</v>
+      </c>
+      <c r="AT251">
+        <v>1.54</v>
+      </c>
+      <c r="AU251">
+        <v>2.2</v>
+      </c>
+      <c r="AV251">
+        <v>1.57</v>
+      </c>
+      <c r="AW251">
+        <v>3.77</v>
+      </c>
+      <c r="AX251">
+        <v>1.65</v>
+      </c>
+      <c r="AY251">
+        <v>8</v>
+      </c>
+      <c r="AZ251">
+        <v>2.6</v>
+      </c>
+      <c r="BA251">
+        <v>1.23</v>
+      </c>
+      <c r="BB251">
+        <v>1.38</v>
+      </c>
+      <c r="BC251">
+        <v>1.63</v>
+      </c>
+      <c r="BD251">
+        <v>1.98</v>
+      </c>
+      <c r="BE251">
+        <v>2.5</v>
+      </c>
+      <c r="BF251">
+        <v>9</v>
+      </c>
+      <c r="BG251">
+        <v>5</v>
+      </c>
+      <c r="BH251">
+        <v>5</v>
+      </c>
+      <c r="BI251">
+        <v>3</v>
+      </c>
+      <c r="BJ251">
+        <v>14</v>
+      </c>
+      <c r="BK251">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,9 @@
     <t>['43', '47', '50', '66', '75', '83', '88']</t>
   </si>
   <si>
+    <t>['6', '53', '85']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -1061,6 +1064,9 @@
   </si>
   <si>
     <t>['10', '29']</t>
+  </si>
+  <si>
+    <t>['39', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1672,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1857,7 +1863,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2239,7 +2245,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2621,7 +2627,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2812,7 +2818,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3003,7 +3009,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3194,7 +3200,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3385,7 +3391,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3767,7 +3773,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -4340,7 +4346,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4621,7 +4627,7 @@
         <v>1.31</v>
       </c>
       <c r="AT17">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4809,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>1.54</v>
@@ -5104,7 +5110,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5295,7 +5301,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5868,7 +5874,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6059,7 +6065,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6250,7 +6256,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6441,7 +6447,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6823,7 +6829,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7014,7 +7020,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7205,7 +7211,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7969,7 +7975,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8247,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT36">
         <v>0.62</v>
@@ -8632,7 +8638,7 @@
         <v>2.46</v>
       </c>
       <c r="AT38">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU38">
         <v>2.29</v>
@@ -8924,7 +8930,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9115,7 +9121,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9688,7 +9694,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9879,7 +9885,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -10643,7 +10649,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11025,7 +11031,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11598,7 +11604,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -11879,7 +11885,7 @@
         <v>2.08</v>
       </c>
       <c r="AT55">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -12171,7 +12177,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12258,7 +12264,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>0.46</v>
@@ -12362,7 +12368,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12744,7 +12750,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -13126,7 +13132,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13216,7 +13222,7 @@
         <v>1.54</v>
       </c>
       <c r="AT62">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU62">
         <v>1.66</v>
@@ -13508,7 +13514,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13699,7 +13705,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13890,7 +13896,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14081,7 +14087,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14168,7 +14174,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>2.38</v>
@@ -14463,7 +14469,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14654,7 +14660,7 @@
         <v>103</v>
       </c>
       <c r="P70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14845,7 +14851,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15227,7 +15233,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15418,7 +15424,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15800,7 +15806,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16373,7 +16379,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17418,7 +17424,7 @@
         <v>1.42</v>
       </c>
       <c r="AT84">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU84">
         <v>1.39</v>
@@ -17519,7 +17525,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17710,7 +17716,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17901,7 +17907,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18370,7 +18376,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT89">
         <v>1.64</v>
@@ -18665,7 +18671,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -19238,7 +19244,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -20384,7 +20390,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20575,7 +20581,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20853,7 +20859,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -22485,7 +22491,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22676,7 +22682,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22867,7 +22873,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -23058,7 +23064,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23148,7 +23154,7 @@
         <v>1.33</v>
       </c>
       <c r="AT114">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU114">
         <v>1.59</v>
@@ -23440,7 +23446,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -24395,7 +24401,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24777,7 +24783,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24864,7 +24870,7 @@
         <v>0.17</v>
       </c>
       <c r="AS123">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT123">
         <v>0.77</v>
@@ -25159,7 +25165,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25822,7 +25828,7 @@
         <v>2.62</v>
       </c>
       <c r="AT128">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU128">
         <v>2.22</v>
@@ -25923,7 +25929,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q129">
         <v>13</v>
@@ -26114,7 +26120,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26305,7 +26311,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26496,7 +26502,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26878,7 +26884,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27069,7 +27075,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27260,7 +27266,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27451,7 +27457,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27642,7 +27648,7 @@
         <v>123</v>
       </c>
       <c r="P138" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27833,7 +27839,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28215,7 +28221,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28597,7 +28603,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28979,7 +28985,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29170,7 +29176,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29361,7 +29367,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29552,7 +29558,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29639,7 +29645,7 @@
         <v>1.57</v>
       </c>
       <c r="AS148">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT148">
         <v>1.38</v>
@@ -29743,7 +29749,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29934,7 +29940,7 @@
         <v>137</v>
       </c>
       <c r="P150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -30125,7 +30131,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30316,7 +30322,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30406,7 +30412,7 @@
         <v>1.31</v>
       </c>
       <c r="AT152">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU152">
         <v>1.62</v>
@@ -30507,7 +30513,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -31271,7 +31277,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31462,7 +31468,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31653,7 +31659,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32608,7 +32614,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32799,7 +32805,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32990,7 +32996,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33181,7 +33187,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33459,7 +33465,7 @@
         <v>1.14</v>
       </c>
       <c r="AS168">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT168">
         <v>1</v>
@@ -33563,7 +33569,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33653,7 +33659,7 @@
         <v>1</v>
       </c>
       <c r="AT169">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU169">
         <v>1.35</v>
@@ -33945,7 +33951,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34518,7 +34524,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34709,7 +34715,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q175">
         <v>10</v>
@@ -34900,7 +34906,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35282,7 +35288,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35855,7 +35861,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36706,7 +36712,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS185">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT185">
         <v>0.62</v>
@@ -37091,7 +37097,7 @@
         <v>1.92</v>
       </c>
       <c r="AT187">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU187">
         <v>2.08</v>
@@ -37192,7 +37198,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37383,7 +37389,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37574,7 +37580,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -38529,7 +38535,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -39293,7 +39299,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -39765,7 +39771,7 @@
         <v>1.75</v>
       </c>
       <c r="AT201">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU201">
         <v>1.54</v>
@@ -40144,7 +40150,7 @@
         <v>0.9</v>
       </c>
       <c r="AS203">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT203">
         <v>0.92</v>
@@ -40630,7 +40636,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q206">
         <v>11</v>
@@ -41012,7 +41018,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41585,7 +41591,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41776,7 +41782,7 @@
         <v>213</v>
       </c>
       <c r="P212" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -42349,7 +42355,7 @@
         <v>194</v>
       </c>
       <c r="P215" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -43113,7 +43119,7 @@
         <v>85</v>
       </c>
       <c r="P219" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -43686,7 +43692,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43877,7 +43883,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -44922,7 +44928,7 @@
         <v>1.67</v>
       </c>
       <c r="AT228">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU228">
         <v>1.92</v>
@@ -45110,7 +45116,7 @@
         <v>0.9</v>
       </c>
       <c r="AS229">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT229">
         <v>0.83</v>
@@ -45214,7 +45220,7 @@
         <v>85</v>
       </c>
       <c r="P230" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45787,7 +45793,7 @@
         <v>101</v>
       </c>
       <c r="P233" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45978,7 +45984,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q234">
         <v>5</v>
@@ -46551,7 +46557,7 @@
         <v>85</v>
       </c>
       <c r="P237" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -46742,7 +46748,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47700,13 +47706,13 @@
         <v>85</v>
       </c>
       <c r="Q243">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S243">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T243">
         <v>1.95</v>
@@ -47888,7 +47894,7 @@
         <v>242</v>
       </c>
       <c r="P244" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q244">
         <v>17</v>
@@ -49034,7 +49040,7 @@
         <v>99</v>
       </c>
       <c r="P250" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q250">
         <v>3</v>
@@ -49367,6 +49373,197 @@
       </c>
       <c r="BK251">
         <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>2782295</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>44991.70833333334</v>
+      </c>
+      <c r="F252">
+        <v>26</v>
+      </c>
+      <c r="G252" t="s">
+        <v>81</v>
+      </c>
+      <c r="H252" t="s">
+        <v>66</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>3</v>
+      </c>
+      <c r="M252">
+        <v>2</v>
+      </c>
+      <c r="N252">
+        <v>5</v>
+      </c>
+      <c r="O252" t="s">
+        <v>248</v>
+      </c>
+      <c r="P252" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q252">
+        <v>2</v>
+      </c>
+      <c r="R252">
+        <v>3</v>
+      </c>
+      <c r="S252">
+        <v>5</v>
+      </c>
+      <c r="T252">
+        <v>2.6</v>
+      </c>
+      <c r="U252">
+        <v>2.2</v>
+      </c>
+      <c r="V252">
+        <v>4.33</v>
+      </c>
+      <c r="W252">
+        <v>1.4</v>
+      </c>
+      <c r="X252">
+        <v>2.75</v>
+      </c>
+      <c r="Y252">
+        <v>2.75</v>
+      </c>
+      <c r="Z252">
+        <v>1.4</v>
+      </c>
+      <c r="AA252">
+        <v>8</v>
+      </c>
+      <c r="AB252">
+        <v>1.08</v>
+      </c>
+      <c r="AC252">
+        <v>2.07</v>
+      </c>
+      <c r="AD252">
+        <v>3.55</v>
+      </c>
+      <c r="AE252">
+        <v>3.65</v>
+      </c>
+      <c r="AF252">
+        <v>1.05</v>
+      </c>
+      <c r="AG252">
+        <v>11</v>
+      </c>
+      <c r="AH252">
+        <v>1.31</v>
+      </c>
+      <c r="AI252">
+        <v>3.6</v>
+      </c>
+      <c r="AJ252">
+        <v>2.03</v>
+      </c>
+      <c r="AK252">
+        <v>1.85</v>
+      </c>
+      <c r="AL252">
+        <v>1.75</v>
+      </c>
+      <c r="AM252">
+        <v>2</v>
+      </c>
+      <c r="AN252">
+        <v>1.29</v>
+      </c>
+      <c r="AO252">
+        <v>1.29</v>
+      </c>
+      <c r="AP252">
+        <v>1.75</v>
+      </c>
+      <c r="AQ252">
+        <v>1.92</v>
+      </c>
+      <c r="AR252">
+        <v>1.42</v>
+      </c>
+      <c r="AS252">
+        <v>2</v>
+      </c>
+      <c r="AT252">
+        <v>1.31</v>
+      </c>
+      <c r="AU252">
+        <v>1.49</v>
+      </c>
+      <c r="AV252">
+        <v>1.23</v>
+      </c>
+      <c r="AW252">
+        <v>2.72</v>
+      </c>
+      <c r="AX252">
+        <v>1.68</v>
+      </c>
+      <c r="AY252">
+        <v>8</v>
+      </c>
+      <c r="AZ252">
+        <v>2.5</v>
+      </c>
+      <c r="BA252">
+        <v>1.29</v>
+      </c>
+      <c r="BB252">
+        <v>1.49</v>
+      </c>
+      <c r="BC252">
+        <v>1.81</v>
+      </c>
+      <c r="BD252">
+        <v>2.25</v>
+      </c>
+      <c r="BE252">
+        <v>2.9</v>
+      </c>
+      <c r="BF252">
+        <v>7</v>
+      </c>
+      <c r="BG252">
+        <v>6</v>
+      </c>
+      <c r="BH252">
+        <v>8</v>
+      </c>
+      <c r="BI252">
+        <v>4</v>
+      </c>
+      <c r="BJ252">
+        <v>15</v>
+      </c>
+      <c r="BK252">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1428,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK252"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1953,7 +1953,7 @@
         <v>1.69</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT4">
         <v>1.17</v>
@@ -6534,7 +6534,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT27">
         <v>2.38</v>
@@ -7301,7 +7301,7 @@
         <v>2.42</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU31">
         <v>2.01</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT46">
         <v>0.77</v>
@@ -11312,7 +11312,7 @@
         <v>1.08</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU52">
         <v>1.79</v>
@@ -15129,7 +15129,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT72">
         <v>1.09</v>
@@ -16466,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT79">
         <v>0.92</v>
@@ -17806,7 +17806,7 @@
         <v>2.46</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU86">
         <v>2.59</v>
@@ -20668,7 +20668,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT101">
         <v>0.92</v>
@@ -22008,7 +22008,7 @@
         <v>1.54</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU108">
         <v>1.43</v>
@@ -24488,7 +24488,7 @@
         <v>1.33</v>
       </c>
       <c r="AS121">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT121">
         <v>1.38</v>
@@ -27547,7 +27547,7 @@
         <v>2.08</v>
       </c>
       <c r="AT137">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -28117,7 +28117,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT140">
         <v>0.62</v>
@@ -30603,7 +30603,7 @@
         <v>1.54</v>
       </c>
       <c r="AT153">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU153">
         <v>1.45</v>
@@ -32701,7 +32701,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT164">
         <v>0.83</v>
@@ -33468,7 +33468,7 @@
         <v>2</v>
       </c>
       <c r="AT168">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU168">
         <v>1.44</v>
@@ -36142,7 +36142,7 @@
         <v>1.67</v>
       </c>
       <c r="AT182">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU182">
         <v>1.86</v>
@@ -38049,7 +38049,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS192">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT192">
         <v>0.5</v>
@@ -40344,7 +40344,7 @@
         <v>1.31</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU204">
         <v>1.35</v>
@@ -43015,7 +43015,7 @@
         <v>1.7</v>
       </c>
       <c r="AS218">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT218">
         <v>1.5</v>
@@ -45310,7 +45310,7 @@
         <v>1.92</v>
       </c>
       <c r="AT230">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU230">
         <v>2.02</v>
@@ -46835,7 +46835,7 @@
         <v>1.75</v>
       </c>
       <c r="AS238">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT238">
         <v>1.85</v>
@@ -47029,7 +47029,7 @@
         <v>1.31</v>
       </c>
       <c r="AT239">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU239">
         <v>1.42</v>
@@ -49564,6 +49564,197 @@
       </c>
       <c r="BK252">
         <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>2782302</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>44996.39583333334</v>
+      </c>
+      <c r="F253">
+        <v>27</v>
+      </c>
+      <c r="G253" t="s">
+        <v>67</v>
+      </c>
+      <c r="H253" t="s">
+        <v>84</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
+        <v>213</v>
+      </c>
+      <c r="P253" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q253">
+        <v>3</v>
+      </c>
+      <c r="R253">
+        <v>8</v>
+      </c>
+      <c r="S253">
+        <v>11</v>
+      </c>
+      <c r="T253">
+        <v>5.75</v>
+      </c>
+      <c r="U253">
+        <v>2.4</v>
+      </c>
+      <c r="V253">
+        <v>1.88</v>
+      </c>
+      <c r="W253">
+        <v>1.29</v>
+      </c>
+      <c r="X253">
+        <v>3.3</v>
+      </c>
+      <c r="Y253">
+        <v>2.3</v>
+      </c>
+      <c r="Z253">
+        <v>1.53</v>
+      </c>
+      <c r="AA253">
+        <v>5.25</v>
+      </c>
+      <c r="AB253">
+        <v>1.13</v>
+      </c>
+      <c r="AC253">
+        <v>6.75</v>
+      </c>
+      <c r="AD253">
+        <v>4.8</v>
+      </c>
+      <c r="AE253">
+        <v>1.45</v>
+      </c>
+      <c r="AF253">
+        <v>1.02</v>
+      </c>
+      <c r="AG253">
+        <v>17</v>
+      </c>
+      <c r="AH253">
+        <v>1.19</v>
+      </c>
+      <c r="AI253">
+        <v>5</v>
+      </c>
+      <c r="AJ253">
+        <v>1.57</v>
+      </c>
+      <c r="AK253">
+        <v>2.3</v>
+      </c>
+      <c r="AL253">
+        <v>1.8</v>
+      </c>
+      <c r="AM253">
+        <v>1.88</v>
+      </c>
+      <c r="AN253">
+        <v>2.75</v>
+      </c>
+      <c r="AO253">
+        <v>1.18</v>
+      </c>
+      <c r="AP253">
+        <v>1.1</v>
+      </c>
+      <c r="AQ253">
+        <v>1.08</v>
+      </c>
+      <c r="AR253">
+        <v>1</v>
+      </c>
+      <c r="AS253">
+        <v>1.23</v>
+      </c>
+      <c r="AT253">
+        <v>0.92</v>
+      </c>
+      <c r="AU253">
+        <v>1.24</v>
+      </c>
+      <c r="AV253">
+        <v>1.77</v>
+      </c>
+      <c r="AW253">
+        <v>3.01</v>
+      </c>
+      <c r="AX253">
+        <v>4.7</v>
+      </c>
+      <c r="AY253">
+        <v>9.5</v>
+      </c>
+      <c r="AZ253">
+        <v>1.3</v>
+      </c>
+      <c r="BA253">
+        <v>1.19</v>
+      </c>
+      <c r="BB253">
+        <v>1.39</v>
+      </c>
+      <c r="BC253">
+        <v>1.71</v>
+      </c>
+      <c r="BD253">
+        <v>2.15</v>
+      </c>
+      <c r="BE253">
+        <v>2.84</v>
+      </c>
+      <c r="BF253">
+        <v>3</v>
+      </c>
+      <c r="BG253">
+        <v>7</v>
+      </c>
+      <c r="BH253">
+        <v>3</v>
+      </c>
+      <c r="BI253">
+        <v>9</v>
+      </c>
+      <c r="BJ253">
+        <v>6</v>
+      </c>
+      <c r="BK253">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,18 @@
     <t>['6', '53', '85']</t>
   </si>
   <si>
+    <t>['40', '78']</t>
+  </si>
+  <si>
+    <t>['19', '35', '62']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['26', '79']</t>
+  </si>
+  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -1067,6 +1079,15 @@
   </si>
   <si>
     <t>['39', '90+9']</t>
+  </si>
+  <si>
+    <t>['33', '61']</t>
+  </si>
+  <si>
+    <t>['11', '45+6', '78']</t>
+  </si>
+  <si>
+    <t>['21', '26', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1672,7 +1693,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1759,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT2">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1863,7 +1884,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1950,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT3">
         <v>0.92</v>
@@ -2144,7 +2165,7 @@
         <v>1.23</v>
       </c>
       <c r="AT4">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2245,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2332,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT5">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2523,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2627,7 +2648,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -2714,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT7">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2818,7 +2839,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2905,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3009,7 +3030,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3096,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT9">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3200,7 +3221,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3287,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT10">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3391,7 +3412,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3478,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT11">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3773,7 +3794,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -4346,7 +4367,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -5110,7 +5131,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5301,7 +5322,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5579,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT22">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU22">
         <v>1.65</v>
@@ -5770,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT23">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU23">
         <v>1.35</v>
@@ -5874,7 +5895,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5961,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT24">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU24">
         <v>1.26</v>
@@ -6065,7 +6086,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6152,10 +6173,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT25">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.23</v>
@@ -6256,7 +6277,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6343,10 +6364,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT26">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU26">
         <v>1.42</v>
@@ -6447,7 +6468,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6537,7 +6558,7 @@
         <v>1.23</v>
       </c>
       <c r="AT27">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU27">
         <v>0.8</v>
@@ -6725,10 +6746,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU28">
         <v>1.51</v>
@@ -6829,7 +6850,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6916,10 +6937,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT29">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU29">
         <v>0.72</v>
@@ -7020,7 +7041,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7107,10 +7128,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU30">
         <v>2.93</v>
@@ -7211,7 +7232,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7298,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT31">
         <v>0.92</v>
@@ -7975,7 +7996,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8930,7 +8951,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9121,7 +9142,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9399,10 +9420,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT42">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.84</v>
@@ -9590,10 +9611,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT43">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU43">
         <v>1.73</v>
@@ -9694,7 +9715,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9784,7 +9805,7 @@
         <v>0.75</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU44">
         <v>1.87</v>
@@ -9885,7 +9906,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -9972,7 +9993,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT45">
         <v>0.62</v>
@@ -10166,7 +10187,7 @@
         <v>1.23</v>
       </c>
       <c r="AT46">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU46">
         <v>0.85</v>
@@ -10357,7 +10378,7 @@
         <v>2.46</v>
       </c>
       <c r="AT47">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU47">
         <v>2.47</v>
@@ -10548,7 +10569,7 @@
         <v>2.62</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU48">
         <v>2.4</v>
@@ -10649,7 +10670,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10736,7 +10757,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT49">
         <v>1.38</v>
@@ -11031,7 +11052,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -11118,7 +11139,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT51">
         <v>1.54</v>
@@ -11309,7 +11330,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT52">
         <v>0.92</v>
@@ -11503,7 +11524,7 @@
         <v>1.31</v>
       </c>
       <c r="AT53">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU53">
         <v>1.1</v>
@@ -11604,7 +11625,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -11882,7 +11903,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT55">
         <v>1.31</v>
@@ -12073,7 +12094,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT56">
         <v>0.83</v>
@@ -12177,7 +12198,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12368,7 +12389,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12649,7 +12670,7 @@
         <v>1.54</v>
       </c>
       <c r="AT59">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU59">
         <v>1.54</v>
@@ -12750,7 +12771,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -13028,10 +13049,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT61">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU61">
         <v>1.72</v>
@@ -13132,7 +13153,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13413,7 +13434,7 @@
         <v>1.54</v>
       </c>
       <c r="AT63">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU63">
         <v>1.22</v>
@@ -13514,7 +13535,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13604,7 +13625,7 @@
         <v>1.31</v>
       </c>
       <c r="AT64">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU64">
         <v>1.11</v>
@@ -13705,7 +13726,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13792,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT65">
         <v>0.62</v>
@@ -13896,7 +13917,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13983,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT66">
         <v>0.92</v>
@@ -14087,7 +14108,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14177,7 +14198,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU67">
         <v>1.9</v>
@@ -14365,7 +14386,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT68">
         <v>0.46</v>
@@ -14469,7 +14490,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14660,7 +14681,7 @@
         <v>103</v>
       </c>
       <c r="P70" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14747,7 +14768,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT70">
         <v>1.5</v>
@@ -14851,7 +14872,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14938,10 +14959,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU71">
         <v>1.74</v>
@@ -15132,7 +15153,7 @@
         <v>1.23</v>
       </c>
       <c r="AT72">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>0.84</v>
@@ -15233,7 +15254,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15323,7 +15344,7 @@
         <v>2.31</v>
       </c>
       <c r="AT73">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU73">
         <v>2.7</v>
@@ -15424,7 +15445,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15702,10 +15723,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT75">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU75">
         <v>1.23</v>
@@ -15806,7 +15827,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16084,10 +16105,10 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT77">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU77">
         <v>1.73</v>
@@ -16275,10 +16296,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT78">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16379,7 +16400,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16660,7 +16681,7 @@
         <v>2.62</v>
       </c>
       <c r="AT80">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU80">
         <v>2.39</v>
@@ -16848,10 +16869,10 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT81">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>2.41</v>
@@ -17042,7 +17063,7 @@
         <v>1.75</v>
       </c>
       <c r="AT82">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU82">
         <v>1.51</v>
@@ -17421,7 +17442,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT84">
         <v>1.31</v>
@@ -17525,7 +17546,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17612,7 +17633,7 @@
         <v>0.33</v>
       </c>
       <c r="AS85">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT85">
         <v>0.46</v>
@@ -17716,7 +17737,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17907,7 +17928,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17994,7 +18015,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT87">
         <v>1.54</v>
@@ -18188,7 +18209,7 @@
         <v>1.54</v>
       </c>
       <c r="AT88">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU88">
         <v>1.53</v>
@@ -18379,7 +18400,7 @@
         <v>2</v>
       </c>
       <c r="AT89">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU89">
         <v>1.63</v>
@@ -18567,7 +18588,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT90">
         <v>0.83</v>
@@ -18671,7 +18692,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18758,7 +18779,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT91">
         <v>0.62</v>
@@ -18952,7 +18973,7 @@
         <v>1.31</v>
       </c>
       <c r="AT92">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU92">
         <v>1.04</v>
@@ -19140,7 +19161,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT93">
         <v>0.62</v>
@@ -19244,7 +19265,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19334,7 +19355,7 @@
         <v>1.54</v>
       </c>
       <c r="AT94">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU94">
         <v>1.26</v>
@@ -19522,10 +19543,10 @@
         <v>2.25</v>
       </c>
       <c r="AS95">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT95">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU95">
         <v>1.49</v>
@@ -19904,7 +19925,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT97">
         <v>1.5</v>
@@ -20098,7 +20119,7 @@
         <v>2.31</v>
       </c>
       <c r="AT98">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU98">
         <v>2.65</v>
@@ -20289,7 +20310,7 @@
         <v>1.67</v>
       </c>
       <c r="AT99">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU99">
         <v>1.97</v>
@@ -20390,7 +20411,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20477,10 +20498,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT100">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20581,7 +20602,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20671,7 +20692,7 @@
         <v>1.23</v>
       </c>
       <c r="AT101">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU101">
         <v>0.9399999999999999</v>
@@ -20862,7 +20883,7 @@
         <v>2</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU102">
         <v>1.5</v>
@@ -21050,7 +21071,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT103">
         <v>0.62</v>
@@ -21432,7 +21453,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT105">
         <v>1.38</v>
@@ -21623,10 +21644,10 @@
         <v>0.4</v>
       </c>
       <c r="AS106">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT106">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU106">
         <v>1.51</v>
@@ -21814,7 +21835,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT107">
         <v>0.46</v>
@@ -22196,7 +22217,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT109">
         <v>0.83</v>
@@ -22390,7 +22411,7 @@
         <v>2.62</v>
       </c>
       <c r="AT110">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU110">
         <v>2.41</v>
@@ -22491,7 +22512,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22682,7 +22703,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22873,7 +22894,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22963,7 +22984,7 @@
         <v>0.75</v>
       </c>
       <c r="AT113">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU113">
         <v>1.75</v>
@@ -23064,7 +23085,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23151,7 +23172,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT114">
         <v>1.31</v>
@@ -23345,7 +23366,7 @@
         <v>1.54</v>
       </c>
       <c r="AT115">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU115">
         <v>1.42</v>
@@ -23446,7 +23467,7 @@
         <v>105</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23533,7 +23554,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT116">
         <v>1.5</v>
@@ -23724,7 +23745,7 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT117">
         <v>0.62</v>
@@ -23915,10 +23936,10 @@
         <v>1.6</v>
       </c>
       <c r="AS118">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT118">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU118">
         <v>1.4</v>
@@ -24106,10 +24127,10 @@
         <v>0.33</v>
       </c>
       <c r="AS119">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT119">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU119">
         <v>2.23</v>
@@ -24297,10 +24318,10 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT120">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU120">
         <v>1.59</v>
@@ -24401,7 +24422,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24682,7 +24703,7 @@
         <v>1.67</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU122">
         <v>2.02</v>
@@ -24783,7 +24804,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24873,7 +24894,7 @@
         <v>2</v>
       </c>
       <c r="AT123">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU123">
         <v>1.47</v>
@@ -25061,7 +25082,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT124">
         <v>0.62</v>
@@ -25165,7 +25186,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q125">
         <v>14</v>
@@ -25446,7 +25467,7 @@
         <v>2.46</v>
       </c>
       <c r="AT126">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU126">
         <v>2.4</v>
@@ -25634,7 +25655,7 @@
         <v>0.67</v>
       </c>
       <c r="AS127">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT127">
         <v>0.46</v>
@@ -25929,7 +25950,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q129">
         <v>13</v>
@@ -26016,7 +26037,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT129">
         <v>0.62</v>
@@ -26120,7 +26141,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26210,7 +26231,7 @@
         <v>1.31</v>
       </c>
       <c r="AT130">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU130">
         <v>1.32</v>
@@ -26311,7 +26332,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26401,7 +26422,7 @@
         <v>1.54</v>
       </c>
       <c r="AT131">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.43</v>
@@ -26502,7 +26523,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26589,7 +26610,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT132">
         <v>0.92</v>
@@ -26783,7 +26804,7 @@
         <v>1.75</v>
       </c>
       <c r="AT133">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU133">
         <v>1.56</v>
@@ -26884,7 +26905,7 @@
         <v>181</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27075,7 +27096,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q135">
         <v>8</v>
@@ -27266,7 +27287,7 @@
         <v>156</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>2</v>
@@ -27353,7 +27374,7 @@
         <v>0.6</v>
       </c>
       <c r="AS136">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT136">
         <v>0.83</v>
@@ -27457,7 +27478,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27544,7 +27565,7 @@
         <v>0.4</v>
       </c>
       <c r="AS137">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT137">
         <v>0.92</v>
@@ -27648,7 +27669,7 @@
         <v>123</v>
       </c>
       <c r="P138" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q138">
         <v>10</v>
@@ -27738,7 +27759,7 @@
         <v>2.62</v>
       </c>
       <c r="AT138">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU138">
         <v>2.18</v>
@@ -27839,7 +27860,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27926,7 +27947,7 @@
         <v>0.86</v>
       </c>
       <c r="AS139">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT139">
         <v>0.92</v>
@@ -28221,7 +28242,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28308,7 +28329,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT141">
         <v>0.46</v>
@@ -28603,7 +28624,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28693,7 +28714,7 @@
         <v>2.31</v>
       </c>
       <c r="AT143">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU143">
         <v>2.44</v>
@@ -28881,10 +28902,10 @@
         <v>1.43</v>
       </c>
       <c r="AS144">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT144">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU144">
         <v>2.23</v>
@@ -28985,7 +29006,7 @@
         <v>85</v>
       </c>
       <c r="P145" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29075,7 +29096,7 @@
         <v>1.31</v>
       </c>
       <c r="AT145">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU145">
         <v>1.33</v>
@@ -29176,7 +29197,7 @@
         <v>187</v>
       </c>
       <c r="P146" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q146">
         <v>11</v>
@@ -29266,7 +29287,7 @@
         <v>1.67</v>
       </c>
       <c r="AT146">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU146">
         <v>2.04</v>
@@ -29367,7 +29388,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q147">
         <v>10</v>
@@ -29454,7 +29475,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT147">
         <v>1.54</v>
@@ -29558,7 +29579,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29749,7 +29770,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29836,7 +29857,7 @@
         <v>1.71</v>
       </c>
       <c r="AS149">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT149">
         <v>1.5</v>
@@ -29940,7 +29961,7 @@
         <v>137</v>
       </c>
       <c r="P150" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -30027,10 +30048,10 @@
         <v>0.29</v>
       </c>
       <c r="AS150">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT150">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU150">
         <v>1.51</v>
@@ -30131,7 +30152,7 @@
         <v>189</v>
       </c>
       <c r="P151" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30221,7 +30242,7 @@
         <v>0.75</v>
       </c>
       <c r="AT151">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU151">
         <v>1.7</v>
@@ -30322,7 +30343,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30409,7 +30430,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT152">
         <v>1.31</v>
@@ -30513,7 +30534,7 @@
         <v>116</v>
       </c>
       <c r="P153" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -31173,10 +31194,10 @@
         <v>0.29</v>
       </c>
       <c r="AS156">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT156">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU156">
         <v>1.92</v>
@@ -31277,7 +31298,7 @@
         <v>189</v>
       </c>
       <c r="P157" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31364,10 +31385,10 @@
         <v>1.83</v>
       </c>
       <c r="AS157">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT157">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU157">
         <v>1.66</v>
@@ -31468,7 +31489,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31555,10 +31576,10 @@
         <v>0.88</v>
       </c>
       <c r="AS158">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT158">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU158">
         <v>1.55</v>
@@ -31659,7 +31680,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32128,7 +32149,7 @@
         <v>0.57</v>
       </c>
       <c r="AS161">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT161">
         <v>0.46</v>
@@ -32510,10 +32531,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT163">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU163">
         <v>1.79</v>
@@ -32614,7 +32635,7 @@
         <v>85</v>
       </c>
       <c r="P164" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32805,7 +32826,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32895,7 +32916,7 @@
         <v>1.67</v>
       </c>
       <c r="AT165">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU165">
         <v>1.92</v>
@@ -32996,7 +33017,7 @@
         <v>85</v>
       </c>
       <c r="P166" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33083,10 +33104,10 @@
         <v>0.63</v>
       </c>
       <c r="AS166">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT166">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU166">
         <v>1.98</v>
@@ -33187,7 +33208,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33277,7 +33298,7 @@
         <v>1.54</v>
       </c>
       <c r="AT167">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU167">
         <v>1.46</v>
@@ -33569,7 +33590,7 @@
         <v>85</v>
       </c>
       <c r="P169" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33656,7 +33677,7 @@
         <v>1.25</v>
       </c>
       <c r="AS169">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT169">
         <v>1.31</v>
@@ -33951,7 +33972,7 @@
         <v>199</v>
       </c>
       <c r="P171" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34038,10 +34059,10 @@
         <v>1.63</v>
       </c>
       <c r="AS171">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT171">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU171">
         <v>1.52</v>
@@ -34229,7 +34250,7 @@
         <v>0.63</v>
       </c>
       <c r="AS172">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT172">
         <v>0.62</v>
@@ -34423,7 +34444,7 @@
         <v>0.75</v>
       </c>
       <c r="AT173">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU173">
         <v>1.68</v>
@@ -34524,7 +34545,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34611,7 +34632,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT174">
         <v>0.46</v>
@@ -34715,7 +34736,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q175">
         <v>10</v>
@@ -34802,7 +34823,7 @@
         <v>1.5</v>
       </c>
       <c r="AS175">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT175">
         <v>1.38</v>
@@ -34906,7 +34927,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34996,7 +35017,7 @@
         <v>1.54</v>
       </c>
       <c r="AT176">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU176">
         <v>1.47</v>
@@ -35187,7 +35208,7 @@
         <v>1.75</v>
       </c>
       <c r="AT177">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU177">
         <v>1.48</v>
@@ -35288,7 +35309,7 @@
         <v>203</v>
       </c>
       <c r="P178" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35375,10 +35396,10 @@
         <v>1.22</v>
       </c>
       <c r="AS178">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT178">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU178">
         <v>1.71</v>
@@ -35757,10 +35778,10 @@
         <v>2.13</v>
       </c>
       <c r="AS180">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT180">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU180">
         <v>1.98</v>
@@ -35861,7 +35882,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35948,10 +35969,10 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT181">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU181">
         <v>1.5</v>
@@ -37094,7 +37115,7 @@
         <v>1.44</v>
       </c>
       <c r="AS187">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT187">
         <v>1.31</v>
@@ -37198,7 +37219,7 @@
         <v>85</v>
       </c>
       <c r="P188" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37285,10 +37306,10 @@
         <v>2.44</v>
       </c>
       <c r="AS188">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT188">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU188">
         <v>1.88</v>
@@ -37389,7 +37410,7 @@
         <v>211</v>
       </c>
       <c r="P189" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37476,7 +37497,7 @@
         <v>1.78</v>
       </c>
       <c r="AS189">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT189">
         <v>1.54</v>
@@ -37580,7 +37601,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q190">
         <v>8</v>
@@ -37861,7 +37882,7 @@
         <v>2.31</v>
       </c>
       <c r="AT191">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU191">
         <v>2.37</v>
@@ -38052,7 +38073,7 @@
         <v>1.23</v>
       </c>
       <c r="AT192">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU192">
         <v>1.16</v>
@@ -38243,7 +38264,7 @@
         <v>0.75</v>
       </c>
       <c r="AT193">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU193">
         <v>1.6</v>
@@ -38431,7 +38452,7 @@
         <v>0.78</v>
       </c>
       <c r="AS194">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT194">
         <v>0.62</v>
@@ -38535,7 +38556,7 @@
         <v>215</v>
       </c>
       <c r="P195" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -38622,10 +38643,10 @@
         <v>1.78</v>
       </c>
       <c r="AS195">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT195">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU195">
         <v>1.4</v>
@@ -38813,7 +38834,7 @@
         <v>1.78</v>
       </c>
       <c r="AS196">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT196">
         <v>1.5</v>
@@ -39004,10 +39025,10 @@
         <v>1.11</v>
       </c>
       <c r="AS197">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT197">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU197">
         <v>1.59</v>
@@ -39198,7 +39219,7 @@
         <v>2.62</v>
       </c>
       <c r="AT198">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU198">
         <v>2.22</v>
@@ -39299,7 +39320,7 @@
         <v>217</v>
       </c>
       <c r="P199" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q199">
         <v>12</v>
@@ -39577,7 +39598,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT200">
         <v>1.38</v>
@@ -39959,10 +39980,10 @@
         <v>2.5</v>
       </c>
       <c r="AS202">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT202">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU202">
         <v>1.47</v>
@@ -40153,7 +40174,7 @@
         <v>2</v>
       </c>
       <c r="AT203">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU203">
         <v>1.45</v>
@@ -40532,7 +40553,7 @@
         <v>1</v>
       </c>
       <c r="AS205">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT205">
         <v>0.83</v>
@@ -40636,7 +40657,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q206">
         <v>11</v>
@@ -41018,7 +41039,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41105,7 +41126,7 @@
         <v>0.5</v>
       </c>
       <c r="AS208">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT208">
         <v>0.46</v>
@@ -41487,10 +41508,10 @@
         <v>1.89</v>
       </c>
       <c r="AS210">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT210">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU210">
         <v>1.9</v>
@@ -41591,7 +41612,7 @@
         <v>224</v>
       </c>
       <c r="P211" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41678,7 +41699,7 @@
         <v>0.5</v>
       </c>
       <c r="AS211">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT211">
         <v>0.46</v>
@@ -41782,7 +41803,7 @@
         <v>213</v>
       </c>
       <c r="P212" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41869,10 +41890,10 @@
         <v>1.09</v>
       </c>
       <c r="AS212">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT212">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU212">
         <v>1.6</v>
@@ -42063,7 +42084,7 @@
         <v>2.46</v>
       </c>
       <c r="AT213">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU213">
         <v>2.38</v>
@@ -42251,7 +42272,7 @@
         <v>1.64</v>
       </c>
       <c r="AS214">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT214">
         <v>1.38</v>
@@ -42355,7 +42376,7 @@
         <v>194</v>
       </c>
       <c r="P215" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q215">
         <v>5</v>
@@ -42445,7 +42466,7 @@
         <v>0.75</v>
       </c>
       <c r="AT215">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU215">
         <v>1.59</v>
@@ -42633,10 +42654,10 @@
         <v>1.7</v>
       </c>
       <c r="AS216">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT216">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU216">
         <v>1.47</v>
@@ -42824,10 +42845,10 @@
         <v>0.6</v>
       </c>
       <c r="AS217">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT217">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU217">
         <v>1.63</v>
@@ -43119,7 +43140,7 @@
         <v>85</v>
       </c>
       <c r="P219" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -43206,7 +43227,7 @@
         <v>1.55</v>
       </c>
       <c r="AS219">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT219">
         <v>1.54</v>
@@ -43400,7 +43421,7 @@
         <v>2.62</v>
       </c>
       <c r="AT220">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU220">
         <v>2.2</v>
@@ -43692,7 +43713,7 @@
         <v>230</v>
       </c>
       <c r="P222" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43782,7 +43803,7 @@
         <v>2.46</v>
       </c>
       <c r="AT222">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU222">
         <v>2.42</v>
@@ -43883,7 +43904,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q223">
         <v>2</v>
@@ -43973,7 +43994,7 @@
         <v>1.54</v>
       </c>
       <c r="AT223">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU223">
         <v>1.56</v>
@@ -44164,7 +44185,7 @@
         <v>1.75</v>
       </c>
       <c r="AT224">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU224">
         <v>1.52</v>
@@ -44352,7 +44373,7 @@
         <v>0.55</v>
       </c>
       <c r="AS225">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT225">
         <v>0.46</v>
@@ -44546,7 +44567,7 @@
         <v>1.54</v>
       </c>
       <c r="AT226">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU226">
         <v>1.42</v>
@@ -45220,7 +45241,7 @@
         <v>85</v>
       </c>
       <c r="P230" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45307,7 +45328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS230">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT230">
         <v>0.92</v>
@@ -45498,7 +45519,7 @@
         <v>1.09</v>
       </c>
       <c r="AS231">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT231">
         <v>0.92</v>
@@ -45689,7 +45710,7 @@
         <v>0.55</v>
       </c>
       <c r="AS232">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT232">
         <v>0.46</v>
@@ -45793,7 +45814,7 @@
         <v>101</v>
       </c>
       <c r="P233" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -45880,10 +45901,10 @@
         <v>0.82</v>
       </c>
       <c r="AS233">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT233">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU233">
         <v>1.64</v>
@@ -45984,7 +46005,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q234">
         <v>5</v>
@@ -46071,10 +46092,10 @@
         <v>1</v>
       </c>
       <c r="AS234">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT234">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU234">
         <v>1.51</v>
@@ -46262,10 +46283,10 @@
         <v>0.55</v>
       </c>
       <c r="AS235">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT235">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU235">
         <v>1.57</v>
@@ -46453,10 +46474,10 @@
         <v>1</v>
       </c>
       <c r="AS236">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT236">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU236">
         <v>1.63</v>
@@ -46557,7 +46578,7 @@
         <v>85</v>
       </c>
       <c r="P237" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -46644,10 +46665,10 @@
         <v>2.33</v>
       </c>
       <c r="AS237">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT237">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU237">
         <v>1.41</v>
@@ -46748,7 +46769,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -46838,7 +46859,7 @@
         <v>1.23</v>
       </c>
       <c r="AT238">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU238">
         <v>1.22</v>
@@ -47026,7 +47047,7 @@
         <v>1</v>
       </c>
       <c r="AS239">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT239">
         <v>0.92</v>
@@ -47217,10 +47238,10 @@
         <v>1.08</v>
       </c>
       <c r="AS240">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT240">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU240">
         <v>1.82</v>
@@ -47602,7 +47623,7 @@
         <v>2.31</v>
       </c>
       <c r="AT242">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU242">
         <v>2.23</v>
@@ -47894,7 +47915,7 @@
         <v>242</v>
       </c>
       <c r="P244" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q244">
         <v>17</v>
@@ -49040,7 +49061,7 @@
         <v>99</v>
       </c>
       <c r="P250" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q250">
         <v>3</v>
@@ -49422,7 +49443,7 @@
         <v>248</v>
       </c>
       <c r="P252" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49755,6 +49776,1725 @@
       </c>
       <c r="BK253">
         <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:63">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>2782304</v>
+      </c>
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F254">
+        <v>27</v>
+      </c>
+      <c r="G254" t="s">
+        <v>71</v>
+      </c>
+      <c r="H254" t="s">
+        <v>81</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>1</v>
+      </c>
+      <c r="O254" t="s">
+        <v>187</v>
+      </c>
+      <c r="P254" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q254">
+        <v>5</v>
+      </c>
+      <c r="R254">
+        <v>8</v>
+      </c>
+      <c r="S254">
+        <v>13</v>
+      </c>
+      <c r="T254">
+        <v>3.4</v>
+      </c>
+      <c r="U254">
+        <v>2</v>
+      </c>
+      <c r="V254">
+        <v>3.5</v>
+      </c>
+      <c r="W254">
+        <v>1.5</v>
+      </c>
+      <c r="X254">
+        <v>2.5</v>
+      </c>
+      <c r="Y254">
+        <v>3.4</v>
+      </c>
+      <c r="Z254">
+        <v>1.3</v>
+      </c>
+      <c r="AA254">
+        <v>10</v>
+      </c>
+      <c r="AB254">
+        <v>1.06</v>
+      </c>
+      <c r="AC254">
+        <v>2.7</v>
+      </c>
+      <c r="AD254">
+        <v>3.2</v>
+      </c>
+      <c r="AE254">
+        <v>2.75</v>
+      </c>
+      <c r="AF254">
+        <v>1.09</v>
+      </c>
+      <c r="AG254">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH254">
+        <v>1.45</v>
+      </c>
+      <c r="AI254">
+        <v>2.85</v>
+      </c>
+      <c r="AJ254">
+        <v>2.2</v>
+      </c>
+      <c r="AK254">
+        <v>1.6</v>
+      </c>
+      <c r="AL254">
+        <v>1.95</v>
+      </c>
+      <c r="AM254">
+        <v>1.8</v>
+      </c>
+      <c r="AN254">
+        <v>1.43</v>
+      </c>
+      <c r="AO254">
+        <v>1.35</v>
+      </c>
+      <c r="AP254">
+        <v>1.46</v>
+      </c>
+      <c r="AQ254">
+        <v>1.08</v>
+      </c>
+      <c r="AR254">
+        <v>1.09</v>
+      </c>
+      <c r="AS254">
+        <v>1.21</v>
+      </c>
+      <c r="AT254">
+        <v>1</v>
+      </c>
+      <c r="AU254">
+        <v>1.55</v>
+      </c>
+      <c r="AV254">
+        <v>1.26</v>
+      </c>
+      <c r="AW254">
+        <v>2.81</v>
+      </c>
+      <c r="AX254">
+        <v>1.88</v>
+      </c>
+      <c r="AY254">
+        <v>7.6</v>
+      </c>
+      <c r="AZ254">
+        <v>2.36</v>
+      </c>
+      <c r="BA254">
+        <v>1.26</v>
+      </c>
+      <c r="BB254">
+        <v>1.52</v>
+      </c>
+      <c r="BC254">
+        <v>1.92</v>
+      </c>
+      <c r="BD254">
+        <v>2.5</v>
+      </c>
+      <c r="BE254">
+        <v>3.34</v>
+      </c>
+      <c r="BF254">
+        <v>7</v>
+      </c>
+      <c r="BG254">
+        <v>5</v>
+      </c>
+      <c r="BH254">
+        <v>6</v>
+      </c>
+      <c r="BI254">
+        <v>6</v>
+      </c>
+      <c r="BJ254">
+        <v>13</v>
+      </c>
+      <c r="BK254">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:63">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>2782306</v>
+      </c>
+      <c r="C255" t="s">
+        <v>63</v>
+      </c>
+      <c r="D255" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F255">
+        <v>27</v>
+      </c>
+      <c r="G255" t="s">
+        <v>68</v>
+      </c>
+      <c r="H255" t="s">
+        <v>77</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>2</v>
+      </c>
+      <c r="N255">
+        <v>4</v>
+      </c>
+      <c r="O255" t="s">
+        <v>249</v>
+      </c>
+      <c r="P255" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q255">
+        <v>4</v>
+      </c>
+      <c r="R255">
+        <v>7</v>
+      </c>
+      <c r="S255">
+        <v>11</v>
+      </c>
+      <c r="T255">
+        <v>4</v>
+      </c>
+      <c r="U255">
+        <v>2.2</v>
+      </c>
+      <c r="V255">
+        <v>2.63</v>
+      </c>
+      <c r="W255">
+        <v>1.36</v>
+      </c>
+      <c r="X255">
+        <v>3</v>
+      </c>
+      <c r="Y255">
+        <v>2.75</v>
+      </c>
+      <c r="Z255">
+        <v>1.4</v>
+      </c>
+      <c r="AA255">
+        <v>7</v>
+      </c>
+      <c r="AB255">
+        <v>1.1</v>
+      </c>
+      <c r="AC255">
+        <v>3.35</v>
+      </c>
+      <c r="AD255">
+        <v>3.45</v>
+      </c>
+      <c r="AE255">
+        <v>2.16</v>
+      </c>
+      <c r="AF255">
+        <v>1.05</v>
+      </c>
+      <c r="AG255">
+        <v>12</v>
+      </c>
+      <c r="AH255">
+        <v>1.3</v>
+      </c>
+      <c r="AI255">
+        <v>3.7</v>
+      </c>
+      <c r="AJ255">
+        <v>1.85</v>
+      </c>
+      <c r="AK255">
+        <v>1.96</v>
+      </c>
+      <c r="AL255">
+        <v>1.75</v>
+      </c>
+      <c r="AM255">
+        <v>2</v>
+      </c>
+      <c r="AN255">
+        <v>1.83</v>
+      </c>
+      <c r="AO255">
+        <v>1.29</v>
+      </c>
+      <c r="AP255">
+        <v>1.25</v>
+      </c>
+      <c r="AQ255">
+        <v>1.33</v>
+      </c>
+      <c r="AR255">
+        <v>1.64</v>
+      </c>
+      <c r="AS255">
+        <v>1.31</v>
+      </c>
+      <c r="AT255">
+        <v>1.58</v>
+      </c>
+      <c r="AU255">
+        <v>1.64</v>
+      </c>
+      <c r="AV255">
+        <v>1.7</v>
+      </c>
+      <c r="AW255">
+        <v>3.34</v>
+      </c>
+      <c r="AX255">
+        <v>2.68</v>
+      </c>
+      <c r="AY255">
+        <v>7.7</v>
+      </c>
+      <c r="AZ255">
+        <v>1.71</v>
+      </c>
+      <c r="BA255">
+        <v>1.25</v>
+      </c>
+      <c r="BB255">
+        <v>1.5</v>
+      </c>
+      <c r="BC255">
+        <v>1.89</v>
+      </c>
+      <c r="BD255">
+        <v>2.45</v>
+      </c>
+      <c r="BE255">
+        <v>3.28</v>
+      </c>
+      <c r="BF255">
+        <v>4</v>
+      </c>
+      <c r="BG255">
+        <v>5</v>
+      </c>
+      <c r="BH255">
+        <v>9</v>
+      </c>
+      <c r="BI255">
+        <v>11</v>
+      </c>
+      <c r="BJ255">
+        <v>13</v>
+      </c>
+      <c r="BK255">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:63">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>2782309</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F256">
+        <v>27</v>
+      </c>
+      <c r="G256" t="s">
+        <v>70</v>
+      </c>
+      <c r="H256" t="s">
+        <v>82</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>3</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>4</v>
+      </c>
+      <c r="O256" t="s">
+        <v>250</v>
+      </c>
+      <c r="P256" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q256">
+        <v>2</v>
+      </c>
+      <c r="R256">
+        <v>10</v>
+      </c>
+      <c r="S256">
+        <v>12</v>
+      </c>
+      <c r="T256">
+        <v>1.95</v>
+      </c>
+      <c r="U256">
+        <v>2.4</v>
+      </c>
+      <c r="V256">
+        <v>7</v>
+      </c>
+      <c r="W256">
+        <v>1.33</v>
+      </c>
+      <c r="X256">
+        <v>3.25</v>
+      </c>
+      <c r="Y256">
+        <v>2.63</v>
+      </c>
+      <c r="Z256">
+        <v>1.44</v>
+      </c>
+      <c r="AA256">
+        <v>6.5</v>
+      </c>
+      <c r="AB256">
+        <v>1.11</v>
+      </c>
+      <c r="AC256">
+        <v>1.48</v>
+      </c>
+      <c r="AD256">
+        <v>4.5</v>
+      </c>
+      <c r="AE256">
+        <v>6.4</v>
+      </c>
+      <c r="AF256">
+        <v>1.04</v>
+      </c>
+      <c r="AG256">
+        <v>13</v>
+      </c>
+      <c r="AH256">
+        <v>1.26</v>
+      </c>
+      <c r="AI256">
+        <v>4.1</v>
+      </c>
+      <c r="AJ256">
+        <v>1.7</v>
+      </c>
+      <c r="AK256">
+        <v>2.05</v>
+      </c>
+      <c r="AL256">
+        <v>2</v>
+      </c>
+      <c r="AM256">
+        <v>1.75</v>
+      </c>
+      <c r="AN256">
+        <v>1.1</v>
+      </c>
+      <c r="AO256">
+        <v>1.2</v>
+      </c>
+      <c r="AP256">
+        <v>2.65</v>
+      </c>
+      <c r="AQ256">
+        <v>2.08</v>
+      </c>
+      <c r="AR256">
+        <v>0.5</v>
+      </c>
+      <c r="AS256">
+        <v>2.14</v>
+      </c>
+      <c r="AT256">
+        <v>0.46</v>
+      </c>
+      <c r="AU256">
+        <v>1.77</v>
+      </c>
+      <c r="AV256">
+        <v>1.1</v>
+      </c>
+      <c r="AW256">
+        <v>2.87</v>
+      </c>
+      <c r="AX256">
+        <v>1.24</v>
+      </c>
+      <c r="AY256">
+        <v>10.25</v>
+      </c>
+      <c r="AZ256">
+        <v>5.5</v>
+      </c>
+      <c r="BA256">
+        <v>1.21</v>
+      </c>
+      <c r="BB256">
+        <v>1.43</v>
+      </c>
+      <c r="BC256">
+        <v>1.78</v>
+      </c>
+      <c r="BD256">
+        <v>2.24</v>
+      </c>
+      <c r="BE256">
+        <v>2.98</v>
+      </c>
+      <c r="BF256">
+        <v>8</v>
+      </c>
+      <c r="BG256">
+        <v>6</v>
+      </c>
+      <c r="BH256">
+        <v>3</v>
+      </c>
+      <c r="BI256">
+        <v>2</v>
+      </c>
+      <c r="BJ256">
+        <v>11</v>
+      </c>
+      <c r="BK256">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:63">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>2782437</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>64</v>
+      </c>
+      <c r="E257" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F257">
+        <v>27</v>
+      </c>
+      <c r="G257" t="s">
+        <v>72</v>
+      </c>
+      <c r="H257" t="s">
+        <v>83</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>2</v>
+      </c>
+      <c r="K257">
+        <v>3</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257">
+        <v>3</v>
+      </c>
+      <c r="N257">
+        <v>4</v>
+      </c>
+      <c r="O257" t="s">
+        <v>206</v>
+      </c>
+      <c r="P257" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q257">
+        <v>2</v>
+      </c>
+      <c r="R257">
+        <v>5</v>
+      </c>
+      <c r="S257">
+        <v>7</v>
+      </c>
+      <c r="T257">
+        <v>4</v>
+      </c>
+      <c r="U257">
+        <v>2.2</v>
+      </c>
+      <c r="V257">
+        <v>2.63</v>
+      </c>
+      <c r="W257">
+        <v>1.4</v>
+      </c>
+      <c r="X257">
+        <v>2.75</v>
+      </c>
+      <c r="Y257">
+        <v>3</v>
+      </c>
+      <c r="Z257">
+        <v>1.36</v>
+      </c>
+      <c r="AA257">
+        <v>8</v>
+      </c>
+      <c r="AB257">
+        <v>1.08</v>
+      </c>
+      <c r="AC257">
+        <v>3.9</v>
+      </c>
+      <c r="AD257">
+        <v>3.55</v>
+      </c>
+      <c r="AE257">
+        <v>1.95</v>
+      </c>
+      <c r="AF257">
+        <v>1.06</v>
+      </c>
+      <c r="AG257">
+        <v>11</v>
+      </c>
+      <c r="AH257">
+        <v>1.33</v>
+      </c>
+      <c r="AI257">
+        <v>3.5</v>
+      </c>
+      <c r="AJ257">
+        <v>1.92</v>
+      </c>
+      <c r="AK257">
+        <v>1.89</v>
+      </c>
+      <c r="AL257">
+        <v>1.8</v>
+      </c>
+      <c r="AM257">
+        <v>1.95</v>
+      </c>
+      <c r="AN257">
+        <v>1.77</v>
+      </c>
+      <c r="AO257">
+        <v>1.3</v>
+      </c>
+      <c r="AP257">
+        <v>1.27</v>
+      </c>
+      <c r="AQ257">
+        <v>1</v>
+      </c>
+      <c r="AR257">
+        <v>1</v>
+      </c>
+      <c r="AS257">
+        <v>0.92</v>
+      </c>
+      <c r="AT257">
+        <v>1.14</v>
+      </c>
+      <c r="AU257">
+        <v>1.34</v>
+      </c>
+      <c r="AV257">
+        <v>1.59</v>
+      </c>
+      <c r="AW257">
+        <v>2.93</v>
+      </c>
+      <c r="AX257">
+        <v>2.97</v>
+      </c>
+      <c r="AY257">
+        <v>8</v>
+      </c>
+      <c r="AZ257">
+        <v>1.6</v>
+      </c>
+      <c r="BA257">
+        <v>1.25</v>
+      </c>
+      <c r="BB257">
+        <v>1.49</v>
+      </c>
+      <c r="BC257">
+        <v>1.88</v>
+      </c>
+      <c r="BD257">
+        <v>2.42</v>
+      </c>
+      <c r="BE257">
+        <v>3.28</v>
+      </c>
+      <c r="BF257">
+        <v>8</v>
+      </c>
+      <c r="BG257">
+        <v>7</v>
+      </c>
+      <c r="BH257">
+        <v>4</v>
+      </c>
+      <c r="BI257">
+        <v>3</v>
+      </c>
+      <c r="BJ257">
+        <v>12</v>
+      </c>
+      <c r="BK257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:63">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>2782303</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="2">
+        <v>44996.60416666666</v>
+      </c>
+      <c r="F258">
+        <v>27</v>
+      </c>
+      <c r="G258" t="s">
+        <v>65</v>
+      </c>
+      <c r="H258" t="s">
+        <v>78</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>1</v>
+      </c>
+      <c r="O258" t="s">
+        <v>85</v>
+      </c>
+      <c r="P258" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q258">
+        <v>2</v>
+      </c>
+      <c r="R258">
+        <v>6</v>
+      </c>
+      <c r="S258">
+        <v>8</v>
+      </c>
+      <c r="T258">
+        <v>8</v>
+      </c>
+      <c r="U258">
+        <v>2.5</v>
+      </c>
+      <c r="V258">
+        <v>1.8</v>
+      </c>
+      <c r="W258">
+        <v>1.33</v>
+      </c>
+      <c r="X258">
+        <v>3.25</v>
+      </c>
+      <c r="Y258">
+        <v>2.5</v>
+      </c>
+      <c r="Z258">
+        <v>1.5</v>
+      </c>
+      <c r="AA258">
+        <v>6.5</v>
+      </c>
+      <c r="AB258">
+        <v>1.11</v>
+      </c>
+      <c r="AC258">
+        <v>7.6</v>
+      </c>
+      <c r="AD258">
+        <v>3.44</v>
+      </c>
+      <c r="AE258">
+        <v>1.45</v>
+      </c>
+      <c r="AF258">
+        <v>1.04</v>
+      </c>
+      <c r="AG258">
+        <v>13</v>
+      </c>
+      <c r="AH258">
+        <v>1.25</v>
+      </c>
+      <c r="AI258">
+        <v>4.15</v>
+      </c>
+      <c r="AJ258">
+        <v>1.61</v>
+      </c>
+      <c r="AK258">
+        <v>2.2</v>
+      </c>
+      <c r="AL258">
+        <v>2.1</v>
+      </c>
+      <c r="AM258">
+        <v>1.67</v>
+      </c>
+      <c r="AN258">
+        <v>3.2</v>
+      </c>
+      <c r="AO258">
+        <v>1.16</v>
+      </c>
+      <c r="AP258">
+        <v>1.07</v>
+      </c>
+      <c r="AQ258">
+        <v>1.31</v>
+      </c>
+      <c r="AR258">
+        <v>1.85</v>
+      </c>
+      <c r="AS258">
+        <v>1.21</v>
+      </c>
+      <c r="AT258">
+        <v>1.93</v>
+      </c>
+      <c r="AU258">
+        <v>1.37</v>
+      </c>
+      <c r="AV258">
+        <v>1.92</v>
+      </c>
+      <c r="AW258">
+        <v>3.29</v>
+      </c>
+      <c r="AX258">
+        <v>6.2</v>
+      </c>
+      <c r="AY258">
+        <v>10.75</v>
+      </c>
+      <c r="AZ258">
+        <v>1.2</v>
+      </c>
+      <c r="BA258">
+        <v>1.28</v>
+      </c>
+      <c r="BB258">
+        <v>1.55</v>
+      </c>
+      <c r="BC258">
+        <v>1.98</v>
+      </c>
+      <c r="BD258">
+        <v>2.59</v>
+      </c>
+      <c r="BE258">
+        <v>3.48</v>
+      </c>
+      <c r="BF258">
+        <v>0</v>
+      </c>
+      <c r="BG258">
+        <v>5</v>
+      </c>
+      <c r="BH258">
+        <v>0</v>
+      </c>
+      <c r="BI258">
+        <v>5</v>
+      </c>
+      <c r="BJ258">
+        <v>0</v>
+      </c>
+      <c r="BK258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:63">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>2782305</v>
+      </c>
+      <c r="C259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F259">
+        <v>27</v>
+      </c>
+      <c r="G259" t="s">
+        <v>66</v>
+      </c>
+      <c r="H259" t="s">
+        <v>76</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>3</v>
+      </c>
+      <c r="K259">
+        <v>3</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>3</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="O259" t="s">
+        <v>85</v>
+      </c>
+      <c r="P259" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q259">
+        <v>4</v>
+      </c>
+      <c r="R259">
+        <v>8</v>
+      </c>
+      <c r="S259">
+        <v>12</v>
+      </c>
+      <c r="T259">
+        <v>5.5</v>
+      </c>
+      <c r="U259">
+        <v>2.3</v>
+      </c>
+      <c r="V259">
+        <v>2.1</v>
+      </c>
+      <c r="W259">
+        <v>1.36</v>
+      </c>
+      <c r="X259">
+        <v>3</v>
+      </c>
+      <c r="Y259">
+        <v>2.63</v>
+      </c>
+      <c r="Z259">
+        <v>1.44</v>
+      </c>
+      <c r="AA259">
+        <v>7</v>
+      </c>
+      <c r="AB259">
+        <v>1.1</v>
+      </c>
+      <c r="AC259">
+        <v>5.5</v>
+      </c>
+      <c r="AD259">
+        <v>3.9</v>
+      </c>
+      <c r="AE259">
+        <v>1.46</v>
+      </c>
+      <c r="AF259">
+        <v>1.05</v>
+      </c>
+      <c r="AG259">
+        <v>13</v>
+      </c>
+      <c r="AH259">
+        <v>1.28</v>
+      </c>
+      <c r="AI259">
+        <v>3.9</v>
+      </c>
+      <c r="AJ259">
+        <v>1.73</v>
+      </c>
+      <c r="AK259">
+        <v>1.98</v>
+      </c>
+      <c r="AL259">
+        <v>1.8</v>
+      </c>
+      <c r="AM259">
+        <v>1.95</v>
+      </c>
+      <c r="AN259">
+        <v>2.25</v>
+      </c>
+      <c r="AO259">
+        <v>1.24</v>
+      </c>
+      <c r="AP259">
+        <v>1.15</v>
+      </c>
+      <c r="AQ259">
+        <v>1.69</v>
+      </c>
+      <c r="AR259">
+        <v>2.38</v>
+      </c>
+      <c r="AS259">
+        <v>1.57</v>
+      </c>
+      <c r="AT259">
+        <v>2.43</v>
+      </c>
+      <c r="AU259">
+        <v>1.63</v>
+      </c>
+      <c r="AV259">
+        <v>1.68</v>
+      </c>
+      <c r="AW259">
+        <v>3.31</v>
+      </c>
+      <c r="AX259">
+        <v>3.94</v>
+      </c>
+      <c r="AY259">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ259">
+        <v>1.39</v>
+      </c>
+      <c r="BA259">
+        <v>1.24</v>
+      </c>
+      <c r="BB259">
+        <v>1.47</v>
+      </c>
+      <c r="BC259">
+        <v>1.85</v>
+      </c>
+      <c r="BD259">
+        <v>2.38</v>
+      </c>
+      <c r="BE259">
+        <v>3.18</v>
+      </c>
+      <c r="BF259">
+        <v>3</v>
+      </c>
+      <c r="BG259">
+        <v>8</v>
+      </c>
+      <c r="BH259">
+        <v>10</v>
+      </c>
+      <c r="BI259">
+        <v>8</v>
+      </c>
+      <c r="BJ259">
+        <v>13</v>
+      </c>
+      <c r="BK259">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>2782307</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F260">
+        <v>27</v>
+      </c>
+      <c r="G260" t="s">
+        <v>73</v>
+      </c>
+      <c r="H260" t="s">
+        <v>79</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260" t="s">
+        <v>85</v>
+      </c>
+      <c r="P260" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q260">
+        <v>7</v>
+      </c>
+      <c r="R260">
+        <v>8</v>
+      </c>
+      <c r="S260">
+        <v>15</v>
+      </c>
+      <c r="T260">
+        <v>1.8</v>
+      </c>
+      <c r="U260">
+        <v>2.5</v>
+      </c>
+      <c r="V260">
+        <v>7.5</v>
+      </c>
+      <c r="W260">
+        <v>1.3</v>
+      </c>
+      <c r="X260">
+        <v>3.4</v>
+      </c>
+      <c r="Y260">
+        <v>2.38</v>
+      </c>
+      <c r="Z260">
+        <v>1.53</v>
+      </c>
+      <c r="AA260">
+        <v>6</v>
+      </c>
+      <c r="AB260">
+        <v>1.13</v>
+      </c>
+      <c r="AC260">
+        <v>1.24</v>
+      </c>
+      <c r="AD260">
+        <v>4.95</v>
+      </c>
+      <c r="AE260">
+        <v>8.75</v>
+      </c>
+      <c r="AF260">
+        <v>1.03</v>
+      </c>
+      <c r="AG260">
+        <v>17.75</v>
+      </c>
+      <c r="AH260">
+        <v>1.2</v>
+      </c>
+      <c r="AI260">
+        <v>4.57</v>
+      </c>
+      <c r="AJ260">
+        <v>1.55</v>
+      </c>
+      <c r="AK260">
+        <v>2.29</v>
+      </c>
+      <c r="AL260">
+        <v>1.95</v>
+      </c>
+      <c r="AM260">
+        <v>1.8</v>
+      </c>
+      <c r="AN260">
+        <v>1.1</v>
+      </c>
+      <c r="AO260">
+        <v>1.17</v>
+      </c>
+      <c r="AP260">
+        <v>3.05</v>
+      </c>
+      <c r="AQ260">
+        <v>2.42</v>
+      </c>
+      <c r="AR260">
+        <v>0.92</v>
+      </c>
+      <c r="AS260">
+        <v>2.31</v>
+      </c>
+      <c r="AT260">
+        <v>0.93</v>
+      </c>
+      <c r="AU260">
+        <v>1.8</v>
+      </c>
+      <c r="AV260">
+        <v>1.18</v>
+      </c>
+      <c r="AW260">
+        <v>2.98</v>
+      </c>
+      <c r="AX260">
+        <v>1.23</v>
+      </c>
+      <c r="AY260">
+        <v>10.5</v>
+      </c>
+      <c r="AZ260">
+        <v>5.6</v>
+      </c>
+      <c r="BA260">
+        <v>1.19</v>
+      </c>
+      <c r="BB260">
+        <v>1.4</v>
+      </c>
+      <c r="BC260">
+        <v>1.73</v>
+      </c>
+      <c r="BD260">
+        <v>2.18</v>
+      </c>
+      <c r="BE260">
+        <v>2.88</v>
+      </c>
+      <c r="BF260">
+        <v>3</v>
+      </c>
+      <c r="BG260">
+        <v>3</v>
+      </c>
+      <c r="BH260">
+        <v>5</v>
+      </c>
+      <c r="BI260">
+        <v>10</v>
+      </c>
+      <c r="BJ260">
+        <v>8</v>
+      </c>
+      <c r="BK260">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>2782310</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F261">
+        <v>27</v>
+      </c>
+      <c r="G261" t="s">
+        <v>74</v>
+      </c>
+      <c r="H261" t="s">
+        <v>75</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>251</v>
+      </c>
+      <c r="P261" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q261">
+        <v>12</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>14</v>
+      </c>
+      <c r="T261">
+        <v>2.88</v>
+      </c>
+      <c r="U261">
+        <v>2.1</v>
+      </c>
+      <c r="V261">
+        <v>3.75</v>
+      </c>
+      <c r="W261">
+        <v>1.4</v>
+      </c>
+      <c r="X261">
+        <v>2.75</v>
+      </c>
+      <c r="Y261">
+        <v>3</v>
+      </c>
+      <c r="Z261">
+        <v>1.36</v>
+      </c>
+      <c r="AA261">
+        <v>8</v>
+      </c>
+      <c r="AB261">
+        <v>1.08</v>
+      </c>
+      <c r="AC261">
+        <v>2.14</v>
+      </c>
+      <c r="AD261">
+        <v>3.05</v>
+      </c>
+      <c r="AE261">
+        <v>3.05</v>
+      </c>
+      <c r="AF261">
+        <v>1.07</v>
+      </c>
+      <c r="AG261">
+        <v>10</v>
+      </c>
+      <c r="AH261">
+        <v>1.35</v>
+      </c>
+      <c r="AI261">
+        <v>3.35</v>
+      </c>
+      <c r="AJ261">
+        <v>2.05</v>
+      </c>
+      <c r="AK261">
+        <v>1.68</v>
+      </c>
+      <c r="AL261">
+        <v>1.75</v>
+      </c>
+      <c r="AM261">
+        <v>2</v>
+      </c>
+      <c r="AN261">
+        <v>1.33</v>
+      </c>
+      <c r="AO261">
+        <v>1.29</v>
+      </c>
+      <c r="AP261">
+        <v>1.57</v>
+      </c>
+      <c r="AQ261">
+        <v>1.42</v>
+      </c>
+      <c r="AR261">
+        <v>1.17</v>
+      </c>
+      <c r="AS261">
+        <v>1.38</v>
+      </c>
+      <c r="AT261">
+        <v>1.15</v>
+      </c>
+      <c r="AU261">
+        <v>1.61</v>
+      </c>
+      <c r="AV261">
+        <v>1.28</v>
+      </c>
+      <c r="AW261">
+        <v>2.89</v>
+      </c>
+      <c r="AX261">
+        <v>1.61</v>
+      </c>
+      <c r="AY261">
+        <v>8</v>
+      </c>
+      <c r="AZ261">
+        <v>2.93</v>
+      </c>
+      <c r="BA261">
+        <v>1.26</v>
+      </c>
+      <c r="BB261">
+        <v>1.52</v>
+      </c>
+      <c r="BC261">
+        <v>1.92</v>
+      </c>
+      <c r="BD261">
+        <v>2.47</v>
+      </c>
+      <c r="BE261">
+        <v>3.34</v>
+      </c>
+      <c r="BF261">
+        <v>7</v>
+      </c>
+      <c r="BG261">
+        <v>5</v>
+      </c>
+      <c r="BH261">
+        <v>9</v>
+      </c>
+      <c r="BI261">
+        <v>8</v>
+      </c>
+      <c r="BJ261">
+        <v>16</v>
+      </c>
+      <c r="BK261">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>2782308</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>44997.5625</v>
+      </c>
+      <c r="F262">
+        <v>27</v>
+      </c>
+      <c r="G262" t="s">
+        <v>69</v>
+      </c>
+      <c r="H262" t="s">
+        <v>80</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>3</v>
+      </c>
+      <c r="O262" t="s">
+        <v>252</v>
+      </c>
+      <c r="P262" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q262">
+        <v>10</v>
+      </c>
+      <c r="R262">
+        <v>3</v>
+      </c>
+      <c r="S262">
+        <v>13</v>
+      </c>
+      <c r="T262">
+        <v>2.3</v>
+      </c>
+      <c r="U262">
+        <v>2.1</v>
+      </c>
+      <c r="V262">
+        <v>6</v>
+      </c>
+      <c r="W262">
+        <v>1.44</v>
+      </c>
+      <c r="X262">
+        <v>2.63</v>
+      </c>
+      <c r="Y262">
+        <v>3.25</v>
+      </c>
+      <c r="Z262">
+        <v>1.33</v>
+      </c>
+      <c r="AA262">
+        <v>9</v>
+      </c>
+      <c r="AB262">
+        <v>1.07</v>
+      </c>
+      <c r="AC262">
+        <v>1.58</v>
+      </c>
+      <c r="AD262">
+        <v>3.77</v>
+      </c>
+      <c r="AE262">
+        <v>4.8</v>
+      </c>
+      <c r="AF262">
+        <v>1.06</v>
+      </c>
+      <c r="AG262">
+        <v>10</v>
+      </c>
+      <c r="AH262">
+        <v>1.36</v>
+      </c>
+      <c r="AI262">
+        <v>3.3</v>
+      </c>
+      <c r="AJ262">
+        <v>2.06</v>
+      </c>
+      <c r="AK262">
+        <v>1.8</v>
+      </c>
+      <c r="AL262">
+        <v>2.05</v>
+      </c>
+      <c r="AM262">
+        <v>1.7</v>
+      </c>
+      <c r="AN262">
+        <v>1.16</v>
+      </c>
+      <c r="AO262">
+        <v>1.26</v>
+      </c>
+      <c r="AP262">
+        <v>2.32</v>
+      </c>
+      <c r="AQ262">
+        <v>1.92</v>
+      </c>
+      <c r="AR262">
+        <v>0.77</v>
+      </c>
+      <c r="AS262">
+        <v>2</v>
+      </c>
+      <c r="AT262">
+        <v>0.71</v>
+      </c>
+      <c r="AU262">
+        <v>1.98</v>
+      </c>
+      <c r="AV262">
+        <v>1.38</v>
+      </c>
+      <c r="AW262">
+        <v>3.36</v>
+      </c>
+      <c r="AX262">
+        <v>1.33</v>
+      </c>
+      <c r="AY262">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ262">
+        <v>4.4</v>
+      </c>
+      <c r="BA262">
+        <v>1.22</v>
+      </c>
+      <c r="BB262">
+        <v>1.44</v>
+      </c>
+      <c r="BC262">
+        <v>1.8</v>
+      </c>
+      <c r="BD262">
+        <v>2.28</v>
+      </c>
+      <c r="BE262">
+        <v>3.04</v>
+      </c>
+      <c r="BF262">
+        <v>9</v>
+      </c>
+      <c r="BG262">
+        <v>5</v>
+      </c>
+      <c r="BH262">
+        <v>3</v>
+      </c>
+      <c r="BI262">
+        <v>3</v>
+      </c>
+      <c r="BJ262">
+        <v>12</v>
+      </c>
+      <c r="BK262">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK264"/>
+  <dimension ref="A1:BK270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.46</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.77</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.62</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT17" t="n">
         <v>1.31</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT18" t="n">
         <v>1.54</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT19" t="n">
         <v>0.46</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT32" t="n">
         <v>1.54</v>
@@ -7196,7 +7196,7 @@
         <v>2.31</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU33" t="n">
         <v>2.56</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU34" t="n">
         <v>2.05</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>1.74</v>
@@ -8008,7 +8008,7 @@
         <v>1.77</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU37" t="n">
         <v>1.78</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT39" t="n">
         <v>0.46</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU40" t="n">
         <v>0.87</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT44" t="n">
         <v>1.14</v>
@@ -9632,7 +9632,7 @@
         <v>1.31</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU45" t="n">
         <v>1.59</v>
@@ -10444,7 +10444,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -10647,7 +10647,7 @@
         <v>2.31</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU50" t="n">
         <v>2.69</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT53" t="n">
         <v>0.93</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT54" t="n">
         <v>0.46</v>
@@ -12065,10 +12065,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU57" t="n">
         <v>1.94</v>
@@ -12268,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU58" t="n">
         <v>1.78</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT59" t="n">
         <v>1.93</v>
@@ -12677,7 +12677,7 @@
         <v>1.77</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU60" t="n">
         <v>1.67</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT62" t="n">
         <v>1.31</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT63" t="n">
         <v>0.93</v>
@@ -13486,7 +13486,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT64" t="n">
         <v>1.93</v>
@@ -13692,7 +13692,7 @@
         <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU65" t="n">
         <v>2.35</v>
@@ -13895,7 +13895,7 @@
         <v>2.14</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU66" t="n">
         <v>1.91</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT67" t="n">
         <v>2.43</v>
@@ -14504,7 +14504,7 @@
         <v>2.46</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14707,7 +14707,7 @@
         <v>1.57</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU70" t="n">
         <v>1.57</v>
@@ -15516,10 +15516,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -16534,7 +16534,7 @@
         <v>1.23</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU79" t="n">
         <v>0.8100000000000001</v>
@@ -17140,7 +17140,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT82" t="n">
         <v>0.71</v>
@@ -17346,7 +17346,7 @@
         <v>1.77</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -17752,7 +17752,7 @@
         <v>1.21</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT88" t="n">
         <v>1.15</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT89" t="n">
         <v>1.58</v>
@@ -18970,7 +18970,7 @@
         <v>1.57</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU91" t="n">
         <v>1.34</v>
@@ -19170,7 +19170,7 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT92" t="n">
         <v>0.46</v>
@@ -19376,7 +19376,7 @@
         <v>2.14</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU93" t="n">
         <v>1.92</v>
@@ -19576,7 +19576,7 @@
         <v>1.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT94" t="n">
         <v>1.14</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT96" t="n">
         <v>0.46</v>
@@ -20188,7 +20188,7 @@
         <v>2.31</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT102" t="n">
         <v>1.14</v>
@@ -21406,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU103" t="n">
         <v>2.32</v>
@@ -21812,7 +21812,7 @@
         <v>2.31</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22218,7 +22218,7 @@
         <v>0.92</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU107" t="n">
         <v>1.52</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT108" t="n">
         <v>0.92</v>
@@ -23027,7 +23027,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT111" t="n">
         <v>1.54</v>
@@ -23230,10 +23230,10 @@
         <v>0</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU112" t="n">
         <v>1.12</v>
@@ -23433,7 +23433,7 @@
         <v>2.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT113" t="n">
         <v>2.43</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT115" t="n">
         <v>1.15</v>
@@ -24045,7 +24045,7 @@
         <v>2.14</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24248,7 +24248,7 @@
         <v>1.38</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -25060,7 +25060,7 @@
         <v>1.23</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU121" t="n">
         <v>1.1</v>
@@ -25463,7 +25463,7 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT123" t="n">
         <v>0.71</v>
@@ -25669,7 +25669,7 @@
         <v>1.57</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -25872,7 +25872,7 @@
         <v>2.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU125" t="n">
         <v>2.38</v>
@@ -26684,7 +26684,7 @@
         <v>1.31</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU129" t="n">
         <v>1.61</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT130" t="n">
         <v>1.58</v>
@@ -27087,7 +27087,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT131" t="n">
         <v>1.15</v>
@@ -27293,7 +27293,7 @@
         <v>1.21</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -27493,7 +27493,7 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT133" t="n">
         <v>2.43</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT134" t="n">
         <v>1.54</v>
@@ -27899,10 +27899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28714,7 +28714,7 @@
         <v>1.38</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -28917,7 +28917,7 @@
         <v>1.23</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU140" t="n">
         <v>1.09</v>
@@ -29120,7 +29120,7 @@
         <v>2.14</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU141" t="n">
         <v>1.99</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT142" t="n">
         <v>0.77</v>
@@ -29929,7 +29929,7 @@
         <v>2.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT145" t="n">
         <v>2.43</v>
@@ -30538,10 +30538,10 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -30744,7 +30744,7 @@
         <v>0.92</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU149" t="n">
         <v>1.38</v>
@@ -31147,7 +31147,7 @@
         <v>1.43</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT151" t="n">
         <v>1.58</v>
@@ -31553,7 +31553,7 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT153" t="n">
         <v>0.92</v>
@@ -31959,10 +31959,10 @@
         <v>0.71</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32774,7 +32774,7 @@
         <v>2.31</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU159" t="n">
         <v>2.38</v>
@@ -32974,7 +32974,7 @@
         <v>1.63</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT160" t="n">
         <v>1.54</v>
@@ -33180,7 +33180,7 @@
         <v>2</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -33383,7 +33383,7 @@
         <v>2.62</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU162" t="n">
         <v>2.29</v>
@@ -34395,7 +34395,7 @@
         <v>1.25</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT167" t="n">
         <v>1.14</v>
@@ -34598,7 +34598,7 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT168" t="n">
         <v>0.92</v>
@@ -35007,7 +35007,7 @@
         <v>2.46</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU170" t="n">
         <v>2.4</v>
@@ -35413,7 +35413,7 @@
         <v>2.31</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU172" t="n">
         <v>1.96</v>
@@ -35613,7 +35613,7 @@
         <v>0.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT173" t="n">
         <v>0.46</v>
@@ -36022,7 +36022,7 @@
         <v>1.21</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU175" t="n">
         <v>1.46</v>
@@ -36222,7 +36222,7 @@
         <v>0.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT176" t="n">
         <v>0.71</v>
@@ -36425,7 +36425,7 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT177" t="n">
         <v>1.93</v>
@@ -36831,10 +36831,10 @@
         <v>0.63</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU179" t="n">
         <v>1.49</v>
@@ -37643,7 +37643,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT183" t="n">
         <v>0.46</v>
@@ -37846,10 +37846,10 @@
         <v>1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU184" t="n">
         <v>1.47</v>
@@ -38049,10 +38049,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU185" t="n">
         <v>1.45</v>
@@ -38252,7 +38252,7 @@
         <v>1.13</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT186" t="n">
         <v>0.77</v>
@@ -39067,7 +39067,7 @@
         <v>2.62</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU190" t="n">
         <v>2.24</v>
@@ -39673,7 +39673,7 @@
         <v>0.89</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT193" t="n">
         <v>1.15</v>
@@ -39879,7 +39879,7 @@
         <v>1.38</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU194" t="n">
         <v>1.62</v>
@@ -40285,7 +40285,7 @@
         <v>1.21</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU196" t="n">
         <v>1.53</v>
@@ -41097,7 +41097,7 @@
         <v>1.57</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU200" t="n">
         <v>1.66</v>
@@ -41297,7 +41297,7 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT201" t="n">
         <v>1.31</v>
@@ -41703,7 +41703,7 @@
         <v>0.9</v>
       </c>
       <c r="AS203" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT203" t="n">
         <v>0.93</v>
@@ -41906,7 +41906,7 @@
         <v>0.89</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT204" t="n">
         <v>0.92</v>
@@ -42312,10 +42312,10 @@
         <v>0.9</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU206" t="n">
         <v>1.48</v>
@@ -42518,7 +42518,7 @@
         <v>1.77</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU207" t="n">
         <v>1.86</v>
@@ -42921,10 +42921,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU209" t="n">
         <v>1.47</v>
@@ -43330,7 +43330,7 @@
         <v>2.31</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU211" t="n">
         <v>1.86</v>
@@ -43939,7 +43939,7 @@
         <v>0.92</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU214" t="n">
         <v>1.35</v>
@@ -44139,7 +44139,7 @@
         <v>0.6</v>
       </c>
       <c r="AS215" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT215" t="n">
         <v>0.71</v>
@@ -44751,7 +44751,7 @@
         <v>1.23</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU218" t="n">
         <v>1.2</v>
@@ -45360,7 +45360,7 @@
         <v>2.31</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU221" t="n">
         <v>2.3</v>
@@ -45763,7 +45763,7 @@
         <v>2.27</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT223" t="n">
         <v>2.43</v>
@@ -45966,7 +45966,7 @@
         <v>0.82</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT224" t="n">
         <v>0.93</v>
@@ -46172,7 +46172,7 @@
         <v>1.21</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU225" t="n">
         <v>1.48</v>
@@ -46372,7 +46372,7 @@
         <v>1.82</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT226" t="n">
         <v>1.93</v>
@@ -46575,10 +46575,10 @@
         <v>0.45</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU227" t="n">
         <v>1.37</v>
@@ -46981,7 +46981,7 @@
         <v>0.9</v>
       </c>
       <c r="AS229" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT229" t="n">
         <v>0.77</v>
@@ -47390,7 +47390,7 @@
         <v>2.31</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU231" t="n">
         <v>1.93</v>
@@ -49420,7 +49420,7 @@
         <v>2.46</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU241" t="n">
         <v>2.31</v>
@@ -49826,7 +49826,7 @@
         <v>2.62</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU243" t="n">
         <v>2.21</v>
@@ -50029,7 +50029,7 @@
         <v>2.46</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU244" t="n">
         <v>2.28</v>
@@ -50229,10 +50229,10 @@
         <v>0.5</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU245" t="n">
         <v>1.52</v>
@@ -50432,10 +50432,10 @@
         <v>1.5</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU246" t="n">
         <v>1.38</v>
@@ -50635,7 +50635,7 @@
         <v>0.91</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT247" t="n">
         <v>0.77</v>
@@ -51041,10 +51041,10 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU249" t="n">
         <v>1.6</v>
@@ -51244,10 +51244,10 @@
         <v>0.58</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU250" t="n">
         <v>1.35</v>
@@ -51650,7 +51650,7 @@
         <v>1.42</v>
       </c>
       <c r="AS252" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT252" t="n">
         <v>1.31</v>
@@ -53883,7 +53883,7 @@
         <v>1</v>
       </c>
       <c r="AS263" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT263" t="n">
         <v>1.15</v>
@@ -54141,6 +54141,1224 @@
       </c>
       <c r="BK264" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2782317</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45002.70833333334</v>
+      </c>
+      <c r="F265" t="n">
+        <v>28</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>2</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="n">
+        <v>2</v>
+      </c>
+      <c r="N265" t="n">
+        <v>3</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['45+2', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>3</v>
+      </c>
+      <c r="R265" t="n">
+        <v>7</v>
+      </c>
+      <c r="S265" t="n">
+        <v>10</v>
+      </c>
+      <c r="T265" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V265" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2782319</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F266" t="n">
+        <v>28</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>2</v>
+      </c>
+      <c r="M266" t="n">
+        <v>4</v>
+      </c>
+      <c r="N266" t="n">
+        <v>6</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['65', '73']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['6', '49', '62', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>5</v>
+      </c>
+      <c r="R266" t="n">
+        <v>4</v>
+      </c>
+      <c r="S266" t="n">
+        <v>9</v>
+      </c>
+      <c r="T266" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2</v>
+      </c>
+      <c r="V266" t="n">
+        <v>4</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2782318</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F267" t="n">
+        <v>28</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="n">
+        <v>3</v>
+      </c>
+      <c r="M267" t="n">
+        <v>3</v>
+      </c>
+      <c r="N267" t="n">
+        <v>6</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['46', '77', '90+3']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['45+1', '65', '74']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>10</v>
+      </c>
+      <c r="R267" t="n">
+        <v>3</v>
+      </c>
+      <c r="S267" t="n">
+        <v>13</v>
+      </c>
+      <c r="T267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2782313</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F268" t="n">
+        <v>28</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="n">
+        <v>2</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>8</v>
+      </c>
+      <c r="R268" t="n">
+        <v>4</v>
+      </c>
+      <c r="S268" t="n">
+        <v>12</v>
+      </c>
+      <c r="T268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V268" t="n">
+        <v>4</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X268" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2782312</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F269" t="n">
+        <v>28</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="n">
+        <v>3</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>3</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['7', '80', '89']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>9</v>
+      </c>
+      <c r="R269" t="n">
+        <v>6</v>
+      </c>
+      <c r="S269" t="n">
+        <v>15</v>
+      </c>
+      <c r="T269" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V269" t="n">
+        <v>5</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X269" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2782438</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45003.60416666666</v>
+      </c>
+      <c r="F270" t="n">
+        <v>28</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>2</v>
+      </c>
+      <c r="M270" t="n">
+        <v>2</v>
+      </c>
+      <c r="N270" t="n">
+        <v>4</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['52', '76']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['69', '89']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>8</v>
+      </c>
+      <c r="R270" t="n">
+        <v>2</v>
+      </c>
+      <c r="S270" t="n">
+        <v>10</v>
+      </c>
+      <c r="T270" t="n">
+        <v>2</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V270" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT2" t="n">
         <v>2.43</v>
@@ -1106,7 +1106,7 @@
         <v>1.57</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.31</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT6" t="n">
         <v>0.46</v>
@@ -1918,7 +1918,7 @@
         <v>2.14</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.14</v>
@@ -2324,7 +2324,7 @@
         <v>0.92</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.93</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT14" t="n">
         <v>1.62</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT15" t="n">
         <v>0.57</v>
@@ -3745,7 +3745,7 @@
         <v>0.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.21</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.93</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT19" t="n">
         <v>0.46</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2.14</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU23" t="n">
         <v>1.35</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT24" t="n">
         <v>0.46</v>
@@ -5572,7 +5572,7 @@
         <v>1.57</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU25" t="n">
         <v>1.23</v>
@@ -5775,7 +5775,7 @@
         <v>0.92</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU26" t="n">
         <v>1.42</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT27" t="n">
         <v>2.43</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1.58</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT30" t="n">
         <v>1.93</v>
@@ -6790,7 +6790,7 @@
         <v>2.31</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU31" t="n">
         <v>2.01</v>
@@ -6993,7 +6993,7 @@
         <v>0.71</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU32" t="n">
         <v>1.65</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU34" t="n">
         <v>2.05</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT35" t="n">
         <v>0.71</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU37" t="n">
         <v>1.78</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU38" t="n">
         <v>2.29</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU46" t="n">
         <v>0.85</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU47" t="n">
         <v>2.47</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT48" t="n">
         <v>0.46</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.07</v>
@@ -10850,7 +10850,7 @@
         <v>0.92</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU51" t="n">
         <v>1.28</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -11256,7 +11256,7 @@
         <v>1.21</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU53" t="n">
         <v>1.1</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT54" t="n">
         <v>0.46</v>
@@ -11662,7 +11662,7 @@
         <v>2.14</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT56" t="n">
         <v>0.71</v>
@@ -12068,7 +12068,7 @@
         <v>1.93</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU57" t="n">
         <v>1.94</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT58" t="n">
         <v>0.57</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU60" t="n">
         <v>1.67</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -13286,7 +13286,7 @@
         <v>1.64</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU63" t="n">
         <v>1.22</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT65" t="n">
         <v>0.57</v>
@@ -13895,7 +13895,7 @@
         <v>2.14</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU66" t="n">
         <v>1.91</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT68" t="n">
         <v>0.46</v>
@@ -14501,10 +14501,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU69" t="n">
         <v>2.5</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT71" t="n">
         <v>1.14</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU72" t="n">
         <v>0.84</v>
@@ -15719,10 +15719,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -15922,10 +15922,10 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU76" t="n">
         <v>2.34</v>
@@ -16128,7 +16128,7 @@
         <v>1.31</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU79" t="n">
         <v>0.8100000000000001</v>
@@ -16734,10 +16734,10 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU80" t="n">
         <v>2.39</v>
@@ -16937,10 +16937,10 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU81" t="n">
         <v>2.41</v>
@@ -17140,10 +17140,10 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU82" t="n">
         <v>1.51</v>
@@ -17343,10 +17343,10 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU83" t="n">
         <v>2.02</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU84" t="n">
         <v>1.39</v>
@@ -17749,10 +17749,10 @@
         <v>0.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -17952,10 +17952,10 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU86" t="n">
         <v>2.59</v>
@@ -18155,10 +18155,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU87" t="n">
         <v>1.57</v>
@@ -18358,10 +18358,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU88" t="n">
         <v>1.53</v>
@@ -20591,7 +20591,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT99" t="n">
         <v>0.46</v>
@@ -20794,10 +20794,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -20997,10 +20997,10 @@
         <v>0.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU101" t="n">
         <v>0.9399999999999999</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT103" t="n">
         <v>0.64</v>
@@ -21812,7 +21812,7 @@
         <v>2.31</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22015,7 +22015,7 @@
         <v>1.57</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU106" t="n">
         <v>1.51</v>
@@ -22218,7 +22218,7 @@
         <v>0.92</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU107" t="n">
         <v>1.52</v>
@@ -22418,10 +22418,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22621,7 +22621,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT109" t="n">
         <v>0.71</v>
@@ -22824,7 +22824,7 @@
         <v>1.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT110" t="n">
         <v>1.58</v>
@@ -23027,10 +23027,10 @@
         <v>1.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -23233,7 +23233,7 @@
         <v>1.21</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU112" t="n">
         <v>1.12</v>
@@ -23639,7 +23639,7 @@
         <v>1.31</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU114" t="n">
         <v>1.59</v>
@@ -23842,7 +23842,7 @@
         <v>1.64</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU115" t="n">
         <v>1.42</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT117" t="n">
         <v>0.57</v>
@@ -24651,10 +24651,10 @@
         <v>0.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU119" t="n">
         <v>2.23</v>
@@ -24854,10 +24854,10 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU120" t="n">
         <v>1.59</v>
@@ -25057,10 +25057,10 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU121" t="n">
         <v>1.1</v>
@@ -25260,7 +25260,7 @@
         <v>1.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT122" t="n">
         <v>1.14</v>
@@ -25466,7 +25466,7 @@
         <v>1.93</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU123" t="n">
         <v>1.47</v>
@@ -25872,7 +25872,7 @@
         <v>2.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU125" t="n">
         <v>2.38</v>
@@ -26072,7 +26072,7 @@
         <v>0.33</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT126" t="n">
         <v>0.46</v>
@@ -26478,10 +26478,10 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU128" t="n">
         <v>2.22</v>
@@ -27087,10 +27087,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU131" t="n">
         <v>1.43</v>
@@ -27290,10 +27290,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -27493,7 +27493,7 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT133" t="n">
         <v>2.43</v>
@@ -27699,7 +27699,7 @@
         <v>1.64</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -28102,7 +28102,7 @@
         <v>0.6</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT136" t="n">
         <v>0.71</v>
@@ -28308,7 +28308,7 @@
         <v>2.14</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -28508,10 +28508,10 @@
         <v>0.57</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU138" t="n">
         <v>2.18</v>
@@ -28711,10 +28711,10 @@
         <v>0.86</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -28914,7 +28914,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT140" t="n">
         <v>0.64</v>
@@ -29120,7 +29120,7 @@
         <v>2.14</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU141" t="n">
         <v>1.99</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT142" t="n">
         <v>0.71</v>
@@ -29526,7 +29526,7 @@
         <v>2.31</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU143" t="n">
         <v>2.44</v>
@@ -29726,7 +29726,7 @@
         <v>1.43</v>
       </c>
       <c r="AS144" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT144" t="n">
         <v>1.14</v>
@@ -30132,10 +30132,10 @@
         <v>0.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU146" t="n">
         <v>2.04</v>
@@ -30338,7 +30338,7 @@
         <v>1.57</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU147" t="n">
         <v>1.77</v>
@@ -30541,7 +30541,7 @@
         <v>1.93</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -30944,10 +30944,10 @@
         <v>0.29</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU150" t="n">
         <v>1.51</v>
@@ -31350,10 +31350,10 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT152" t="n">
         <v>1.21</v>
-      </c>
-      <c r="AT152" t="n">
-        <v>1.31</v>
       </c>
       <c r="AU152" t="n">
         <v>1.62</v>
@@ -31556,7 +31556,7 @@
         <v>1.64</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -31756,7 +31756,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT154" t="n">
         <v>0.46</v>
@@ -31959,7 +31959,7 @@
         <v>0.71</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT155" t="n">
         <v>0.57</v>
@@ -32568,10 +32568,10 @@
         <v>0.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU158" t="n">
         <v>1.55</v>
@@ -32774,7 +32774,7 @@
         <v>2.31</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU159" t="n">
         <v>2.38</v>
@@ -32977,7 +32977,7 @@
         <v>1.21</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU160" t="n">
         <v>1.32</v>
@@ -33177,10 +33177,10 @@
         <v>0.57</v>
       </c>
       <c r="AS161" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -33380,7 +33380,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT162" t="n">
         <v>0.64</v>
@@ -33586,7 +33586,7 @@
         <v>1.57</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU163" t="n">
         <v>1.79</v>
@@ -33786,7 +33786,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT164" t="n">
         <v>0.71</v>
@@ -33989,7 +33989,7 @@
         <v>2.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT165" t="n">
         <v>2.43</v>
@@ -34195,7 +34195,7 @@
         <v>2.14</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU166" t="n">
         <v>1.98</v>
@@ -34395,7 +34395,7 @@
         <v>1.25</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT167" t="n">
         <v>1.14</v>
@@ -34601,7 +34601,7 @@
         <v>1.93</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34804,7 +34804,7 @@
         <v>0.92</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU169" t="n">
         <v>1.35</v>
@@ -35004,7 +35004,7 @@
         <v>1.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT170" t="n">
         <v>1.62</v>
@@ -35207,7 +35207,7 @@
         <v>1.63</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT171" t="n">
         <v>1.58</v>
@@ -36019,10 +36019,10 @@
         <v>1.5</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU175" t="n">
         <v>1.46</v>
@@ -36225,7 +36225,7 @@
         <v>1.64</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU176" t="n">
         <v>1.47</v>
@@ -36425,7 +36425,7 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT177" t="n">
         <v>1.93</v>
@@ -36834,7 +36834,7 @@
         <v>1.64</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU179" t="n">
         <v>1.49</v>
@@ -37237,10 +37237,10 @@
         <v>1</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU181" t="n">
         <v>1.47</v>
@@ -37440,10 +37440,10 @@
         <v>0.67</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU182" t="n">
         <v>1.5</v>
@@ -37643,10 +37643,10 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -38252,7 +38252,7 @@
         <v>1.13</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT186" t="n">
         <v>0.71</v>
@@ -38455,10 +38455,10 @@
         <v>1.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU187" t="n">
         <v>2.08</v>
@@ -38861,10 +38861,10 @@
         <v>1.78</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU189" t="n">
         <v>1.54</v>
@@ -39064,10 +39064,10 @@
         <v>1.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU190" t="n">
         <v>2.24</v>
@@ -39470,7 +39470,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT192" t="n">
         <v>0.46</v>
@@ -39676,7 +39676,7 @@
         <v>0.71</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU193" t="n">
         <v>1.6</v>
@@ -39876,7 +39876,7 @@
         <v>0.78</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT194" t="n">
         <v>0.64</v>
@@ -40282,7 +40282,7 @@
         <v>1.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT196" t="n">
         <v>1.62</v>
@@ -40485,10 +40485,10 @@
         <v>0.67</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU197" t="n">
         <v>2.22</v>
@@ -40691,7 +40691,7 @@
         <v>1.31</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU198" t="n">
         <v>1.59</v>
@@ -40891,10 +40891,10 @@
         <v>1.7</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU199" t="n">
         <v>2.35</v>
@@ -41097,7 +41097,7 @@
         <v>1.57</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU200" t="n">
         <v>1.66</v>
@@ -41297,10 +41297,10 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU201" t="n">
         <v>1.54</v>
@@ -41500,7 +41500,7 @@
         <v>2.5</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT202" t="n">
         <v>2.43</v>
@@ -41706,7 +41706,7 @@
         <v>1.21</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU203" t="n">
         <v>1.35</v>
@@ -41906,7 +41906,7 @@
         <v>0.5</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT204" t="n">
         <v>0.57</v>
@@ -42315,7 +42315,7 @@
         <v>1.93</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU206" t="n">
         <v>1.45</v>
@@ -42518,7 +42518,7 @@
         <v>1.64</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU207" t="n">
         <v>1.48</v>
@@ -42718,7 +42718,7 @@
         <v>0.5</v>
       </c>
       <c r="AS208" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT208" t="n">
         <v>0.46</v>
@@ -42921,10 +42921,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU209" t="n">
         <v>1.47</v>
@@ -43330,7 +43330,7 @@
         <v>2.31</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU211" t="n">
         <v>1.86</v>
@@ -43530,7 +43530,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT212" t="n">
         <v>1.14</v>
@@ -43936,7 +43936,7 @@
         <v>1.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT214" t="n">
         <v>1.58</v>
@@ -44139,10 +44139,10 @@
         <v>1.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU215" t="n">
         <v>2.38</v>
@@ -44345,7 +44345,7 @@
         <v>0.92</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU216" t="n">
         <v>1.35</v>
@@ -44548,7 +44548,7 @@
         <v>0.71</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU217" t="n">
         <v>1.59</v>
@@ -44748,7 +44748,7 @@
         <v>1.7</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT218" t="n">
         <v>1.62</v>
@@ -44954,7 +44954,7 @@
         <v>1.31</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU219" t="n">
         <v>1.6</v>
@@ -45154,10 +45154,10 @@
         <v>1.1</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU220" t="n">
         <v>2.2</v>
@@ -45560,7 +45560,7 @@
         <v>1.7</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT222" t="n">
         <v>1.93</v>
@@ -45966,10 +45966,10 @@
         <v>1.27</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU224" t="n">
         <v>1.92</v>
@@ -46169,10 +46169,10 @@
         <v>0.55</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU225" t="n">
         <v>1.48</v>
@@ -46372,7 +46372,7 @@
         <v>1.82</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT226" t="n">
         <v>1.93</v>
@@ -46778,10 +46778,10 @@
         <v>0.82</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU228" t="n">
         <v>1.52</v>
@@ -47184,10 +47184,10 @@
         <v>0.8</v>
       </c>
       <c r="AS230" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU230" t="n">
         <v>2.02</v>
@@ -47390,7 +47390,7 @@
         <v>2.31</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU231" t="n">
         <v>1.93</v>
@@ -47796,7 +47796,7 @@
         <v>1.57</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU233" t="n">
         <v>1.64</v>
@@ -47996,7 +47996,7 @@
         <v>0.55</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT234" t="n">
         <v>0.46</v>
@@ -48199,10 +48199,10 @@
         <v>1</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU235" t="n">
         <v>1.51</v>
@@ -48405,7 +48405,7 @@
         <v>1.31</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU236" t="n">
         <v>1.63</v>
@@ -48808,7 +48808,7 @@
         <v>1.75</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT238" t="n">
         <v>1.93</v>
@@ -49011,10 +49011,10 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU239" t="n">
         <v>1.42</v>
@@ -49417,7 +49417,7 @@
         <v>0.64</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT241" t="n">
         <v>0.64</v>
@@ -49623,7 +49623,7 @@
         <v>2.31</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU242" t="n">
         <v>2.23</v>
@@ -49823,7 +49823,7 @@
         <v>1.64</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT243" t="n">
         <v>1.62</v>
@@ -50026,7 +50026,7 @@
         <v>0.5</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT244" t="n">
         <v>0.46</v>
@@ -50229,7 +50229,7 @@
         <v>0.67</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT245" t="n">
         <v>0.57</v>
@@ -50435,7 +50435,7 @@
         <v>1.21</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU246" t="n">
         <v>1.38</v>
@@ -50635,10 +50635,10 @@
         <v>0.5</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU247" t="n">
         <v>1.52</v>
@@ -51044,7 +51044,7 @@
         <v>0.71</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU249" t="n">
         <v>1.6</v>
@@ -51244,7 +51244,7 @@
         <v>0.58</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT250" t="n">
         <v>0.64</v>
@@ -51450,7 +51450,7 @@
         <v>2.31</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU251" t="n">
         <v>2.2</v>
@@ -51653,7 +51653,7 @@
         <v>1.93</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU252" t="n">
         <v>1.49</v>
@@ -51853,10 +51853,10 @@
         <v>1</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU253" t="n">
         <v>1.24</v>
@@ -52665,10 +52665,10 @@
         <v>1.09</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU257" t="n">
         <v>1.55</v>
@@ -52868,7 +52868,7 @@
         <v>1.85</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT258" t="n">
         <v>1.93</v>
@@ -53071,10 +53071,10 @@
         <v>1.17</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU259" t="n">
         <v>1.61</v>
@@ -53480,7 +53480,7 @@
         <v>2.31</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU261" t="n">
         <v>1.8</v>
@@ -53680,10 +53680,10 @@
         <v>0.77</v>
       </c>
       <c r="AS262" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU262" t="n">
         <v>1.98</v>
@@ -53883,7 +53883,7 @@
         <v>0.83</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT263" t="n">
         <v>0.71</v>
@@ -54089,7 +54089,7 @@
         <v>0.71</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU264" t="n">
         <v>1.56</v>
@@ -54289,7 +54289,7 @@
         <v>1.5</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT265" t="n">
         <v>1.62</v>
@@ -54698,7 +54698,7 @@
         <v>1.93</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU267" t="n">
         <v>1.52</v>
@@ -54901,7 +54901,7 @@
         <v>1.21</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU268" t="n">
         <v>1.36</v>
@@ -55104,7 +55104,7 @@
         <v>0.71</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU269" t="n">
         <v>1.51</v>
@@ -55304,7 +55304,7 @@
         <v>0.62</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT270" t="n">
         <v>0.64</v>
@@ -55507,7 +55507,7 @@
         <v>0.77</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT271" t="n">
         <v>0.71</v>
@@ -55562,6 +55562,2036 @@
       </c>
       <c r="BK271" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2782326</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45017.35416666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>29</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>4</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>5</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['27', '46', '53', '74']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>7</v>
+      </c>
+      <c r="R272" t="n">
+        <v>1</v>
+      </c>
+      <c r="S272" t="n">
+        <v>8</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V272" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2782320</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F273" t="n">
+        <v>29</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['50', '79']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>4</v>
+      </c>
+      <c r="R273" t="n">
+        <v>3</v>
+      </c>
+      <c r="S273" t="n">
+        <v>7</v>
+      </c>
+      <c r="T273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2782321</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>29</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>4</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="n">
+        <v>5</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['35', '47', '55', '84']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>4</v>
+      </c>
+      <c r="R274" t="n">
+        <v>3</v>
+      </c>
+      <c r="S274" t="n">
+        <v>7</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V274" t="n">
+        <v>8</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X274" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2782322</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F275" t="n">
+        <v>29</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>2</v>
+      </c>
+      <c r="J275" t="n">
+        <v>2</v>
+      </c>
+      <c r="K275" t="n">
+        <v>4</v>
+      </c>
+      <c r="L275" t="n">
+        <v>3</v>
+      </c>
+      <c r="M275" t="n">
+        <v>3</v>
+      </c>
+      <c r="N275" t="n">
+        <v>6</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['21', '28', '90']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['10', '22', '49']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>14</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
+      <c r="S275" t="n">
+        <v>14</v>
+      </c>
+      <c r="T275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V275" t="n">
+        <v>5</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X275" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>16</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2782324</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F276" t="n">
+        <v>29</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="n">
+        <v>3</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['59', '90+4']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>10</v>
+      </c>
+      <c r="R276" t="n">
+        <v>1</v>
+      </c>
+      <c r="S276" t="n">
+        <v>11</v>
+      </c>
+      <c r="T276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2782328</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F277" t="n">
+        <v>29</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>2</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>4</v>
+      </c>
+      <c r="R277" t="n">
+        <v>3</v>
+      </c>
+      <c r="S277" t="n">
+        <v>7</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2782323</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45017.5625</v>
+      </c>
+      <c r="F278" t="n">
+        <v>29</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>2</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['18', '56']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>13</v>
+      </c>
+      <c r="R278" t="n">
+        <v>2</v>
+      </c>
+      <c r="S278" t="n">
+        <v>15</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V278" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X278" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2782329</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F279" t="n">
+        <v>29</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>5</v>
+      </c>
+      <c r="R279" t="n">
+        <v>3</v>
+      </c>
+      <c r="S279" t="n">
+        <v>8</v>
+      </c>
+      <c r="T279" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V279" t="n">
+        <v>5</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2782327</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45018.52083333334</v>
+      </c>
+      <c r="F280" t="n">
+        <v>29</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>2</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>2</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['65', '88']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>7</v>
+      </c>
+      <c r="R280" t="n">
+        <v>4</v>
+      </c>
+      <c r="S280" t="n">
+        <v>11</v>
+      </c>
+      <c r="T280" t="n">
+        <v>3</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V280" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2782325</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45019.66666666666</v>
+      </c>
+      <c r="F281" t="n">
+        <v>29</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="n">
+        <v>2</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>3</v>
+      </c>
+      <c r="R281" t="n">
+        <v>3</v>
+      </c>
+      <c r="S281" t="n">
+        <v>6</v>
+      </c>
+      <c r="T281" t="n">
+        <v>4</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V281" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.57</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT5" t="n">
         <v>0.73</v>
@@ -1715,7 +1715,7 @@
         <v>2.07</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT11" t="n">
         <v>1.93</v>
@@ -3339,7 +3339,7 @@
         <v>1.71</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -5166,7 +5166,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU23" t="n">
         <v>1.35</v>
@@ -5369,7 +5369,7 @@
         <v>1.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU24" t="n">
         <v>1.26</v>
@@ -5572,7 +5572,7 @@
         <v>1.57</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU25" t="n">
         <v>1.23</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT26" t="n">
         <v>0.87</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT27" t="n">
         <v>2.43</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT28" t="n">
         <v>1.14</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU29" t="n">
         <v>0.72</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU31" t="n">
         <v>2.01</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT34" t="n">
         <v>0.87</v>
@@ -8617,7 +8617,7 @@
         <v>1.21</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU40" t="n">
         <v>0.87</v>
@@ -9023,7 +9023,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -9226,7 +9226,7 @@
         <v>1.57</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT45" t="n">
         <v>0.64</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT46" t="n">
         <v>0.73</v>
@@ -10038,7 +10038,7 @@
         <v>2.53</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU47" t="n">
         <v>2.47</v>
@@ -10241,7 +10241,7 @@
         <v>2.64</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU48" t="n">
         <v>2.4</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
         <v>1.33</v>
@@ -10647,7 +10647,7 @@
         <v>2.31</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU50" t="n">
         <v>2.69</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT51" t="n">
         <v>1.43</v>
@@ -11053,7 +11053,7 @@
         <v>1.2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT54" t="n">
         <v>0.46</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT61" t="n">
         <v>2.43</v>
@@ -14707,7 +14707,7 @@
         <v>1.57</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU70" t="n">
         <v>1.57</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU72" t="n">
         <v>0.84</v>
@@ -15316,7 +15316,7 @@
         <v>2.31</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU73" t="n">
         <v>2.7</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT75" t="n">
         <v>0.73</v>
@@ -16125,10 +16125,10 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT79" t="n">
         <v>0.87</v>
@@ -16940,7 +16940,7 @@
         <v>2.07</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU81" t="n">
         <v>2.41</v>
@@ -17140,7 +17140,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT82" t="n">
         <v>0.73</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT84" t="n">
         <v>1.21</v>
@@ -17955,7 +17955,7 @@
         <v>2.53</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU86" t="n">
         <v>2.59</v>
@@ -18361,7 +18361,7 @@
         <v>1.4</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU88" t="n">
         <v>1.53</v>
@@ -18564,7 +18564,7 @@
         <v>1.93</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT90" t="n">
         <v>0.71</v>
@@ -19173,7 +19173,7 @@
         <v>1.21</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU92" t="n">
         <v>1.04</v>
@@ -19779,7 +19779,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT95" t="n">
         <v>2.43</v>
@@ -20185,10 +20185,10 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -20594,7 +20594,7 @@
         <v>1.71</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU99" t="n">
         <v>1.97</v>
@@ -20997,7 +20997,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT101" t="n">
         <v>0.87</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT105" t="n">
         <v>1.33</v>
@@ -22015,7 +22015,7 @@
         <v>1.57</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU106" t="n">
         <v>1.51</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT107" t="n">
         <v>0.6</v>
@@ -22421,7 +22421,7 @@
         <v>1.4</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22827,7 +22827,7 @@
         <v>2.64</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU110" t="n">
         <v>2.41</v>
@@ -23027,7 +23027,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT111" t="n">
         <v>1.43</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT114" t="n">
         <v>1.21</v>
@@ -23842,7 +23842,7 @@
         <v>1.64</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU115" t="n">
         <v>1.42</v>
@@ -24045,7 +24045,7 @@
         <v>2.14</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT117" t="n">
         <v>0.57</v>
@@ -24448,7 +24448,7 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT118" t="n">
         <v>1.93</v>
@@ -24654,7 +24654,7 @@
         <v>2.07</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU119" t="n">
         <v>2.23</v>
@@ -25057,7 +25057,7 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT121" t="n">
         <v>1.33</v>
@@ -26075,7 +26075,7 @@
         <v>2.53</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU126" t="n">
         <v>2.4</v>
@@ -26275,7 +26275,7 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT127" t="n">
         <v>0.46</v>
@@ -26681,7 +26681,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT129" t="n">
         <v>0.57</v>
@@ -26887,7 +26887,7 @@
         <v>1.21</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU130" t="n">
         <v>1.32</v>
@@ -27090,7 +27090,7 @@
         <v>1.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU131" t="n">
         <v>1.43</v>
@@ -27493,7 +27493,7 @@
         <v>2.17</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT133" t="n">
         <v>2.43</v>
@@ -27902,7 +27902,7 @@
         <v>0.71</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28102,7 +28102,7 @@
         <v>0.6</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT136" t="n">
         <v>0.71</v>
@@ -28308,7 +28308,7 @@
         <v>2.14</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -28511,7 +28511,7 @@
         <v>2.64</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU138" t="n">
         <v>2.18</v>
@@ -28711,7 +28711,7 @@
         <v>0.86</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT139" t="n">
         <v>0.87</v>
@@ -28914,7 +28914,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT140" t="n">
         <v>0.64</v>
@@ -30135,7 +30135,7 @@
         <v>1.71</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU146" t="n">
         <v>2.04</v>
@@ -30741,10 +30741,10 @@
         <v>1.71</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU149" t="n">
         <v>1.38</v>
@@ -31150,7 +31150,7 @@
         <v>0.71</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU151" t="n">
         <v>1.7</v>
@@ -31556,7 +31556,7 @@
         <v>1.64</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -31959,7 +31959,7 @@
         <v>0.71</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT155" t="n">
         <v>0.57</v>
@@ -32162,10 +32162,10 @@
         <v>0.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU156" t="n">
         <v>1.92</v>
@@ -32365,7 +32365,7 @@
         <v>1.83</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT157" t="n">
         <v>1.93</v>
@@ -32568,10 +32568,10 @@
         <v>0.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU158" t="n">
         <v>1.55</v>
@@ -33786,7 +33786,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT164" t="n">
         <v>0.71</v>
@@ -34195,7 +34195,7 @@
         <v>2.14</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU166" t="n">
         <v>1.98</v>
@@ -34601,7 +34601,7 @@
         <v>1.93</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34801,7 +34801,7 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT169" t="n">
         <v>1.21</v>
@@ -35007,7 +35007,7 @@
         <v>2.53</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU170" t="n">
         <v>2.4</v>
@@ -35210,7 +35210,7 @@
         <v>1.2</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU171" t="n">
         <v>1.52</v>
@@ -35410,7 +35410,7 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT172" t="n">
         <v>0.57</v>
@@ -35616,7 +35616,7 @@
         <v>0.71</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU173" t="n">
         <v>1.68</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT174" t="n">
         <v>0.46</v>
@@ -36425,7 +36425,7 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT177" t="n">
         <v>1.93</v>
@@ -37034,7 +37034,7 @@
         <v>2.13</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT180" t="n">
         <v>1.93</v>
@@ -37646,7 +37646,7 @@
         <v>1.71</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -38252,7 +38252,7 @@
         <v>1.13</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT186" t="n">
         <v>0.71</v>
@@ -39470,10 +39470,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU192" t="n">
         <v>1.16</v>
@@ -39676,7 +39676,7 @@
         <v>0.71</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU193" t="n">
         <v>1.6</v>
@@ -39876,7 +39876,7 @@
         <v>0.78</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT194" t="n">
         <v>0.64</v>
@@ -40079,10 +40079,10 @@
         <v>1.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU195" t="n">
         <v>1.4</v>
@@ -40285,7 +40285,7 @@
         <v>1.33</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU196" t="n">
         <v>1.53</v>
@@ -40688,10 +40688,10 @@
         <v>1.11</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU198" t="n">
         <v>1.59</v>
@@ -41297,7 +41297,7 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT201" t="n">
         <v>1.21</v>
@@ -41706,7 +41706,7 @@
         <v>1.21</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU203" t="n">
         <v>1.35</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT205" t="n">
         <v>0.71</v>
@@ -43327,7 +43327,7 @@
         <v>0.5</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT211" t="n">
         <v>0.6</v>
@@ -43530,7 +43530,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT212" t="n">
         <v>1.14</v>
@@ -43736,7 +43736,7 @@
         <v>1.57</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU213" t="n">
         <v>1.63</v>
@@ -43939,7 +43939,7 @@
         <v>1.33</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44142,7 +44142,7 @@
         <v>2.53</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU215" t="n">
         <v>2.38</v>
@@ -44342,7 +44342,7 @@
         <v>1.64</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT216" t="n">
         <v>1.33</v>
@@ -44748,10 +44748,10 @@
         <v>1.7</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU218" t="n">
         <v>1.2</v>
@@ -44951,7 +44951,7 @@
         <v>1.55</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT219" t="n">
         <v>1.43</v>
@@ -45157,7 +45157,7 @@
         <v>2.64</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU220" t="n">
         <v>2.2</v>
@@ -46778,7 +46778,7 @@
         <v>0.82</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT228" t="n">
         <v>0.87</v>
@@ -47187,7 +47187,7 @@
         <v>2.07</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU230" t="n">
         <v>2.02</v>
@@ -47387,7 +47387,7 @@
         <v>1.09</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT231" t="n">
         <v>0.87</v>
@@ -47996,10 +47996,10 @@
         <v>0.55</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU234" t="n">
         <v>1.57</v>
@@ -48202,7 +48202,7 @@
         <v>1.2</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU235" t="n">
         <v>1.51</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT236" t="n">
         <v>0.87</v>
@@ -48605,7 +48605,7 @@
         <v>2.33</v>
       </c>
       <c r="AS237" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT237" t="n">
         <v>2.43</v>
@@ -48808,7 +48808,7 @@
         <v>1.75</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT238" t="n">
         <v>1.93</v>
@@ -49014,7 +49014,7 @@
         <v>1.33</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU239" t="n">
         <v>1.42</v>
@@ -49826,7 +49826,7 @@
         <v>2.64</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU243" t="n">
         <v>2.21</v>
@@ -50635,7 +50635,7 @@
         <v>0.5</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT247" t="n">
         <v>0.6</v>
@@ -51853,10 +51853,10 @@
         <v>1</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU253" t="n">
         <v>1.24</v>
@@ -52056,10 +52056,10 @@
         <v>1.64</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU254" t="n">
         <v>1.64</v>
@@ -52259,7 +52259,7 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT255" t="n">
         <v>1.14</v>
@@ -52465,7 +52465,7 @@
         <v>2.14</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU256" t="n">
         <v>1.77</v>
@@ -52668,7 +52668,7 @@
         <v>1.2</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU257" t="n">
         <v>1.55</v>
@@ -53071,10 +53071,10 @@
         <v>1.17</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU259" t="n">
         <v>1.61</v>
@@ -53477,7 +53477,7 @@
         <v>0.92</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT261" t="n">
         <v>0.87</v>
@@ -54089,7 +54089,7 @@
         <v>0.71</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU264" t="n">
         <v>1.56</v>
@@ -54292,7 +54292,7 @@
         <v>1.4</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU265" t="n">
         <v>1.32</v>
@@ -55304,7 +55304,7 @@
         <v>0.62</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT270" t="n">
         <v>0.64</v>
@@ -55713,7 +55713,7 @@
         <v>2.64</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU272" t="n">
         <v>2.13</v>
@@ -55913,7 +55913,7 @@
         <v>1.31</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT273" t="n">
         <v>1.21</v>
@@ -56322,7 +56322,7 @@
         <v>1.71</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU275" t="n">
         <v>1.94</v>
@@ -56928,10 +56928,10 @@
         <v>1.15</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU278" t="n">
         <v>1.54</v>
@@ -57131,7 +57131,7 @@
         <v>0.93</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT279" t="n">
         <v>0.87</v>
@@ -57592,6 +57592,1224 @@
       </c>
       <c r="BK281" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2782106</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45020.65625</v>
+      </c>
+      <c r="F282" t="n">
+        <v>7</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>2</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="n">
+        <v>3</v>
+      </c>
+      <c r="L282" t="n">
+        <v>2</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>3</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['20', '45+1']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>11</v>
+      </c>
+      <c r="R282" t="n">
+        <v>4</v>
+      </c>
+      <c r="S282" t="n">
+        <v>15</v>
+      </c>
+      <c r="T282" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V282" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2782099</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45020.65625</v>
+      </c>
+      <c r="F283" t="n">
+        <v>7</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" t="n">
+        <v>2</v>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="n">
+        <v>2</v>
+      </c>
+      <c r="N283" t="n">
+        <v>3</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['24', '87']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>4</v>
+      </c>
+      <c r="R283" t="n">
+        <v>8</v>
+      </c>
+      <c r="S283" t="n">
+        <v>12</v>
+      </c>
+      <c r="T283" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V283" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X283" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2782098</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45020.65625</v>
+      </c>
+      <c r="F284" t="n">
+        <v>7</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>2</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['27', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>5</v>
+      </c>
+      <c r="R284" t="n">
+        <v>5</v>
+      </c>
+      <c r="S284" t="n">
+        <v>10</v>
+      </c>
+      <c r="T284" t="n">
+        <v>5</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V284" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2782116</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45020.66666666666</v>
+      </c>
+      <c r="F285" t="n">
+        <v>8</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>3</v>
+      </c>
+      <c r="R285" t="n">
+        <v>5</v>
+      </c>
+      <c r="S285" t="n">
+        <v>8</v>
+      </c>
+      <c r="T285" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V285" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X285" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2782290</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45021.66666666666</v>
+      </c>
+      <c r="F286" t="n">
+        <v>25</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>1</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>12</v>
+      </c>
+      <c r="R286" t="n">
+        <v>3</v>
+      </c>
+      <c r="S286" t="n">
+        <v>15</v>
+      </c>
+      <c r="T286" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V286" t="n">
+        <v>5</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X286" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2782104</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45021.66666666666</v>
+      </c>
+      <c r="F287" t="n">
+        <v>7</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>2</v>
+      </c>
+      <c r="K287" t="n">
+        <v>3</v>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="n">
+        <v>5</v>
+      </c>
+      <c r="N287" t="n">
+        <v>6</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['6', '13', '46', '82', '90']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>7</v>
+      </c>
+      <c r="R287" t="n">
+        <v>6</v>
+      </c>
+      <c r="S287" t="n">
+        <v>13</v>
+      </c>
+      <c r="T287" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X287" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK287"/>
+  <dimension ref="A1:BK295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT3" t="n">
         <v>0.87</v>
@@ -1715,7 +1715,7 @@
         <v>2.07</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.87</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT9" t="n">
         <v>1.07</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.71</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.64</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT16" t="n">
         <v>0.6</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
         <v>1.21</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT18" t="n">
         <v>1.43</v>
@@ -4354,7 +4354,7 @@
         <v>1.4</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT22" t="n">
         <v>0.73</v>
@@ -5369,7 +5369,7 @@
         <v>1.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU24" t="n">
         <v>1.26</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT25" t="n">
         <v>1.07</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT26" t="n">
         <v>0.87</v>
@@ -6181,7 +6181,7 @@
         <v>1.43</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU28" t="n">
         <v>1.51</v>
@@ -6384,7 +6384,7 @@
         <v>1.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU29" t="n">
         <v>0.72</v>
@@ -6587,7 +6587,7 @@
         <v>2.07</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>2.93</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT31" t="n">
         <v>0.87</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT32" t="n">
         <v>1.43</v>
@@ -7196,7 +7196,7 @@
         <v>2.31</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU33" t="n">
         <v>2.56</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU36" t="n">
         <v>1.74</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU39" t="n">
         <v>1.64</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU40" t="n">
         <v>0.87</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT43" t="n">
         <v>1.57</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>1.69</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU44" t="n">
         <v>1.87</v>
@@ -9632,7 +9632,7 @@
         <v>1.43</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU45" t="n">
         <v>1.59</v>
@@ -10241,7 +10241,7 @@
         <v>2.64</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU48" t="n">
         <v>2.4</v>
@@ -10647,7 +10647,7 @@
         <v>2.31</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU50" t="n">
         <v>2.69</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT51" t="n">
         <v>1.43</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT53" t="n">
         <v>0.87</v>
@@ -11459,7 +11459,7 @@
         <v>1.53</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT55" t="n">
         <v>1.21</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT57" t="n">
         <v>0.6</v>
@@ -12271,7 +12271,7 @@
         <v>1.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU58" t="n">
         <v>1.78</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT61" t="n">
         <v>2.43</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT63" t="n">
         <v>0.87</v>
@@ -13486,10 +13486,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.11</v>
@@ -13692,7 +13692,7 @@
         <v>2.07</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU65" t="n">
         <v>2.35</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT66" t="n">
         <v>0.87</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT67" t="n">
         <v>2.43</v>
@@ -14301,7 +14301,7 @@
         <v>1.2</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14704,10 +14704,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU70" t="n">
         <v>1.57</v>
@@ -14910,7 +14910,7 @@
         <v>1.33</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU71" t="n">
         <v>1.74</v>
@@ -15316,7 +15316,7 @@
         <v>2.31</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU73" t="n">
         <v>2.7</v>
@@ -15516,10 +15516,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -18561,10 +18561,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU89" t="n">
         <v>1.63</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT90" t="n">
         <v>0.71</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU91" t="n">
         <v>1.34</v>
@@ -19170,10 +19170,10 @@
         <v>0.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU92" t="n">
         <v>1.04</v>
@@ -19373,10 +19373,10 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU93" t="n">
         <v>1.92</v>
@@ -19576,10 +19576,10 @@
         <v>1.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -19982,10 +19982,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU96" t="n">
         <v>1.84</v>
@@ -20185,10 +20185,10 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -20391,7 +20391,7 @@
         <v>2.31</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU98" t="n">
         <v>2.65</v>
@@ -20594,7 +20594,7 @@
         <v>1.71</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU99" t="n">
         <v>1.97</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU102" t="n">
         <v>1.5</v>
@@ -21406,7 +21406,7 @@
         <v>2.07</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU103" t="n">
         <v>2.32</v>
@@ -21609,7 +21609,7 @@
         <v>2.31</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU104" t="n">
         <v>2.4</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT105" t="n">
         <v>1.33</v>
@@ -22012,7 +22012,7 @@
         <v>0.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT106" t="n">
         <v>1.4</v>
@@ -22215,7 +22215,7 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT107" t="n">
         <v>0.6</v>
@@ -22827,7 +22827,7 @@
         <v>2.64</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU110" t="n">
         <v>2.41</v>
@@ -23230,7 +23230,7 @@
         <v>0</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT112" t="n">
         <v>0.87</v>
@@ -23433,7 +23433,7 @@
         <v>2.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT113" t="n">
         <v>2.43</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT115" t="n">
         <v>1.07</v>
@@ -24042,10 +24042,10 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU116" t="n">
         <v>2.02</v>
@@ -24248,7 +24248,7 @@
         <v>1.4</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU117" t="n">
         <v>1.49</v>
@@ -24448,10 +24448,10 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU118" t="n">
         <v>1.4</v>
@@ -25263,7 +25263,7 @@
         <v>1.71</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU122" t="n">
         <v>2.02</v>
@@ -25463,7 +25463,7 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT123" t="n">
         <v>0.73</v>
@@ -25666,10 +25666,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -26075,7 +26075,7 @@
         <v>2.53</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU126" t="n">
         <v>2.4</v>
@@ -26275,10 +26275,10 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU127" t="n">
         <v>1.96</v>
@@ -26684,7 +26684,7 @@
         <v>1.43</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU129" t="n">
         <v>1.61</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU130" t="n">
         <v>1.32</v>
@@ -27696,7 +27696,7 @@
         <v>1.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT134" t="n">
         <v>1.43</v>
@@ -27899,10 +27899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28305,7 +28305,7 @@
         <v>0.4</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT137" t="n">
         <v>0.87</v>
@@ -28917,7 +28917,7 @@
         <v>1.27</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU140" t="n">
         <v>1.09</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT141" t="n">
         <v>0.6</v>
@@ -29729,7 +29729,7 @@
         <v>2.07</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU144" t="n">
         <v>2.23</v>
@@ -29929,7 +29929,7 @@
         <v>2.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT145" t="n">
         <v>2.43</v>
@@ -30335,7 +30335,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT147" t="n">
         <v>1.43</v>
@@ -30538,7 +30538,7 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT148" t="n">
         <v>1.33</v>
@@ -30741,10 +30741,10 @@
         <v>1.71</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU149" t="n">
         <v>1.38</v>
@@ -31147,10 +31147,10 @@
         <v>1.43</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU151" t="n">
         <v>1.7</v>
@@ -31553,7 +31553,7 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT153" t="n">
         <v>0.87</v>
@@ -31759,7 +31759,7 @@
         <v>2.53</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU154" t="n">
         <v>2.46</v>
@@ -31962,7 +31962,7 @@
         <v>1.53</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,10 +32162,10 @@
         <v>0.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU156" t="n">
         <v>1.92</v>
@@ -32368,7 +32368,7 @@
         <v>1.43</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -32974,7 +32974,7 @@
         <v>1.63</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT160" t="n">
         <v>1.43</v>
@@ -33383,7 +33383,7 @@
         <v>2.64</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU162" t="n">
         <v>2.29</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT163" t="n">
         <v>0.87</v>
@@ -34192,7 +34192,7 @@
         <v>0.63</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT166" t="n">
         <v>1.4</v>
@@ -34398,7 +34398,7 @@
         <v>1.4</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU167" t="n">
         <v>1.46</v>
@@ -34598,7 +34598,7 @@
         <v>1.14</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT168" t="n">
         <v>0.87</v>
@@ -34801,7 +34801,7 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT169" t="n">
         <v>1.21</v>
@@ -35007,7 +35007,7 @@
         <v>2.53</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU170" t="n">
         <v>2.4</v>
@@ -35210,7 +35210,7 @@
         <v>1.2</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU171" t="n">
         <v>1.52</v>
@@ -35410,10 +35410,10 @@
         <v>0.63</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU172" t="n">
         <v>1.96</v>
@@ -35613,10 +35613,10 @@
         <v>0.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU173" t="n">
         <v>1.68</v>
@@ -35819,7 +35819,7 @@
         <v>1.43</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU174" t="n">
         <v>1.58</v>
@@ -36222,7 +36222,7 @@
         <v>0.63</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT176" t="n">
         <v>0.73</v>
@@ -36428,7 +36428,7 @@
         <v>1.53</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -36628,10 +36628,10 @@
         <v>1.22</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU178" t="n">
         <v>1.71</v>
@@ -36831,7 +36831,7 @@
         <v>0.63</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT179" t="n">
         <v>0.6</v>
@@ -37034,10 +37034,10 @@
         <v>2.13</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU180" t="n">
         <v>1.98</v>
@@ -37846,10 +37846,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU184" t="n">
         <v>1.31</v>
@@ -38049,10 +38049,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU185" t="n">
         <v>1.45</v>
@@ -38658,7 +38658,7 @@
         <v>2.44</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT188" t="n">
         <v>2.43</v>
@@ -39270,7 +39270,7 @@
         <v>2.31</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU191" t="n">
         <v>2.37</v>
@@ -39473,7 +39473,7 @@
         <v>1.27</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU192" t="n">
         <v>1.16</v>
@@ -39673,7 +39673,7 @@
         <v>0.89</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT193" t="n">
         <v>1.4</v>
@@ -39879,7 +39879,7 @@
         <v>1.4</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU194" t="n">
         <v>1.62</v>
@@ -40079,10 +40079,10 @@
         <v>1.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU195" t="n">
         <v>1.4</v>
@@ -40285,7 +40285,7 @@
         <v>1.33</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU196" t="n">
         <v>1.53</v>
@@ -41094,7 +41094,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT200" t="n">
         <v>1.33</v>
@@ -41703,7 +41703,7 @@
         <v>0.89</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT203" t="n">
         <v>0.87</v>
@@ -41909,7 +41909,7 @@
         <v>1.71</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU204" t="n">
         <v>1.86</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT205" t="n">
         <v>0.71</v>
@@ -42312,7 +42312,7 @@
         <v>0.9</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT206" t="n">
         <v>0.87</v>
@@ -42515,7 +42515,7 @@
         <v>0.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT207" t="n">
         <v>0.87</v>
@@ -42721,7 +42721,7 @@
         <v>2.07</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU208" t="n">
         <v>2.09</v>
@@ -43124,10 +43124,10 @@
         <v>1.89</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU210" t="n">
         <v>1.9</v>
@@ -43327,7 +43327,7 @@
         <v>0.5</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT211" t="n">
         <v>0.6</v>
@@ -43533,7 +43533,7 @@
         <v>1.4</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU212" t="n">
         <v>1.6</v>
@@ -43733,10 +43733,10 @@
         <v>0.6</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU213" t="n">
         <v>1.63</v>
@@ -43939,7 +43939,7 @@
         <v>1.33</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44342,7 +44342,7 @@
         <v>1.64</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT216" t="n">
         <v>1.33</v>
@@ -44545,7 +44545,7 @@
         <v>0.6</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT217" t="n">
         <v>0.73</v>
@@ -44751,7 +44751,7 @@
         <v>1.27</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU218" t="n">
         <v>1.2</v>
@@ -45360,7 +45360,7 @@
         <v>2.31</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU221" t="n">
         <v>2.3</v>
@@ -45563,7 +45563,7 @@
         <v>2.53</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU222" t="n">
         <v>2.42</v>
@@ -45763,7 +45763,7 @@
         <v>2.27</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT223" t="n">
         <v>2.43</v>
@@ -46375,7 +46375,7 @@
         <v>1.4</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU226" t="n">
         <v>1.42</v>
@@ -46575,10 +46575,10 @@
         <v>0.45</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU227" t="n">
         <v>1.37</v>
@@ -46981,7 +46981,7 @@
         <v>0.9</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT229" t="n">
         <v>0.71</v>
@@ -47387,7 +47387,7 @@
         <v>1.09</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT231" t="n">
         <v>0.87</v>
@@ -47590,10 +47590,10 @@
         <v>0.55</v>
       </c>
       <c r="AS232" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU232" t="n">
         <v>1.84</v>
@@ -47793,7 +47793,7 @@
         <v>0.82</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT233" t="n">
         <v>0.73</v>
@@ -47999,7 +47999,7 @@
         <v>1.4</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU234" t="n">
         <v>1.57</v>
@@ -48605,7 +48605,7 @@
         <v>2.33</v>
       </c>
       <c r="AS237" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT237" t="n">
         <v>2.43</v>
@@ -48811,7 +48811,7 @@
         <v>1.27</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU238" t="n">
         <v>1.22</v>
@@ -49214,10 +49214,10 @@
         <v>1.08</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU240" t="n">
         <v>1.82</v>
@@ -49420,7 +49420,7 @@
         <v>2.53</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU241" t="n">
         <v>2.31</v>
@@ -49826,7 +49826,7 @@
         <v>2.64</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU243" t="n">
         <v>2.21</v>
@@ -50029,7 +50029,7 @@
         <v>1.71</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU244" t="n">
         <v>1.94</v>
@@ -50232,7 +50232,7 @@
         <v>2.53</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU245" t="n">
         <v>2.28</v>
@@ -50432,7 +50432,7 @@
         <v>1.5</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT246" t="n">
         <v>1.33</v>
@@ -50838,7 +50838,7 @@
         <v>0.91</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT248" t="n">
         <v>0.71</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT249" t="n">
         <v>0.87</v>
@@ -51247,7 +51247,7 @@
         <v>1.4</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU250" t="n">
         <v>1.35</v>
@@ -51650,7 +51650,7 @@
         <v>1.42</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT252" t="n">
         <v>1.21</v>
@@ -52059,7 +52059,7 @@
         <v>1.43</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU254" t="n">
         <v>1.64</v>
@@ -52259,10 +52259,10 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU255" t="n">
         <v>1.34</v>
@@ -52462,10 +52462,10 @@
         <v>0.5</v>
       </c>
       <c r="AS256" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU256" t="n">
         <v>1.77</v>
@@ -52871,7 +52871,7 @@
         <v>1.33</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU258" t="n">
         <v>1.37</v>
@@ -53274,7 +53274,7 @@
         <v>2.38</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT260" t="n">
         <v>2.43</v>
@@ -53477,7 +53477,7 @@
         <v>0.92</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT261" t="n">
         <v>0.87</v>
@@ -54086,7 +54086,7 @@
         <v>1</v>
       </c>
       <c r="AS264" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT264" t="n">
         <v>1.07</v>
@@ -54292,7 +54292,7 @@
         <v>1.4</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU265" t="n">
         <v>1.32</v>
@@ -54492,10 +54492,10 @@
         <v>0.62</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AU266" t="n">
         <v>1.48</v>
@@ -54695,7 +54695,7 @@
         <v>0.92</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT267" t="n">
         <v>0.87</v>
@@ -54898,7 +54898,7 @@
         <v>0.46</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT268" t="n">
         <v>0.6</v>
@@ -55101,7 +55101,7 @@
         <v>1.38</v>
       </c>
       <c r="AS269" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT269" t="n">
         <v>1.33</v>
@@ -55307,7 +55307,7 @@
         <v>1.53</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU270" t="n">
         <v>1.53</v>
@@ -57743,7 +57743,7 @@
         <v>1.43</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU282" t="n">
         <v>1.62</v>
@@ -57943,7 +57943,7 @@
         <v>1.29</v>
       </c>
       <c r="AS283" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT283" t="n">
         <v>1.4</v>
@@ -58149,7 +58149,7 @@
         <v>1.27</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU284" t="n">
         <v>1.24</v>
@@ -58552,7 +58552,7 @@
         <v>1.14</v>
       </c>
       <c r="AS286" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT286" t="n">
         <v>1.07</v>
@@ -58758,7 +58758,7 @@
         <v>1.4</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU287" t="n">
         <v>1.59</v>
@@ -58810,6 +58810,1630 @@
       </c>
       <c r="BK287" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2782336</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45024.35416666666</v>
+      </c>
+      <c r="F288" t="n">
+        <v>30</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>2</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['36', '71']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>10</v>
+      </c>
+      <c r="R288" t="n">
+        <v>4</v>
+      </c>
+      <c r="S288" t="n">
+        <v>14</v>
+      </c>
+      <c r="T288" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V288" t="n">
+        <v>6</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X288" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2782332</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F289" t="n">
+        <v>30</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+      <c r="N289" t="n">
+        <v>1</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>11</v>
+      </c>
+      <c r="R289" t="n">
+        <v>4</v>
+      </c>
+      <c r="S289" t="n">
+        <v>15</v>
+      </c>
+      <c r="T289" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V289" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X289" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2782439</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F290" t="n">
+        <v>30</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>8</v>
+      </c>
+      <c r="R290" t="n">
+        <v>8</v>
+      </c>
+      <c r="S290" t="n">
+        <v>16</v>
+      </c>
+      <c r="T290" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X290" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2782330</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F291" t="n">
+        <v>30</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>2</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['48', '90+5']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>1</v>
+      </c>
+      <c r="R291" t="n">
+        <v>8</v>
+      </c>
+      <c r="S291" t="n">
+        <v>9</v>
+      </c>
+      <c r="T291" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V291" t="n">
+        <v>5</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2782331</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F292" t="n">
+        <v>30</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>2</v>
+      </c>
+      <c r="N292" t="n">
+        <v>3</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['54', '61']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>6</v>
+      </c>
+      <c r="R292" t="n">
+        <v>5</v>
+      </c>
+      <c r="S292" t="n">
+        <v>11</v>
+      </c>
+      <c r="T292" t="n">
+        <v>4</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V292" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2782334</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F293" t="n">
+        <v>30</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>6</v>
+      </c>
+      <c r="R293" t="n">
+        <v>6</v>
+      </c>
+      <c r="S293" t="n">
+        <v>12</v>
+      </c>
+      <c r="T293" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V293" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X293" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2782338</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F294" t="n">
+        <v>30</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2</v>
+      </c>
+      <c r="L294" t="n">
+        <v>2</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+      <c r="N294" t="n">
+        <v>3</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['10', '79']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>3</v>
+      </c>
+      <c r="R294" t="n">
+        <v>7</v>
+      </c>
+      <c r="S294" t="n">
+        <v>10</v>
+      </c>
+      <c r="T294" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V294" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X294" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2782337</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45024.5625</v>
+      </c>
+      <c r="F295" t="n">
+        <v>30</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="n">
+        <v>4</v>
+      </c>
+      <c r="N295" t="n">
+        <v>5</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['45', '58', '68', '75']</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" t="n">
+        <v>10</v>
+      </c>
+      <c r="S295" t="n">
+        <v>10</v>
+      </c>
+      <c r="T295" t="n">
+        <v>7</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="V295" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X295" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK295"/>
+  <dimension ref="A1:BK297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
         <v>0.73</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.27</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU27" t="n">
         <v>0.8</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>1.07</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT33" t="n">
         <v>0.73</v>
@@ -7602,7 +7602,7 @@
         <v>2.64</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU35" t="n">
         <v>2.53</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT45" t="n">
         <v>0.6</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT50" t="n">
         <v>1.8</v>
@@ -11865,7 +11865,7 @@
         <v>2.07</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU56" t="n">
         <v>2.26</v>
@@ -12880,7 +12880,7 @@
         <v>2.4</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.72</v>
@@ -14098,7 +14098,7 @@
         <v>1.8</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU67" t="n">
         <v>1.9</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT73" t="n">
         <v>1.57</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
         <v>1.4</v>
@@ -18767,7 +18767,7 @@
         <v>0.8</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU90" t="n">
         <v>1.44</v>
@@ -19779,10 +19779,10 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.49</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT98" t="n">
         <v>2</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT104" t="n">
         <v>0.64</v>
@@ -22624,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU109" t="n">
         <v>1.5</v>
@@ -23436,7 +23436,7 @@
         <v>0.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU113" t="n">
         <v>1.75</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT114" t="n">
         <v>1.21</v>
@@ -25869,7 +25869,7 @@
         <v>0.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT125" t="n">
         <v>0.6</v>
@@ -26681,7 +26681,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT129" t="n">
         <v>0.73</v>
@@ -27496,7 +27496,7 @@
         <v>1.53</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU133" t="n">
         <v>1.56</v>
@@ -28105,7 +28105,7 @@
         <v>1.4</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU136" t="n">
         <v>1.57</v>
@@ -29323,7 +29323,7 @@
         <v>1.4</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU142" t="n">
         <v>1.53</v>
@@ -29523,7 +29523,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT143" t="n">
         <v>0.87</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU145" t="n">
         <v>1.33</v>
@@ -32365,7 +32365,7 @@
         <v>1.83</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT157" t="n">
         <v>2</v>
@@ -32771,7 +32771,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT159" t="n">
         <v>0.87</v>
@@ -33789,7 +33789,7 @@
         <v>1.27</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU164" t="n">
         <v>1.18</v>
@@ -33992,7 +33992,7 @@
         <v>1.71</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU165" t="n">
         <v>1.92</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT174" t="n">
         <v>0.64</v>
@@ -38255,7 +38255,7 @@
         <v>1.53</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU186" t="n">
         <v>1.44</v>
@@ -38661,7 +38661,7 @@
         <v>2.2</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU188" t="n">
         <v>1.88</v>
@@ -39267,7 +39267,7 @@
         <v>1.1</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT191" t="n">
         <v>1.07</v>
@@ -40688,7 +40688,7 @@
         <v>1.11</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT198" t="n">
         <v>1.07</v>
@@ -41503,7 +41503,7 @@
         <v>1.2</v>
       </c>
       <c r="AT202" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU202" t="n">
         <v>1.47</v>
@@ -42112,7 +42112,7 @@
         <v>2.4</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU205" t="n">
         <v>1.88</v>
@@ -44951,7 +44951,7 @@
         <v>1.55</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT219" t="n">
         <v>1.43</v>
@@ -45357,7 +45357,7 @@
         <v>0.7</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT221" t="n">
         <v>0.6</v>
@@ -45766,7 +45766,7 @@
         <v>1.73</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU223" t="n">
         <v>1.56</v>
@@ -46984,7 +46984,7 @@
         <v>1.8</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU229" t="n">
         <v>1.48</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT236" t="n">
         <v>0.87</v>
@@ -48608,7 +48608,7 @@
         <v>0.8</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU237" t="n">
         <v>1.41</v>
@@ -49620,7 +49620,7 @@
         <v>0.83</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT242" t="n">
         <v>0.73</v>
@@ -50841,7 +50841,7 @@
         <v>1.73</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU248" t="n">
         <v>1.52</v>
@@ -51447,7 +51447,7 @@
         <v>1.67</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT251" t="n">
         <v>1.43</v>
@@ -52056,7 +52056,7 @@
         <v>1.64</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT254" t="n">
         <v>1.57</v>
@@ -53277,7 +53277,7 @@
         <v>1.47</v>
       </c>
       <c r="AT260" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AU260" t="n">
         <v>1.63</v>
@@ -53886,7 +53886,7 @@
         <v>1.71</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU263" t="n">
         <v>1.98</v>
@@ -55510,7 +55510,7 @@
         <v>2.53</v>
       </c>
       <c r="AT271" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU271" t="n">
         <v>2.4</v>
@@ -57740,7 +57740,7 @@
         <v>0.46</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT282" t="n">
         <v>0.4</v>
@@ -60434,6 +60434,412 @@
       </c>
       <c r="BK295" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2782333</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45025.41666666666</v>
+      </c>
+      <c r="F296" t="n">
+        <v>30</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1</v>
+      </c>
+      <c r="K296" t="n">
+        <v>2</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="n">
+        <v>5</v>
+      </c>
+      <c r="N296" t="n">
+        <v>6</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['45+1', '53', '55', '69', '77']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>2</v>
+      </c>
+      <c r="R296" t="n">
+        <v>4</v>
+      </c>
+      <c r="S296" t="n">
+        <v>6</v>
+      </c>
+      <c r="T296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V296" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2782335</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45025.52083333334</v>
+      </c>
+      <c r="F297" t="n">
+        <v>30</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>2</v>
+      </c>
+      <c r="K297" t="n">
+        <v>3</v>
+      </c>
+      <c r="L297" t="n">
+        <v>2</v>
+      </c>
+      <c r="M297" t="n">
+        <v>2</v>
+      </c>
+      <c r="N297" t="n">
+        <v>4</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['42', '87']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['8', '28']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>5</v>
+      </c>
+      <c r="R297" t="n">
+        <v>4</v>
+      </c>
+      <c r="S297" t="n">
+        <v>9</v>
+      </c>
+      <c r="T297" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V297" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X297" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK306"/>
+  <dimension ref="A1:BK307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.47</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT5" t="n">
         <v>0.73</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT28" t="n">
         <v>1.07</v>
@@ -6790,7 +6790,7 @@
         <v>2.4</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>2.01</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT45" t="n">
         <v>0.6</v>
@@ -11053,7 +11053,7 @@
         <v>1.13</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT77" t="n">
         <v>1.4</v>
@@ -17955,7 +17955,7 @@
         <v>2.53</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>2.59</v>
@@ -19779,7 +19779,7 @@
         <v>2.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT95" t="n">
         <v>2.25</v>
@@ -22421,7 +22421,7 @@
         <v>1.31</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT114" t="n">
         <v>1.33</v>
@@ -26681,7 +26681,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT129" t="n">
         <v>0.88</v>
@@ -28308,7 +28308,7 @@
         <v>2.06</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -31556,7 +31556,7 @@
         <v>1.81</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -32365,7 +32365,7 @@
         <v>1.83</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT157" t="n">
         <v>2</v>
@@ -34601,7 +34601,7 @@
         <v>1.8</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT174" t="n">
         <v>0.64</v>
@@ -37646,7 +37646,7 @@
         <v>1.71</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU183" t="n">
         <v>1.86</v>
@@ -40688,7 +40688,7 @@
         <v>1.11</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT198" t="n">
         <v>1</v>
@@ -41706,7 +41706,7 @@
         <v>1.44</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU203" t="n">
         <v>1.35</v>
@@ -44951,7 +44951,7 @@
         <v>1.55</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT219" t="n">
         <v>1.53</v>
@@ -47187,7 +47187,7 @@
         <v>2.07</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU230" t="n">
         <v>2.02</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT236" t="n">
         <v>0.87</v>
@@ -49014,7 +49014,7 @@
         <v>1.33</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU239" t="n">
         <v>1.42</v>
@@ -51856,7 +51856,7 @@
         <v>1.27</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU253" t="n">
         <v>1.24</v>
@@ -52056,7 +52056,7 @@
         <v>1.64</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT254" t="n">
         <v>1.67</v>
@@ -55713,7 +55713,7 @@
         <v>2.67</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU272" t="n">
         <v>2.13</v>
@@ -57740,7 +57740,7 @@
         <v>0.46</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT282" t="n">
         <v>0.4</v>
@@ -58352,7 +58352,7 @@
         <v>1.44</v>
       </c>
       <c r="AT285" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU285" t="n">
         <v>1.63</v>
@@ -60582,7 +60582,7 @@
         <v>0.71</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT296" t="n">
         <v>1</v>
@@ -62667,6 +62667,209 @@
       </c>
       <c r="BK306" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2782342</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>England Premier League</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45033.66666666666</v>
+      </c>
+      <c r="F307" t="n">
+        <v>31</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>2</v>
+      </c>
+      <c r="K307" t="n">
+        <v>2</v>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="n">
+        <v>6</v>
+      </c>
+      <c r="N307" t="n">
+        <v>7</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['35', '39', '52', '64', '73', '90']</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>4</v>
+      </c>
+      <c r="R307" t="n">
+        <v>2</v>
+      </c>
+      <c r="S307" t="n">
+        <v>6</v>
+      </c>
+      <c r="T307" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V307" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X307" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
